--- a/QuantLibXL/Data2/XLS/AUD_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_MxContributor.xlsx
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="105">
   <si>
     <t>BID</t>
   </si>
@@ -417,9 +417,6 @@
   </si>
   <si>
     <t>AONIA</t>
-  </si>
-  <si>
-    <t>1Y6M</t>
   </si>
   <si>
     <t>Contribution</t>
@@ -1418,285 +1415,305 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.4996383720000002</v>
+        <v>2.499690583</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K7" s="7"/>
       </tp>
       <tp>
-        <v>2.4999999970000002</v>
+        <v>2.4999999989999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K9" s="7"/>
       </tp>
       <tp>
-        <v>2.4996383720000002</v>
+        <v>2.499690583</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K8" s="7"/>
       </tp>
       <tp>
-        <v>2.4996521829999998</v>
+        <v>2.4997091400000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K6" s="7"/>
       </tp>
       <tp>
-        <v>3.0379999999999998</v>
+        <v>3.0630000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K34" s="7"/>
       </tp>
       <tp>
-        <v>2.4725000000000001</v>
+        <v>2.4750000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K17" s="7"/>
       </tp>
       <tp>
-        <v>3.153</v>
+        <v>3.1779999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K35" s="7"/>
       </tp>
       <tp>
-        <v>2.798</v>
+        <v>2.823</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K32" s="7"/>
       </tp>
       <tp>
-        <v>2.4775</v>
+        <v>2.4824999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K15" s="7"/>
       </tp>
       <tp>
-        <v>2.923</v>
+        <v>2.9449999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K33" s="7"/>
       </tp>
       <tp>
-        <v>2.4750000000000001</v>
+        <v>2.4775</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K16" s="7"/>
       </tp>
       <tp>
-        <v>2.54</v>
+        <v>2.5550000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K30" s="7"/>
       </tp>
       <tp>
-        <v>2.496</v>
+        <v>2.5</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K13" s="7"/>
       </tp>
       <tp>
-        <v>2.6749999999999998</v>
+        <v>2.6949999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K31" s="7"/>
       </tp>
       <tp>
-        <v>2.4874999999999998</v>
+        <v>2.4910000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K14" s="7"/>
       </tp>
       <tp>
-        <v>2.4630000000000001</v>
+        <v>2.4750000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K28" s="7"/>
       </tp>
       <tp>
-        <v>2.4999999989999999</v>
+        <v>2.5009999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K12" s="7"/>
       </tp>
       <tp>
-        <v>3.2330000000000001</v>
+        <v>3.258</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K36" s="7"/>
       </tp>
       <tp>
-        <v>3.31</v>
+        <v>3.335</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K37" s="7"/>
       </tp>
       <tp>
-        <v>2.4660000000000002</v>
+        <v>2.4725000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K18" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON18MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="J29" s="7"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON18MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="K29" s="7"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.9329999999999998</v>
+        <v>3.968</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J43" s="7"/>
       </tp>
       <tp>
-        <v>3.8330000000000002</v>
+        <v>3.87</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J41" s="7"/>
       </tp>
       <tp>
-        <v>3.895</v>
+        <v>3.9329999999999998</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J42" s="7"/>
       </tp>
       <tp>
-        <v>3.39</v>
+        <v>3.415</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J38" s="7"/>
       </tp>
       <tp>
-        <v>3.5230000000000001</v>
+        <v>3.55</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J39" s="7"/>
       </tp>
       <tp>
-        <v>3.67</v>
+        <v>3.7</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J40" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.4996383720000002</v>
+        <v>2.499690583</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J7" s="7"/>
       </tp>
       <tp>
-        <v>2.4999999970000002</v>
+        <v>2.4999999989999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J9" s="7"/>
       </tp>
       <tp>
-        <v>2.4996383720000002</v>
+        <v>2.499690583</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J8" s="7"/>
       </tp>
       <tp>
-        <v>2.4996521829999998</v>
+        <v>2.4997091400000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J6" s="7"/>
       </tp>
       <tp>
-        <v>3.0379999999999998</v>
+        <v>3.0630000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J34" s="7"/>
       </tp>
       <tp>
-        <v>2.4725000000000001</v>
+        <v>2.4750000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J17" s="7"/>
       </tp>
       <tp>
-        <v>3.153</v>
+        <v>3.1779999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J35" s="7"/>
       </tp>
       <tp>
-        <v>2.798</v>
+        <v>2.823</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J32" s="7"/>
       </tp>
       <tp>
-        <v>2.4775</v>
+        <v>2.4824999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J15" s="7"/>
       </tp>
       <tp>
-        <v>2.923</v>
+        <v>2.9449999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J33" s="7"/>
       </tp>
       <tp>
-        <v>2.4750000000000001</v>
+        <v>2.4775</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J16" s="7"/>
       </tp>
       <tp>
-        <v>2.54</v>
+        <v>2.5550000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J30" s="7"/>
       </tp>
       <tp>
-        <v>2.496</v>
+        <v>2.5</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J13" s="7"/>
       </tp>
       <tp>
-        <v>2.6749999999999998</v>
+        <v>2.6949999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J31" s="7"/>
       </tp>
       <tp>
-        <v>2.4874999999999998</v>
+        <v>2.4910000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J14" s="7"/>
       </tp>
       <tp>
-        <v>2.4630000000000001</v>
+        <v>2.4750000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J28" s="7"/>
       </tp>
       <tp>
-        <v>2.4999999989999999</v>
+        <v>2.5009999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J12" s="7"/>
       </tp>
       <tp>
-        <v>3.2330000000000001</v>
+        <v>3.258</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J36" s="7"/>
       </tp>
       <tp>
-        <v>3.31</v>
+        <v>3.335</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J37" s="7"/>
       </tp>
       <tp>
-        <v>2.4660000000000002</v>
+        <v>2.4725000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J18" s="7"/>
@@ -1704,42 +1721,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.39</v>
+        <v>3.415</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K38" s="7"/>
       </tp>
       <tp>
-        <v>3.5230000000000001</v>
+        <v>3.55</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K39" s="7"/>
       </tp>
       <tp>
-        <v>3.67</v>
+        <v>3.7</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K40" s="7"/>
       </tp>
       <tp>
-        <v>3.8330000000000002</v>
+        <v>3.87</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K41" s="7"/>
       </tp>
       <tp>
-        <v>3.895</v>
+        <v>3.9329999999999998</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K42" s="7"/>
       </tp>
       <tp>
-        <v>3.9329999999999998</v>
+        <v>3.968</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1748,73 +1765,73 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.753386543</v>
+        <v>2.7526302029999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P7" s="7"/>
       </tp>
       <tp>
-        <v>2.7539786949999998</v>
+        <v>2.7532273030000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P9" s="7"/>
       </tp>
       <tp>
-        <v>2.7534740719999999</v>
+        <v>2.7527183220000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P8" s="7"/>
       </tp>
       <tp>
-        <v>2.7532996010000002</v>
+        <v>2.7525426469999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P6" s="7"/>
       </tp>
       <tp>
-        <v>2.7238475260000001</v>
+        <v>2.7250000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P17" s="7"/>
       </tp>
       <tp>
-        <v>2.7433365680000001</v>
+        <v>2.743726771</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P15" s="7"/>
       </tp>
       <tp>
-        <v>2.7346045490000002</v>
+        <v>2.7352161179999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P16" s="7"/>
       </tp>
       <tp>
-        <v>2.7544389699999998</v>
+        <v>2.753697764</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P10" s="7"/>
       </tp>
       <tp>
-        <v>2.753930617</v>
+        <v>2.7534007100000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P13" s="7"/>
       </tp>
       <tp>
-        <v>2.7547607030000001</v>
+        <v>2.7540351850000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P11" s="7"/>
       </tp>
       <tp>
-        <v>2.7503100009999999</v>
+        <v>2.750045852</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P14" s="7"/>
       </tp>
       <tp>
-        <v>2.7549704350000002</v>
+        <v>2.7543034909999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P12" s="7"/>
@@ -1856,55 +1873,55 @@
         <tr r="M40" s="7"/>
       </tp>
       <tp>
-        <v>2.9780756460000002</v>
+        <v>3.0029021990000002</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O32" s="7"/>
       </tp>
       <tp>
-        <v>3.109626225</v>
+        <v>3.1319575089999998</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O33" s="7"/>
       </tp>
       <tp>
-        <v>3.3490334910000001</v>
+        <v>3.3713399979999998</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O35" s="7"/>
       </tp>
       <tp>
-        <v>2.6028093939999999</v>
+        <v>2.607440993</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O28" s="7"/>
       </tp>
       <tp>
-        <v>2.6974999999999998</v>
+        <v>2.7124999999999999</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O30" s="7"/>
       </tp>
       <tp>
-        <v>2.8424999999999998</v>
+        <v>2.8650000000000002</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O31" s="7"/>
       </tp>
       <tp>
-        <v>97.394999999999996</v>
+        <v>97.385000000000005</v>
         <stp/>
         <stp>_x0008_AUD3MM5=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O22" s="7"/>
       </tp>
       <tp>
-        <v>97.415000000000006</v>
+        <v>97.405000000000001</v>
         <stp/>
         <stp>_x0008_AUD3MH5=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O21" s="7"/>
       </tp>
       <tp>
-        <v>97.238328706000004</v>
+        <v>97.224999999999994</v>
         <stp/>
         <stp>_x0008_AUD3MZ5=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O24" s="7"/>
@@ -1916,7 +1933,7 @@
         <tr r="O20" s="7"/>
       </tp>
       <tp>
-        <v>97.324274122000006</v>
+        <v>97.314999999999998</v>
         <stp/>
         <stp>_x0008_AUD3MU5=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O23" s="7"/>
@@ -1930,37 +1947,37 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>4.0641890949999997</v>
+        <v>4.0988382550000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O41" s="7"/>
       </tp>
       <tp>
-        <v>4.1273942650000004</v>
+        <v>4.1620296799999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O42" s="7"/>
       </tp>
       <tp>
-        <v>4.1571095270000002</v>
+        <v>4.1917587369999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O43" s="7"/>
       </tp>
       <tp>
-        <v>3.7408031080000002</v>
+        <v>3.7680560270000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O39" s="7"/>
       </tp>
       <tp>
-        <v>3.6019832900000002</v>
+        <v>3.6267651230000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O38" s="7"/>
       </tp>
       <tp>
-        <v>3.898188126</v>
+        <v>3.9279083369999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O40" s="7"/>
@@ -2022,91 +2039,91 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.6259329</v>
+        <v>2.6266893690000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N7" s="7"/>
       </tp>
       <tp>
-        <v>2.6265266</v>
+        <v>2.6272760069999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N9" s="7"/>
       </tp>
       <tp>
-        <v>2.6260191869999998</v>
+        <v>2.6267748100000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N8" s="7"/>
       </tp>
       <tp>
-        <v>2.6258469080000002</v>
+        <v>2.6266042559999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N6" s="7"/>
       </tp>
       <tp>
-        <v>2.6270542890000002</v>
+        <v>2.6277893460000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N10" s="7"/>
       </tp>
       <tp>
-        <v>2.6287964549999998</v>
+        <v>2.6292363449999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N13" s="7"/>
       </tp>
       <tp>
-        <v>2.62751264</v>
+        <v>2.6282256930000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N11" s="7"/>
       </tp>
       <tp>
-        <v>2.628259468</v>
+        <v>2.6283289070000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N14" s="7"/>
       </tp>
       <tp>
-        <v>2.6279998959999999</v>
+        <v>2.6287942530000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N12" s="7"/>
       </tp>
       <tp>
-        <v>3.0649999999999999</v>
+        <v>3.09</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q32" s="7"/>
       </tp>
       <tp>
-        <v>3.2</v>
+        <v>3.2225000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q33" s="7"/>
       </tp>
       <tp>
-        <v>3.4424999999999999</v>
+        <v>3.4649999999999999</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q35" s="7"/>
       </tp>
       <tp>
-        <v>2.654024385</v>
+        <v>2.658681568</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q28" s="7"/>
       </tp>
       <tp>
-        <v>2.7637369490000001</v>
+        <v>2.777593489</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q30" s="7"/>
       </tp>
       <tp>
-        <v>2.9139370169999999</v>
+        <v>2.936454774</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q31" s="7"/>
@@ -2156,37 +2173,37 @@
         <tr r="L12" s="7"/>
       </tp>
       <tp>
-        <v>4.1425000000000001</v>
+        <v>4.1775000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q41" s="7"/>
       </tp>
       <tp>
-        <v>4.1950000000000003</v>
+        <v>4.2300000000000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q42" s="7"/>
       </tp>
       <tp>
-        <v>4.2149999999999999</v>
+        <v>4.25</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q43" s="7"/>
       </tp>
       <tp>
-        <v>3.835</v>
+        <v>3.8624999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q39" s="7"/>
       </tp>
       <tp>
-        <v>3.6974999999999998</v>
+        <v>3.7225000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q38" s="7"/>
       </tp>
       <tp>
-        <v>3.9874999999999998</v>
+        <v>4.0175000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q40" s="7"/>
@@ -2194,37 +2211,37 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.4424999999999999</v>
+        <v>3.4649999999999999</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P35" s="7"/>
       </tp>
       <tp>
-        <v>3.2</v>
+        <v>3.2225000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P33" s="7"/>
       </tp>
       <tp>
-        <v>3.0649999999999999</v>
+        <v>3.09</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P32" s="7"/>
       </tp>
       <tp>
-        <v>2.9139370169999999</v>
+        <v>2.936454774</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P31" s="7"/>
       </tp>
       <tp>
-        <v>2.7637369490000001</v>
+        <v>2.777593489</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P30" s="7"/>
       </tp>
       <tp>
-        <v>2.654024385</v>
+        <v>2.658681568</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P28" s="7"/>
@@ -2288,55 +2305,55 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.3490334910000001</v>
+        <v>3.3713399979999998</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N35" s="7"/>
       </tp>
       <tp>
-        <v>3.109626225</v>
+        <v>3.1319575089999998</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N33" s="7"/>
       </tp>
       <tp>
-        <v>2.9780756460000002</v>
+        <v>3.0029021990000002</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N32" s="7"/>
       </tp>
       <tp>
-        <v>2.8424999999999998</v>
+        <v>2.8650000000000002</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N31" s="7"/>
       </tp>
       <tp>
-        <v>2.6974999999999998</v>
+        <v>2.7124999999999999</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N30" s="7"/>
       </tp>
       <tp>
-        <v>2.6028093939999999</v>
+        <v>2.607440993</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N28" s="7"/>
       </tp>
       <tp>
-        <v>97.394999999999996</v>
+        <v>97.385000000000005</v>
         <stp/>
         <stp>_x0008_AUD3MM5=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N22" s="7"/>
       </tp>
       <tp>
-        <v>97.415000000000006</v>
+        <v>97.405000000000001</v>
         <stp/>
         <stp>_x0008_AUD3MH5=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N21" s="7"/>
       </tp>
       <tp>
-        <v>97.238328706000004</v>
+        <v>97.224999999999994</v>
         <stp/>
         <stp>_x0008_AUD3MZ5=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N24" s="7"/>
@@ -2348,7 +2365,7 @@
         <tr r="N20" s="7"/>
       </tp>
       <tp>
-        <v>97.324274122000006</v>
+        <v>97.314999999999998</v>
         <stp/>
         <stp>_x0008_AUD3MU5=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N23" s="7"/>
@@ -2359,54 +2376,40 @@
         <stp>_x0008_AUD3MU4=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N19" s="7"/>
       </tp>
-      <tp>
-        <v>2.4803039770000002</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDON1Y6M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="K29" s="7"/>
-      </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.4803039770000002</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDON1Y6M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="J29" s="7"/>
-      </tp>
-      <tp>
-        <v>4.0641890949999997</v>
+        <v>4.0988382550000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N41" s="7"/>
       </tp>
       <tp>
-        <v>4.1273942650000004</v>
+        <v>4.1620296799999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N42" s="7"/>
       </tp>
       <tp>
-        <v>4.1571095270000002</v>
+        <v>4.1917587369999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N43" s="7"/>
       </tp>
       <tp>
-        <v>3.6019832900000002</v>
+        <v>3.6267651230000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N38" s="7"/>
       </tp>
       <tp>
-        <v>3.7408031080000002</v>
+        <v>3.7680560270000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N39" s="7"/>
       </tp>
       <tp>
-        <v>3.898188126</v>
+        <v>3.9279083369999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N40" s="7"/>
@@ -2448,109 +2451,109 @@
         <tr r="L40" s="7"/>
       </tp>
       <tp>
-        <v>2.753386543</v>
+        <v>2.7526302029999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q7" s="7"/>
       </tp>
       <tp>
-        <v>2.7539786949999998</v>
+        <v>2.7532273030000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q9" s="7"/>
       </tp>
       <tp>
-        <v>2.7534740719999999</v>
+        <v>2.7527183220000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q8" s="7"/>
       </tp>
       <tp>
-        <v>2.7532996010000002</v>
+        <v>2.7525426469999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q6" s="7"/>
       </tp>
       <tp>
-        <v>2.7238475260000001</v>
+        <v>2.7250000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q17" s="7"/>
       </tp>
       <tp>
-        <v>2.7433365680000001</v>
+        <v>2.743726771</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q15" s="7"/>
       </tp>
       <tp>
-        <v>2.7346045490000002</v>
+        <v>2.7352161179999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q16" s="7"/>
       </tp>
       <tp>
-        <v>2.7544389699999998</v>
+        <v>2.753697764</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q10" s="7"/>
       </tp>
       <tp>
-        <v>2.753930617</v>
+        <v>2.7534007100000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q13" s="7"/>
       </tp>
       <tp>
-        <v>2.7547607030000001</v>
+        <v>2.7540351850000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q11" s="7"/>
       </tp>
       <tp>
-        <v>2.7503100009999999</v>
+        <v>2.750045852</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q14" s="7"/>
       </tp>
       <tp>
-        <v>2.7549704350000002</v>
+        <v>2.7543034909999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q12" s="7"/>
       </tp>
       <tp>
-        <v>4.1425000000000001</v>
+        <v>4.1775000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P41" s="7"/>
       </tp>
       <tp>
-        <v>4.1950000000000003</v>
+        <v>4.2300000000000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P42" s="7"/>
       </tp>
       <tp>
-        <v>4.2149999999999999</v>
+        <v>4.25</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P43" s="7"/>
       </tp>
       <tp>
-        <v>3.6974999999999998</v>
+        <v>3.7225000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P38" s="7"/>
       </tp>
       <tp>
-        <v>3.835</v>
+        <v>3.8624999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P39" s="7"/>
       </tp>
       <tp>
-        <v>3.9874999999999998</v>
+        <v>4.0175000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P40" s="7"/>
@@ -2598,55 +2601,55 @@
         <tr r="M12" s="7"/>
       </tp>
       <tp>
-        <v>2.6259329</v>
+        <v>2.6266893690000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O7" s="7"/>
       </tp>
       <tp>
-        <v>2.6265266</v>
+        <v>2.6272760069999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O9" s="7"/>
       </tp>
       <tp>
-        <v>2.6260191869999998</v>
+        <v>2.6267748100000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O8" s="7"/>
       </tp>
       <tp>
-        <v>2.6258469080000002</v>
+        <v>2.6266042559999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O6" s="7"/>
       </tp>
       <tp>
-        <v>2.6270542890000002</v>
+        <v>2.6277893460000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O10" s="7"/>
       </tp>
       <tp>
-        <v>2.6287964549999998</v>
+        <v>2.6292363449999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O13" s="7"/>
       </tp>
       <tp>
-        <v>2.62751264</v>
+        <v>2.6282256930000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O11" s="7"/>
       </tp>
       <tp>
-        <v>2.628259468</v>
+        <v>2.6283289070000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O14" s="7"/>
       </tp>
       <tp>
-        <v>2.6279998959999999</v>
+        <v>2.6287942530000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O12" s="7"/>
@@ -2682,7 +2685,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -3174,7 +3177,9 @@
       <c r="C4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="68">
+        <v>41884.358506944445</v>
+      </c>
       <c r="E4" s="67"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3206,7 +3211,7 @@
       </c>
       <c r="D5" s="68">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="2"/>
@@ -3239,7 +3244,7 @@
       </c>
       <c r="D6" s="69">
         <f>[1]!TriggerCounter</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="2"/>
@@ -3678,7 +3683,7 @@
       </c>
       <c r="D20" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="E20" s="67"/>
       <c r="F20" s="2"/>
@@ -6237,7 +6242,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="113"/>
       <c r="F4" s="33"/>
@@ -6444,7 +6449,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="166" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>48</v>
@@ -6470,11 +6475,11 @@
       </c>
       <c r="J6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,BID)-T6)</f>
-        <v>2.0631185648767314E-10</v>
+        <v>3.9354652869860729E-10</v>
       </c>
       <c r="K6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,ASK)-U6)</f>
-        <v>2.0631185648767314E-10</v>
+        <v>3.9354652869860729E-10</v>
       </c>
       <c r="L6" s="124" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W6,BID)-X6)</f>
@@ -6486,19 +6491,19 @@
       </c>
       <c r="N6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AA6,BID)-AB6)</f>
-        <v>2.0537749279014861E-10</v>
+        <v>1.3999912340523224E-10</v>
       </c>
       <c r="O6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AA6,ASK)-AC6)</f>
-        <v>2.0537749279014861E-10</v>
+        <v>1.3999912340523224E-10</v>
       </c>
       <c r="P6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AE6,BID)-AF6)</f>
-        <v>2.1046586695661063E-10</v>
+        <v>2.1840973474240855E-10</v>
       </c>
       <c r="Q6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AE6,ASK)-AG6)</f>
-        <v>2.1046586695661063E-10</v>
+        <v>2.1840973474240855E-10</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="13" t="str">
@@ -6507,11 +6512,11 @@
       </c>
       <c r="T6" s="14">
         <f>'ON Pricing'!H6*100</f>
-        <v>2.4996521827936879</v>
+        <v>2.4997091403935467</v>
       </c>
       <c r="U6" s="14">
         <f>T6</f>
-        <v>2.4996521827936879</v>
+        <v>2.4997091403935467</v>
       </c>
       <c r="V6" s="165"/>
       <c r="W6" s="122" t="str">
@@ -6520,11 +6525,11 @@
       </c>
       <c r="X6" s="123">
         <f>'1M Pricing'!H6*100</f>
-        <v>2.6354636166824328</v>
+        <v>2.6370283722131309</v>
       </c>
       <c r="Y6" s="123">
         <f>X6</f>
-        <v>2.6354636166824328</v>
+        <v>2.6370283722131309</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>70</v>
@@ -6535,11 +6540,11 @@
       </c>
       <c r="AB6" s="14">
         <f>'3M Pricing'!H6*100</f>
-        <v>2.6258469082053777</v>
+        <v>2.6266042558600007</v>
       </c>
       <c r="AC6" s="14">
         <f>AB6</f>
-        <v>2.6258469082053777</v>
+        <v>2.6266042558600007</v>
       </c>
       <c r="AD6" s="41" t="s">
         <v>70</v>
@@ -6550,11 +6555,11 @@
       </c>
       <c r="AF6" s="14">
         <f>'6M Pricing'!H6*100</f>
-        <v>2.753299601210466</v>
+        <v>2.7525426472184096</v>
       </c>
       <c r="AG6" s="14">
         <f>AF6</f>
-        <v>2.753299601210466</v>
+        <v>2.7525426472184096</v>
       </c>
       <c r="AH6" s="41" t="s">
         <v>70</v>
@@ -6591,7 +6596,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="167"/>
       <c r="D7" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="21" t="str">
         <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,S7,Fields,T7:U7,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,T7:U7,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6614,11 +6619,11 @@
       </c>
       <c r="J7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,BID)-T7)</f>
-        <v>1.9766277503663332E-10</v>
+        <v>8.8853813196010378E-11</v>
       </c>
       <c r="K7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,ASK)-U7)</f>
-        <v>1.9766277503663332E-10</v>
+        <v>8.8853813196010378E-11</v>
       </c>
       <c r="L7" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W7,BID)-X7)</f>
@@ -6630,19 +6635,19 @@
       </c>
       <c r="N7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA7,BID)-AB7)</f>
-        <v>4.4260284326469446E-10</v>
+        <v>2.3471580234968314E-10</v>
       </c>
       <c r="O7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA7,ASK)-AC7)</f>
-        <v>4.4260284326469446E-10</v>
+        <v>2.3471580234968314E-10</v>
       </c>
       <c r="P7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE7,BID)-AF7)</f>
-        <v>2.1601698207973641E-10</v>
+        <v>3.5306113588262633E-10</v>
       </c>
       <c r="Q7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE7,ASK)-AG7)</f>
-        <v>2.1601698207973641E-10</v>
+        <v>3.5306113588262633E-10</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="15" t="str">
@@ -6651,11 +6656,11 @@
       </c>
       <c r="T7" s="16">
         <f>'ON Pricing'!H7*100</f>
-        <v>2.4996383718023374</v>
+        <v>2.4996905830888538</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" ref="U7:U8" si="3">T7</f>
-        <v>2.4996383718023374</v>
+        <v>2.4996905830888538</v>
       </c>
       <c r="V7" s="165"/>
       <c r="W7" s="125" t="str">
@@ -6664,11 +6669,11 @@
       </c>
       <c r="X7" s="126">
         <f>'1M Pricing'!H7*100</f>
-        <v>2.6354127824028772</v>
+        <v>2.636983931212129</v>
       </c>
       <c r="Y7" s="126">
         <f t="shared" ref="Y7:Y8" si="4">X7</f>
-        <v>2.6354127824028772</v>
+        <v>2.636983931212129</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="15" t="str">
@@ -6677,11 +6682,11 @@
       </c>
       <c r="AB7" s="16">
         <f>'3M Pricing'!H7*100</f>
-        <v>2.6259329004426029</v>
+        <v>2.626689369234716</v>
       </c>
       <c r="AC7" s="16">
         <f t="shared" ref="AC7:AC8" si="5">AB7</f>
-        <v>2.6259329004426029</v>
+        <v>2.626689369234716</v>
       </c>
       <c r="AD7" s="41"/>
       <c r="AE7" s="15" t="str">
@@ -6690,11 +6695,11 @@
       </c>
       <c r="AF7" s="16">
         <f>'6M Pricing'!H7*100</f>
-        <v>2.7533865432160169</v>
+        <v>2.7526302026469387</v>
       </c>
       <c r="AG7" s="16">
         <f t="shared" ref="AG7:AG8" si="6">AF7</f>
-        <v>2.7533865432160169</v>
+        <v>2.7526302026469387</v>
       </c>
       <c r="AH7" s="41"/>
       <c r="AI7" s="2"/>
@@ -6729,7 +6734,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="167"/>
       <c r="D8" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="21" t="str">
         <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,S8,Fields,T8:U8,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,T8:U8,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6752,11 +6757,11 @@
       </c>
       <c r="J8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>1.9766277503663332E-10</v>
+        <v>8.8853813196010378E-11</v>
       </c>
       <c r="K8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>1.9766277503663332E-10</v>
+        <v>8.8853813196010378E-11</v>
       </c>
       <c r="L8" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W8,BID)-X8)</f>
@@ -6768,19 +6773,19 @@
       </c>
       <c r="N8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA8,BID)-AB8)</f>
-        <v>1.773088342815754E-10</v>
+        <v>3.8584824224585645E-10</v>
       </c>
       <c r="O8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA8,ASK)-AC8)</f>
-        <v>1.773088342815754E-10</v>
+        <v>3.8584824224585645E-10</v>
       </c>
       <c r="P8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE8,BID)-AF8)</f>
-        <v>4.4086467809734131E-10</v>
+        <v>9.773026832249343E-11</v>
       </c>
       <c r="Q8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE8,ASK)-AG8)</f>
-        <v>4.4086467809734131E-10</v>
+        <v>9.773026832249343E-11</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="15" t="str">
@@ -6789,11 +6794,11 @@
       </c>
       <c r="T8" s="16">
         <f>'ON Pricing'!H8*100</f>
-        <v>2.4996383718023374</v>
+        <v>2.4996905830888538</v>
       </c>
       <c r="U8" s="16">
         <f t="shared" si="3"/>
-        <v>2.4996383718023374</v>
+        <v>2.4996905830888538</v>
       </c>
       <c r="V8" s="165"/>
       <c r="W8" s="125" t="str">
@@ -6802,11 +6807,11 @@
       </c>
       <c r="X8" s="126">
         <f>'1M Pricing'!H8*100</f>
-        <v>2.6353671246843735</v>
+        <v>2.6369444544279697</v>
       </c>
       <c r="Y8" s="126">
         <f t="shared" si="4"/>
-        <v>2.6353671246843735</v>
+        <v>2.6369444544279697</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="15" t="str">
@@ -6815,11 +6820,11 @@
       </c>
       <c r="AB8" s="16">
         <f>'3M Pricing'!H8*100</f>
-        <v>2.6260191871773086</v>
+        <v>2.6267748096141519</v>
       </c>
       <c r="AC8" s="16">
         <f t="shared" si="5"/>
-        <v>2.6260191871773086</v>
+        <v>2.6267748096141519</v>
       </c>
       <c r="AD8" s="41"/>
       <c r="AE8" s="15" t="str">
@@ -6828,11 +6833,11 @@
       </c>
       <c r="AF8" s="16">
         <f>'6M Pricing'!H8*100</f>
-        <v>2.7534740724408646</v>
+        <v>2.7527183219022699</v>
       </c>
       <c r="AG8" s="16">
         <f t="shared" si="6"/>
-        <v>2.7534740724408646</v>
+        <v>2.7527183219022699</v>
       </c>
       <c r="AH8" s="41"/>
       <c r="AI8" s="2"/>
@@ -6890,11 +6895,11 @@
       </c>
       <c r="J9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>1.1854162096369691E-10</v>
+        <v>7.1328720707697357E-11</v>
       </c>
       <c r="K9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>1.1854162096369691E-10</v>
+        <v>7.1328720707697357E-11</v>
       </c>
       <c r="L9" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W9,BID)-X9)</f>
@@ -6906,19 +6911,19 @@
       </c>
       <c r="N9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA9,BID)-AB9)</f>
-        <v>1.7372192573361644E-10</v>
+        <v>2.7446356298810315E-10</v>
       </c>
       <c r="O9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA9,ASK)-AC9)</f>
-        <v>1.7372192573361644E-10</v>
+        <v>2.7446356298810315E-10</v>
       </c>
       <c r="P9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE9,BID)-AF9)</f>
-        <v>1.145594730189714E-10</v>
+        <v>4.9618931186046211E-10</v>
       </c>
       <c r="Q9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE9,ASK)-AG9)</f>
-        <v>1.145594730189714E-10</v>
+        <v>4.9618931186046211E-10</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="15" t="str">
@@ -6927,11 +6932,11 @@
       </c>
       <c r="T9" s="16">
         <f>'ON Pricing'!H9*100</f>
-        <v>2.4999999971185418</v>
+        <v>2.4999999989286712</v>
       </c>
       <c r="U9" s="16">
         <f t="shared" ref="U9:U17" si="7">T9</f>
-        <v>2.4999999971185418</v>
+        <v>2.4999999989286712</v>
       </c>
       <c r="V9" s="165"/>
       <c r="W9" s="125" t="str">
@@ -6940,11 +6945,11 @@
       </c>
       <c r="X9" s="126">
         <f>'1M Pricing'!H9*100</f>
-        <v>2.6349119987365395</v>
+        <v>2.6365338461335246</v>
       </c>
       <c r="Y9" s="126">
         <f t="shared" ref="Y9:Y12" si="8">X9</f>
-        <v>2.6349119987365395</v>
+        <v>2.6365338461335246</v>
       </c>
       <c r="Z9" s="41" t="s">
         <v>70</v>
@@ -6955,11 +6960,11 @@
       </c>
       <c r="AB9" s="16">
         <f>'3M Pricing'!H9*100</f>
-        <v>2.626526600173722</v>
+        <v>2.6272760067255363</v>
       </c>
       <c r="AC9" s="16">
         <f t="shared" ref="AC9:AC14" si="9">AB9</f>
-        <v>2.626526600173722</v>
+        <v>2.6272760067255363</v>
       </c>
       <c r="AD9" s="41" t="s">
         <v>70</v>
@@ -6970,11 +6975,11 @@
       </c>
       <c r="AF9" s="16">
         <f>'6M Pricing'!H9*100</f>
-        <v>2.7539786951145593</v>
+        <v>2.7532273034961894</v>
       </c>
       <c r="AG9" s="16">
         <f t="shared" ref="AG9:AG17" si="10">AF9</f>
-        <v>2.7539786951145593</v>
+        <v>2.7532273034961894</v>
       </c>
       <c r="AH9" s="41" t="s">
         <v>70</v>
@@ -7043,19 +7048,19 @@
       </c>
       <c r="N10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA10,BID)-AB10)</f>
-        <v>3.5413716403809303E-10</v>
+        <v>1.1950529454907155E-10</v>
       </c>
       <c r="O10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA10,ASK)-AC10)</f>
-        <v>3.5413716403809303E-10</v>
+        <v>1.1950529454907155E-10</v>
       </c>
       <c r="P10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE10,BID)-AF10)</f>
-        <v>2.9836977333275172E-10</v>
+        <v>1.7144774488997427E-10</v>
       </c>
       <c r="Q10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE10,ASK)-AG10)</f>
-        <v>2.9836977333275172E-10</v>
+        <v>1.7144774488997427E-10</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="15"/>
@@ -7068,11 +7073,11 @@
       </c>
       <c r="X10" s="126">
         <f>'1M Pricing'!H10*100</f>
-        <v>2.6332680108010642</v>
+        <v>2.6349893535757563</v>
       </c>
       <c r="Y10" s="126">
         <f t="shared" si="8"/>
-        <v>2.6332680108010642</v>
+        <v>2.6349893535757563</v>
       </c>
       <c r="Z10" s="2" t="s">
         <v>70</v>
@@ -7083,11 +7088,11 @@
       </c>
       <c r="AB10" s="16">
         <f>'3M Pricing'!H10*100</f>
-        <v>2.6270542893541373</v>
+        <v>2.6277893461195054</v>
       </c>
       <c r="AC10" s="16">
         <f t="shared" si="9"/>
-        <v>2.6270542893541373</v>
+        <v>2.6277893461195054</v>
       </c>
       <c r="AD10" s="41" t="s">
         <v>70</v>
@@ -7098,11 +7103,11 @@
       </c>
       <c r="AF10" s="16">
         <f>'6M Pricing'!H10*100</f>
-        <v>2.75443896970163</v>
+        <v>2.7536977641714477</v>
       </c>
       <c r="AG10" s="16">
         <f t="shared" si="10"/>
-        <v>2.75443896970163</v>
+        <v>2.7536977641714477</v>
       </c>
       <c r="AH10" s="41" t="s">
         <v>70</v>
@@ -7171,19 +7176,19 @@
       </c>
       <c r="N11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA11,BID)-AB11)</f>
-        <v>4.8198334212656846E-10</v>
+        <v>4.7223736032719899E-10</v>
       </c>
       <c r="O11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA11,ASK)-AC11)</f>
-        <v>4.8198334212656846E-10</v>
+        <v>4.7223736032719899E-10</v>
       </c>
       <c r="P11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE11,BID)-AF11)</f>
-        <v>3.3132652177414457E-10</v>
+        <v>3.9577807697810385E-10</v>
       </c>
       <c r="Q11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE11,ASK)-AG11)</f>
-        <v>3.3132652177414457E-10</v>
+        <v>3.9577807697810385E-10</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="15"/>
@@ -7196,11 +7201,11 @@
       </c>
       <c r="X11" s="126">
         <f>'1M Pricing'!H11*100</f>
-        <v>2.6304236758664219</v>
+        <v>2.6322958027918002</v>
       </c>
       <c r="Y11" s="126">
         <f t="shared" si="8"/>
-        <v>2.6304236758664219</v>
+        <v>2.6322958027918002</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>70</v>
@@ -7211,11 +7216,11 @@
       </c>
       <c r="AB11" s="16">
         <f>'3M Pricing'!H11*100</f>
-        <v>2.6275126404819833</v>
+        <v>2.6282256925277627</v>
       </c>
       <c r="AC11" s="16">
         <f t="shared" si="9"/>
-        <v>2.6275126404819833</v>
+        <v>2.6282256925277627</v>
       </c>
       <c r="AD11" s="41" t="s">
         <v>70</v>
@@ -7226,11 +7231,11 @@
       </c>
       <c r="AF11" s="16">
         <f>'6M Pricing'!H11*100</f>
-        <v>2.7547607026686736</v>
+        <v>2.7540351846042221</v>
       </c>
       <c r="AG11" s="16">
         <f t="shared" si="10"/>
-        <v>2.7547607026686736</v>
+        <v>2.7540351846042221</v>
       </c>
       <c r="AH11" s="41" t="s">
         <v>70</v>
@@ -7290,11 +7295,11 @@
       </c>
       <c r="J12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>3.9657521710978472E-10</v>
+        <v>2.6591617796611899E-11</v>
       </c>
       <c r="K12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>3.9657521710978472E-10</v>
+        <v>2.6591617796611899E-11</v>
       </c>
       <c r="L12" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W12,BID)-X12)</f>
@@ -7306,19 +7311,19 @@
       </c>
       <c r="N12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA12,BID)-AB12)</f>
-        <v>1.9587309552093757E-10</v>
+        <v>6.6910033069689234E-11</v>
       </c>
       <c r="O12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA12,ASK)-AC12)</f>
-        <v>1.9587309552093757E-10</v>
+        <v>6.6910033069689234E-11</v>
       </c>
       <c r="P12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE12,BID)-AF12)</f>
-        <v>7.8104189782379763E-11</v>
+        <v>3.0661162497835903E-10</v>
       </c>
       <c r="Q12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE12,ASK)-AG12)</f>
-        <v>7.8104189782379763E-11</v>
+        <v>3.0661162497835903E-10</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="15" t="str">
@@ -7327,11 +7332,11 @@
       </c>
       <c r="T12" s="16">
         <f>'ON Pricing'!H12*100</f>
-        <v>2.4999999993965751</v>
+        <v>2.5010000000265915</v>
       </c>
       <c r="U12" s="16">
         <f t="shared" si="7"/>
-        <v>2.4999999993965751</v>
+        <v>2.5010000000265915</v>
       </c>
       <c r="V12" s="165"/>
       <c r="W12" s="125" t="str">
@@ -7340,11 +7345,11 @@
       </c>
       <c r="X12" s="126">
         <f>'1M Pricing'!H12*100</f>
-        <v>2.625000000164309</v>
+        <v>2.6250000000824274</v>
       </c>
       <c r="Y12" s="126">
         <f t="shared" si="8"/>
-        <v>2.625000000164309</v>
+        <v>2.6250000000824274</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>70</v>
@@ -7355,11 +7360,11 @@
       </c>
       <c r="AB12" s="16">
         <f>'3M Pricing'!H12*100</f>
-        <v>2.6279998958041269</v>
+        <v>2.6287942529330901</v>
       </c>
       <c r="AC12" s="16">
         <f t="shared" si="9"/>
-        <v>2.6279998958041269</v>
+        <v>2.6287942529330901</v>
       </c>
       <c r="AD12" s="41" t="s">
         <v>70</v>
@@ -7370,11 +7375,11 @@
       </c>
       <c r="AF12" s="16">
         <f>'6M Pricing'!H12*100</f>
-        <v>2.754970434921896</v>
+        <v>2.7543034906933883</v>
       </c>
       <c r="AG12" s="16">
         <f t="shared" si="10"/>
-        <v>2.754970434921896</v>
+        <v>2.7543034906933883</v>
       </c>
       <c r="AH12" s="41" t="s">
         <v>70</v>
@@ -7433,29 +7438,29 @@
       </c>
       <c r="J13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>8.389955397092308E-11</v>
+        <v>4.1997516575520422E-12</v>
       </c>
       <c r="K13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>8.389955397092308E-11</v>
+        <v>4.1997516575520422E-12</v>
       </c>
       <c r="L13" s="127"/>
       <c r="M13" s="127"/>
       <c r="N13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA13,BID)-AB13)</f>
-        <v>5.943423531107328E-11</v>
+        <v>3.8274716729347347E-11</v>
       </c>
       <c r="O13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA13,ASK)-AC13)</f>
-        <v>5.943423531107328E-11</v>
+        <v>3.8274716729347347E-11</v>
       </c>
       <c r="P13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE13,BID)-AF13)</f>
-        <v>3.8384273537417357E-10</v>
+        <v>3.0335067791043002E-10</v>
       </c>
       <c r="Q13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE13,ASK)-AG13)</f>
-        <v>3.8384273537417357E-10</v>
+        <v>3.0335067791043002E-10</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="15" t="str">
@@ -7464,11 +7469,11 @@
       </c>
       <c r="T13" s="16">
         <f>'ON Pricing'!H13*100</f>
-        <v>2.4959999999161004</v>
+        <v>2.4999999999958002</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="7"/>
-        <v>2.4959999999161004</v>
+        <v>2.4999999999958002</v>
       </c>
       <c r="V13" s="165"/>
       <c r="W13" s="125"/>
@@ -7483,11 +7488,11 @@
       </c>
       <c r="AB13" s="16">
         <f>'3M Pricing'!H13*100</f>
-        <v>2.6287964549405656</v>
+        <v>2.6292363449617251</v>
       </c>
       <c r="AC13" s="16">
         <f t="shared" si="9"/>
-        <v>2.6287964549405656</v>
+        <v>2.6292363449617251</v>
       </c>
       <c r="AD13" s="41" t="s">
         <v>70</v>
@@ -7498,11 +7503,11 @@
       </c>
       <c r="AF13" s="16">
         <f>'6M Pricing'!H13*100</f>
-        <v>2.7539306173838427</v>
+        <v>2.7534007096966495</v>
       </c>
       <c r="AG13" s="16">
         <f t="shared" si="10"/>
-        <v>2.7539306173838427</v>
+        <v>2.7534007096966495</v>
       </c>
       <c r="AH13" s="41" t="s">
         <v>70</v>
@@ -7561,29 +7566,29 @@
       </c>
       <c r="J14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>1.5101164763109409E-10</v>
+        <v>5.9729998724833422E-13</v>
       </c>
       <c r="K14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>1.5101164763109409E-10</v>
+        <v>5.9729998724833422E-13</v>
       </c>
       <c r="L14" s="130"/>
       <c r="M14" s="130"/>
       <c r="N14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA14,BID)-AB14)</f>
-        <v>6.6999739090078947E-12</v>
+        <v>4.1176617671112581E-10</v>
       </c>
       <c r="O14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA14,ASK)-AC14)</f>
-        <v>6.6999739090078947E-12</v>
+        <v>4.1176617671112581E-10</v>
       </c>
       <c r="P14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE14,BID)-AF14)</f>
-        <v>3.6149172544241992E-10</v>
+        <v>2.2499824225974407E-10</v>
       </c>
       <c r="Q14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE14,ASK)-AG14)</f>
-        <v>3.6149172544241992E-10</v>
+        <v>2.2499824225974407E-10</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="15" t="str">
@@ -7592,11 +7597,11 @@
       </c>
       <c r="T14" s="16">
         <f>'ON Pricing'!H14*100</f>
-        <v>2.4874999998489882</v>
+        <v>2.4910000000005974</v>
       </c>
       <c r="U14" s="16">
         <f t="shared" si="7"/>
-        <v>2.4874999998489882</v>
+        <v>2.4910000000005974</v>
       </c>
       <c r="V14" s="165"/>
       <c r="W14" s="128"/>
@@ -7611,11 +7616,11 @@
       </c>
       <c r="AB14" s="16">
         <f>'3M Pricing'!H14*100</f>
-        <v>2.6282594679933</v>
+        <v>2.628328906588234</v>
       </c>
       <c r="AC14" s="16">
         <f t="shared" si="9"/>
-        <v>2.6282594679933</v>
+        <v>2.628328906588234</v>
       </c>
       <c r="AD14" s="41" t="s">
         <v>70</v>
@@ -7626,11 +7631,11 @@
       </c>
       <c r="AF14" s="16">
         <f>'6M Pricing'!H14*100</f>
-        <v>2.7503100006385082</v>
+        <v>2.7500458517750017</v>
       </c>
       <c r="AG14" s="16">
         <f t="shared" si="10"/>
-        <v>2.7503100006385082</v>
+        <v>2.7500458517750017</v>
       </c>
       <c r="AH14" s="41" t="s">
         <v>70</v>
@@ -7688,11 +7693,11 @@
       </c>
       <c r="J15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,BID)-T15)</f>
-        <v>1.1071588090771911E-10</v>
+        <v>8.9261931179862586E-14</v>
       </c>
       <c r="K15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,ASK)-U15)</f>
-        <v>1.1071588090771911E-10</v>
+        <v>8.9261931179862586E-14</v>
       </c>
       <c r="L15" s="127"/>
       <c r="M15" s="127"/>
@@ -7700,11 +7705,11 @@
       <c r="O15" s="104"/>
       <c r="P15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE15,BID)-AF15)</f>
-        <v>3.9238745586089863E-10</v>
+        <v>2.8968383247729435E-11</v>
       </c>
       <c r="Q15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE15,ASK)-AG15)</f>
-        <v>3.9238745586089863E-10</v>
+        <v>2.8968383247729435E-11</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="15" t="str">
@@ -7713,11 +7718,11 @@
       </c>
       <c r="T15" s="16">
         <f>'ON Pricing'!H15*100</f>
-        <v>2.4774999998892842</v>
+        <v>2.4824999999999107</v>
       </c>
       <c r="U15" s="16">
         <f t="shared" si="7"/>
-        <v>2.4774999998892842</v>
+        <v>2.4824999999999107</v>
       </c>
       <c r="V15" s="165"/>
       <c r="W15" s="125"/>
@@ -7738,11 +7743,11 @@
       </c>
       <c r="AF15" s="16">
         <f>'6M Pricing'!H15*100</f>
-        <v>2.7433365676076127</v>
+        <v>2.7437267710289683</v>
       </c>
       <c r="AG15" s="16">
         <f t="shared" si="10"/>
-        <v>2.7433365676076127</v>
+        <v>2.7437267710289683</v>
       </c>
       <c r="AH15" s="41" t="s">
         <v>70</v>
@@ -7800,11 +7805,11 @@
       </c>
       <c r="J16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,BID)-T16)</f>
-        <v>9.1426866077881641E-11</v>
+        <v>2.1316282072803006E-13</v>
       </c>
       <c r="K16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,ASK)-U16)</f>
-        <v>9.1426866077881641E-11</v>
+        <v>2.1316282072803006E-13</v>
       </c>
       <c r="L16" s="127"/>
       <c r="M16" s="127"/>
@@ -7812,11 +7817,11 @@
       <c r="O16" s="104"/>
       <c r="P16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE16,BID)-AF16)</f>
-        <v>2.3239277169295747E-10</v>
+        <v>2.7210367292695992E-10</v>
       </c>
       <c r="Q16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE16,ASK)-AG16)</f>
-        <v>2.3239277169295747E-10</v>
+        <v>2.7210367292695992E-10</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="str">
@@ -7825,11 +7830,11 @@
       </c>
       <c r="T16" s="16">
         <f>'ON Pricing'!H16*100</f>
-        <v>2.4749999999085732</v>
+        <v>2.4775000000002132</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="7"/>
-        <v>2.4749999999085732</v>
+        <v>2.4775000000002132</v>
       </c>
       <c r="V16" s="165"/>
       <c r="W16" s="125"/>
@@ -7850,11 +7855,11 @@
       </c>
       <c r="AF16" s="16">
         <f>'6M Pricing'!H16*100</f>
-        <v>2.7346045492323929</v>
+        <v>2.7352161177278962</v>
       </c>
       <c r="AG16" s="16">
         <f t="shared" si="10"/>
-        <v>2.7346045492323929</v>
+        <v>2.7352161177278962</v>
       </c>
       <c r="AH16" s="41" t="s">
         <v>70</v>
@@ -7912,11 +7917,11 @@
       </c>
       <c r="J17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,BID)-T17)</f>
-        <v>6.9212191533551959E-11</v>
+        <v>2.3092638912203256E-14</v>
       </c>
       <c r="K17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,ASK)-U17)</f>
-        <v>6.9212191533551959E-11</v>
+        <v>2.3092638912203256E-14</v>
       </c>
       <c r="L17" s="130"/>
       <c r="M17" s="130"/>
@@ -7924,11 +7929,11 @@
       <c r="O17" s="104"/>
       <c r="P17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE17,BID)-AF17)</f>
-        <v>2.3977619889592461E-10</v>
+        <v>1.3034462398309188E-11</v>
       </c>
       <c r="Q17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE17,ASK)-AG17)</f>
-        <v>2.3977619889592461E-10</v>
+        <v>1.3034462398309188E-11</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="str">
@@ -7937,11 +7942,11 @@
       </c>
       <c r="T17" s="16">
         <f>'ON Pricing'!H17*100</f>
-        <v>2.472499999930788</v>
+        <v>2.474999999999977</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="7"/>
-        <v>2.472499999930788</v>
+        <v>2.474999999999977</v>
       </c>
       <c r="V17" s="165"/>
       <c r="W17" s="128"/>
@@ -7962,11 +7967,11 @@
       </c>
       <c r="AF17" s="16">
         <f>'6M Pricing'!H17*100</f>
-        <v>2.7238475262397763</v>
+        <v>2.7249999999869656</v>
       </c>
       <c r="AG17" s="16">
         <f t="shared" si="10"/>
-        <v>2.7238475262397763</v>
+        <v>2.7249999999869656</v>
       </c>
       <c r="AH17" s="41" t="s">
         <v>70</v>
@@ -8023,11 +8028,11 @@
       </c>
       <c r="J18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S18,BID)-T18)</f>
-        <v>1.3100631690576847E-13</v>
+        <v>1.0658141036401503E-14</v>
       </c>
       <c r="K18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S18,ASK)-U18)</f>
-        <v>1.3100631690576847E-13</v>
+        <v>1.0658141036401503E-14</v>
       </c>
       <c r="L18" s="133"/>
       <c r="M18" s="133"/>
@@ -8042,11 +8047,11 @@
       </c>
       <c r="T18" s="16">
         <f>'ON Pricing'!H18*100</f>
-        <v>2.4659999999998692</v>
+        <v>2.4725000000000108</v>
       </c>
       <c r="U18" s="16">
         <f t="shared" ref="U18" si="12">T18</f>
-        <v>2.4659999999998692</v>
+        <v>2.4725000000000108</v>
       </c>
       <c r="V18" s="165"/>
       <c r="W18" s="131"/>
@@ -8103,7 +8108,7 @@
         <v>41899</v>
       </c>
       <c r="C19" s="169" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="96" t="str">
         <f>_xll.qlIMMcode(B19,Trigger)</f>
@@ -8131,11 +8136,11 @@
       <c r="M19" s="136"/>
       <c r="N19" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AA19,BID)-AB19)</f>
-        <v>1.5216983229038306E-10</v>
+        <v>1.1119993814645568E-10</v>
       </c>
       <c r="O19" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AA19,ASK)-AC19)</f>
-        <v>1.5216983229038306E-10</v>
+        <v>1.1119993814645568E-10</v>
       </c>
       <c r="P19" s="102"/>
       <c r="Q19" s="102"/>
@@ -8156,11 +8161,11 @@
       </c>
       <c r="AB19" s="14">
         <f>'3M Pricing'!H19</f>
-        <v>97.37500000015217</v>
+        <v>97.3750000001112</v>
       </c>
       <c r="AC19" s="14">
         <f t="shared" ref="AC19:AC24" si="14">AB19</f>
-        <v>97.37500000015217</v>
+        <v>97.3750000001112</v>
       </c>
       <c r="AD19" s="41" t="s">
         <v>70</v>
@@ -8333,11 +8338,11 @@
       <c r="M21" s="130"/>
       <c r="N21" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA21,BID)-AB21)</f>
-        <v>4.0358827391173691E-12</v>
+        <v>3.6095570976613089E-12</v>
       </c>
       <c r="O21" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA21,ASK)-AC21)</f>
-        <v>4.0358827391173691E-12</v>
+        <v>3.6095570976613089E-12</v>
       </c>
       <c r="P21" s="104"/>
       <c r="Q21" s="104"/>
@@ -8358,11 +8363,11 @@
       </c>
       <c r="AB21" s="16">
         <f>'3M Pricing'!H21</f>
-        <v>97.415000000004042</v>
+        <v>97.405000000003611</v>
       </c>
       <c r="AC21" s="16">
         <f t="shared" si="14"/>
-        <v>97.415000000004042</v>
+        <v>97.405000000003611</v>
       </c>
       <c r="AD21" s="41" t="s">
         <v>70</v>
@@ -8434,11 +8439,11 @@
       <c r="M22" s="130"/>
       <c r="N22" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA22,BID)-AB22)</f>
-        <v>8.5265128291212022E-14</v>
+        <v>3.2827074392116629E-12</v>
       </c>
       <c r="O22" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA22,ASK)-AC22)</f>
-        <v>8.5265128291212022E-14</v>
+        <v>3.2827074392116629E-12</v>
       </c>
       <c r="P22" s="104"/>
       <c r="Q22" s="104"/>
@@ -8459,11 +8464,11 @@
       </c>
       <c r="AB22" s="16">
         <f>'3M Pricing'!H22</f>
-        <v>97.395000000000081</v>
+        <v>97.384999999996722</v>
       </c>
       <c r="AC22" s="16">
         <f t="shared" si="14"/>
-        <v>97.395000000000081</v>
+        <v>97.384999999996722</v>
       </c>
       <c r="AD22" s="41" t="s">
         <v>70</v>
@@ -8535,11 +8540,11 @@
       <c r="M23" s="130"/>
       <c r="N23" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA23,BID)-AB23)</f>
-        <v>4.3840486796398181E-10</v>
+        <v>3.4958702599396929E-12</v>
       </c>
       <c r="O23" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA23,ASK)-AC23)</f>
-        <v>4.3840486796398181E-10</v>
+        <v>3.4958702599396929E-12</v>
       </c>
       <c r="P23" s="104"/>
       <c r="Q23" s="104"/>
@@ -8560,11 +8565,11 @@
       </c>
       <c r="AB23" s="16">
         <f>'3M Pricing'!H23</f>
-        <v>97.32427412243841</v>
+        <v>97.314999999996502</v>
       </c>
       <c r="AC23" s="16">
         <f t="shared" si="14"/>
-        <v>97.32427412243841</v>
+        <v>97.314999999996502</v>
       </c>
       <c r="AD23" s="41" t="s">
         <v>70</v>
@@ -8634,11 +8639,11 @@
       <c r="M24" s="137"/>
       <c r="N24" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AA24,BID)-AB24)</f>
-        <v>3.0330227218655637E-10</v>
+        <v>0</v>
       </c>
       <c r="O24" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AA24,ASK)-AC24)</f>
-        <v>3.0330227218655637E-10</v>
+        <v>0</v>
       </c>
       <c r="P24" s="106"/>
       <c r="Q24" s="106"/>
@@ -8659,11 +8664,11 @@
       </c>
       <c r="AB24" s="18">
         <f>'3M Pricing'!H24</f>
-        <v>97.238328706303307</v>
+        <v>97.224999999999994</v>
       </c>
       <c r="AC24" s="18">
         <f t="shared" si="14"/>
-        <v>97.238328706303307</v>
+        <v>97.224999999999994</v>
       </c>
       <c r="AD24" s="41" t="s">
         <v>70</v>
@@ -8705,7 +8710,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>21</v>
@@ -8751,11 +8756,11 @@
       </c>
       <c r="X25" s="123">
         <f>'1M Pricing'!H25*100</f>
-        <v>2.5805795004067296</v>
+        <v>2.5806575951861861</v>
       </c>
       <c r="Y25" s="123">
         <f>X25</f>
-        <v>2.5805795004067296</v>
+        <v>2.5806575951861861</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="101"/>
@@ -8841,11 +8846,11 @@
       </c>
       <c r="X26" s="126">
         <f>'1M Pricing'!H26*100</f>
-        <v>2.5613080519338376</v>
+        <v>2.56082467993703</v>
       </c>
       <c r="Y26" s="126">
         <f>X26</f>
-        <v>2.5613080519338376</v>
+        <v>2.56082467993703</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="103"/>
@@ -8931,11 +8936,11 @@
       </c>
       <c r="X27" s="126">
         <f>'1M Pricing'!H27*100</f>
-        <v>2.5428220610238834</v>
+        <v>2.5454049564829271</v>
       </c>
       <c r="Y27" s="126">
         <f>X27</f>
-        <v>2.5428220610238834</v>
+        <v>2.5454049564829271</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="103"/>
@@ -9001,11 +9006,11 @@
       </c>
       <c r="J28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
-        <v>6.8389738316909643E-14</v>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="K28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
-        <v>6.8389738316909643E-14</v>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="L28" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W28,BID)-X28)</f>
@@ -9017,19 +9022,19 @@
       </c>
       <c r="N28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA28,BID)-AB28)</f>
-        <v>3.3659208753533676E-10</v>
+        <v>1.9807178119890523E-10</v>
       </c>
       <c r="O28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA28,ASK)-AC28)</f>
-        <v>3.3659208753533676E-10</v>
+        <v>1.9807178119890523E-10</v>
       </c>
       <c r="P28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE28,BID)-AF28)</f>
-        <v>4.9360826537281355E-10</v>
+        <v>1.6573098449157442E-10</v>
       </c>
       <c r="Q28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE28,ASK)-AG28)</f>
-        <v>4.9360826537281355E-10</v>
+        <v>1.6573098449157442E-10</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="15" t="str">
@@ -9038,11 +9043,11 @@
       </c>
       <c r="T28" s="16">
         <f>'ON Pricing'!H28*100</f>
-        <v>2.4629999999999317</v>
+        <v>2.4749999999999961</v>
       </c>
       <c r="U28" s="16">
         <f t="shared" ref="U28:U43" si="15">T28</f>
-        <v>2.4629999999999317</v>
+        <v>2.4749999999999961</v>
       </c>
       <c r="V28" s="165"/>
       <c r="W28" s="125" t="str">
@@ -9051,11 +9056,11 @@
       </c>
       <c r="X28" s="126">
         <f>'1M Pricing'!H28*100</f>
-        <v>2.5322431644628858</v>
+        <v>2.5446974020206841</v>
       </c>
       <c r="Y28" s="126">
         <f>X28</f>
-        <v>2.5322431644628858</v>
+        <v>2.5446974020206841</v>
       </c>
       <c r="Z28" s="2" t="s">
         <v>70</v>
@@ -9066,11 +9071,11 @@
       </c>
       <c r="AB28" s="16">
         <f>'3M Pricing'!H28*100</f>
-        <v>2.6028093936634078</v>
+        <v>2.6074409928019282</v>
       </c>
       <c r="AC28" s="16">
         <f>AB28</f>
-        <v>2.6028093936634078</v>
+        <v>2.6074409928019282</v>
       </c>
       <c r="AD28" s="41" t="s">
         <v>70</v>
@@ -9081,11 +9086,11 @@
       </c>
       <c r="AF28" s="16">
         <f>'6M Pricing'!H28*100</f>
-        <v>2.6540243854936083</v>
+        <v>2.658681568165731</v>
       </c>
       <c r="AG28" s="16">
         <f>AF28</f>
-        <v>2.6540243854936083</v>
+        <v>2.658681568165731</v>
       </c>
       <c r="AH28" s="41" t="s">
         <v>70</v>
@@ -9122,7 +9127,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="167"/>
       <c r="D29" s="21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E29" s="21" t="str">
         <f>IF(Contribute="abcd",IF($F$2&lt;&gt;-1,_xll.RtContribute(SourceAlias,S29,Fields,T29:U29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$F$2:$H$2,T29:U29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9140,13 +9145,13 @@
       <c r="I29" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,BID)-T29)</f>
-        <v>1.0583045551015857E-10</v>
-      </c>
-      <c r="K29" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,ASK)-U29)</f>
-        <v>1.0583045551015857E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L29" s="127"/>
       <c r="M29" s="127"/>
@@ -9156,16 +9161,16 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="2"/>
       <c r="S29" s="15" t="str">
-        <f>Currency&amp;$S$4&amp;D29&amp;"="</f>
-        <v>AUDON1Y6M=</v>
+        <f>Currency&amp;$S$4&amp;D29&amp;"D"&amp;"="</f>
+        <v>AUDON18MD=</v>
       </c>
       <c r="T29" s="16">
         <f>'ON Pricing'!H29*100</f>
-        <v>2.4803039768941697</v>
+        <v>2.495304286860021</v>
       </c>
       <c r="U29" s="16">
         <f t="shared" si="15"/>
-        <v>2.4803039768941697</v>
+        <v>2.495304286860021</v>
       </c>
       <c r="V29" s="165"/>
       <c r="W29" s="125"/>
@@ -9241,11 +9246,11 @@
       </c>
       <c r="J30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
-        <v>2.3980817331903381E-14</v>
+        <v>9.6367358537463588E-14</v>
       </c>
       <c r="K30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
-        <v>2.3980817331903381E-14</v>
+        <v>9.6367358537463588E-14</v>
       </c>
       <c r="L30" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W30,BID)-X30)</f>
@@ -9257,19 +9262,19 @@
       </c>
       <c r="N30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA30,BID)-AB30)</f>
-        <v>7.2383876670301106E-11</v>
+        <v>2.1313173448334055E-11</v>
       </c>
       <c r="O30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA30,ASK)-AC30)</f>
-        <v>7.2383876670301106E-11</v>
+        <v>2.1313173448334055E-11</v>
       </c>
       <c r="P30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE30,BID)-AF30)</f>
-        <v>3.0002178519339395E-10</v>
+        <v>3.5471181547563901E-11</v>
       </c>
       <c r="Q30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE30,ASK)-AG30)</f>
-        <v>3.0002178519339395E-10</v>
+        <v>3.5471181547563901E-11</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="15" t="str">
@@ -9278,11 +9283,11 @@
       </c>
       <c r="T30" s="16">
         <f>'ON Pricing'!H30*100</f>
-        <v>2.5399999999999761</v>
+        <v>2.5550000000000965</v>
       </c>
       <c r="U30" s="16">
         <f t="shared" si="15"/>
-        <v>2.5399999999999761</v>
+        <v>2.5550000000000965</v>
       </c>
       <c r="V30" s="165"/>
       <c r="W30" s="125" t="str">
@@ -9291,11 +9296,11 @@
       </c>
       <c r="X30" s="126">
         <f>'1M Pricing'!H30*100</f>
-        <v>2.6168454275887578</v>
+        <v>2.6317669276448519</v>
       </c>
       <c r="Y30" s="126">
         <f>X30</f>
-        <v>2.6168454275887578</v>
+        <v>2.6317669276448519</v>
       </c>
       <c r="Z30" s="2" t="s">
         <v>70</v>
@@ -9306,11 +9311,11 @@
       </c>
       <c r="AB30" s="16">
         <f>'3M Pricing'!H30*100</f>
-        <v>2.6975000000723837</v>
+        <v>2.7125000000213131</v>
       </c>
       <c r="AC30" s="16">
         <f>AB30</f>
-        <v>2.6975000000723837</v>
+        <v>2.7125000000213131</v>
       </c>
       <c r="AD30" s="41" t="s">
         <v>70</v>
@@ -9321,11 +9326,11 @@
       </c>
       <c r="AF30" s="16">
         <f>'6M Pricing'!H30*100</f>
-        <v>2.7637369493000219</v>
+        <v>2.7775934889645288</v>
       </c>
       <c r="AG30" s="16">
         <f>AF30</f>
-        <v>2.7637369493000219</v>
+        <v>2.7775934889645288</v>
       </c>
       <c r="AH30" s="41" t="s">
         <v>70</v>
@@ -9385,11 +9390,11 @@
       </c>
       <c r="J31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>5.4622972811557702E-14</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="K31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>5.4622972811557702E-14</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="L31" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W31,BID)-X31)</f>
@@ -9401,19 +9406,19 @@
       </c>
       <c r="N31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA31,BID)-AB31)</f>
-        <v>7.652767308741204E-11</v>
+        <v>6.3769878266839441E-11</v>
       </c>
       <c r="O31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA31,ASK)-AC31)</f>
-        <v>7.652767308741204E-11</v>
+        <v>6.3769878266839441E-11</v>
       </c>
       <c r="P31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE31,BID)-AF31)</f>
-        <v>2.9977442750350747E-10</v>
+        <v>3.5572167433883806E-10</v>
       </c>
       <c r="Q31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE31,ASK)-AG31)</f>
-        <v>2.9977442750350747E-10</v>
+        <v>3.5572167433883806E-10</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="15" t="str">
@@ -9422,11 +9427,11 @@
       </c>
       <c r="T31" s="16">
         <f>'ON Pricing'!H31*100</f>
-        <v>2.6749999999999452</v>
+        <v>2.6949999999999994</v>
       </c>
       <c r="U31" s="16">
         <f t="shared" si="15"/>
-        <v>2.6749999999999452</v>
+        <v>2.6949999999999994</v>
       </c>
       <c r="V31" s="165"/>
       <c r="W31" s="125" t="str">
@@ -9435,11 +9440,11 @@
       </c>
       <c r="X31" s="126">
         <f>'1M Pricing'!H31*100</f>
-        <v>2.7549639071659437</v>
+        <v>2.774875040993261</v>
       </c>
       <c r="Y31" s="126">
         <f>X31</f>
-        <v>2.7549639071659437</v>
+        <v>2.774875040993261</v>
       </c>
       <c r="Z31" s="2" t="s">
         <v>70</v>
@@ -9450,11 +9455,11 @@
       </c>
       <c r="AB31" s="16">
         <f>'3M Pricing'!H31*100</f>
-        <v>2.8425000000765275</v>
+        <v>2.8650000000637701</v>
       </c>
       <c r="AC31" s="16">
         <f>AB31</f>
-        <v>2.8425000000765275</v>
+        <v>2.8650000000637701</v>
       </c>
       <c r="AD31" s="41" t="s">
         <v>70</v>
@@ -9465,11 +9470,11 @@
       </c>
       <c r="AF31" s="16">
         <f>'6M Pricing'!H31*100</f>
-        <v>2.9139370172997743</v>
+        <v>2.9364547743557217</v>
       </c>
       <c r="AG31" s="16">
         <f>AF31</f>
-        <v>2.9139370172997743</v>
+        <v>2.9364547743557217</v>
       </c>
       <c r="AH31" s="41" t="s">
         <v>70</v>
@@ -9529,11 +9534,11 @@
       </c>
       <c r="J32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>2.0081714069419832E-11</v>
+        <v>4.8849813083506888E-15</v>
       </c>
       <c r="K32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>2.0081714069419832E-11</v>
+        <v>4.8849813083506888E-15</v>
       </c>
       <c r="L32" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W32,BID)-X32)</f>
@@ -9545,19 +9550,19 @@
       </c>
       <c r="N32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA32,BID)-AB32)</f>
-        <v>3.7892888826718263E-10</v>
+        <v>4.7452752838239576E-10</v>
       </c>
       <c r="O32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA32,ASK)-AC32)</f>
-        <v>3.7892888826718263E-10</v>
+        <v>4.7452752838239576E-10</v>
       </c>
       <c r="P32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE32,BID)-AF32)</f>
-        <v>2.4855673075308005E-12</v>
+        <v>5.4178883601707639E-13</v>
       </c>
       <c r="Q32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE32,ASK)-AG32)</f>
-        <v>2.4855673075308005E-12</v>
+        <v>5.4178883601707639E-13</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="15" t="str">
@@ -9566,11 +9571,11 @@
       </c>
       <c r="T32" s="16">
         <f>'ON Pricing'!H32*100</f>
-        <v>2.7980000000200818</v>
+        <v>2.8230000000000048</v>
       </c>
       <c r="U32" s="16">
         <f t="shared" si="15"/>
-        <v>2.7980000000200818</v>
+        <v>2.8230000000000048</v>
       </c>
       <c r="V32" s="165"/>
       <c r="W32" s="125" t="str">
@@ -9579,11 +9584,11 @@
       </c>
       <c r="X32" s="126">
         <f>'1M Pricing'!H32*100</f>
-        <v>2.8849500503031775</v>
+        <v>2.9071661457944598</v>
       </c>
       <c r="Y32" s="126">
         <f>X32</f>
-        <v>2.8849500503031775</v>
+        <v>2.9071661457944598</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>70</v>
@@ -9594,11 +9599,11 @@
       </c>
       <c r="AB32" s="16">
         <f>'3M Pricing'!H32*100</f>
-        <v>2.9780756463789291</v>
+        <v>3.0029021985254727</v>
       </c>
       <c r="AC32" s="16">
         <f>AB32</f>
-        <v>2.9780756463789291</v>
+        <v>3.0029021985254727</v>
       </c>
       <c r="AD32" s="41" t="s">
         <v>70</v>
@@ -9609,11 +9614,11 @@
       </c>
       <c r="AF32" s="16">
         <f>'6M Pricing'!H32*100</f>
-        <v>3.0649999999975144</v>
+        <v>3.0900000000005416</v>
       </c>
       <c r="AG32" s="16">
         <f>AF32</f>
-        <v>3.0649999999975144</v>
+        <v>3.0900000000005416</v>
       </c>
       <c r="AH32" s="41" t="s">
         <v>70</v>
@@ -9673,11 +9678,11 @@
       </c>
       <c r="J33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>1.2396306203754648E-11</v>
+        <v>1.4654943925052066E-14</v>
       </c>
       <c r="K33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>1.2396306203754648E-11</v>
+        <v>1.4654943925052066E-14</v>
       </c>
       <c r="L33" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W33,BID)-X33)</f>
@@ -9689,19 +9694,19 @@
       </c>
       <c r="N33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA33,BID)-AB33)</f>
-        <v>2.0192736371882347E-11</v>
+        <v>3.1641800291026811E-10</v>
       </c>
       <c r="O33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA33,ASK)-AC33)</f>
-        <v>2.0192736371882347E-11</v>
+        <v>3.1641800291026811E-10</v>
       </c>
       <c r="P33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE33,BID)-AF33)</f>
-        <v>4.1566750041965861E-12</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="Q33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE33,ASK)-AG33)</f>
-        <v>4.1566750041965861E-12</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="15" t="str">
@@ -9710,11 +9715,11 @@
       </c>
       <c r="T33" s="16">
         <f>'ON Pricing'!H33*100</f>
-        <v>2.9230000000123963</v>
+        <v>2.9449999999999852</v>
       </c>
       <c r="U33" s="16">
         <f t="shared" si="15"/>
-        <v>2.9230000000123963</v>
+        <v>2.9449999999999852</v>
       </c>
       <c r="V33" s="165"/>
       <c r="W33" s="125" t="str">
@@ -9723,11 +9728,11 @@
       </c>
       <c r="X33" s="126">
         <f>'1M Pricing'!H33*100</f>
-        <v>3.0133886773398584</v>
+        <v>3.0331135795126434</v>
       </c>
       <c r="Y33" s="126">
         <f>X33</f>
-        <v>3.0133886773398584</v>
+        <v>3.0331135795126434</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>70</v>
@@ -9738,11 +9743,11 @@
       </c>
       <c r="AB33" s="16">
         <f>'3M Pricing'!H33*100</f>
-        <v>3.1096262250201927</v>
+        <v>3.1319575093164178</v>
       </c>
       <c r="AC33" s="16">
         <f>AB33</f>
-        <v>3.1096262250201927</v>
+        <v>3.1319575093164178</v>
       </c>
       <c r="AD33" s="41" t="s">
         <v>70</v>
@@ -9753,11 +9758,11 @@
       </c>
       <c r="AF33" s="16">
         <f>'6M Pricing'!H33*100</f>
-        <v>3.1999999999958435</v>
+        <v>3.2225000000000019</v>
       </c>
       <c r="AG33" s="16">
         <f>AF33</f>
-        <v>3.1999999999958435</v>
+        <v>3.2225000000000019</v>
       </c>
       <c r="AH33" s="41" t="s">
         <v>70</v>
@@ -9814,11 +9819,11 @@
       </c>
       <c r="J34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,BID)-T34)</f>
-        <v>8.3044682241961709E-12</v>
+        <v>1.2434497875801753E-14</v>
       </c>
       <c r="K34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,ASK)-U34)</f>
-        <v>8.3044682241961709E-12</v>
+        <v>1.2434497875801753E-14</v>
       </c>
       <c r="L34" s="127"/>
       <c r="M34" s="127"/>
@@ -9833,11 +9838,11 @@
       </c>
       <c r="T34" s="16">
         <f>'ON Pricing'!H34*100</f>
-        <v>3.0380000000083043</v>
+        <v>3.0629999999999877</v>
       </c>
       <c r="U34" s="16">
         <f t="shared" si="15"/>
-        <v>3.0380000000083043</v>
+        <v>3.0629999999999877</v>
       </c>
       <c r="V34" s="165"/>
       <c r="W34" s="125"/>
@@ -9913,11 +9918,11 @@
       </c>
       <c r="J35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>5.7851501367167657E-12</v>
+        <v>4.6185277824406512E-14</v>
       </c>
       <c r="K35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>5.7851501367167657E-12</v>
+        <v>4.6185277824406512E-14</v>
       </c>
       <c r="L35" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W35,BID)-X35)</f>
@@ -9929,19 +9934,19 @@
       </c>
       <c r="N35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA35,BID)-AB35)</f>
-        <v>4.8879300607040932E-10</v>
+        <v>2.5861002228566576E-10</v>
       </c>
       <c r="O35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA35,ASK)-AC35)</f>
-        <v>4.8879300607040932E-10</v>
+        <v>2.5861002228566576E-10</v>
       </c>
       <c r="P35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE35,BID)-AF35)</f>
-        <v>3.2320812692887557E-12</v>
+        <v>3.6637359812630166E-13</v>
       </c>
       <c r="Q35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE35,ASK)-AG35)</f>
-        <v>3.2320812692887557E-12</v>
+        <v>3.6637359812630166E-13</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="15" t="str">
@@ -9950,11 +9955,11 @@
       </c>
       <c r="T35" s="16">
         <f>'ON Pricing'!H35*100</f>
-        <v>3.1530000000057852</v>
+        <v>3.1779999999999538</v>
       </c>
       <c r="U35" s="16">
         <f t="shared" si="15"/>
-        <v>3.1530000000057852</v>
+        <v>3.1779999999999538</v>
       </c>
       <c r="V35" s="165"/>
       <c r="W35" s="125" t="str">
@@ -9963,11 +9968,11 @@
       </c>
       <c r="X35" s="126">
         <f>'1M Pricing'!H35*100</f>
-        <v>3.2490988366434888</v>
+        <v>3.2687805527114318</v>
       </c>
       <c r="Y35" s="126">
         <f>X35</f>
-        <v>3.2490988366434888</v>
+        <v>3.2687805527114318</v>
       </c>
       <c r="Z35" s="2" t="s">
         <v>70</v>
@@ -9978,11 +9983,11 @@
       </c>
       <c r="AB35" s="16">
         <f>'3M Pricing'!H35*100</f>
-        <v>3.3490334905112071</v>
+        <v>3.3713399982586099</v>
       </c>
       <c r="AC35" s="16">
         <f>AB35</f>
-        <v>3.3490334905112071</v>
+        <v>3.3713399982586099</v>
       </c>
       <c r="AD35" s="41" t="s">
         <v>70</v>
@@ -9993,11 +9998,11 @@
       </c>
       <c r="AF35" s="16">
         <f>'6M Pricing'!H35*100</f>
-        <v>3.4424999999967678</v>
+        <v>3.4649999999996335</v>
       </c>
       <c r="AG35" s="16">
         <f>AF35</f>
-        <v>3.4424999999967678</v>
+        <v>3.4649999999996335</v>
       </c>
       <c r="AH35" s="41" t="s">
         <v>70</v>
@@ -10054,11 +10059,11 @@
       </c>
       <c r="J36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,BID)-T36)</f>
-        <v>4.2295056346119964E-12</v>
+        <v>4.5297099404706387E-14</v>
       </c>
       <c r="K36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,ASK)-U36)</f>
-        <v>4.2295056346119964E-12</v>
+        <v>4.5297099404706387E-14</v>
       </c>
       <c r="L36" s="127"/>
       <c r="M36" s="127"/>
@@ -10073,11 +10078,11 @@
       </c>
       <c r="T36" s="16">
         <f>'ON Pricing'!H36*100</f>
-        <v>3.2330000000042296</v>
+        <v>3.2579999999999547</v>
       </c>
       <c r="U36" s="16">
         <f t="shared" si="15"/>
-        <v>3.2330000000042296</v>
+        <v>3.2579999999999547</v>
       </c>
       <c r="V36" s="165"/>
       <c r="W36" s="125"/>
@@ -10150,11 +10155,11 @@
       </c>
       <c r="J37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,BID)-T37)</f>
-        <v>3.1854519022544991E-12</v>
+        <v>3.1974423109204508E-14</v>
       </c>
       <c r="K37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,ASK)-U37)</f>
-        <v>3.1854519022544991E-12</v>
+        <v>3.1974423109204508E-14</v>
       </c>
       <c r="L37" s="127"/>
       <c r="M37" s="127"/>
@@ -10169,11 +10174,11 @@
       </c>
       <c r="T37" s="16">
         <f>'ON Pricing'!H37*100</f>
-        <v>3.3100000000031855</v>
+        <v>3.334999999999968</v>
       </c>
       <c r="U37" s="16">
         <f t="shared" si="15"/>
-        <v>3.3100000000031855</v>
+        <v>3.334999999999968</v>
       </c>
       <c r="V37" s="165"/>
       <c r="W37" s="125"/>
@@ -10249,11 +10254,11 @@
       </c>
       <c r="J38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>2.4367174944472936E-12</v>
+        <v>1.0794920513035322E-11</v>
       </c>
       <c r="K38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>2.4367174944472936E-12</v>
+        <v>1.0794920513035322E-11</v>
       </c>
       <c r="L38" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W38,BID)-X38)</f>
@@ -10265,19 +10270,19 @@
       </c>
       <c r="N38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA38,BID)-AB38)</f>
-        <v>1.2345191535700906E-10</v>
+        <v>1.0921263893237665E-10</v>
       </c>
       <c r="O38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA38,ASK)-AC38)</f>
-        <v>1.2345191535700906E-10</v>
+        <v>1.0921263893237665E-10</v>
       </c>
       <c r="P38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE38,BID)-AF38)</f>
-        <v>2.9665159217984183E-13</v>
+        <v>2.7355895326763857E-13</v>
       </c>
       <c r="Q38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE38,ASK)-AG38)</f>
-        <v>2.9665159217984183E-13</v>
+        <v>2.7355895326763857E-13</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="15" t="str">
@@ -10286,11 +10291,11 @@
       </c>
       <c r="T38" s="16">
         <f>'ON Pricing'!H38*100</f>
-        <v>3.3900000000024368</v>
+        <v>3.415000000010795</v>
       </c>
       <c r="U38" s="16">
         <f t="shared" si="15"/>
-        <v>3.3900000000024368</v>
+        <v>3.415000000010795</v>
       </c>
       <c r="V38" s="165"/>
       <c r="W38" s="125" t="str">
@@ -10299,11 +10304,11 @@
       </c>
       <c r="X38" s="126">
         <f>'1M Pricing'!H38*100</f>
-        <v>3.4994567182576293</v>
+        <v>3.5215971370075936</v>
       </c>
       <c r="Y38" s="126">
         <f t="shared" ref="Y38:Y43" si="18">X38</f>
-        <v>3.4994567182576293</v>
+        <v>3.5215971370075936</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>70</v>
@@ -10314,11 +10319,11 @@
       </c>
       <c r="AB38" s="16">
         <f>'3M Pricing'!H38*100</f>
-        <v>3.6019832898765483</v>
+        <v>3.6267651228907876</v>
       </c>
       <c r="AC38" s="16">
         <f t="shared" ref="AC38:AC43" si="20">AB38</f>
-        <v>3.6019832898765483</v>
+        <v>3.6267651228907876</v>
       </c>
       <c r="AD38" s="41" t="s">
         <v>70</v>
@@ -10329,11 +10334,11 @@
       </c>
       <c r="AF38" s="16">
         <f>'6M Pricing'!H38*100</f>
-        <v>3.6974999999997031</v>
+        <v>3.7224999999997266</v>
       </c>
       <c r="AG38" s="16">
         <f t="shared" ref="AG38:AG43" si="22">AF38</f>
-        <v>3.6974999999997031</v>
+        <v>3.7224999999997266</v>
       </c>
       <c r="AH38" s="41" t="s">
         <v>70</v>
@@ -10393,11 +10398,11 @@
       </c>
       <c r="J39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>6.6893157679714932E-12</v>
+        <v>3.8551384307083936E-12</v>
       </c>
       <c r="K39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>6.6893157679714932E-12</v>
+        <v>3.8551384307083936E-12</v>
       </c>
       <c r="L39" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W39,BID)-X39)</f>
@@ -10409,19 +10414,19 @@
       </c>
       <c r="N39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA39,BID)-AB39)</f>
-        <v>4.0305581094912668E-10</v>
+        <v>1.3348255833989242E-10</v>
       </c>
       <c r="O39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA39,ASK)-AC39)</f>
-        <v>4.0305581094912668E-10</v>
+        <v>1.3348255833989242E-10</v>
       </c>
       <c r="P39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE39,BID)-AF39)</f>
-        <v>2.0627943797535409E-12</v>
+        <v>1.1806999822283615E-11</v>
       </c>
       <c r="Q39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE39,ASK)-AG39)</f>
-        <v>2.0627943797535409E-12</v>
+        <v>1.1806999822283615E-11</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="15" t="str">
@@ -10430,11 +10435,11 @@
       </c>
       <c r="T39" s="16">
         <f>'ON Pricing'!H39*100</f>
-        <v>3.5230000000066894</v>
+        <v>3.550000000003855</v>
       </c>
       <c r="U39" s="16">
         <f t="shared" si="15"/>
-        <v>3.5230000000066894</v>
+        <v>3.550000000003855</v>
       </c>
       <c r="V39" s="165"/>
       <c r="W39" s="125" t="str">
@@ -10443,11 +10448,11 @@
       </c>
       <c r="X39" s="126">
         <f>'1M Pricing'!H39*100</f>
-        <v>3.6374952558772122</v>
+        <v>3.6645882833354277</v>
       </c>
       <c r="Y39" s="126">
         <f t="shared" si="18"/>
-        <v>3.6374952558772122</v>
+        <v>3.6645882833354277</v>
       </c>
       <c r="Z39" s="2" t="s">
         <v>70</v>
@@ -10458,11 +10463,11 @@
       </c>
       <c r="AB39" s="16">
         <f>'3M Pricing'!H39*100</f>
-        <v>3.740803108403056</v>
+        <v>3.7680560271334826</v>
       </c>
       <c r="AC39" s="16">
         <f t="shared" si="20"/>
-        <v>3.740803108403056</v>
+        <v>3.7680560271334826</v>
       </c>
       <c r="AD39" s="41" t="s">
         <v>70</v>
@@ -10473,11 +10478,11 @@
       </c>
       <c r="AF39" s="16">
         <f>'6M Pricing'!H39*100</f>
-        <v>3.8349999999979372</v>
+        <v>3.8624999999881928</v>
       </c>
       <c r="AG39" s="16">
         <f t="shared" si="22"/>
-        <v>3.8349999999979372</v>
+        <v>3.8624999999881928</v>
       </c>
       <c r="AH39" s="41" t="s">
         <v>70</v>
@@ -10537,11 +10542,11 @@
       </c>
       <c r="J40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,BID)-T40)</f>
-        <v>1.6431300764452317E-14</v>
+        <v>3.7747582837255322E-14</v>
       </c>
       <c r="K40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,ASK)-U40)</f>
-        <v>1.6431300764452317E-14</v>
+        <v>3.7747582837255322E-14</v>
       </c>
       <c r="L40" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W40,BID)-X40)</f>
@@ -10553,19 +10558,19 @@
       </c>
       <c r="N40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA40,BID)-AB40)</f>
-        <v>3.0619373703189012E-10</v>
+        <v>2.2404700317224524E-10</v>
       </c>
       <c r="O40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA40,ASK)-AC40)</f>
-        <v>3.0619373703189012E-10</v>
+        <v>2.2404700317224524E-10</v>
       </c>
       <c r="P40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE40,BID)-AF40)</f>
-        <v>4.7206683007061656E-13</v>
+        <v>3.5171865420124959E-13</v>
       </c>
       <c r="Q40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE40,ASK)-AG40)</f>
-        <v>4.7206683007061656E-13</v>
+        <v>3.5171865420124959E-13</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="15" t="str">
@@ -10574,11 +10579,11 @@
       </c>
       <c r="T40" s="16">
         <f>'ON Pricing'!H40*100</f>
-        <v>3.6700000000000164</v>
+        <v>3.6999999999999624</v>
       </c>
       <c r="U40" s="16">
         <f t="shared" si="15"/>
-        <v>3.6700000000000164</v>
+        <v>3.6999999999999624</v>
       </c>
       <c r="V40" s="165"/>
       <c r="W40" s="125" t="str">
@@ -10587,11 +10592,11 @@
       </c>
       <c r="X40" s="126">
         <f>'1M Pricing'!H40*100</f>
-        <v>3.7952151106900236</v>
+        <v>3.8247544593257707</v>
       </c>
       <c r="Y40" s="126">
         <f t="shared" si="18"/>
-        <v>3.7952151106900236</v>
+        <v>3.8247544593257707</v>
       </c>
       <c r="Z40" s="2" t="s">
         <v>70</v>
@@ -10602,11 +10607,11 @@
       </c>
       <c r="AB40" s="16">
         <f>'3M Pricing'!H40*100</f>
-        <v>3.8981881256938062</v>
+        <v>3.9279083367759529</v>
       </c>
       <c r="AC40" s="16">
         <f t="shared" si="20"/>
-        <v>3.8981881256938062</v>
+        <v>3.9279083367759529</v>
       </c>
       <c r="AD40" s="41" t="s">
         <v>70</v>
@@ -10617,11 +10622,11 @@
       </c>
       <c r="AF40" s="16">
         <f>'6M Pricing'!H40*100</f>
-        <v>3.9875000000004719</v>
+        <v>4.0175000000003518</v>
       </c>
       <c r="AG40" s="16">
         <f t="shared" si="22"/>
-        <v>3.9875000000004719</v>
+        <v>4.0175000000003518</v>
       </c>
       <c r="AH40" s="41" t="s">
         <v>70</v>
@@ -10681,11 +10686,11 @@
       </c>
       <c r="J41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,BID)-T41)</f>
-        <v>2.6263435870532703E-12</v>
+        <v>1.3131717935266352E-12</v>
       </c>
       <c r="K41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,ASK)-U41)</f>
-        <v>2.6263435870532703E-12</v>
+        <v>1.3131717935266352E-12</v>
       </c>
       <c r="L41" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W41,BID)-X41)</f>
@@ -10697,19 +10702,19 @@
       </c>
       <c r="N41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA41,BID)-AB41)</f>
-        <v>2.8776447891232237E-10</v>
+        <v>4.6494275096620186E-10</v>
       </c>
       <c r="O41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA41,ASK)-AC41)</f>
-        <v>2.8776447891232237E-10</v>
+        <v>4.6494275096620186E-10</v>
       </c>
       <c r="P41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE41,BID)-AF41)</f>
-        <v>2.5188739982695552E-12</v>
+        <v>1.0080825063596421E-12</v>
       </c>
       <c r="Q41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE41,ASK)-AG41)</f>
-        <v>2.5188739982695552E-12</v>
+        <v>1.0080825063596421E-12</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="15" t="str">
@@ -10718,11 +10723,11 @@
       </c>
       <c r="T41" s="16">
         <f>'ON Pricing'!H41*100</f>
-        <v>3.8330000000026265</v>
+        <v>3.8700000000013133</v>
       </c>
       <c r="U41" s="16">
         <f t="shared" si="15"/>
-        <v>3.8330000000026265</v>
+        <v>3.8700000000013133</v>
       </c>
       <c r="V41" s="165"/>
       <c r="W41" s="125" t="str">
@@ -10731,11 +10736,11 @@
       </c>
       <c r="X41" s="126">
         <f>'1M Pricing'!H41*100</f>
-        <v>3.9664405960390052</v>
+        <v>4.0008615461236605</v>
       </c>
       <c r="Y41" s="126">
         <f t="shared" si="18"/>
-        <v>3.9664405960390052</v>
+        <v>4.0008615461236605</v>
       </c>
       <c r="Z41" s="2" t="s">
         <v>70</v>
@@ -10746,11 +10751,11 @@
       </c>
       <c r="AB41" s="16">
         <f>'3M Pricing'!H41*100</f>
-        <v>4.0641890947122352</v>
+        <v>4.0988382545350577</v>
       </c>
       <c r="AC41" s="16">
         <f t="shared" si="20"/>
-        <v>4.0641890947122352</v>
+        <v>4.0988382545350577</v>
       </c>
       <c r="AD41" s="41" t="s">
         <v>70</v>
@@ -10761,11 +10766,11 @@
       </c>
       <c r="AF41" s="16">
         <f>'6M Pricing'!H41*100</f>
-        <v>4.1425000000025189</v>
+        <v>4.1774999999989921</v>
       </c>
       <c r="AG41" s="16">
         <f t="shared" si="22"/>
-        <v>4.1425000000025189</v>
+        <v>4.1774999999989921</v>
       </c>
       <c r="AH41" s="41" t="s">
         <v>70</v>
@@ -10825,11 +10830,11 @@
       </c>
       <c r="J42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,BID)-T42)</f>
-        <v>2.5699442574023124E-12</v>
+        <v>1.3815615318435448E-12</v>
       </c>
       <c r="K42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,ASK)-U42)</f>
-        <v>2.5699442574023124E-12</v>
+        <v>1.3815615318435448E-12</v>
       </c>
       <c r="L42" s="127" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W42,BID)-X42)</f>
@@ -10841,19 +10846,19 @@
       </c>
       <c r="N42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA42,BID)-AB42)</f>
-        <v>3.4361136158622685E-10</v>
+        <v>2.9234925591481442E-10</v>
       </c>
       <c r="O42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA42,ASK)-AC42)</f>
-        <v>3.4361136158622685E-10</v>
+        <v>2.9234925591481442E-10</v>
       </c>
       <c r="P42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE42,BID)-AF42)</f>
-        <v>1.0302869668521453E-13</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="Q42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE42,ASK)-AG42)</f>
-        <v>1.0302869668521453E-13</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="15" t="str">
@@ -10862,11 +10867,11 @@
       </c>
       <c r="T42" s="16">
         <f>'ON Pricing'!H42*100</f>
-        <v>3.89500000000257</v>
+        <v>3.9330000000013814</v>
       </c>
       <c r="U42" s="16">
         <f t="shared" si="15"/>
-        <v>3.89500000000257</v>
+        <v>3.9330000000013814</v>
       </c>
       <c r="V42" s="165"/>
       <c r="W42" s="125" t="str">
@@ -10875,11 +10880,11 @@
       </c>
       <c r="X42" s="126">
         <f>'1M Pricing'!H42*100</f>
-        <v>4.0379986050567442</v>
+        <v>4.0723968501078653</v>
       </c>
       <c r="Y42" s="126">
         <f t="shared" si="18"/>
-        <v>4.0379986050567442</v>
+        <v>4.0723968501078653</v>
       </c>
       <c r="Z42" s="2" t="s">
         <v>70</v>
@@ -10890,11 +10895,11 @@
       </c>
       <c r="AB42" s="16">
         <f>'3M Pricing'!H42*100</f>
-        <v>4.1273942653436118</v>
+        <v>4.1620296797076506</v>
       </c>
       <c r="AC42" s="16">
         <f t="shared" si="20"/>
-        <v>4.1273942653436118</v>
+        <v>4.1620296797076506</v>
       </c>
       <c r="AD42" s="41" t="s">
         <v>70</v>
@@ -10905,11 +10910,11 @@
       </c>
       <c r="AF42" s="16">
         <f>'6M Pricing'!H42*100</f>
-        <v>4.1950000000001033</v>
+        <v>4.2299999999999969</v>
       </c>
       <c r="AG42" s="16">
         <f t="shared" si="22"/>
-        <v>4.1950000000001033</v>
+        <v>4.2299999999999969</v>
       </c>
       <c r="AH42" s="41" t="s">
         <v>70</v>
@@ -10969,11 +10974,11 @@
       </c>
       <c r="J43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,BID)-T43)</f>
-        <v>2.55351295663786E-13</v>
+        <v>4.687805699177261E-12</v>
       </c>
       <c r="K43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,ASK)-U43)</f>
-        <v>2.55351295663786E-13</v>
+        <v>4.687805699177261E-12</v>
       </c>
       <c r="L43" s="140" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$W43,BID)-X43)</f>
@@ -10985,19 +10990,19 @@
       </c>
       <c r="N43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AA43,BID)-AB43)</f>
-        <v>4.3994230480848273E-10</v>
+        <v>1.5754242355114911E-10</v>
       </c>
       <c r="O43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AA43,ASK)-AC43)</f>
-        <v>4.3994230480848273E-10</v>
+        <v>1.5754242355114911E-10</v>
       </c>
       <c r="P43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AE43,BID)-AF43)</f>
-        <v>4.7712944706290727E-12</v>
+        <v>8.5913498537593114E-12</v>
       </c>
       <c r="Q43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AE43,ASK)-AG43)</f>
-        <v>4.7712944706290727E-12</v>
+        <v>8.5913498537593114E-12</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="17" t="str">
@@ -11006,11 +11011,11 @@
       </c>
       <c r="T43" s="18">
         <f>'ON Pricing'!H43*100</f>
-        <v>3.9330000000002552</v>
+        <v>3.9680000000046878</v>
       </c>
       <c r="U43" s="18">
         <f t="shared" si="15"/>
-        <v>3.9330000000002552</v>
+        <v>3.9680000000046878</v>
       </c>
       <c r="V43" s="165"/>
       <c r="W43" s="138" t="str">
@@ -11019,11 +11024,11 @@
       </c>
       <c r="X43" s="139">
         <f>'1M Pricing'!H43*100</f>
-        <v>4.0724936715800064</v>
+        <v>4.1069140114752036</v>
       </c>
       <c r="Y43" s="139">
         <f t="shared" si="18"/>
-        <v>4.0724936715800064</v>
+        <v>4.1069140114752036</v>
       </c>
       <c r="Z43" s="2" t="s">
         <v>70</v>
@@ -11034,11 +11039,11 @@
       </c>
       <c r="AB43" s="18">
         <f>'3M Pricing'!H43*100</f>
-        <v>4.1571095274399426</v>
+        <v>4.1917587371575422</v>
       </c>
       <c r="AC43" s="18">
         <f t="shared" si="20"/>
-        <v>4.1571095274399426</v>
+        <v>4.1917587371575422</v>
       </c>
       <c r="AD43" s="41" t="s">
         <v>70</v>
@@ -11049,11 +11054,11 @@
       </c>
       <c r="AF43" s="18">
         <f>'6M Pricing'!H43*100</f>
-        <v>4.2150000000047712</v>
+        <v>4.2500000000085913</v>
       </c>
       <c r="AG43" s="18">
         <f t="shared" si="22"/>
-        <v>4.2150000000047712</v>
+        <v>4.2500000000085913</v>
       </c>
       <c r="AH43" s="41" t="s">
         <v>70</v>
@@ -14966,19 +14971,19 @@
       </c>
       <c r="E6" s="162">
         <f t="shared" ref="E6" si="0">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F6" s="162">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E6,)</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="G6" s="162">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F6)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlIndexFixing(OvernightIndex,E6,TRUE,InterestRatesTrigger)</f>
-        <v>2.4996521827936879E-2</v>
+        <v>2.4997091403935467E-2</v>
       </c>
       <c r="I6" s="55" t="str">
         <f>Contribution!S6</f>
@@ -15007,26 +15012,26 @@
       <c r="A7" s="91"/>
       <c r="B7" s="91"/>
       <c r="C7" s="163" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="155" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="156">
         <f>G6</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="F7" s="156">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E7,)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G7" s="156">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="H7" s="157">
         <f>_xll.qlIndexFixing(OvernightIndex,E7,TRUE,InterestRatesTrigger)</f>
-        <v>2.4996383718023374E-2</v>
+        <v>2.4996905830888538E-2</v>
       </c>
       <c r="I7" s="153" t="str">
         <f>Contribution!S7</f>
@@ -15053,26 +15058,26 @@
       <c r="A8" s="91"/>
       <c r="B8" s="91"/>
       <c r="C8" s="164" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="158" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="159">
         <f>G6</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="F8" s="159">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E8,)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G8" s="159">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F8)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="H8" s="160">
         <f>_xll.qlIndexFixing(OvernightIndex,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.4996383718023374E-2</v>
+        <v>2.4996905830888538E-2</v>
       </c>
       <c r="I8" s="154" t="str">
         <f>Contribution!S8</f>
@@ -15114,19 +15119,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" ref="E9:E43" si="1">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9)</f>
-        <v>41891</v>
+        <v>41892</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.4999999971185419E-2</v>
+        <v>2.499999998928671E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!S9</f>
@@ -15139,7 +15144,7 @@
       <c r="K9" s="61"/>
       <c r="L9" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C9="SW","1W",C9),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00396#0002</v>
+        <v>obj_003e2#0000</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="87" t="s">
@@ -15172,26 +15177,26 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10)</f>
-        <v>41898</v>
+        <v>41899</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.5002214321092852E-2</v>
+        <v>2.5001927650198926E-2</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="60"/>
       <c r="L10" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C10="SW","1W",C10),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00397#0002</v>
+        <v>obj_003e6#0000</v>
       </c>
       <c r="M10" s="92"/>
       <c r="N10" s="41"/>
@@ -15218,26 +15223,26 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.5002473959589735E-2</v>
+        <v>2.5004603907054269E-2</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="60"/>
       <c r="L11" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C11="SW","1W",C11),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003c2#0002</v>
+        <v>obj_003d5#0000</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -15264,19 +15269,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12)</f>
-        <v>41914</v>
+        <v>41915</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.4999999993965752E-2</v>
+        <v>2.5010000000265917E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!S12</f>
@@ -15289,7 +15294,7 @@
       <c r="K12" s="60"/>
       <c r="L12" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C12="SW","1W",C12),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0038d#0002</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
@@ -15316,11 +15321,11 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13)</f>
@@ -15328,7 +15333,7 @@
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.4959999999161004E-2</v>
+        <v>2.4999999999958004E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!S13</f>
@@ -15341,7 +15346,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C13="SW","1W",C13),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003ef#0002</v>
+        <v>obj_00394#0000</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -15368,19 +15373,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14)</f>
-        <v>41975</v>
+        <v>41976</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.4874999998489883E-2</v>
+        <v>2.4910000000005976E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!S14</f>
@@ -15393,7 +15398,7 @@
       <c r="K14" s="60"/>
       <c r="L14" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C14="SW","1W",C14),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003ec#0002</v>
+        <v>obj_003e5#0000</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -15420,19 +15425,19 @@
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F15" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15)</f>
-        <v>42006</v>
+        <v>42009</v>
       </c>
       <c r="H15" s="47">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRatesTrigger)</f>
-        <v>2.4774999998892842E-2</v>
+        <v>2.4824999999999108E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!S15</f>
@@ -15445,7 +15450,7 @@
       <c r="K15" s="60"/>
       <c r="L15" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C15="SW","1W",C15),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00388#0002</v>
+        <v>obj_003cc#0000</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -15472,19 +15477,19 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F16" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16)</f>
-        <v>42037</v>
+        <v>42038</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRatesTrigger)</f>
-        <v>2.4749999999085733E-2</v>
+        <v>2.4775000000002132E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!S16</f>
@@ -15497,7 +15502,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C16="SW","1W",C16),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00387#0002</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -15524,19 +15529,19 @@
       </c>
       <c r="E17" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F17" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L17,E17)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L17,F17)</f>
-        <v>42065</v>
+        <v>42066</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlIndexFixing(L17,E17,TRUE,InterestRatesTrigger)</f>
-        <v>2.472499999930788E-2</v>
+        <v>2.4749999999999769E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!S17</f>
@@ -15549,7 +15554,7 @@
       <c r="K17" s="60"/>
       <c r="L17" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C17="SW","1W",C17),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00394#0002</v>
+        <v>obj_003ce#0000</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -15576,19 +15581,19 @@
       </c>
       <c r="E18" s="49">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F18" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L18,E18)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G18" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L18,F18)</f>
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="H18" s="50">
         <f>_xll.qlIndexFixing(L18,E18,TRUE,InterestRatesTrigger)</f>
-        <v>2.465999999999869E-2</v>
+        <v>2.4725000000000108E-2</v>
       </c>
       <c r="I18" s="40" t="str">
         <f>Contribution!S18</f>
@@ -15601,7 +15606,7 @@
       <c r="K18" s="60"/>
       <c r="L18" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C18="SW","1W",C18),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003d4#0002</v>
+        <v>obj_003ec#0000</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -15871,19 +15876,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.4629999999999319E-2</v>
+        <v>2.4749999999999963E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!S28</f>
@@ -15896,7 +15901,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C28="SW","1W",C28),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003dd#0002</v>
+        <v>obj_003bd#0000</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
@@ -15923,23 +15928,23 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29)</f>
-        <v>42431</v>
+        <v>42432</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.4803039768941697E-2</v>
+        <v>2.4953042868600211E-2</v>
       </c>
       <c r="I29" s="38" t="str">
         <f>Contribution!S29</f>
-        <v>AUDON1Y6M=</v>
+        <v>AUDON18MD=</v>
       </c>
       <c r="J29" s="38" t="str">
         <f t="shared" si="3"/>
@@ -15948,7 +15953,7 @@
       <c r="K29" s="60"/>
       <c r="L29" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C29="SW","1W",C29),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003a7#0002</v>
+        <v>obj_0038a#0000</v>
       </c>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
@@ -15975,19 +15980,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30)</f>
-        <v>42615</v>
+        <v>42618</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.539999999999976E-2</v>
+        <v>2.5550000000000964E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!S30</f>
@@ -16000,7 +16005,7 @@
       <c r="K30" s="60"/>
       <c r="L30" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C30="SW","1W",C30),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003be#0002</v>
+        <v>obj_003c4#0000</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
@@ -16027,11 +16032,11 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31)</f>
@@ -16039,7 +16044,7 @@
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.6749999999999451E-2</v>
+        <v>2.6949999999999995E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!S31</f>
@@ -16052,7 +16057,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C31="SW","1W",C31),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0039d#0002</v>
+        <v>obj_003ed#0000</v>
       </c>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
@@ -16079,11 +16084,11 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32)</f>
@@ -16091,7 +16096,7 @@
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>2.7980000000200816E-2</v>
+        <v>2.823000000000005E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!S32</f>
@@ -16104,7 +16109,7 @@
       <c r="K32" s="60"/>
       <c r="L32" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C32="SW","1W",C32),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003ca#0002</v>
+        <v>obj_003d6#0000</v>
       </c>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
@@ -16131,19 +16136,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33)</f>
-        <v>43710</v>
+        <v>43711</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>2.9230000000123962E-2</v>
+        <v>2.9449999999999851E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!S33</f>
@@ -16156,7 +16161,7 @@
       <c r="K33" s="60"/>
       <c r="L33" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C33="SW","1W",C33),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003c0#0002</v>
+        <v>obj_0038e#0000</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -16183,19 +16188,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34)</f>
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.0380000000083042E-2</v>
+        <v>3.0629999999999876E-2</v>
       </c>
       <c r="I34" s="38" t="str">
         <f>Contribution!S34</f>
@@ -16208,7 +16213,7 @@
       <c r="K34" s="60"/>
       <c r="L34" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C34="SW","1W",C34),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00391#0002</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
@@ -16235,19 +16240,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35)</f>
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.1530000000057852E-2</v>
+        <v>3.1779999999999538E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!S35</f>
@@ -16260,7 +16265,7 @@
       <c r="K35" s="60"/>
       <c r="L35" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C35="SW","1W",C35),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0038b#0002</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
@@ -16287,19 +16292,19 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36)</f>
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.2330000000042297E-2</v>
+        <v>3.2579999999999547E-2</v>
       </c>
       <c r="I36" s="38" t="str">
         <f>Contribution!S36</f>
@@ -16312,7 +16317,7 @@
       <c r="K36" s="60"/>
       <c r="L36" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C36="SW","1W",C36),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00390#0002</v>
+        <v>obj_0039d#0000</v>
       </c>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
@@ -16339,11 +16344,11 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37)</f>
@@ -16351,7 +16356,7 @@
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.3100000000031854E-2</v>
+        <v>3.3349999999999679E-2</v>
       </c>
       <c r="I37" s="38" t="str">
         <f>Contribution!S37</f>
@@ -16364,7 +16369,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C37="SW","1W",C37),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003b2#0002</v>
+        <v>obj_003e7#0000</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -16391,19 +16396,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38)</f>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.3900000000024369E-2</v>
+        <v>3.4150000000107948E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!S38</f>
@@ -16416,7 +16421,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C38="SW","1W",C38),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003e3#0002</v>
+        <v>obj_003d8#0000</v>
       </c>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -16443,19 +16448,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39)</f>
-        <v>46267</v>
+        <v>46268</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.5230000000066895E-2</v>
+        <v>3.5500000000038549E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!S39</f>
@@ -16468,7 +16473,7 @@
       <c r="K39" s="60"/>
       <c r="L39" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C39="SW","1W",C39),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003b6#0002</v>
+        <v>obj_003d3#0000</v>
       </c>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
@@ -16495,11 +16500,11 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40)</f>
@@ -16507,7 +16512,7 @@
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.6700000000000163E-2</v>
+        <v>3.6999999999999623E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!S40</f>
@@ -16520,7 +16525,7 @@
       <c r="K40" s="60"/>
       <c r="L40" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C40="SW","1W",C40),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0039f#0002</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
@@ -16547,11 +16552,11 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41)</f>
@@ -16559,7 +16564,7 @@
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>3.8330000000026267E-2</v>
+        <v>3.8700000000013134E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!S41</f>
@@ -16572,7 +16577,7 @@
       <c r="K41" s="60"/>
       <c r="L41" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C41="SW","1W",C41),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003d6#0002</v>
+        <v>obj_003dd#0000</v>
       </c>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -16599,19 +16604,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42)</f>
-        <v>51015</v>
+        <v>51018</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>3.89500000000257E-2</v>
+        <v>3.9330000000013812E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!S42</f>
@@ -16624,7 +16629,7 @@
       <c r="K42" s="60"/>
       <c r="L42" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C42="SW","1W",C42),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003a5#0002</v>
+        <v>obj_003c3#0000</v>
       </c>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
@@ -16651,19 +16656,19 @@
       </c>
       <c r="E43" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G43" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43)</f>
-        <v>52842</v>
+        <v>52845</v>
       </c>
       <c r="H43" s="47">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>3.933000000000255E-2</v>
+        <v>3.9680000000046879E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!S43</f>
@@ -16676,7 +16681,7 @@
       <c r="K43" s="60"/>
       <c r="L43" s="31" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C43="SW","1W",C43),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003b0#0002</v>
+        <v>obj_003df#0000</v>
       </c>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
@@ -18995,7 +19000,7 @@
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" s="85"/>
       <c r="N5" s="91"/>
@@ -19021,23 +19026,23 @@
         <v>15</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E43" si="1">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.6354636166824329E-2</v>
+        <v>2.6370283722131311E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!W6</f>
@@ -19047,7 +19052,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>obj_003f2#0006</v>
+        <v>obj_003f0#0002</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="91"/>
@@ -19070,26 +19075,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.6354127824028774E-2</v>
+        <v>2.636983931212129E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!W7</f>
@@ -19098,11 +19103,11 @@
       <c r="J7" s="153"/>
       <c r="K7" s="41"/>
       <c r="L7" s="86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="85"/>
       <c r="N7" s="86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="86" t="s">
         <v>87</v>
@@ -19127,26 +19132,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41886</v>
+        <v>41887</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.6353671246843735E-2</v>
+        <v>2.6369444544279697E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!W8</f>
@@ -19156,7 +19161,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003ee#0002</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -19192,19 +19197,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41892</v>
+        <v>41893</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.6349119987365395E-2</v>
+        <v>2.6365338461335246E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!W9</f>
@@ -19214,7 +19219,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003c3#0002</v>
+        <v>obj_003dc#0000</v>
       </c>
       <c r="M9" s="85"/>
       <c r="N9" s="91"/>
@@ -19244,19 +19249,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41899</v>
+        <v>41900</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.6332680108010643E-2</v>
+        <v>2.6349893535757563E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!W10</f>
@@ -19266,7 +19271,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003c1#0002</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="91"/>
@@ -19296,19 +19301,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.630423675866422E-2</v>
+        <v>2.6322958027918002E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!W11</f>
@@ -19318,7 +19323,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003cf#0002</v>
+        <v>obj_00390#0000</v>
       </c>
       <c r="M11" s="85"/>
       <c r="N11" s="91"/>
@@ -19338,7 +19343,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -19348,31 +19353,31 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41915</v>
+        <v>41919</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.6250000001643091E-2</v>
+        <v>2.6250000000824274E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!W12</f>
         <v>AUD1M1MD=</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003ba#0002</v>
+        <v>obj_0038d#0000</v>
       </c>
       <c r="M12" s="85"/>
       <c r="N12" s="91"/>
@@ -19731,19 +19736,19 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41975</v>
+        <v>41976</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRatesTrigger)</f>
-        <v>2.5805795004067295E-2</v>
+        <v>2.5806575951861862E-2</v>
       </c>
       <c r="I25" s="39" t="str">
         <f>Contribution!W25</f>
@@ -19753,7 +19758,7 @@
       <c r="K25" s="41"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0039c#0002</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="M25" s="85"/>
       <c r="N25" s="87" t="s">
@@ -19786,19 +19791,19 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42065</v>
+        <v>42066</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.5613080519338378E-2</v>
+        <v>2.56082467993703E-2</v>
       </c>
       <c r="I26" s="38" t="str">
         <f>Contribution!W26</f>
@@ -19808,7 +19813,7 @@
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003da#0002</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -19835,19 +19840,19 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.5428220610238833E-2</v>
+        <v>2.5454049564829273E-2</v>
       </c>
       <c r="I27" s="38" t="str">
         <f>Contribution!W27</f>
@@ -19857,7 +19862,7 @@
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ce#0002</v>
+        <v>obj_003c9#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -19884,19 +19889,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.5322431644628857E-2</v>
+        <v>2.544697402020684E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!W28</f>
@@ -19906,7 +19911,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b9#0002</v>
+        <v>obj_003eb#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="91"/>
@@ -19933,26 +19938,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42431</v>
+        <v>42432</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.5592587497737188E-2</v>
+        <v>2.5750779970896375E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e0#0002</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="M29" s="92"/>
       <c r="N29" s="91"/>
@@ -19979,19 +19984,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42615</v>
+        <v>42618</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.6168454275887577E-2</v>
+        <v>2.6317669276448519E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!W30</f>
@@ -20001,7 +20006,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d7#0002</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="M30" s="92"/>
       <c r="N30" s="91"/>
@@ -20028,11 +20033,11 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
@@ -20040,7 +20045,7 @@
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.7549639071659436E-2</v>
+        <v>2.7748750409932608E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!W31</f>
@@ -20050,7 +20055,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ae#0002</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="M31" s="92"/>
       <c r="N31" s="91"/>
@@ -20077,11 +20082,11 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
@@ -20089,7 +20094,7 @@
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>2.8849500503031776E-2</v>
+        <v>2.9071661457944598E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!W32</f>
@@ -20099,7 +20104,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ab#0002</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="M32" s="92"/>
       <c r="N32" s="91"/>
@@ -20126,19 +20131,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43710</v>
+        <v>43711</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.0133886773398583E-2</v>
+        <v>3.0331135795126432E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!W33</f>
@@ -20148,7 +20153,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e9#0002</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="M33" s="92"/>
       <c r="N33" s="91"/>
@@ -20175,26 +20180,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.1384339582308615E-2</v>
+        <v>3.157567672779886E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="41"/>
       <c r="L34" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0038e#0002</v>
+        <v>obj_003cd#0000</v>
       </c>
       <c r="M34" s="92"/>
       <c r="N34" s="91"/>
@@ -20221,19 +20226,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.2490988366434888E-2</v>
+        <v>3.2687805527114318E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!W35</f>
@@ -20243,7 +20248,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003de#0002</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="M35" s="92"/>
       <c r="N35" s="91"/>
@@ -20270,26 +20275,26 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.3420372372986826E-2</v>
+        <v>3.3624586111631834E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="41"/>
       <c r="L36" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a0#0002</v>
+        <v>obj_00389#0000</v>
       </c>
       <c r="M36" s="92"/>
       <c r="N36" s="91"/>
@@ -20316,11 +20321,11 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
@@ -20328,14 +20333,14 @@
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.4240418121299403E-2</v>
+        <v>3.4443727902999995E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="41"/>
       <c r="L37" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b7#0002</v>
+        <v>obj_00395#0000</v>
       </c>
       <c r="M37" s="92"/>
       <c r="N37" s="91"/>
@@ -20362,19 +20367,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.4994567182576292E-2</v>
+        <v>3.5215971370075934E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!W38</f>
@@ -20384,7 +20389,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a9#0002</v>
+        <v>obj_003d1#0000</v>
       </c>
       <c r="M38" s="92"/>
       <c r="N38" s="91"/>
@@ -20411,19 +20416,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46267</v>
+        <v>46268</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.6374952558772121E-2</v>
+        <v>3.6645882833354279E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!W39</f>
@@ -20433,7 +20438,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003db#0002</v>
+        <v>obj_003d7#0000</v>
       </c>
       <c r="M39" s="92"/>
       <c r="N39" s="91"/>
@@ -20460,11 +20465,11 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
@@ -20472,7 +20477,7 @@
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.7952151106900235E-2</v>
+        <v>3.8247544593257708E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!W40</f>
@@ -20482,7 +20487,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b4#0002</v>
+        <v>obj_0038c#0000</v>
       </c>
       <c r="M40" s="92"/>
       <c r="N40" s="91"/>
@@ -20509,11 +20514,11 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
@@ -20521,7 +20526,7 @@
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>3.9664405960390052E-2</v>
+        <v>4.0008615461236609E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!W41</f>
@@ -20531,7 +20536,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a6#0002</v>
+        <v>obj_003c7#0000</v>
       </c>
       <c r="M41" s="92"/>
       <c r="N41" s="91"/>
@@ -20558,19 +20563,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51015</v>
+        <v>51018</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.0379986050567439E-2</v>
+        <v>4.0723968501078657E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!W42</f>
@@ -20580,7 +20585,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e2#0002</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="M42" s="92"/>
       <c r="N42" s="91"/>
@@ -20607,19 +20612,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>52842</v>
+        <v>52845</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.0724936715800068E-2</v>
+        <v>4.1069140114752038E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!W43</f>
@@ -20629,7 +20634,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="56" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b3#0002</v>
+        <v>obj_003c8#0000</v>
       </c>
       <c r="M43" s="92"/>
       <c r="N43" s="91"/>
@@ -23348,7 +23353,7 @@
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="6"/>
@@ -23374,23 +23379,23 @@
         <v>15</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E14" si="1">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.6258469082053777E-2</v>
+        <v>2.6266042558600006E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!AA6</f>
@@ -23400,7 +23405,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_003f1#0006</v>
+        <v>obj_003f2#0002</v>
       </c>
       <c r="M6" s="57"/>
       <c r="N6" s="6"/>
@@ -23423,26 +23428,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.6259329004426027E-2</v>
+        <v>2.6266893692347158E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!AA7</f>
@@ -23451,11 +23456,11 @@
       <c r="J7" s="153"/>
       <c r="K7" s="91"/>
       <c r="L7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="91"/>
       <c r="N7" s="86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="86" t="s">
         <v>87</v>
@@ -23480,26 +23485,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41886</v>
+        <v>41887</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.6260191871773086E-2</v>
+        <v>2.6267748096141519E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!AA8</f>
@@ -23509,7 +23514,7 @@
       <c r="K8" s="91"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003c7#0002</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="M8" s="91"/>
       <c r="N8" s="87" t="b">
@@ -23545,19 +23550,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41892</v>
+        <v>41893</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.626526600173722E-2</v>
+        <v>2.6272760067255364E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!AA9</f>
@@ -23567,7 +23572,7 @@
       <c r="K9" s="57"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003b1#0002</v>
+        <v>obj_003e3#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
@@ -23597,19 +23602,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41899</v>
+        <v>41900</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.6270542893541374E-2</v>
+        <v>2.6277893461195054E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!AA10</f>
@@ -23619,7 +23624,7 @@
       <c r="K10" s="57"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003c8#0002</v>
+        <v>obj_0038f#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -23649,19 +23654,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.6275126404819833E-2</v>
+        <v>2.6282256925277626E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!AA11</f>
@@ -23671,7 +23676,7 @@
       <c r="K11" s="57"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0039b#0002</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -23691,7 +23696,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -23701,19 +23706,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41915</v>
+        <v>41919</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.6279998958041267E-2</v>
+        <v>2.62879425293309E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!AA12</f>
@@ -23723,7 +23728,7 @@
       <c r="K12" s="57"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003d9#0002</v>
+        <v>obj_00391#0000</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
@@ -23753,19 +23758,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>41946</v>
+        <v>41947</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.6287964549405657E-2</v>
+        <v>2.6292363449617249E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!AA13</f>
@@ -23775,7 +23780,7 @@
       <c r="K13" s="57"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003b8#0002</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -23805,31 +23810,31 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>41976</v>
+        <v>41977</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.6282594679933002E-2</v>
+        <v>2.6283289065882339E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!AA14</f>
         <v>AUD3M3MD=</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00392#0002</v>
+        <v>obj_003ea#0000</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
@@ -23977,7 +23982,7 @@
       </c>
       <c r="H19" s="110">
         <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.37500000015217</v>
+        <v>97.3750000001112</v>
       </c>
       <c r="I19" s="39" t="str">
         <f>Contribution!AA19</f>
@@ -24077,7 +24082,7 @@
       </c>
       <c r="H21" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.415000000004042</v>
+        <v>97.405000000003611</v>
       </c>
       <c r="I21" s="38" t="str">
         <f>Contribution!AA21</f>
@@ -24127,7 +24132,7 @@
       </c>
       <c r="H22" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.395000000000081</v>
+        <v>97.384999999996722</v>
       </c>
       <c r="I22" s="38" t="str">
         <f>Contribution!AA22</f>
@@ -24177,7 +24182,7 @@
       </c>
       <c r="H23" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.32427412243841</v>
+        <v>97.314999999996502</v>
       </c>
       <c r="I23" s="38" t="str">
         <f>Contribution!AA23</f>
@@ -24227,7 +24232,7 @@
       </c>
       <c r="H24" s="112">
         <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.238328706303307</v>
+        <v>97.224999999999994</v>
       </c>
       <c r="I24" s="40" t="str">
         <f>Contribution!AA24</f>
@@ -24272,26 +24277,26 @@
       </c>
       <c r="E25" s="45">
         <f>EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41975</v>
+        <v>41976</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRatesTrigger)</f>
-        <v>2.628460248673993E-2</v>
+        <v>2.6285517830883502E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="91"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,"AudBBSW3M",DiscountingCurve,,Trigger)</f>
-        <v>obj_003e7#0002</v>
+        <v>obj_003cb#0000</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="30" t="s">
@@ -24324,26 +24329,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" ref="E26:E27" si="3">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42065</v>
+        <v>42066</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.6140965784492098E-2</v>
+        <v>2.6136131807497263E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="57"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d8#0002</v>
+        <v>obj_003ca#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="58"/>
@@ -24370,26 +24375,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="3"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.6043407677408034E-2</v>
+        <v>2.6069333128158644E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="91"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00393#0002</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="91"/>
@@ -24416,19 +24421,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="4">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.6028093936634078E-2</v>
+        <v>2.6074409928019283E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!AA28</f>
@@ -24441,7 +24446,7 @@
       <c r="K28" s="91"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d1#0002</v>
+        <v>obj_00396#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="57"/>
@@ -24468,26 +24473,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42431</v>
+        <v>42432</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.6365275301151941E-2</v>
+        <v>2.6434043835148458E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="91"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c5#0002</v>
+        <v>obj_0039e#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="57"/>
@@ -24514,19 +24519,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="5">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42615</v>
+        <v>42618</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.6975000000723837E-2</v>
+        <v>2.7125000000213131E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!AA30</f>
@@ -24539,7 +24544,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d3#0002</v>
+        <v>obj_003c0#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
@@ -24566,11 +24571,11 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
@@ -24578,7 +24583,7 @@
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.8425000000765276E-2</v>
+        <v>2.86500000006377E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!AA31</f>
@@ -24591,7 +24596,7 @@
       <c r="K31" s="57"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e4#0002</v>
+        <v>obj_00397#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="57"/>
@@ -24618,11 +24623,11 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
@@ -24630,7 +24635,7 @@
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>2.978075646378929E-2</v>
+        <v>3.0029021985254728E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!AA32</f>
@@ -24640,7 +24645,7 @@
       <c r="K32" s="57"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d2#0002</v>
+        <v>obj_0039b#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="57"/>
@@ -24667,19 +24672,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43710</v>
+        <v>43711</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.1096262250201928E-2</v>
+        <v>3.131957509316418E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!AA33</f>
@@ -24689,7 +24694,7 @@
       <c r="K33" s="57"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d5#0002</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="57"/>
@@ -24716,26 +24721,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.2368049534608895E-2</v>
+        <v>3.2584210373716553E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="57"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ad#0002</v>
+        <v>obj_0038b#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="57"/>
@@ -24762,19 +24767,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.3490334905112072E-2</v>
+        <v>3.3713399982586101E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!AA35</f>
@@ -24784,7 +24789,7 @@
       <c r="K35" s="57"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0038a#0002</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="57"/>
@@ -24811,26 +24816,26 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.4431071103073571E-2</v>
+        <v>3.4666098315956552E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="57"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003bc#0002</v>
+        <v>obj_0039a#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
@@ -24857,11 +24862,11 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
@@ -24869,14 +24874,14 @@
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.5259516035155182E-2</v>
+        <v>3.5495013686672183E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="57"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003cb#0002</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="57"/>
@@ -24903,19 +24908,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.601983289876548E-2</v>
+        <v>3.6267651228907877E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!AA38</f>
@@ -24925,7 +24930,7 @@
       <c r="K38" s="57"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00399#0002</v>
+        <v>obj_00388#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="57"/>
@@ -24952,19 +24957,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46267</v>
+        <v>46268</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.7408031084030562E-2</v>
+        <v>3.7680560271334824E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!AA39</f>
@@ -24974,7 +24979,7 @@
       <c r="K39" s="57"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e6#0002</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="57"/>
@@ -25001,11 +25006,11 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
@@ -25013,7 +25018,7 @@
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.8981881256938064E-2</v>
+        <v>3.9279083367759531E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!AA40</f>
@@ -25023,7 +25028,7 @@
       <c r="K40" s="57"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0039e#0002</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="57"/>
@@ -25050,11 +25055,11 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
@@ -25062,7 +25067,7 @@
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>4.0641890947122353E-2</v>
+        <v>4.0988382545350574E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!AA41</f>
@@ -25072,7 +25077,7 @@
       <c r="K41" s="57"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e8#0002</v>
+        <v>obj_00393#0000</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -25099,19 +25104,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51015</v>
+        <v>51018</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.1273942653436119E-2</v>
+        <v>4.162029679707651E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!AA42</f>
@@ -25121,7 +25126,7 @@
       <c r="K42" s="57"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c4#0002</v>
+        <v>obj_003e0#0000</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -25148,19 +25153,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="5"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>52842</v>
+        <v>52845</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.1571095274399429E-2</v>
+        <v>4.1917587371575422E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!AA43</f>
@@ -25170,7 +25175,7 @@
       <c r="K43" s="57"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0038c#0002</v>
+        <v>obj_00387#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -27414,7 +27419,7 @@
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" s="91"/>
       <c r="N5" s="91"/>
@@ -27440,23 +27445,23 @@
         <v>15</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E17" si="1">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.7532996012104662E-2</v>
+        <v>2.7525426472184096E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!AE6</f>
@@ -27466,7 +27471,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_003f0#0006</v>
+        <v>obj_003f1#0002</v>
       </c>
       <c r="M6" s="91"/>
       <c r="N6" s="91"/>
@@ -27489,26 +27494,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.753386543216017E-2</v>
+        <v>2.7526302026469388E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!AE7</f>
@@ -27517,11 +27522,11 @@
       <c r="J7" s="153"/>
       <c r="K7" s="41"/>
       <c r="L7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="85"/>
       <c r="N7" s="86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="86" t="s">
         <v>87</v>
@@ -27546,26 +27551,26 @@
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41886</v>
+        <v>41887</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.7534740724408646E-2</v>
+        <v>2.7527183219022699E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!AE8</f>
@@ -27575,7 +27580,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0039a#0002</v>
+        <v>obj_003cf#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -27611,19 +27616,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41892</v>
+        <v>41893</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.7539786951145593E-2</v>
+        <v>2.7532273034961894E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!AE9</f>
@@ -27633,7 +27638,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003bb#0002</v>
+        <v>obj_003d4#0000</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="91"/>
@@ -27663,19 +27668,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41899</v>
+        <v>41900</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.7544389697016301E-2</v>
+        <v>2.7536977641714477E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!AE10</f>
@@ -27685,7 +27690,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0038f#0002</v>
+        <v>obj_003de#0000</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="91"/>
@@ -27715,19 +27720,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.7547607026686734E-2</v>
+        <v>2.754035184604222E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!AE11</f>
@@ -27737,7 +27742,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003cc#0002</v>
+        <v>obj_003e4#0000</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="91"/>
@@ -27757,7 +27762,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -27767,19 +27772,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41915</v>
+        <v>41919</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.7549704349218961E-2</v>
+        <v>2.7543034906933883E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!AE12</f>
@@ -27789,7 +27794,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003a4#0002</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="91"/>
@@ -27819,19 +27824,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>41946</v>
+        <v>41947</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.7539306173838426E-2</v>
+        <v>2.7534007096966497E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!AE13</f>
@@ -27841,7 +27846,7 @@
       <c r="K13" s="41"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003dc#0002</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="57"/>
@@ -27871,19 +27876,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>41976</v>
+        <v>41977</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.7503100006385083E-2</v>
+        <v>2.7500458517750015E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!AE14</f>
@@ -27893,7 +27898,7 @@
       <c r="K14" s="41"/>
       <c r="L14" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003df#0002</v>
+        <v>obj_003c5#0000</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="57"/>
@@ -27913,7 +27918,7 @@
       <c r="A15" s="91"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>22</v>
@@ -27923,11 +27928,11 @@
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F15" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
@@ -27935,7 +27940,7 @@
       </c>
       <c r="H15" s="47">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRatesTrigger)</f>
-        <v>2.7433365676076127E-2</v>
+        <v>2.7437267710289683E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!AE15</f>
@@ -27945,7 +27950,7 @@
       <c r="K15" s="41"/>
       <c r="L15" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C15="ON",C15="TN",C15="SN"),"1D",IF(C15="SW","1W",C15)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003e5#0002</v>
+        <v>obj_003e1#0000</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="57"/>
@@ -27975,19 +27980,19 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F16" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
-        <v>42038</v>
+        <v>42039</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRatesTrigger)</f>
-        <v>2.7346045492323928E-2</v>
+        <v>2.7352161177278962E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!AE16</f>
@@ -27997,7 +28002,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C16="ON",C16="TN",C16="SN"),"1D",IF(C16="SW","1W",C16)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003ea#0002</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="57"/>
@@ -28027,31 +28032,31 @@
       </c>
       <c r="E17" s="48">
         <f t="shared" si="1"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F17" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L17,E17,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L17,F17,Trigger)</f>
-        <v>42066</v>
+        <v>42067</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlIndexFixing(L17,E17,TRUE,InterestRatesTrigger)</f>
-        <v>2.7238475262397761E-2</v>
+        <v>2.7249999999869656E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!AE17</f>
         <v>AUD6M6MD=</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C17="ON",C17="TN",C17="SN"),"1D",IF(C17="SW","1W",C17)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003cd#0002</v>
+        <v>obj_003ee#0000</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="57"/>
@@ -28275,26 +28280,26 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" ref="E25:E27" si="2">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41975</v>
+        <v>41976</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRatesTrigger)</f>
-        <v>2.7507106848883654E-2</v>
+        <v>2.750430654031533E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="41"/>
       <c r="L25" s="88" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c9#0002</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="87" t="s">
@@ -28327,26 +28332,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="2"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42065</v>
+        <v>42066</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.7246370022353569E-2</v>
+        <v>2.7257582108895968E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a1#0002</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -28373,26 +28378,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="2"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.6740283653664602E-2</v>
+        <v>2.6769639716290886E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a2#0002</v>
+        <v>obj_003d0#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -28419,19 +28424,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="3">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.6540243854936082E-2</v>
+        <v>2.658681568165731E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!AE28</f>
@@ -28441,7 +28446,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a8#0002</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="57"/>
@@ -28468,26 +28473,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="3"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42431</v>
+        <v>42432</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.6911092982023547E-2</v>
+        <v>2.6993140882817047E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c6#0002</v>
+        <v>obj_003e8#0000</v>
       </c>
       <c r="M29" s="85"/>
       <c r="N29" s="57"/>
@@ -28514,19 +28519,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="4">EvaluationDate</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42615</v>
+        <v>42618</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.7637369493000219E-2</v>
+        <v>2.7775934889645287E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!AE30</f>
@@ -28536,7 +28541,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003bd#0002</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="M30" s="85"/>
       <c r="N30" s="57"/>
@@ -28563,11 +28568,11 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
@@ -28575,7 +28580,7 @@
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.9139370172997742E-2</v>
+        <v>2.9364547743557217E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!AE31</f>
@@ -28585,7 +28590,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003bf#0002</v>
+        <v>obj_003ef#0000</v>
       </c>
       <c r="M31" s="85"/>
       <c r="N31" s="57"/>
@@ -28612,11 +28617,11 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
@@ -28624,7 +28629,7 @@
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>3.0649999999975145E-2</v>
+        <v>3.0900000000005416E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!AE32</f>
@@ -28637,7 +28642,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d0#0002</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="M32" s="85"/>
       <c r="N32" s="57"/>
@@ -28664,19 +28669,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43710</v>
+        <v>43711</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.1999999999958437E-2</v>
+        <v>3.2225000000000018E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!AE33</f>
@@ -28689,7 +28694,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e1#0002</v>
+        <v>obj_00392#0000</v>
       </c>
       <c r="M33" s="85"/>
       <c r="N33" s="57"/>
@@ -28716,19 +28721,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.3275000000012087E-2</v>
+        <v>3.3499999999818578E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38" t="str">
@@ -28738,7 +28743,7 @@
       <c r="K34" s="41"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a3#0002</v>
+        <v>obj_003db#0000</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="57"/>
@@ -28765,19 +28770,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.4424999999967676E-2</v>
+        <v>3.4649999999996337E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!AE35</f>
@@ -28790,7 +28795,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003af#0002</v>
+        <v>obj_003d2#0000</v>
       </c>
       <c r="M35" s="85"/>
       <c r="N35" s="57"/>
@@ -28817,19 +28822,19 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.5375000000006464E-2</v>
+        <v>3.562500000001656E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38" t="str">
@@ -28839,7 +28844,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00395#0002</v>
+        <v>obj_003da#0000</v>
       </c>
       <c r="M36" s="85"/>
       <c r="N36" s="57"/>
@@ -28866,11 +28871,11 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
@@ -28878,7 +28883,7 @@
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.6199999999996221E-2</v>
+        <v>3.6474999999963641E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38" t="str">
@@ -28888,7 +28893,7 @@
       <c r="K37" s="41"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00398#0002</v>
+        <v>obj_003c6#0000</v>
       </c>
       <c r="M37" s="85"/>
       <c r="N37" s="57"/>
@@ -28915,19 +28920,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.6974999999997031E-2</v>
+        <v>3.7224999999997267E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!AE38</f>
@@ -28940,7 +28945,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003aa#0002</v>
+        <v>obj_00399#0000</v>
       </c>
       <c r="M38" s="85"/>
       <c r="N38" s="57"/>
@@ -28967,19 +28972,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46267</v>
+        <v>46268</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.8349999999979373E-2</v>
+        <v>3.8624999999881927E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!AE39</f>
@@ -28992,7 +28997,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b5#0002</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="M39" s="85"/>
       <c r="N39" s="57"/>
@@ -29019,11 +29024,11 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
@@ -29031,7 +29036,7 @@
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.9875000000004719E-2</v>
+        <v>4.0175000000003513E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!AE40</f>
@@ -29044,7 +29049,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ed#0002</v>
+        <v>obj_003e9#0000</v>
       </c>
       <c r="M40" s="85"/>
       <c r="N40" s="57"/>
@@ -29071,11 +29076,11 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
@@ -29083,7 +29088,7 @@
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>4.1425000000025192E-2</v>
+        <v>4.1774999999989917E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!AE41</f>
@@ -29096,7 +29101,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ac#0002</v>
+        <v>obj_003a5#0000</v>
       </c>
       <c r="M41" s="57"/>
       <c r="N41" s="57"/>
@@ -29123,19 +29128,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51015</v>
+        <v>51018</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.1950000000001035E-2</v>
+        <v>4.229999999999997E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!AE42</f>
@@ -29148,7 +29153,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003eb#0002</v>
+        <v>obj_0039c#0000</v>
       </c>
       <c r="M42" s="57"/>
       <c r="N42" s="57"/>
@@ -29175,19 +29180,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="4"/>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41884</v>
+        <v>41885</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>52842</v>
+        <v>52845</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.2150000000047712E-2</v>
+        <v>4.2500000000085913E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!AE43</f>
@@ -29200,7 +29205,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00389#0002</v>
+        <v>obj_003d9#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>

--- a/QuantLibXL/Data2/XLS/AUD_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_MxContributor.xlsx
@@ -1415,7 +1415,7 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.499690583</v>
+        <v>2.4999535700000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K7" s="7"/>
@@ -1427,61 +1427,61 @@
         <tr r="K9" s="7"/>
       </tp>
       <tp>
-        <v>2.499690583</v>
+        <v>2.4999535700000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K8" s="7"/>
       </tp>
       <tp>
-        <v>2.4997091400000002</v>
+        <v>2.4998961749999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K6" s="7"/>
       </tp>
       <tp>
-        <v>3.0630000000000002</v>
+        <v>3.125</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K34" s="7"/>
       </tp>
       <tp>
-        <v>2.4750000000000001</v>
+        <v>2.4870000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K17" s="7"/>
       </tp>
       <tp>
-        <v>3.1779999999999999</v>
+        <v>3.2450000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K35" s="7"/>
       </tp>
       <tp>
-        <v>2.823</v>
+        <v>2.8679999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K32" s="7"/>
       </tp>
       <tp>
-        <v>2.4824999999999999</v>
+        <v>2.4900000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K15" s="7"/>
       </tp>
       <tp>
-        <v>2.9449999999999998</v>
+        <v>3.0049999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K33" s="7"/>
       </tp>
       <tp>
-        <v>2.4775</v>
+        <v>2.4874999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K16" s="7"/>
       </tp>
       <tp>
-        <v>2.5550000000000002</v>
+        <v>2.58</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K30" s="7"/>
@@ -1493,60 +1493,56 @@
         <tr r="K13" s="7"/>
       </tp>
       <tp>
-        <v>2.6949999999999998</v>
+        <v>2.7250000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K31" s="7"/>
       </tp>
       <tp>
-        <v>2.4910000000000001</v>
+        <v>2.4950000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K14" s="7"/>
       </tp>
       <tp>
-        <v>2.4750000000000001</v>
+        <v>2.4900000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K28" s="7"/>
       </tp>
       <tp>
-        <v>2.5009999999999999</v>
+        <v>2.5</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K12" s="7"/>
       </tp>
       <tp>
-        <v>3.258</v>
+        <v>3.3279999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K36" s="7"/>
       </tp>
       <tp>
-        <v>3.335</v>
+        <v>3.4129999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K37" s="7"/>
       </tp>
       <tp>
-        <v>2.4725000000000001</v>
+        <v>2.4874999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K18" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5204252500000002</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON18MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J29" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5204252500000002</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON18MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1555,42 +1551,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.968</v>
+        <v>4.048</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J43" s="7"/>
       </tp>
       <tp>
-        <v>3.87</v>
+        <v>3.948</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J41" s="7"/>
       </tp>
       <tp>
-        <v>3.9329999999999998</v>
+        <v>4.01</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J42" s="7"/>
       </tp>
       <tp>
-        <v>3.415</v>
+        <v>3.4950000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J38" s="7"/>
       </tp>
       <tp>
-        <v>3.55</v>
+        <v>3.633</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J39" s="7"/>
       </tp>
       <tp>
-        <v>3.7</v>
+        <v>3.7829999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1599,7 +1595,7 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.499690583</v>
+        <v>2.4999535700000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J7" s="7"/>
@@ -1611,61 +1607,61 @@
         <tr r="J9" s="7"/>
       </tp>
       <tp>
-        <v>2.499690583</v>
+        <v>2.4999535700000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J8" s="7"/>
       </tp>
       <tp>
-        <v>2.4997091400000002</v>
+        <v>2.4998961749999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J6" s="7"/>
       </tp>
       <tp>
-        <v>3.0630000000000002</v>
+        <v>3.125</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J34" s="7"/>
       </tp>
       <tp>
-        <v>2.4750000000000001</v>
+        <v>2.4870000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J17" s="7"/>
       </tp>
       <tp>
-        <v>3.1779999999999999</v>
+        <v>3.2450000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J35" s="7"/>
       </tp>
       <tp>
-        <v>2.823</v>
+        <v>2.8679999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J32" s="7"/>
       </tp>
       <tp>
-        <v>2.4824999999999999</v>
+        <v>2.4900000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J15" s="7"/>
       </tp>
       <tp>
-        <v>2.9449999999999998</v>
+        <v>3.0049999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J33" s="7"/>
       </tp>
       <tp>
-        <v>2.4775</v>
+        <v>2.4874999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J16" s="7"/>
       </tp>
       <tp>
-        <v>2.5550000000000002</v>
+        <v>2.58</v>
         <stp/>
         <stp xml:space="preserve">	AUDON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J30" s="7"/>
@@ -1677,43 +1673,43 @@
         <tr r="J13" s="7"/>
       </tp>
       <tp>
-        <v>2.6949999999999998</v>
+        <v>2.7250000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J31" s="7"/>
       </tp>
       <tp>
-        <v>2.4910000000000001</v>
+        <v>2.4950000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUDON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J14" s="7"/>
       </tp>
       <tp>
-        <v>2.4750000000000001</v>
+        <v>2.4900000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J28" s="7"/>
       </tp>
       <tp>
-        <v>2.5009999999999999</v>
+        <v>2.5</v>
         <stp/>
         <stp xml:space="preserve">	AUDON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J12" s="7"/>
       </tp>
       <tp>
-        <v>3.258</v>
+        <v>3.3279999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J36" s="7"/>
       </tp>
       <tp>
-        <v>3.335</v>
+        <v>3.4129999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J37" s="7"/>
       </tp>
       <tp>
-        <v>2.4725000000000001</v>
+        <v>2.4874999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUDON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J18" s="7"/>
@@ -1721,42 +1717,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.415</v>
+        <v>3.4950000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K38" s="7"/>
       </tp>
       <tp>
-        <v>3.55</v>
+        <v>3.633</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K39" s="7"/>
       </tp>
       <tp>
-        <v>3.7</v>
+        <v>3.7829999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K40" s="7"/>
       </tp>
       <tp>
-        <v>3.87</v>
+        <v>3.948</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K41" s="7"/>
       </tp>
       <tp>
-        <v>3.9329999999999998</v>
+        <v>4.01</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K42" s="7"/>
       </tp>
       <tp>
-        <v>3.968</v>
+        <v>4.048</v>
         <stp/>
         <stp xml:space="preserve">
 AUDON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1765,25 +1761,25 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.7526302029999998</v>
+        <v>2.7462120410000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P7" s="7"/>
       </tp>
       <tp>
-        <v>2.7532273030000001</v>
+        <v>2.746781151</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P9" s="7"/>
       </tp>
       <tp>
-        <v>2.7527183220000002</v>
+        <v>2.7462956730000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P8" s="7"/>
       </tp>
       <tp>
-        <v>2.7525426469999998</v>
+        <v>2.7459658060000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P6" s="7"/>
@@ -1795,243 +1791,207 @@
         <tr r="P17" s="7"/>
       </tp>
       <tp>
-        <v>2.743726771</v>
+        <v>2.7403671209999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P15" s="7"/>
       </tp>
       <tp>
-        <v>2.7352161179999999</v>
+        <v>2.7332080240000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P16" s="7"/>
       </tp>
       <tp>
-        <v>2.753697764</v>
+        <v>2.7472455729999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P10" s="7"/>
       </tp>
       <tp>
-        <v>2.7534007100000002</v>
+        <v>2.747407419</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P13" s="7"/>
       </tp>
       <tp>
-        <v>2.7540351850000002</v>
+        <v>2.7476000169999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P11" s="7"/>
       </tp>
       <tp>
-        <v>2.750045852</v>
+        <v>2.7450574649999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P14" s="7"/>
       </tp>
       <tp>
-        <v>2.7543034909999999</v>
+        <v>2.7478938519999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>4.0696472259999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M41" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>4.1411741989999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M42" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>4.1756564909999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M43" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.7296393819999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M39" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.5842437810000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.8960232760000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M40" s="7"/>
       </tp>
       <tp>
-        <v>3.0029021990000002</v>
+        <v>3.0425776550000001</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O32" s="7"/>
       </tp>
       <tp>
-        <v>3.1319575089999998</v>
+        <v>3.1815277370000001</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O33" s="7"/>
       </tp>
       <tp>
-        <v>3.3713399979999998</v>
+        <v>3.4308047230000001</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O35" s="7"/>
       </tp>
       <tp>
-        <v>2.607440993</v>
+        <v>2.623767741</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O28" s="7"/>
       </tp>
       <tp>
-        <v>2.7124999999999999</v>
+        <v>2.74</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O30" s="7"/>
       </tp>
       <tp>
-        <v>2.8650000000000002</v>
+        <v>2.89</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O31" s="7"/>
       </tp>
-      <tp>
-        <v>97.385000000000005</v>
-        <stp/>
-        <stp>_x0008_AUD3MM5=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="O22" s="7"/>
-      </tp>
-      <tp>
-        <v>97.405000000000001</v>
-        <stp/>
-        <stp>_x0008_AUD3MH5=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="O21" s="7"/>
-      </tp>
-      <tp>
-        <v>97.224999999999994</v>
-        <stp/>
-        <stp>_x0008_AUD3MZ5=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="O24" s="7"/>
-      </tp>
-      <tp>
-        <v>97.405000000000001</v>
-        <stp/>
-        <stp>_x0008_AUD3MZ4=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="O20" s="7"/>
-      </tp>
-      <tp>
-        <v>97.314999999999998</v>
-        <stp/>
-        <stp>_x0008_AUD3MU5=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="O23" s="7"/>
-      </tp>
-      <tp>
-        <v>97.375</v>
-        <stp/>
-        <stp>_x0008_AUD3MU4=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="O19" s="7"/>
-      </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>4.0988382550000004</v>
+        <v>4.1681050060000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O41" s="7"/>
       </tp>
       <tp>
-        <v>4.1620296799999998</v>
+        <v>4.2312922220000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O42" s="7"/>
       </tp>
       <tp>
-        <v>4.1917587369999998</v>
+        <v>4.2610003069999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O43" s="7"/>
       </tp>
       <tp>
-        <v>3.7680560270000001</v>
+        <v>3.8398309820000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O39" s="7"/>
       </tp>
       <tp>
-        <v>3.6267651230000002</v>
+        <v>3.6960976689999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O38" s="7"/>
       </tp>
       <tp>
-        <v>3.9279083369999999</v>
+        <v>3.9996644940000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O40" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5533129290000001</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.9403842939999998</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.0761547280000001</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5645011040000001</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.321645363</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5583409879999999</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6541656360000001</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.7947532430000002</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.57427166</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M25" s="7"/>
@@ -2039,171 +1999,171 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.6266893690000002</v>
+        <v>2.6194344699999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N7" s="7"/>
       </tp>
       <tp>
-        <v>2.6272760069999999</v>
+        <v>2.6200590949999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N9" s="7"/>
       </tp>
       <tp>
-        <v>2.6267748100000001</v>
+        <v>2.6195242049999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N8" s="7"/>
       </tp>
       <tp>
-        <v>2.6266042559999998</v>
+        <v>2.6191662710000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N6" s="7"/>
       </tp>
       <tp>
-        <v>2.6277893460000001</v>
+        <v>2.6206611739999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N10" s="7"/>
       </tp>
       <tp>
-        <v>2.6292363449999998</v>
+        <v>2.6242106170000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N13" s="7"/>
       </tp>
       <tp>
-        <v>2.6282256930000001</v>
+        <v>2.6212395709999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N11" s="7"/>
       </tp>
       <tp>
-        <v>2.6283289070000002</v>
+        <v>2.6257131139999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N14" s="7"/>
       </tp>
       <tp>
-        <v>2.6287942530000001</v>
+        <v>2.6219483690000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N12" s="7"/>
       </tp>
       <tp>
-        <v>3.09</v>
+        <v>3.13</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q32" s="7"/>
       </tp>
       <tp>
-        <v>3.2225000000000001</v>
+        <v>3.2725</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q33" s="7"/>
       </tp>
       <tp>
-        <v>3.4649999999999999</v>
+        <v>3.5249999999999999</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q35" s="7"/>
       </tp>
       <tp>
-        <v>2.658681568</v>
+        <v>2.675060883</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q28" s="7"/>
       </tp>
       <tp>
-        <v>2.777593489</v>
+        <v>2.8054630820000002</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q30" s="7"/>
       </tp>
       <tp>
-        <v>2.936454774</v>
+        <v>2.9632643650000001</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q31" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6409742</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L7" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6395971390000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6408090139999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6415328310000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L6" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6368271230000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6325945270000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.625</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L12" s="7"/>
       </tp>
       <tp>
-        <v>4.1775000000000002</v>
+        <v>4.2474999999999996</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q41" s="7"/>
       </tp>
       <tp>
-        <v>4.2300000000000004</v>
+        <v>4.3</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q42" s="7"/>
       </tp>
       <tp>
-        <v>4.25</v>
+        <v>4.32</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q43" s="7"/>
       </tp>
       <tp>
-        <v>3.8624999999999998</v>
+        <v>3.9350000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q39" s="7"/>
       </tp>
       <tp>
-        <v>3.7225000000000001</v>
+        <v>3.7925</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q38" s="7"/>
       </tp>
       <tp>
-        <v>4.0175000000000001</v>
+        <v>4.09</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q40" s="7"/>
@@ -2211,93 +2171,93 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.4649999999999999</v>
+        <v>3.5249999999999999</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P35" s="7"/>
       </tp>
       <tp>
-        <v>3.2225000000000001</v>
+        <v>3.2725</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P33" s="7"/>
       </tp>
       <tp>
-        <v>3.09</v>
+        <v>3.13</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P32" s="7"/>
       </tp>
       <tp>
-        <v>2.936454774</v>
+        <v>2.9632643650000001</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P31" s="7"/>
       </tp>
       <tp>
-        <v>2.777593489</v>
+        <v>2.8054630820000002</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P30" s="7"/>
       </tp>
       <tp>
-        <v>2.658681568</v>
+        <v>2.675060883</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P28" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5533129290000001</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.321645363</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5645011040000001</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.0761547280000001</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.9403842939999998</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.57427166</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.7947532430000002</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6541656360000001</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5583409879999999</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L28" s="7"/>
@@ -2305,171 +2265,133 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.3713399979999998</v>
+        <v>3.4308047230000001</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N35" s="7"/>
       </tp>
       <tp>
-        <v>3.1319575089999998</v>
+        <v>3.1815277370000001</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N33" s="7"/>
       </tp>
       <tp>
-        <v>3.0029021990000002</v>
+        <v>3.0425776550000001</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N32" s="7"/>
       </tp>
       <tp>
-        <v>2.8650000000000002</v>
+        <v>2.89</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N31" s="7"/>
       </tp>
       <tp>
-        <v>2.7124999999999999</v>
+        <v>2.74</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N30" s="7"/>
       </tp>
       <tp>
-        <v>2.607440993</v>
+        <v>2.623767741</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N28" s="7"/>
       </tp>
       <tp>
-        <v>97.385000000000005</v>
-        <stp/>
-        <stp>_x0008_AUD3MM5=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="N22" s="7"/>
-      </tp>
-      <tp>
-        <v>97.405000000000001</v>
-        <stp/>
-        <stp>_x0008_AUD3MH5=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="N21" s="7"/>
-      </tp>
-      <tp>
-        <v>97.224999999999994</v>
-        <stp/>
-        <stp>_x0008_AUD3MZ5=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="N24" s="7"/>
-      </tp>
-      <tp>
-        <v>97.405000000000001</v>
-        <stp/>
-        <stp>_x0008_AUD3MZ4=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="N20" s="7"/>
-      </tp>
-      <tp>
-        <v>97.314999999999998</v>
-        <stp/>
-        <stp>_x0008_AUD3MU5=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="N23" s="7"/>
-      </tp>
-      <tp>
-        <v>97.375</v>
-        <stp/>
-        <stp>_x0008_AUD3MU4=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="N19" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>4.0988382550000004</v>
+        <v>4.1681050060000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N41" s="7"/>
       </tp>
       <tp>
-        <v>4.1620296799999998</v>
+        <v>4.2312922220000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N42" s="7"/>
       </tp>
       <tp>
-        <v>4.1917587369999998</v>
+        <v>4.2610003069999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N43" s="7"/>
       </tp>
       <tp>
-        <v>3.6267651230000002</v>
+        <v>3.6960976689999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N38" s="7"/>
       </tp>
       <tp>
-        <v>3.7680560270000001</v>
+        <v>3.8398309820000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N39" s="7"/>
       </tp>
       <tp>
-        <v>3.9279083369999999</v>
+        <v>3.9996644940000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N40" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>4.0696472259999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L41" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>4.1411741989999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L42" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>4.1756564909999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L43" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.5842437810000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.7296393819999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L39" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>3.8960232760000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="L40" s="7"/>
       </tp>
       <tp>
-        <v>2.7526302029999998</v>
+        <v>2.7462120410000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q7" s="7"/>
       </tp>
       <tp>
-        <v>2.7532273030000001</v>
+        <v>2.746781151</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q9" s="7"/>
       </tp>
       <tp>
-        <v>2.7527183220000002</v>
+        <v>2.7462956730000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q8" s="7"/>
       </tp>
       <tp>
-        <v>2.7525426469999998</v>
+        <v>2.7459658060000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q6" s="7"/>
@@ -2481,178 +2403,250 @@
         <tr r="Q17" s="7"/>
       </tp>
       <tp>
-        <v>2.743726771</v>
+        <v>2.7403671209999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q15" s="7"/>
       </tp>
       <tp>
-        <v>2.7352161179999999</v>
+        <v>2.7332080240000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q16" s="7"/>
       </tp>
       <tp>
-        <v>2.753697764</v>
+        <v>2.7472455729999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q10" s="7"/>
       </tp>
       <tp>
-        <v>2.7534007100000002</v>
+        <v>2.747407419</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q13" s="7"/>
       </tp>
       <tp>
-        <v>2.7540351850000002</v>
+        <v>2.7476000169999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q11" s="7"/>
       </tp>
       <tp>
-        <v>2.750045852</v>
+        <v>2.7450574649999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q14" s="7"/>
       </tp>
       <tp>
-        <v>2.7543034909999999</v>
+        <v>2.7478938519999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q12" s="7"/>
       </tp>
       <tp>
-        <v>4.1775000000000002</v>
+        <v>4.2474999999999996</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P41" s="7"/>
       </tp>
       <tp>
-        <v>4.2300000000000004</v>
+        <v>4.3</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P42" s="7"/>
       </tp>
       <tp>
-        <v>4.25</v>
+        <v>4.32</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P43" s="7"/>
       </tp>
       <tp>
-        <v>3.7225000000000001</v>
+        <v>3.7925</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P38" s="7"/>
       </tp>
       <tp>
-        <v>3.8624999999999998</v>
+        <v>3.9350000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P39" s="7"/>
       </tp>
       <tp>
-        <v>4.0175000000000001</v>
+        <v>4.09</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="P40" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6409742</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M7" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6395971390000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6408090139999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6415328310000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M6" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6368271230000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.6325945270000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.625</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M12" s="7"/>
       </tp>
       <tp>
-        <v>2.6266893690000002</v>
+        <v>2.6194344699999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O7" s="7"/>
       </tp>
       <tp>
-        <v>2.6272760069999999</v>
+        <v>2.6200590949999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O9" s="7"/>
       </tp>
       <tp>
-        <v>2.6267748100000001</v>
+        <v>2.6195242049999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O8" s="7"/>
       </tp>
       <tp>
-        <v>2.6266042559999998</v>
+        <v>2.6191662710000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O6" s="7"/>
       </tp>
       <tp>
-        <v>2.6277893460000001</v>
+        <v>2.6206611739999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O10" s="7"/>
       </tp>
       <tp>
-        <v>2.6292363449999998</v>
+        <v>2.6242106170000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O13" s="7"/>
       </tp>
       <tp>
-        <v>2.6282256930000001</v>
+        <v>2.6212395709999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O11" s="7"/>
       </tp>
       <tp>
-        <v>2.6283289070000002</v>
+        <v>2.6257131139999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O14" s="7"/>
       </tp>
       <tp>
-        <v>2.6287942530000001</v>
+        <v>2.6219483690000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="O12" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MH5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="O21" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MM5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="O22" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MZ4_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="O20" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MZ5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="O24" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MU4_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="O19" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MU5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="O23" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MU5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="N23" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MU4_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="N19" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MZ5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="N24" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MZ4_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="N20" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MH5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="N21" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A RIC Not Found</v>
+        <stp/>
+        <stp>_x0007_AUD3MM5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="N22" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2685,7 +2679,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
       </sheetData>
@@ -3178,7 +3172,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="68">
-        <v>41884.358506944445</v>
+        <v>41886.425243055557</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="2"/>
@@ -3211,7 +3205,7 @@
       </c>
       <c r="D5" s="68">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="2"/>
@@ -3244,7 +3238,7 @@
       </c>
       <c r="D6" s="69">
         <f>[1]!TriggerCounter</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="2"/>
@@ -3683,7 +3677,7 @@
       </c>
       <c r="D20" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="E20" s="67"/>
       <c r="F20" s="2"/>
@@ -6475,35 +6469,35 @@
       </c>
       <c r="J6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,BID)-T6)</f>
-        <v>3.9354652869860729E-10</v>
+        <v>3.5991831737192115E-10</v>
       </c>
       <c r="K6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,ASK)-U6)</f>
-        <v>3.9354652869860729E-10</v>
-      </c>
-      <c r="L6" s="124" t="e">
+        <v>3.5991831737192115E-10</v>
+      </c>
+      <c r="L6" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$W6,BID)-X6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" s="124" t="e">
+        <v>6.8711737472693102E-5</v>
+      </c>
+      <c r="M6" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$W6,ASK)-Y6)</f>
-        <v>#VALUE!</v>
+        <v>6.8711737472693102E-5</v>
       </c>
       <c r="N6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AA6,BID)-AB6)</f>
-        <v>1.3999912340523224E-10</v>
+        <v>2.8268716845536446E-4</v>
       </c>
       <c r="O6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AA6,ASK)-AC6)</f>
-        <v>1.3999912340523224E-10</v>
+        <v>2.8268716845536446E-4</v>
       </c>
       <c r="P6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AE6,BID)-AF6)</f>
-        <v>2.1840973474240855E-10</v>
+        <v>1.6105837770501452E-3</v>
       </c>
       <c r="Q6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$AE6,ASK)-AG6)</f>
-        <v>2.1840973474240855E-10</v>
+        <v>1.6105837770501452E-3</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="13" t="str">
@@ -6512,11 +6506,11 @@
       </c>
       <c r="T6" s="14">
         <f>'ON Pricing'!H6*100</f>
-        <v>2.4997091403935467</v>
+        <v>2.4998961746400816</v>
       </c>
       <c r="U6" s="14">
         <f>T6</f>
-        <v>2.4997091403935467</v>
+        <v>2.4998961746400816</v>
       </c>
       <c r="V6" s="165"/>
       <c r="W6" s="122" t="str">
@@ -6525,11 +6519,11 @@
       </c>
       <c r="X6" s="123">
         <f>'1M Pricing'!H6*100</f>
-        <v>2.6370283722131309</v>
+        <v>2.6416015427374728</v>
       </c>
       <c r="Y6" s="123">
         <f>X6</f>
-        <v>2.6370283722131309</v>
+        <v>2.6416015427374728</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>70</v>
@@ -6540,11 +6534,11 @@
       </c>
       <c r="AB6" s="14">
         <f>'3M Pricing'!H6*100</f>
-        <v>2.6266042558600007</v>
+        <v>2.6188835838315447</v>
       </c>
       <c r="AC6" s="14">
         <f>AB6</f>
-        <v>2.6266042558600007</v>
+        <v>2.6188835838315447</v>
       </c>
       <c r="AD6" s="41" t="s">
         <v>70</v>
@@ -6555,11 +6549,11 @@
       </c>
       <c r="AF6" s="14">
         <f>'6M Pricing'!H6*100</f>
-        <v>2.7525426472184096</v>
+        <v>2.7443552222229499</v>
       </c>
       <c r="AG6" s="14">
         <f>AF6</f>
-        <v>2.7525426472184096</v>
+        <v>2.7443552222229499</v>
       </c>
       <c r="AH6" s="41" t="s">
         <v>70</v>
@@ -6619,35 +6613,35 @@
       </c>
       <c r="J7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,BID)-T7)</f>
-        <v>8.8853813196010378E-11</v>
+        <v>3.7201353109139745E-11</v>
       </c>
       <c r="K7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,ASK)-U7)</f>
-        <v>8.8853813196010378E-11</v>
-      </c>
-      <c r="L7" s="127" t="e">
+        <v>3.7201353109139745E-11</v>
+      </c>
+      <c r="L7" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W7,BID)-X7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="127" t="e">
+        <v>6.5768492428563974E-5</v>
+      </c>
+      <c r="M7" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W7,ASK)-Y7)</f>
-        <v>#VALUE!</v>
+        <v>6.5768492428563974E-5</v>
       </c>
       <c r="N7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA7,BID)-AB7)</f>
-        <v>2.3471580234968314E-10</v>
+        <v>2.8144493189952158E-4</v>
       </c>
       <c r="O7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA7,ASK)-AC7)</f>
-        <v>2.3471580234968314E-10</v>
+        <v>2.8144493189952158E-4</v>
       </c>
       <c r="P7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE7,BID)-AF7)</f>
-        <v>3.5306113588262633E-10</v>
+        <v>1.6083548645777768E-3</v>
       </c>
       <c r="Q7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE7,ASK)-AG7)</f>
-        <v>3.5306113588262633E-10</v>
+        <v>1.6083548645777768E-3</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="15" t="str">
@@ -6656,11 +6650,11 @@
       </c>
       <c r="T7" s="16">
         <f>'ON Pricing'!H7*100</f>
-        <v>2.4996905830888538</v>
+        <v>2.4999535699627988</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" ref="U7:U8" si="3">T7</f>
-        <v>2.4996905830888538</v>
+        <v>2.4999535699627988</v>
       </c>
       <c r="V7" s="165"/>
       <c r="W7" s="125" t="str">
@@ -6669,11 +6663,11 @@
       </c>
       <c r="X7" s="126">
         <f>'1M Pricing'!H7*100</f>
-        <v>2.636983931212129</v>
+        <v>2.6410399684924286</v>
       </c>
       <c r="Y7" s="126">
         <f t="shared" ref="Y7:Y8" si="4">X7</f>
-        <v>2.636983931212129</v>
+        <v>2.6410399684924286</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="15" t="str">
@@ -6682,11 +6676,11 @@
       </c>
       <c r="AB7" s="16">
         <f>'3M Pricing'!H7*100</f>
-        <v>2.626689369234716</v>
+        <v>2.6191530250681003</v>
       </c>
       <c r="AC7" s="16">
         <f t="shared" ref="AC7:AC8" si="5">AB7</f>
-        <v>2.626689369234716</v>
+        <v>2.6191530250681003</v>
       </c>
       <c r="AD7" s="41"/>
       <c r="AE7" s="15" t="str">
@@ -6695,11 +6689,11 @@
       </c>
       <c r="AF7" s="16">
         <f>'6M Pricing'!H7*100</f>
-        <v>2.7526302026469387</v>
+        <v>2.7446036861354224</v>
       </c>
       <c r="AG7" s="16">
         <f t="shared" ref="AG7:AG8" si="6">AF7</f>
-        <v>2.7526302026469387</v>
+        <v>2.7446036861354224</v>
       </c>
       <c r="AH7" s="41"/>
       <c r="AI7" s="2"/>
@@ -6757,35 +6751,35 @@
       </c>
       <c r="J8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>8.8853813196010378E-11</v>
+        <v>3.7201353109139745E-11</v>
       </c>
       <c r="K8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>8.8853813196010378E-11</v>
-      </c>
-      <c r="L8" s="127" t="e">
+        <v>3.7201353109139745E-11</v>
+      </c>
+      <c r="L8" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W8,BID)-X8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" s="127" t="e">
+        <v>6.4861504157409655E-5</v>
+      </c>
+      <c r="M8" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W8,ASK)-Y8)</f>
-        <v>#VALUE!</v>
+        <v>6.4861504157409655E-5</v>
       </c>
       <c r="N8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA8,BID)-AB8)</f>
-        <v>3.8584824224585645E-10</v>
+        <v>2.8106282034956465E-4</v>
       </c>
       <c r="O8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA8,ASK)-AC8)</f>
-        <v>3.8584824224585645E-10</v>
+        <v>2.8106282034956465E-4</v>
       </c>
       <c r="P8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE8,BID)-AF8)</f>
-        <v>9.773026832249343E-11</v>
+        <v>1.6076750395401795E-3</v>
       </c>
       <c r="Q8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE8,ASK)-AG8)</f>
-        <v>9.773026832249343E-11</v>
+        <v>1.6076750395401795E-3</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="15" t="str">
@@ -6794,11 +6788,11 @@
       </c>
       <c r="T8" s="16">
         <f>'ON Pricing'!H8*100</f>
-        <v>2.4996905830888538</v>
+        <v>2.4999535699627988</v>
       </c>
       <c r="U8" s="16">
         <f t="shared" si="3"/>
-        <v>2.4996905830888538</v>
+        <v>2.4999535699627988</v>
       </c>
       <c r="V8" s="165"/>
       <c r="W8" s="125" t="str">
@@ -6807,11 +6801,11 @@
       </c>
       <c r="X8" s="126">
         <f>'1M Pricing'!H8*100</f>
-        <v>2.6369444544279697</v>
+        <v>2.6408738755041572</v>
       </c>
       <c r="Y8" s="126">
         <f t="shared" si="4"/>
-        <v>2.6369444544279697</v>
+        <v>2.6408738755041572</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="15" t="str">
@@ -6820,11 +6814,11 @@
       </c>
       <c r="AB8" s="16">
         <f>'3M Pricing'!H8*100</f>
-        <v>2.6267748096141519</v>
+        <v>2.6192431421796503</v>
       </c>
       <c r="AC8" s="16">
         <f t="shared" si="5"/>
-        <v>2.6267748096141519</v>
+        <v>2.6192431421796503</v>
       </c>
       <c r="AD8" s="41"/>
       <c r="AE8" s="15" t="str">
@@ -6833,11 +6827,11 @@
       </c>
       <c r="AF8" s="16">
         <f>'6M Pricing'!H8*100</f>
-        <v>2.7527183219022699</v>
+        <v>2.7446879979604599</v>
       </c>
       <c r="AG8" s="16">
         <f t="shared" si="6"/>
-        <v>2.7527183219022699</v>
+        <v>2.7446879979604599</v>
       </c>
       <c r="AH8" s="41"/>
       <c r="AI8" s="2"/>
@@ -6895,35 +6889,35 @@
       </c>
       <c r="J9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>7.1328720707697357E-11</v>
+        <v>9.5335295213772042E-11</v>
       </c>
       <c r="K9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>7.1328720707697357E-11</v>
-      </c>
-      <c r="L9" s="127" t="e">
+        <v>9.5335295213772042E-11</v>
+      </c>
+      <c r="L9" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W9,BID)-X9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" s="127" t="e">
+        <v>5.8645093720777197E-5</v>
+      </c>
+      <c r="M9" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W9,ASK)-Y9)</f>
-        <v>#VALUE!</v>
+        <v>5.8645093720777197E-5</v>
       </c>
       <c r="N9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA9,BID)-AB9)</f>
-        <v>2.7446356298810315E-10</v>
+        <v>2.784354943830003E-4</v>
       </c>
       <c r="O9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA9,ASK)-AC9)</f>
-        <v>2.7446356298810315E-10</v>
+        <v>2.784354943830003E-4</v>
       </c>
       <c r="P9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE9,BID)-AF9)</f>
-        <v>4.9618931186046211E-10</v>
+        <v>1.6029325585535936E-3</v>
       </c>
       <c r="Q9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE9,ASK)-AG9)</f>
-        <v>4.9618931186046211E-10</v>
+        <v>1.6029325585535936E-3</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="15" t="str">
@@ -6932,11 +6926,11 @@
       </c>
       <c r="T9" s="16">
         <f>'ON Pricing'!H9*100</f>
-        <v>2.4999999989286712</v>
+        <v>2.4999999989046646</v>
       </c>
       <c r="U9" s="16">
         <f t="shared" ref="U9:U17" si="7">T9</f>
-        <v>2.4999999989286712</v>
+        <v>2.4999999989046646</v>
       </c>
       <c r="V9" s="165"/>
       <c r="W9" s="125" t="str">
@@ -6945,11 +6939,11 @@
       </c>
       <c r="X9" s="126">
         <f>'1M Pricing'!H9*100</f>
-        <v>2.6365338461335246</v>
+        <v>2.6396557840937209</v>
       </c>
       <c r="Y9" s="126">
         <f t="shared" ref="Y9:Y12" si="8">X9</f>
-        <v>2.6365338461335246</v>
+        <v>2.6396557840937209</v>
       </c>
       <c r="Z9" s="41" t="s">
         <v>70</v>
@@ -6960,11 +6954,11 @@
       </c>
       <c r="AB9" s="16">
         <f>'3M Pricing'!H9*100</f>
-        <v>2.6272760067255363</v>
+        <v>2.6197806595056168</v>
       </c>
       <c r="AC9" s="16">
         <f t="shared" ref="AC9:AC14" si="9">AB9</f>
-        <v>2.6272760067255363</v>
+        <v>2.6197806595056168</v>
       </c>
       <c r="AD9" s="41" t="s">
         <v>70</v>
@@ -6975,11 +6969,11 @@
       </c>
       <c r="AF9" s="16">
         <f>'6M Pricing'!H9*100</f>
-        <v>2.7532273034961894</v>
+        <v>2.7451782184414464</v>
       </c>
       <c r="AG9" s="16">
         <f t="shared" ref="AG9:AG17" si="10">AF9</f>
-        <v>2.7532273034961894</v>
+        <v>2.7451782184414464</v>
       </c>
       <c r="AH9" s="41" t="s">
         <v>70</v>
@@ -7038,29 +7032,29 @@
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="127" t="e">
+      <c r="L10" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W10,BID)-X10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" s="127" t="e">
+        <v>4.6648216700972966E-5</v>
+      </c>
+      <c r="M10" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W10,ASK)-Y10)</f>
-        <v>#VALUE!</v>
+        <v>4.6648216700972966E-5</v>
       </c>
       <c r="N10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA10,BID)-AB10)</f>
-        <v>1.1950529454907155E-10</v>
+        <v>2.7328141702254172E-4</v>
       </c>
       <c r="O10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA10,ASK)-AC10)</f>
-        <v>1.1950529454907155E-10</v>
+        <v>2.7328141702254172E-4</v>
       </c>
       <c r="P10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE10,BID)-AF10)</f>
-        <v>1.7144774488997427E-10</v>
+        <v>1.5932442766466437E-3</v>
       </c>
       <c r="Q10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE10,ASK)-AG10)</f>
-        <v>1.7144774488997427E-10</v>
+        <v>1.5932442766466437E-3</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="15"/>
@@ -7073,11 +7067,11 @@
       </c>
       <c r="X10" s="126">
         <f>'1M Pricing'!H10*100</f>
-        <v>2.6349893535757563</v>
+        <v>2.6368737712167012</v>
       </c>
       <c r="Y10" s="126">
         <f t="shared" si="8"/>
-        <v>2.6349893535757563</v>
+        <v>2.6368737712167012</v>
       </c>
       <c r="Z10" s="2" t="s">
         <v>70</v>
@@ -7088,11 +7082,11 @@
       </c>
       <c r="AB10" s="16">
         <f>'3M Pricing'!H10*100</f>
-        <v>2.6277893461195054</v>
+        <v>2.6203878925829773</v>
       </c>
       <c r="AC10" s="16">
         <f t="shared" si="9"/>
-        <v>2.6277893461195054</v>
+        <v>2.6203878925829773</v>
       </c>
       <c r="AD10" s="41" t="s">
         <v>70</v>
@@ -7103,11 +7097,11 @@
       </c>
       <c r="AF10" s="16">
         <f>'6M Pricing'!H10*100</f>
-        <v>2.7536977641714477</v>
+        <v>2.7456523287233532</v>
       </c>
       <c r="AG10" s="16">
         <f t="shared" si="10"/>
-        <v>2.7536977641714477</v>
+        <v>2.7456523287233532</v>
       </c>
       <c r="AH10" s="41" t="s">
         <v>70</v>
@@ -7166,29 +7160,29 @@
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="127" t="e">
+      <c r="L11" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W11,BID)-X11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" s="127" t="e">
+        <v>2.9534528764862955E-5</v>
+      </c>
+      <c r="M11" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W11,ASK)-Y11)</f>
-        <v>#VALUE!</v>
+        <v>2.9534528764862955E-5</v>
       </c>
       <c r="N11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA11,BID)-AB11)</f>
-        <v>4.7223736032719899E-10</v>
+        <v>2.6587524294185982E-4</v>
       </c>
       <c r="O11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA11,ASK)-AC11)</f>
-        <v>4.7223736032719899E-10</v>
+        <v>2.6587524294185982E-4</v>
       </c>
       <c r="P11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE11,BID)-AF11)</f>
-        <v>3.9577807697810385E-10</v>
+        <v>1.579074282022308E-3</v>
       </c>
       <c r="Q11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE11,ASK)-AG11)</f>
-        <v>3.9577807697810385E-10</v>
+        <v>1.579074282022308E-3</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="15"/>
@@ -7201,11 +7195,11 @@
       </c>
       <c r="X11" s="126">
         <f>'1M Pricing'!H11*100</f>
-        <v>2.6322958027918002</v>
+        <v>2.632624061528765</v>
       </c>
       <c r="Y11" s="126">
         <f t="shared" si="8"/>
-        <v>2.6322958027918002</v>
+        <v>2.632624061528765</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>70</v>
@@ -7216,11 +7210,11 @@
       </c>
       <c r="AB11" s="16">
         <f>'3M Pricing'!H11*100</f>
-        <v>2.6282256925277627</v>
+        <v>2.620973695757058</v>
       </c>
       <c r="AC11" s="16">
         <f t="shared" si="9"/>
-        <v>2.6282256925277627</v>
+        <v>2.620973695757058</v>
       </c>
       <c r="AD11" s="41" t="s">
         <v>70</v>
@@ -7231,11 +7225,11 @@
       </c>
       <c r="AF11" s="16">
         <f>'6M Pricing'!H11*100</f>
-        <v>2.7540351846042221</v>
+        <v>2.7460209427179776</v>
       </c>
       <c r="AG11" s="16">
         <f t="shared" si="10"/>
-        <v>2.7540351846042221</v>
+        <v>2.7460209427179776</v>
       </c>
       <c r="AH11" s="41" t="s">
         <v>70</v>
@@ -7295,35 +7289,35 @@
       </c>
       <c r="J12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>2.6591617796611899E-11</v>
+        <v>2.8220981107551779E-11</v>
       </c>
       <c r="K12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>2.6591617796611899E-11</v>
-      </c>
-      <c r="L12" s="127" t="e">
+        <v>2.8220981107551779E-11</v>
+      </c>
+      <c r="L12" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W12,BID)-X12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" s="127" t="e">
+        <v>2.7507240929480758E-10</v>
+      </c>
+      <c r="M12" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W12,ASK)-Y12)</f>
-        <v>#VALUE!</v>
+        <v>2.7507240929480758E-10</v>
       </c>
       <c r="N12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA12,BID)-AB12)</f>
-        <v>6.6910033069689234E-11</v>
+        <v>2.530388839638853E-4</v>
       </c>
       <c r="O12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA12,ASK)-AC12)</f>
-        <v>6.6910033069689234E-11</v>
+        <v>2.530388839638853E-4</v>
       </c>
       <c r="P12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE12,BID)-AF12)</f>
-        <v>3.0661162497835903E-10</v>
+        <v>1.5542600138491736E-3</v>
       </c>
       <c r="Q12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE12,ASK)-AG12)</f>
-        <v>3.0661162497835903E-10</v>
+        <v>1.5542600138491736E-3</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="15" t="str">
@@ -7332,11 +7326,11 @@
       </c>
       <c r="T12" s="16">
         <f>'ON Pricing'!H12*100</f>
-        <v>2.5010000000265915</v>
+        <v>2.500000000028221</v>
       </c>
       <c r="U12" s="16">
         <f t="shared" si="7"/>
-        <v>2.5010000000265915</v>
+        <v>2.500000000028221</v>
       </c>
       <c r="V12" s="165"/>
       <c r="W12" s="125" t="str">
@@ -7345,11 +7339,11 @@
       </c>
       <c r="X12" s="126">
         <f>'1M Pricing'!H12*100</f>
-        <v>2.6250000000824274</v>
+        <v>2.6250000002750724</v>
       </c>
       <c r="Y12" s="126">
         <f t="shared" si="8"/>
-        <v>2.6250000000824274</v>
+        <v>2.6250000002750724</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>70</v>
@@ -7360,11 +7354,11 @@
       </c>
       <c r="AB12" s="16">
         <f>'3M Pricing'!H12*100</f>
-        <v>2.6287942529330901</v>
+        <v>2.6216953301160362</v>
       </c>
       <c r="AC12" s="16">
         <f t="shared" si="9"/>
-        <v>2.6287942529330901</v>
+        <v>2.6216953301160362</v>
       </c>
       <c r="AD12" s="41" t="s">
         <v>70</v>
@@ -7375,11 +7369,11 @@
       </c>
       <c r="AF12" s="16">
         <f>'6M Pricing'!H12*100</f>
-        <v>2.7543034906933883</v>
+        <v>2.7463395919861506</v>
       </c>
       <c r="AG12" s="16">
         <f t="shared" si="10"/>
-        <v>2.7543034906933883</v>
+        <v>2.7463395919861506</v>
       </c>
       <c r="AH12" s="41" t="s">
         <v>70</v>
@@ -7438,29 +7432,29 @@
       </c>
       <c r="J13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>4.1997516575520422E-12</v>
+        <v>4.0092373865263653E-12</v>
       </c>
       <c r="K13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>4.1997516575520422E-12</v>
+        <v>4.0092373865263653E-12</v>
       </c>
       <c r="L13" s="127"/>
       <c r="M13" s="127"/>
       <c r="N13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA13,BID)-AB13)</f>
-        <v>3.8274716729347347E-11</v>
+        <v>1.739522888155598E-4</v>
       </c>
       <c r="O13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA13,ASK)-AC13)</f>
-        <v>3.8274716729347347E-11</v>
+        <v>1.739522888155598E-4</v>
       </c>
       <c r="P13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE13,BID)-AF13)</f>
-        <v>3.0335067791043002E-10</v>
+        <v>1.3995439866110182E-3</v>
       </c>
       <c r="Q13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE13,ASK)-AG13)</f>
-        <v>3.0335067791043002E-10</v>
+        <v>1.3995439866110182E-3</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="15" t="str">
@@ -7469,11 +7463,11 @@
       </c>
       <c r="T13" s="16">
         <f>'ON Pricing'!H13*100</f>
-        <v>2.4999999999958002</v>
+        <v>2.4999999999959908</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="7"/>
-        <v>2.4999999999958002</v>
+        <v>2.4999999999959908</v>
       </c>
       <c r="V13" s="165"/>
       <c r="W13" s="125"/>
@@ -7488,11 +7482,11 @@
       </c>
       <c r="AB13" s="16">
         <f>'3M Pricing'!H13*100</f>
-        <v>2.6292363449617251</v>
+        <v>2.6240366647111846</v>
       </c>
       <c r="AC13" s="16">
         <f t="shared" si="9"/>
-        <v>2.6292363449617251</v>
+        <v>2.6240366647111846</v>
       </c>
       <c r="AD13" s="41" t="s">
         <v>70</v>
@@ -7503,11 +7497,11 @@
       </c>
       <c r="AF13" s="16">
         <f>'6M Pricing'!H13*100</f>
-        <v>2.7534007096966495</v>
+        <v>2.7460078750133889</v>
       </c>
       <c r="AG13" s="16">
         <f t="shared" si="10"/>
-        <v>2.7534007096966495</v>
+        <v>2.7460078750133889</v>
       </c>
       <c r="AH13" s="41" t="s">
         <v>70</v>
@@ -7566,29 +7560,29 @@
       </c>
       <c r="J14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>5.9729998724833422E-13</v>
+        <v>5.2358117841322382E-13</v>
       </c>
       <c r="K14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>5.9729998724833422E-13</v>
+        <v>5.2358117841322382E-13</v>
       </c>
       <c r="L14" s="130"/>
       <c r="M14" s="130"/>
       <c r="N14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA14,BID)-AB14)</f>
-        <v>4.1176617671112581E-10</v>
+        <v>6.7194882385823718E-5</v>
       </c>
       <c r="O14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA14,ASK)-AC14)</f>
-        <v>4.1176617671112581E-10</v>
+        <v>6.7194882385823718E-5</v>
       </c>
       <c r="P14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE14,BID)-AF14)</f>
-        <v>2.2499824225974407E-10</v>
+        <v>1.1893244432026329E-3</v>
       </c>
       <c r="Q14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE14,ASK)-AG14)</f>
-        <v>2.2499824225974407E-10</v>
+        <v>1.1893244432026329E-3</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="15" t="str">
@@ -7597,11 +7591,11 @@
       </c>
       <c r="T14" s="16">
         <f>'ON Pricing'!H14*100</f>
-        <v>2.4910000000005974</v>
+        <v>2.4950000000005237</v>
       </c>
       <c r="U14" s="16">
         <f t="shared" si="7"/>
-        <v>2.4910000000005974</v>
+        <v>2.4950000000005237</v>
       </c>
       <c r="V14" s="165"/>
       <c r="W14" s="128"/>
@@ -7616,11 +7610,11 @@
       </c>
       <c r="AB14" s="16">
         <f>'3M Pricing'!H14*100</f>
-        <v>2.628328906588234</v>
+        <v>2.625645919117614</v>
       </c>
       <c r="AC14" s="16">
         <f t="shared" si="9"/>
-        <v>2.628328906588234</v>
+        <v>2.625645919117614</v>
       </c>
       <c r="AD14" s="41" t="s">
         <v>70</v>
@@ -7631,11 +7625,11 @@
       </c>
       <c r="AF14" s="16">
         <f>'6M Pricing'!H14*100</f>
-        <v>2.7500458517750017</v>
+        <v>2.7438681405567973</v>
       </c>
       <c r="AG14" s="16">
         <f t="shared" si="10"/>
-        <v>2.7500458517750017</v>
+        <v>2.7438681405567973</v>
       </c>
       <c r="AH14" s="41" t="s">
         <v>70</v>
@@ -7693,11 +7687,11 @@
       </c>
       <c r="J15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,BID)-T15)</f>
-        <v>8.9261931179862586E-14</v>
+        <v>2.1316282072803006E-14</v>
       </c>
       <c r="K15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,ASK)-U15)</f>
-        <v>8.9261931179862586E-14</v>
+        <v>2.1316282072803006E-14</v>
       </c>
       <c r="L15" s="127"/>
       <c r="M15" s="127"/>
@@ -7705,11 +7699,11 @@
       <c r="O15" s="104"/>
       <c r="P15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE15,BID)-AF15)</f>
-        <v>2.8968383247729435E-11</v>
+        <v>8.7146506160351578E-4</v>
       </c>
       <c r="Q15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE15,ASK)-AG15)</f>
-        <v>2.8968383247729435E-11</v>
+        <v>8.7146506160351578E-4</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="15" t="str">
@@ -7718,11 +7712,11 @@
       </c>
       <c r="T15" s="16">
         <f>'ON Pricing'!H15*100</f>
-        <v>2.4824999999999107</v>
+        <v>2.4899999999999789</v>
       </c>
       <c r="U15" s="16">
         <f t="shared" si="7"/>
-        <v>2.4824999999999107</v>
+        <v>2.4899999999999789</v>
       </c>
       <c r="V15" s="165"/>
       <c r="W15" s="125"/>
@@ -7743,11 +7737,11 @@
       </c>
       <c r="AF15" s="16">
         <f>'6M Pricing'!H15*100</f>
-        <v>2.7437267710289683</v>
+        <v>2.7394956559383963</v>
       </c>
       <c r="AG15" s="16">
         <f t="shared" si="10"/>
-        <v>2.7437267710289683</v>
+        <v>2.7394956559383963</v>
       </c>
       <c r="AH15" s="41" t="s">
         <v>70</v>
@@ -7805,11 +7799,11 @@
       </c>
       <c r="J16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,BID)-T16)</f>
-        <v>2.1316282072803006E-13</v>
+        <v>1.1812772982011666E-13</v>
       </c>
       <c r="K16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,ASK)-U16)</f>
-        <v>2.1316282072803006E-13</v>
+        <v>1.1812772982011666E-13</v>
       </c>
       <c r="L16" s="127"/>
       <c r="M16" s="127"/>
@@ -7817,11 +7811,11 @@
       <c r="O16" s="104"/>
       <c r="P16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE16,BID)-AF16)</f>
-        <v>2.7210367292695992E-10</v>
+        <v>4.4891965284099555E-4</v>
       </c>
       <c r="Q16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE16,ASK)-AG16)</f>
-        <v>2.7210367292695992E-10</v>
+        <v>4.4891965284099555E-4</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="str">
@@ -7830,11 +7824,11 @@
       </c>
       <c r="T16" s="16">
         <f>'ON Pricing'!H16*100</f>
-        <v>2.4775000000002132</v>
+        <v>2.487500000000118</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="7"/>
-        <v>2.4775000000002132</v>
+        <v>2.487500000000118</v>
       </c>
       <c r="V16" s="165"/>
       <c r="W16" s="125"/>
@@ -7855,11 +7849,11 @@
       </c>
       <c r="AF16" s="16">
         <f>'6M Pricing'!H16*100</f>
-        <v>2.7352161177278962</v>
+        <v>2.7327591043471591</v>
       </c>
       <c r="AG16" s="16">
         <f t="shared" si="10"/>
-        <v>2.7352161177278962</v>
+        <v>2.7327591043471591</v>
       </c>
       <c r="AH16" s="41" t="s">
         <v>70</v>
@@ -7917,11 +7911,11 @@
       </c>
       <c r="J17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,BID)-T17)</f>
-        <v>2.3092638912203256E-14</v>
+        <v>2.5757174171303632E-14</v>
       </c>
       <c r="K17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,ASK)-U17)</f>
-        <v>2.3092638912203256E-14</v>
+        <v>2.5757174171303632E-14</v>
       </c>
       <c r="L17" s="130"/>
       <c r="M17" s="130"/>
@@ -7929,11 +7923,11 @@
       <c r="O17" s="104"/>
       <c r="P17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE17,BID)-AF17)</f>
-        <v>1.3034462398309188E-11</v>
+        <v>9.0102592054108754E-11</v>
       </c>
       <c r="Q17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE17,ASK)-AG17)</f>
-        <v>1.3034462398309188E-11</v>
+        <v>9.0102592054108754E-11</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="str">
@@ -7942,11 +7936,11 @@
       </c>
       <c r="T17" s="16">
         <f>'ON Pricing'!H17*100</f>
-        <v>2.474999999999977</v>
+        <v>2.4869999999999743</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="7"/>
-        <v>2.474999999999977</v>
+        <v>2.4869999999999743</v>
       </c>
       <c r="V17" s="165"/>
       <c r="W17" s="128"/>
@@ -7967,11 +7961,11 @@
       </c>
       <c r="AF17" s="16">
         <f>'6M Pricing'!H17*100</f>
-        <v>2.7249999999869656</v>
+        <v>2.7249999999098975</v>
       </c>
       <c r="AG17" s="16">
         <f t="shared" si="10"/>
-        <v>2.7249999999869656</v>
+        <v>2.7249999999098975</v>
       </c>
       <c r="AH17" s="41" t="s">
         <v>70</v>
@@ -8028,11 +8022,11 @@
       </c>
       <c r="J18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S18,BID)-T18)</f>
-        <v>1.0658141036401503E-14</v>
+        <v>5.773159728050814E-15</v>
       </c>
       <c r="K18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S18,ASK)-U18)</f>
-        <v>1.0658141036401503E-14</v>
+        <v>5.773159728050814E-15</v>
       </c>
       <c r="L18" s="133"/>
       <c r="M18" s="133"/>
@@ -8047,11 +8041,11 @@
       </c>
       <c r="T18" s="16">
         <f>'ON Pricing'!H18*100</f>
-        <v>2.4725000000000108</v>
+        <v>2.4875000000000056</v>
       </c>
       <c r="U18" s="16">
         <f t="shared" ref="U18" si="12">T18</f>
-        <v>2.4725000000000108</v>
+        <v>2.4875000000000056</v>
       </c>
       <c r="V18" s="165"/>
       <c r="W18" s="131"/>
@@ -8134,13 +8128,13 @@
       <c r="K19" s="107"/>
       <c r="L19" s="136"/>
       <c r="M19" s="136"/>
-      <c r="N19" s="14">
+      <c r="N19" s="14" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA19,BID)-AB19)</f>
-        <v>1.1119993814645568E-10</v>
-      </c>
-      <c r="O19" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O19" s="14" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA19,ASK)-AC19)</f>
-        <v>1.1119993814645568E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P19" s="102"/>
       <c r="Q19" s="102"/>
@@ -8156,16 +8150,16 @@
         <v>70</v>
       </c>
       <c r="AA19" s="13" t="str">
-        <f t="shared" ref="AA19:AA24" si="13">Currency&amp;$AA$4&amp;D19&amp;"="</f>
-        <v>AUD3MU4=</v>
+        <f>Currency&amp;$AA$4&amp;D19</f>
+        <v>AUD3MU4</v>
       </c>
       <c r="AB19" s="14">
         <f>'3M Pricing'!H19</f>
-        <v>97.3750000001112</v>
+        <v>97.375000000079311</v>
       </c>
       <c r="AC19" s="14">
-        <f t="shared" ref="AC19:AC24" si="14">AB19</f>
-        <v>97.3750000001112</v>
+        <f t="shared" ref="AC19:AC24" si="13">AB19</f>
+        <v>97.375000000079311</v>
       </c>
       <c r="AD19" s="41" t="s">
         <v>70</v>
@@ -8235,13 +8229,13 @@
       <c r="K20" s="108"/>
       <c r="L20" s="130"/>
       <c r="M20" s="130"/>
-      <c r="N20" s="16">
+      <c r="N20" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA20,BID)-AB20)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O20" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA20,ASK)-AC20)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P20" s="104"/>
       <c r="Q20" s="104"/>
@@ -8257,16 +8251,16 @@
         <v>70</v>
       </c>
       <c r="AA20" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>AUD3MZ4=</v>
+        <f>Currency&amp;$AA$4&amp;D20</f>
+        <v>AUD3MZ4</v>
       </c>
       <c r="AB20" s="16">
         <f>'3M Pricing'!H20</f>
-        <v>97.405000000000001</v>
+        <v>97.384999999999962</v>
       </c>
       <c r="AC20" s="16">
-        <f t="shared" si="14"/>
-        <v>97.405000000000001</v>
+        <f t="shared" si="13"/>
+        <v>97.384999999999962</v>
       </c>
       <c r="AD20" s="41" t="s">
         <v>70</v>
@@ -8336,13 +8330,13 @@
       <c r="K21" s="108"/>
       <c r="L21" s="130"/>
       <c r="M21" s="130"/>
-      <c r="N21" s="16">
+      <c r="N21" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA21,BID)-AB21)</f>
-        <v>3.6095570976613089E-12</v>
-      </c>
-      <c r="O21" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O21" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA21,ASK)-AC21)</f>
-        <v>3.6095570976613089E-12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P21" s="104"/>
       <c r="Q21" s="104"/>
@@ -8358,16 +8352,16 @@
         <v>70</v>
       </c>
       <c r="AA21" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>AUD3MH5=</v>
+        <f>Currency&amp;$AA$4&amp;D21</f>
+        <v>AUD3MH5</v>
       </c>
       <c r="AB21" s="16">
         <f>'3M Pricing'!H21</f>
-        <v>97.405000000003611</v>
+        <v>97.385000000002975</v>
       </c>
       <c r="AC21" s="16">
-        <f t="shared" si="14"/>
-        <v>97.405000000003611</v>
+        <f t="shared" si="13"/>
+        <v>97.385000000002975</v>
       </c>
       <c r="AD21" s="41" t="s">
         <v>70</v>
@@ -8437,13 +8431,13 @@
       <c r="K22" s="108"/>
       <c r="L22" s="130"/>
       <c r="M22" s="130"/>
-      <c r="N22" s="16">
+      <c r="N22" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA22,BID)-AB22)</f>
-        <v>3.2827074392116629E-12</v>
-      </c>
-      <c r="O22" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O22" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA22,ASK)-AC22)</f>
-        <v>3.2827074392116629E-12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P22" s="104"/>
       <c r="Q22" s="104"/>
@@ -8459,16 +8453,16 @@
         <v>70</v>
       </c>
       <c r="AA22" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>AUD3MM5=</v>
+        <f>Currency&amp;$AA$4&amp;D22</f>
+        <v>AUD3MM5</v>
       </c>
       <c r="AB22" s="16">
         <f>'3M Pricing'!H22</f>
-        <v>97.384999999996722</v>
+        <v>97.344999999997327</v>
       </c>
       <c r="AC22" s="16">
-        <f t="shared" si="14"/>
-        <v>97.384999999996722</v>
+        <f t="shared" si="13"/>
+        <v>97.344999999997327</v>
       </c>
       <c r="AD22" s="41" t="s">
         <v>70</v>
@@ -8538,13 +8532,13 @@
       <c r="K23" s="108"/>
       <c r="L23" s="130"/>
       <c r="M23" s="130"/>
-      <c r="N23" s="16">
+      <c r="N23" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA23,BID)-AB23)</f>
-        <v>3.4958702599396929E-12</v>
-      </c>
-      <c r="O23" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O23" s="16" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA23,ASK)-AC23)</f>
-        <v>3.4958702599396929E-12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P23" s="104"/>
       <c r="Q23" s="104"/>
@@ -8560,16 +8554,16 @@
         <v>70</v>
       </c>
       <c r="AA23" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>AUD3MU5=</v>
+        <f>Currency&amp;$AA$4&amp;D23</f>
+        <v>AUD3MU5</v>
       </c>
       <c r="AB23" s="16">
         <f>'3M Pricing'!H23</f>
-        <v>97.314999999996502</v>
+        <v>97.269999999997097</v>
       </c>
       <c r="AC23" s="16">
-        <f t="shared" si="14"/>
-        <v>97.314999999996502</v>
+        <f t="shared" si="13"/>
+        <v>97.269999999997097</v>
       </c>
       <c r="AD23" s="41" t="s">
         <v>70</v>
@@ -8637,13 +8631,13 @@
       <c r="K24" s="109"/>
       <c r="L24" s="137"/>
       <c r="M24" s="137"/>
-      <c r="N24" s="18">
+      <c r="N24" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA24,BID)-AB24)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O24" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$AA24,ASK)-AC24)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P24" s="106"/>
       <c r="Q24" s="106"/>
@@ -8659,16 +8653,16 @@
         <v>70</v>
       </c>
       <c r="AA24" s="17" t="str">
-        <f t="shared" si="13"/>
-        <v>AUD3MZ5=</v>
+        <f>Currency&amp;$AA$4&amp;D24</f>
+        <v>AUD3MZ5</v>
       </c>
       <c r="AB24" s="18">
         <f>'3M Pricing'!H24</f>
-        <v>97.224999999999994</v>
+        <v>97.179999999999964</v>
       </c>
       <c r="AC24" s="18">
-        <f t="shared" si="14"/>
-        <v>97.224999999999994</v>
+        <f t="shared" si="13"/>
+        <v>97.179999999999964</v>
       </c>
       <c r="AD24" s="41" t="s">
         <v>70</v>
@@ -8733,13 +8727,13 @@
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="124" t="e">
+      <c r="L25" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$W25,BID)-X25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M25" s="124" t="e">
+        <v>8.6925780811597519E-5</v>
+      </c>
+      <c r="M25" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$W25,ASK)-Y25)</f>
-        <v>#VALUE!</v>
+        <v>8.6925780811597519E-5</v>
       </c>
       <c r="N25" s="102"/>
       <c r="O25" s="102"/>
@@ -8756,11 +8750,11 @@
       </c>
       <c r="X25" s="123">
         <f>'1M Pricing'!H25*100</f>
-        <v>2.5806575951861861</v>
+        <v>2.5741847342191884</v>
       </c>
       <c r="Y25" s="123">
         <f>X25</f>
-        <v>2.5806575951861861</v>
+        <v>2.5741847342191884</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="101"/>
@@ -8823,13 +8817,13 @@
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="127" t="e">
+      <c r="L26" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W26,BID)-X26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M26" s="127" t="e">
+        <v>6.2762649945202753E-5</v>
+      </c>
+      <c r="M26" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W26,ASK)-Y26)</f>
-        <v>#VALUE!</v>
+        <v>6.2762649945202753E-5</v>
       </c>
       <c r="N26" s="104"/>
       <c r="O26" s="104"/>
@@ -8846,11 +8840,11 @@
       </c>
       <c r="X26" s="126">
         <f>'1M Pricing'!H26*100</f>
-        <v>2.56082467993703</v>
+        <v>2.5645638666499453</v>
       </c>
       <c r="Y26" s="126">
         <f>X26</f>
-        <v>2.56082467993703</v>
+        <v>2.5645638666499453</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="103"/>
@@ -8913,13 +8907,13 @@
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="127" t="e">
+      <c r="L27" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W27,BID)-X27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M27" s="127" t="e">
+        <v>2.3175704396027896E-4</v>
+      </c>
+      <c r="M27" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W27,ASK)-Y27)</f>
-        <v>#VALUE!</v>
+        <v>2.3175704396027896E-4</v>
       </c>
       <c r="N27" s="104"/>
       <c r="O27" s="104"/>
@@ -8936,11 +8930,11 @@
       </c>
       <c r="X27" s="126">
         <f>'1M Pricing'!H27*100</f>
-        <v>2.5454049564829271</v>
+        <v>2.5530811719560398</v>
       </c>
       <c r="Y27" s="126">
         <f>X27</f>
-        <v>2.5454049564829271</v>
+        <v>2.5530811719560398</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="103"/>
@@ -9006,35 +9000,35 @@
       </c>
       <c r="J28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
-        <v>3.9968028886505635E-15</v>
+        <v>5.5067062021407764E-14</v>
       </c>
       <c r="K28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
-        <v>3.9968028886505635E-15</v>
-      </c>
-      <c r="L28" s="127" t="e">
+        <v>5.5067062021407764E-14</v>
+      </c>
+      <c r="L28" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W28,BID)-X28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M28" s="127" t="e">
+        <v>3.7859138046769658E-10</v>
+      </c>
+      <c r="M28" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W28,ASK)-Y28)</f>
-        <v>#VALUE!</v>
+        <v>3.7859138046769658E-10</v>
       </c>
       <c r="N28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA28,BID)-AB28)</f>
-        <v>1.9807178119890523E-10</v>
+        <v>2.2070432662761874E-3</v>
       </c>
       <c r="O28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA28,ASK)-AC28)</f>
-        <v>1.9807178119890523E-10</v>
+        <v>2.2070432662761874E-3</v>
       </c>
       <c r="P28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE28,BID)-AF28)</f>
-        <v>1.6573098449157442E-10</v>
+        <v>2.2478314496550134E-3</v>
       </c>
       <c r="Q28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE28,ASK)-AG28)</f>
-        <v>1.6573098449157442E-10</v>
+        <v>2.2478314496550134E-3</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="15" t="str">
@@ -9043,11 +9037,11 @@
       </c>
       <c r="T28" s="16">
         <f>'ON Pricing'!H28*100</f>
-        <v>2.4749999999999961</v>
+        <v>2.4899999999999451</v>
       </c>
       <c r="U28" s="16">
-        <f t="shared" ref="U28:U43" si="15">T28</f>
-        <v>2.4749999999999961</v>
+        <f t="shared" ref="U28:U43" si="14">T28</f>
+        <v>2.4899999999999451</v>
       </c>
       <c r="V28" s="165"/>
       <c r="W28" s="125" t="str">
@@ -9056,11 +9050,11 @@
       </c>
       <c r="X28" s="126">
         <f>'1M Pricing'!H28*100</f>
-        <v>2.5446974020206841</v>
+        <v>2.5583409876214085</v>
       </c>
       <c r="Y28" s="126">
         <f>X28</f>
-        <v>2.5446974020206841</v>
+        <v>2.5583409876214085</v>
       </c>
       <c r="Z28" s="2" t="s">
         <v>70</v>
@@ -9071,11 +9065,11 @@
       </c>
       <c r="AB28" s="16">
         <f>'3M Pricing'!H28*100</f>
-        <v>2.6074409928019282</v>
+        <v>2.6259747842662762</v>
       </c>
       <c r="AC28" s="16">
         <f>AB28</f>
-        <v>2.6074409928019282</v>
+        <v>2.6259747842662762</v>
       </c>
       <c r="AD28" s="41" t="s">
         <v>70</v>
@@ -9086,11 +9080,11 @@
       </c>
       <c r="AF28" s="16">
         <f>'6M Pricing'!H28*100</f>
-        <v>2.658681568165731</v>
+        <v>2.677308714449655</v>
       </c>
       <c r="AG28" s="16">
         <f>AF28</f>
-        <v>2.658681568165731</v>
+        <v>2.677308714449655</v>
       </c>
       <c r="AH28" s="41" t="s">
         <v>70</v>
@@ -9145,13 +9139,13 @@
       <c r="I29" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="16" t="e">
+      <c r="J29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,BID)-T29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="16" t="e">
+        <v>1.4554268901179057E-10</v>
+      </c>
+      <c r="K29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,ASK)-U29)</f>
-        <v>#VALUE!</v>
+        <v>1.4554268901179057E-10</v>
       </c>
       <c r="L29" s="127"/>
       <c r="M29" s="127"/>
@@ -9166,11 +9160,11 @@
       </c>
       <c r="T29" s="16">
         <f>'ON Pricing'!H29*100</f>
-        <v>2.495304286860021</v>
+        <v>2.5204252498544575</v>
       </c>
       <c r="U29" s="16">
-        <f t="shared" si="15"/>
-        <v>2.495304286860021</v>
+        <f t="shared" si="14"/>
+        <v>2.5204252498544575</v>
       </c>
       <c r="V29" s="165"/>
       <c r="W29" s="125"/>
@@ -9246,48 +9240,48 @@
       </c>
       <c r="J30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
-        <v>9.6367358537463588E-14</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="K30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
-        <v>9.6367358537463588E-14</v>
-      </c>
-      <c r="L30" s="127" t="e">
+        <v>4.4408920985006262E-16</v>
+      </c>
+      <c r="L30" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W30,BID)-X30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M30" s="127" t="e">
+        <v>9.6624486189966774E-11</v>
+      </c>
+      <c r="M30" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W30,ASK)-Y30)</f>
-        <v>#VALUE!</v>
+        <v>9.6624486189966774E-11</v>
       </c>
       <c r="N30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA30,BID)-AB30)</f>
-        <v>2.1313173448334055E-11</v>
+        <v>2.0699442160321269E-11</v>
       </c>
       <c r="O30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA30,ASK)-AC30)</f>
-        <v>2.1313173448334055E-11</v>
+        <v>2.0699442160321269E-11</v>
       </c>
       <c r="P30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE30,BID)-AF30)</f>
-        <v>3.5471181547563901E-11</v>
+        <v>4.3070189975402684E-5</v>
       </c>
       <c r="Q30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE30,ASK)-AG30)</f>
-        <v>3.5471181547563901E-11</v>
+        <v>4.3070189975402684E-5</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="15" t="str">
-        <f t="shared" ref="S30:S43" si="16">Currency&amp;$S$4&amp;D30&amp;"D"&amp;"="</f>
+        <f t="shared" ref="S30:S43" si="15">Currency&amp;$S$4&amp;D30&amp;"D"&amp;"="</f>
         <v>AUDON2YD=</v>
       </c>
       <c r="T30" s="16">
         <f>'ON Pricing'!H30*100</f>
-        <v>2.5550000000000965</v>
+        <v>2.5799999999999996</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="15"/>
-        <v>2.5550000000000965</v>
+        <f t="shared" si="14"/>
+        <v>2.5799999999999996</v>
       </c>
       <c r="V30" s="165"/>
       <c r="W30" s="125" t="str">
@@ -9296,11 +9290,11 @@
       </c>
       <c r="X30" s="126">
         <f>'1M Pricing'!H30*100</f>
-        <v>2.6317669276448519</v>
+        <v>2.6541656359033756</v>
       </c>
       <c r="Y30" s="126">
         <f>X30</f>
-        <v>2.6317669276448519</v>
+        <v>2.6541656359033756</v>
       </c>
       <c r="Z30" s="2" t="s">
         <v>70</v>
@@ -9311,11 +9305,11 @@
       </c>
       <c r="AB30" s="16">
         <f>'3M Pricing'!H30*100</f>
-        <v>2.7125000000213131</v>
+        <v>2.7400000000206997</v>
       </c>
       <c r="AC30" s="16">
         <f>AB30</f>
-        <v>2.7125000000213131</v>
+        <v>2.7400000000206997</v>
       </c>
       <c r="AD30" s="41" t="s">
         <v>70</v>
@@ -9326,11 +9320,11 @@
       </c>
       <c r="AF30" s="16">
         <f>'6M Pricing'!H30*100</f>
-        <v>2.7775934889645288</v>
+        <v>2.8054200118100248</v>
       </c>
       <c r="AG30" s="16">
         <f>AF30</f>
-        <v>2.7775934889645288</v>
+        <v>2.8054200118100248</v>
       </c>
       <c r="AH30" s="41" t="s">
         <v>70</v>
@@ -9390,48 +9384,48 @@
       </c>
       <c r="J31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>4.4408920985006262E-16</v>
+        <v>3.5971225997855072E-14</v>
       </c>
       <c r="K31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>4.4408920985006262E-16</v>
-      </c>
-      <c r="L31" s="127" t="e">
+        <v>3.5971225997855072E-14</v>
+      </c>
+      <c r="L31" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W31,BID)-X31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M31" s="127" t="e">
+        <v>3.6783021073460986E-11</v>
+      </c>
+      <c r="M31" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W31,ASK)-Y31)</f>
-        <v>#VALUE!</v>
+        <v>3.6783021073460986E-11</v>
       </c>
       <c r="N31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA31,BID)-AB31)</f>
-        <v>6.3769878266839441E-11</v>
+        <v>5.9169114052792793E-11</v>
       </c>
       <c r="O31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA31,ASK)-AC31)</f>
-        <v>6.3769878266839441E-11</v>
+        <v>5.9169114052792793E-11</v>
       </c>
       <c r="P31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE31,BID)-AF31)</f>
-        <v>3.5572167433883806E-10</v>
+        <v>8.4129778885611017E-6</v>
       </c>
       <c r="Q31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE31,ASK)-AG31)</f>
-        <v>3.5572167433883806E-10</v>
+        <v>8.4129778885611017E-6</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON3YD=</v>
       </c>
       <c r="T31" s="16">
         <f>'ON Pricing'!H31*100</f>
-        <v>2.6949999999999994</v>
+        <v>2.7249999999999641</v>
       </c>
       <c r="U31" s="16">
-        <f t="shared" si="15"/>
-        <v>2.6949999999999994</v>
+        <f t="shared" si="14"/>
+        <v>2.7249999999999641</v>
       </c>
       <c r="V31" s="165"/>
       <c r="W31" s="125" t="str">
@@ -9440,11 +9434,11 @@
       </c>
       <c r="X31" s="126">
         <f>'1M Pricing'!H31*100</f>
-        <v>2.774875040993261</v>
+        <v>2.7947532429632171</v>
       </c>
       <c r="Y31" s="126">
         <f>X31</f>
-        <v>2.774875040993261</v>
+        <v>2.7947532429632171</v>
       </c>
       <c r="Z31" s="2" t="s">
         <v>70</v>
@@ -9455,11 +9449,11 @@
       </c>
       <c r="AB31" s="16">
         <f>'3M Pricing'!H31*100</f>
-        <v>2.8650000000637701</v>
+        <v>2.8900000000591692</v>
       </c>
       <c r="AC31" s="16">
         <f>AB31</f>
-        <v>2.8650000000637701</v>
+        <v>2.8900000000591692</v>
       </c>
       <c r="AD31" s="41" t="s">
         <v>70</v>
@@ -9470,11 +9464,11 @@
       </c>
       <c r="AF31" s="16">
         <f>'6M Pricing'!H31*100</f>
-        <v>2.9364547743557217</v>
+        <v>2.9632727779778887</v>
       </c>
       <c r="AG31" s="16">
         <f>AF31</f>
-        <v>2.9364547743557217</v>
+        <v>2.9632727779778887</v>
       </c>
       <c r="AH31" s="41" t="s">
         <v>70</v>
@@ -9534,48 +9528,48 @@
       </c>
       <c r="J32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>4.8849813083506888E-15</v>
+        <v>2.8421709430404007E-14</v>
       </c>
       <c r="K32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>4.8849813083506888E-15</v>
-      </c>
-      <c r="L32" s="127" t="e">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="L32" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W32,BID)-X32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M32" s="127" t="e">
+        <v>3.2775027136722201E-10</v>
+      </c>
+      <c r="M32" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W32,ASK)-Y32)</f>
-        <v>#VALUE!</v>
+        <v>3.2775027136722201E-10</v>
       </c>
       <c r="N32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA32,BID)-AB32)</f>
-        <v>4.7452752838239576E-10</v>
+        <v>3.2295455199005119E-10</v>
       </c>
       <c r="O32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA32,ASK)-AC32)</f>
-        <v>4.7452752838239576E-10</v>
+        <v>3.2295455199005119E-10</v>
       </c>
       <c r="P32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE32,BID)-AF32)</f>
-        <v>5.4178883601707639E-13</v>
+        <v>4.2632564145606011E-13</v>
       </c>
       <c r="Q32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE32,ASK)-AG32)</f>
-        <v>5.4178883601707639E-13</v>
+        <v>4.2632564145606011E-13</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON4YD=</v>
       </c>
       <c r="T32" s="16">
         <f>'ON Pricing'!H32*100</f>
-        <v>2.8230000000000048</v>
+        <v>2.8679999999999715</v>
       </c>
       <c r="U32" s="16">
-        <f t="shared" si="15"/>
-        <v>2.8230000000000048</v>
+        <f t="shared" si="14"/>
+        <v>2.8679999999999715</v>
       </c>
       <c r="V32" s="165"/>
       <c r="W32" s="125" t="str">
@@ -9584,11 +9578,11 @@
       </c>
       <c r="X32" s="126">
         <f>'1M Pricing'!H32*100</f>
-        <v>2.9071661457944598</v>
+        <v>2.9403842943277501</v>
       </c>
       <c r="Y32" s="126">
         <f>X32</f>
-        <v>2.9071661457944598</v>
+        <v>2.9403842943277501</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>70</v>
@@ -9599,11 +9593,11 @@
       </c>
       <c r="AB32" s="16">
         <f>'3M Pricing'!H32*100</f>
-        <v>3.0029021985254727</v>
+        <v>3.0425776546770456</v>
       </c>
       <c r="AC32" s="16">
         <f>AB32</f>
-        <v>3.0029021985254727</v>
+        <v>3.0425776546770456</v>
       </c>
       <c r="AD32" s="41" t="s">
         <v>70</v>
@@ -9614,11 +9608,11 @@
       </c>
       <c r="AF32" s="16">
         <f>'6M Pricing'!H32*100</f>
-        <v>3.0900000000005416</v>
+        <v>3.1299999999995736</v>
       </c>
       <c r="AG32" s="16">
         <f>AF32</f>
-        <v>3.0900000000005416</v>
+        <v>3.1299999999995736</v>
       </c>
       <c r="AH32" s="41" t="s">
         <v>70</v>
@@ -9678,48 +9672,48 @@
       </c>
       <c r="J33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>1.4654943925052066E-14</v>
+        <v>2.5757174171303632E-14</v>
       </c>
       <c r="K33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>1.4654943925052066E-14</v>
-      </c>
-      <c r="L33" s="127" t="e">
+        <v>2.5757174171303632E-14</v>
+      </c>
+      <c r="L33" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W33,BID)-X33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M33" s="127" t="e">
+        <v>4.1994185906446546E-10</v>
+      </c>
+      <c r="M33" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W33,ASK)-Y33)</f>
-        <v>#VALUE!</v>
+        <v>4.1994185906446546E-10</v>
       </c>
       <c r="N33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA33,BID)-AB33)</f>
-        <v>3.1641800291026811E-10</v>
+        <v>8.3501650038897424E-11</v>
       </c>
       <c r="O33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA33,ASK)-AC33)</f>
-        <v>3.1641800291026811E-10</v>
+        <v>8.3501650038897424E-11</v>
       </c>
       <c r="P33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE33,BID)-AF33)</f>
-        <v>1.7763568394002505E-15</v>
+        <v>4.2721381987576024E-13</v>
       </c>
       <c r="Q33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE33,ASK)-AG33)</f>
-        <v>1.7763568394002505E-15</v>
+        <v>4.2721381987576024E-13</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON5YD=</v>
       </c>
       <c r="T33" s="16">
         <f>'ON Pricing'!H33*100</f>
-        <v>2.9449999999999852</v>
+        <v>3.0049999999999741</v>
       </c>
       <c r="U33" s="16">
-        <f t="shared" si="15"/>
-        <v>2.9449999999999852</v>
+        <f t="shared" si="14"/>
+        <v>3.0049999999999741</v>
       </c>
       <c r="V33" s="165"/>
       <c r="W33" s="125" t="str">
@@ -9728,11 +9722,11 @@
       </c>
       <c r="X33" s="126">
         <f>'1M Pricing'!H33*100</f>
-        <v>3.0331135795126434</v>
+        <v>3.076154728419942</v>
       </c>
       <c r="Y33" s="126">
         <f>X33</f>
-        <v>3.0331135795126434</v>
+        <v>3.076154728419942</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>70</v>
@@ -9743,11 +9737,11 @@
       </c>
       <c r="AB33" s="16">
         <f>'3M Pricing'!H33*100</f>
-        <v>3.1319575093164178</v>
+        <v>3.1815277370835018</v>
       </c>
       <c r="AC33" s="16">
         <f>AB33</f>
-        <v>3.1319575093164178</v>
+        <v>3.1815277370835018</v>
       </c>
       <c r="AD33" s="41" t="s">
         <v>70</v>
@@ -9758,11 +9752,11 @@
       </c>
       <c r="AF33" s="16">
         <f>'6M Pricing'!H33*100</f>
-        <v>3.2225000000000019</v>
+        <v>3.2724999999995728</v>
       </c>
       <c r="AG33" s="16">
         <f>AF33</f>
-        <v>3.2225000000000019</v>
+        <v>3.2724999999995728</v>
       </c>
       <c r="AH33" s="41" t="s">
         <v>70</v>
@@ -9819,11 +9813,11 @@
       </c>
       <c r="J34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,BID)-T34)</f>
-        <v>1.2434497875801753E-14</v>
+        <v>5.3290705182007514E-15</v>
       </c>
       <c r="K34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,ASK)-U34)</f>
-        <v>1.2434497875801753E-14</v>
+        <v>5.3290705182007514E-15</v>
       </c>
       <c r="L34" s="127"/>
       <c r="M34" s="127"/>
@@ -9833,16 +9827,16 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="2"/>
       <c r="S34" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON6YD=</v>
       </c>
       <c r="T34" s="16">
         <f>'ON Pricing'!H34*100</f>
-        <v>3.0629999999999877</v>
+        <v>3.1249999999999947</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" si="15"/>
-        <v>3.0629999999999877</v>
+        <f t="shared" si="14"/>
+        <v>3.1249999999999947</v>
       </c>
       <c r="V34" s="165"/>
       <c r="W34" s="125"/>
@@ -9918,48 +9912,48 @@
       </c>
       <c r="J35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>4.6185277824406512E-14</v>
+        <v>6.6613381477509392E-15</v>
       </c>
       <c r="K35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>4.6185277824406512E-14</v>
-      </c>
-      <c r="L35" s="127" t="e">
+        <v>6.6613381477509392E-15</v>
+      </c>
+      <c r="L35" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W35,BID)-X35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M35" s="127" t="e">
+        <v>7.7529982434043632E-11</v>
+      </c>
+      <c r="M35" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W35,ASK)-Y35)</f>
-        <v>#VALUE!</v>
+        <v>7.7529982434043632E-11</v>
       </c>
       <c r="N35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA35,BID)-AB35)</f>
-        <v>2.5861002228566576E-10</v>
+        <v>1.6467227581529187E-10</v>
       </c>
       <c r="O35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA35,ASK)-AC35)</f>
-        <v>2.5861002228566576E-10</v>
+        <v>1.6467227581529187E-10</v>
       </c>
       <c r="P35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE35,BID)-AF35)</f>
-        <v>3.6637359812630166E-13</v>
+        <v>1.5937029473889197E-11</v>
       </c>
       <c r="Q35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE35,ASK)-AG35)</f>
-        <v>3.6637359812630166E-13</v>
+        <v>1.5937029473889197E-11</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON7YD=</v>
       </c>
       <c r="T35" s="16">
         <f>'ON Pricing'!H35*100</f>
-        <v>3.1779999999999538</v>
+        <v>3.2450000000000068</v>
       </c>
       <c r="U35" s="16">
-        <f t="shared" si="15"/>
-        <v>3.1779999999999538</v>
+        <f t="shared" si="14"/>
+        <v>3.2450000000000068</v>
       </c>
       <c r="V35" s="165"/>
       <c r="W35" s="125" t="str">
@@ -9968,11 +9962,11 @@
       </c>
       <c r="X35" s="126">
         <f>'1M Pricing'!H35*100</f>
-        <v>3.2687805527114318</v>
+        <v>3.32164536307753</v>
       </c>
       <c r="Y35" s="126">
         <f>X35</f>
-        <v>3.2687805527114318</v>
+        <v>3.32164536307753</v>
       </c>
       <c r="Z35" s="2" t="s">
         <v>70</v>
@@ -9983,11 +9977,11 @@
       </c>
       <c r="AB35" s="16">
         <f>'3M Pricing'!H35*100</f>
-        <v>3.3713399982586099</v>
+        <v>3.4308047231646723</v>
       </c>
       <c r="AC35" s="16">
         <f>AB35</f>
-        <v>3.3713399982586099</v>
+        <v>3.4308047231646723</v>
       </c>
       <c r="AD35" s="41" t="s">
         <v>70</v>
@@ -9998,11 +9992,11 @@
       </c>
       <c r="AF35" s="16">
         <f>'6M Pricing'!H35*100</f>
-        <v>3.4649999999996335</v>
+        <v>3.5250000000159369</v>
       </c>
       <c r="AG35" s="16">
         <f>AF35</f>
-        <v>3.4649999999996335</v>
+        <v>3.5250000000159369</v>
       </c>
       <c r="AH35" s="41" t="s">
         <v>70</v>
@@ -10059,11 +10053,11 @@
       </c>
       <c r="J36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,BID)-T36)</f>
-        <v>4.5297099404706387E-14</v>
+        <v>1.6875389974302379E-14</v>
       </c>
       <c r="K36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,ASK)-U36)</f>
-        <v>4.5297099404706387E-14</v>
+        <v>1.6875389974302379E-14</v>
       </c>
       <c r="L36" s="127"/>
       <c r="M36" s="127"/>
@@ -10073,16 +10067,16 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="2"/>
       <c r="S36" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON8YD=</v>
       </c>
       <c r="T36" s="16">
         <f>'ON Pricing'!H36*100</f>
-        <v>3.2579999999999547</v>
+        <v>3.327999999999983</v>
       </c>
       <c r="U36" s="16">
-        <f t="shared" si="15"/>
-        <v>3.2579999999999547</v>
+        <f t="shared" si="14"/>
+        <v>3.327999999999983</v>
       </c>
       <c r="V36" s="165"/>
       <c r="W36" s="125"/>
@@ -10155,11 +10149,11 @@
       </c>
       <c r="J37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,BID)-T37)</f>
-        <v>3.1974423109204508E-14</v>
+        <v>1.3100187601366997E-11</v>
       </c>
       <c r="K37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,ASK)-U37)</f>
-        <v>3.1974423109204508E-14</v>
+        <v>1.3100187601366997E-11</v>
       </c>
       <c r="L37" s="127"/>
       <c r="M37" s="127"/>
@@ -10169,16 +10163,16 @@
       <c r="Q37" s="16"/>
       <c r="R37" s="2"/>
       <c r="S37" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON9YD=</v>
       </c>
       <c r="T37" s="16">
         <f>'ON Pricing'!H37*100</f>
-        <v>3.334999999999968</v>
+        <v>3.4130000000131</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" si="15"/>
-        <v>3.334999999999968</v>
+        <f t="shared" si="14"/>
+        <v>3.4130000000131</v>
       </c>
       <c r="V37" s="165"/>
       <c r="W37" s="125"/>
@@ -10254,91 +10248,91 @@
       </c>
       <c r="J38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>1.0794920513035322E-11</v>
+        <v>1.0056844246264518E-11</v>
       </c>
       <c r="K38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>1.0794920513035322E-11</v>
-      </c>
-      <c r="L38" s="127" t="e">
+        <v>1.0056844246264518E-11</v>
+      </c>
+      <c r="L38" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W38,BID)-X38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M38" s="127" t="e">
+        <v>2.9334001894198991E-10</v>
+      </c>
+      <c r="M38" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W38,ASK)-Y38)</f>
-        <v>#VALUE!</v>
+        <v>2.9334001894198991E-10</v>
       </c>
       <c r="N38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA38,BID)-AB38)</f>
-        <v>1.0921263893237665E-10</v>
+        <v>2.4411273003011047E-10</v>
       </c>
       <c r="O38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA38,ASK)-AC38)</f>
-        <v>1.0921263893237665E-10</v>
+        <v>2.4411273003011047E-10</v>
       </c>
       <c r="P38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE38,BID)-AF38)</f>
-        <v>2.7355895326763857E-13</v>
+        <v>3.4338754062446242E-11</v>
       </c>
       <c r="Q38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE38,ASK)-AG38)</f>
-        <v>2.7355895326763857E-13</v>
+        <v>3.4338754062446242E-11</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON10YD=</v>
       </c>
       <c r="T38" s="16">
         <f>'ON Pricing'!H38*100</f>
-        <v>3.415000000010795</v>
+        <v>3.495000000010057</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" si="15"/>
-        <v>3.415000000010795</v>
+        <f t="shared" si="14"/>
+        <v>3.495000000010057</v>
       </c>
       <c r="V38" s="165"/>
       <c r="W38" s="125" t="str">
-        <f t="shared" ref="W38:W43" si="17">Currency&amp;$W$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="W38:W43" si="16">Currency&amp;$W$4&amp;D38&amp;"="</f>
         <v>AUD1M10Y=</v>
       </c>
       <c r="X38" s="126">
         <f>'1M Pricing'!H38*100</f>
-        <v>3.5215971370075936</v>
+        <v>3.5842437812933401</v>
       </c>
       <c r="Y38" s="126">
-        <f t="shared" ref="Y38:Y43" si="18">X38</f>
-        <v>3.5215971370075936</v>
+        <f t="shared" ref="Y38:Y43" si="17">X38</f>
+        <v>3.5842437812933401</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AA38" s="15" t="str">
-        <f t="shared" ref="AA38:AA43" si="19">Currency&amp;$AA$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="AA38:AA43" si="18">Currency&amp;$AA$4&amp;D38&amp;"="</f>
         <v>AUD3M10Y=</v>
       </c>
       <c r="AB38" s="16">
         <f>'3M Pricing'!H38*100</f>
-        <v>3.6267651228907876</v>
+        <v>3.6960976687558871</v>
       </c>
       <c r="AC38" s="16">
-        <f t="shared" ref="AC38:AC43" si="20">AB38</f>
-        <v>3.6267651228907876</v>
+        <f t="shared" ref="AC38:AC43" si="19">AB38</f>
+        <v>3.6960976687558871</v>
       </c>
       <c r="AD38" s="41" t="s">
         <v>70</v>
       </c>
       <c r="AE38" s="15" t="str">
-        <f t="shared" ref="AE38:AE43" si="21">Currency&amp;$AE$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="AE38:AE43" si="20">Currency&amp;$AE$4&amp;D38&amp;"="</f>
         <v>AUD6M10Y=</v>
       </c>
       <c r="AF38" s="16">
         <f>'6M Pricing'!H38*100</f>
-        <v>3.7224999999997266</v>
+        <v>3.7925000000343387</v>
       </c>
       <c r="AG38" s="16">
-        <f t="shared" ref="AG38:AG43" si="22">AF38</f>
-        <v>3.7224999999997266</v>
+        <f t="shared" ref="AG38:AG43" si="21">AF38</f>
+        <v>3.7925000000343387</v>
       </c>
       <c r="AH38" s="41" t="s">
         <v>70</v>
@@ -10398,91 +10392,91 @@
       </c>
       <c r="J39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>3.8551384307083936E-12</v>
+        <v>3.936406756110955E-12</v>
       </c>
       <c r="K39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>3.8551384307083936E-12</v>
-      </c>
-      <c r="L39" s="127" t="e">
+        <v>3.936406756110955E-12</v>
+      </c>
+      <c r="L39" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W39,BID)-X39)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M39" s="127" t="e">
+        <v>3.1779068265791466E-10</v>
+      </c>
+      <c r="M39" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W39,ASK)-Y39)</f>
-        <v>#VALUE!</v>
+        <v>3.1779068265791466E-10</v>
       </c>
       <c r="N39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA39,BID)-AB39)</f>
-        <v>1.3348255833989242E-10</v>
+        <v>2.0169999004338024E-10</v>
       </c>
       <c r="O39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA39,ASK)-AC39)</f>
-        <v>1.3348255833989242E-10</v>
+        <v>2.0169999004338024E-10</v>
       </c>
       <c r="P39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE39,BID)-AF39)</f>
-        <v>1.1806999822283615E-11</v>
+        <v>2.1715962361668062E-13</v>
       </c>
       <c r="Q39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE39,ASK)-AG39)</f>
-        <v>1.1806999822283615E-11</v>
+        <v>2.1715962361668062E-13</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON12YD=</v>
       </c>
       <c r="T39" s="16">
         <f>'ON Pricing'!H39*100</f>
-        <v>3.550000000003855</v>
+        <v>3.6329999999960636</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" si="15"/>
-        <v>3.550000000003855</v>
+        <f t="shared" si="14"/>
+        <v>3.6329999999960636</v>
       </c>
       <c r="V39" s="165"/>
       <c r="W39" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>AUD1M12Y=</v>
       </c>
       <c r="X39" s="126">
         <f>'1M Pricing'!H39*100</f>
-        <v>3.6645882833354277</v>
+        <v>3.7296393823177905</v>
       </c>
       <c r="Y39" s="126">
-        <f t="shared" si="18"/>
-        <v>3.6645882833354277</v>
+        <f t="shared" si="17"/>
+        <v>3.7296393823177905</v>
       </c>
       <c r="Z39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AA39" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>AUD3M12Y=</v>
       </c>
       <c r="AB39" s="16">
         <f>'3M Pricing'!H39*100</f>
-        <v>3.7680560271334826</v>
+        <v>3.8398309817983001</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" si="20"/>
-        <v>3.7680560271334826</v>
+        <f t="shared" si="19"/>
+        <v>3.8398309817983001</v>
       </c>
       <c r="AD39" s="41" t="s">
         <v>70</v>
       </c>
       <c r="AE39" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>AUD6M12Y=</v>
       </c>
       <c r="AF39" s="16">
         <f>'6M Pricing'!H39*100</f>
-        <v>3.8624999999881928</v>
+        <v>3.9349999999997829</v>
       </c>
       <c r="AG39" s="16">
-        <f t="shared" si="22"/>
-        <v>3.8624999999881928</v>
+        <f t="shared" si="21"/>
+        <v>3.9349999999997829</v>
       </c>
       <c r="AH39" s="41" t="s">
         <v>70</v>
@@ -10542,91 +10536,91 @@
       </c>
       <c r="J40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,BID)-T40)</f>
-        <v>3.7747582837255322E-14</v>
+        <v>5.7287508070658077E-14</v>
       </c>
       <c r="K40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,ASK)-U40)</f>
-        <v>3.7747582837255322E-14</v>
-      </c>
-      <c r="L40" s="127" t="e">
+        <v>5.7287508070658077E-14</v>
+      </c>
+      <c r="L40" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W40,BID)-X40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M40" s="127" t="e">
+        <v>3.5276759291491544E-10</v>
+      </c>
+      <c r="M40" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W40,ASK)-Y40)</f>
-        <v>#VALUE!</v>
+        <v>3.5276759291491544E-10</v>
       </c>
       <c r="N40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA40,BID)-AB40)</f>
-        <v>2.2404700317224524E-10</v>
+        <v>3.4758329547912581E-10</v>
       </c>
       <c r="O40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA40,ASK)-AC40)</f>
-        <v>2.2404700317224524E-10</v>
+        <v>3.4758329547912581E-10</v>
       </c>
       <c r="P40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE40,BID)-AF40)</f>
-        <v>3.5171865420124959E-13</v>
+        <v>3.6539660186463152E-12</v>
       </c>
       <c r="Q40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE40,ASK)-AG40)</f>
-        <v>3.5171865420124959E-13</v>
+        <v>3.6539660186463152E-12</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON15YD=</v>
       </c>
       <c r="T40" s="16">
         <f>'ON Pricing'!H40*100</f>
-        <v>3.6999999999999624</v>
+        <v>3.7830000000000572</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="15"/>
-        <v>3.6999999999999624</v>
+        <f t="shared" si="14"/>
+        <v>3.7830000000000572</v>
       </c>
       <c r="V40" s="165"/>
       <c r="W40" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>AUD1M15Y=</v>
       </c>
       <c r="X40" s="126">
         <f>'1M Pricing'!H40*100</f>
-        <v>3.8247544593257707</v>
+        <v>3.8960232756472326</v>
       </c>
       <c r="Y40" s="126">
-        <f t="shared" si="18"/>
-        <v>3.8247544593257707</v>
+        <f t="shared" si="17"/>
+        <v>3.8960232756472326</v>
       </c>
       <c r="Z40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AA40" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>AUD3M15Y=</v>
       </c>
       <c r="AB40" s="16">
         <f>'3M Pricing'!H40*100</f>
-        <v>3.9279083367759529</v>
+        <v>3.9996644936524168</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" si="20"/>
-        <v>3.9279083367759529</v>
+        <f t="shared" si="19"/>
+        <v>3.9996644936524168</v>
       </c>
       <c r="AD40" s="41" t="s">
         <v>70</v>
       </c>
       <c r="AE40" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>AUD6M15Y=</v>
       </c>
       <c r="AF40" s="16">
         <f>'6M Pricing'!H40*100</f>
-        <v>4.0175000000003518</v>
+        <v>4.0899999999963459</v>
       </c>
       <c r="AG40" s="16">
-        <f t="shared" si="22"/>
-        <v>4.0175000000003518</v>
+        <f t="shared" si="21"/>
+        <v>4.0899999999963459</v>
       </c>
       <c r="AH40" s="41" t="s">
         <v>70</v>
@@ -10686,91 +10680,91 @@
       </c>
       <c r="J41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,BID)-T41)</f>
-        <v>1.3131717935266352E-12</v>
+        <v>5.2038373610230337E-12</v>
       </c>
       <c r="K41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,ASK)-U41)</f>
-        <v>1.3131717935266352E-12</v>
-      </c>
-      <c r="L41" s="127" t="e">
+        <v>5.2038373610230337E-12</v>
+      </c>
+      <c r="L41" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W41,BID)-X41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M41" s="127" t="e">
+        <v>2.0701396152844609E-10</v>
+      </c>
+      <c r="M41" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W41,ASK)-Y41)</f>
-        <v>#VALUE!</v>
+        <v>2.0701396152844609E-10</v>
       </c>
       <c r="N41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA41,BID)-AB41)</f>
-        <v>4.6494275096620186E-10</v>
+        <v>3.9729286527290242E-10</v>
       </c>
       <c r="O41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA41,ASK)-AC41)</f>
-        <v>4.6494275096620186E-10</v>
+        <v>3.9729286527290242E-10</v>
       </c>
       <c r="P41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE41,BID)-AF41)</f>
-        <v>1.0080825063596421E-12</v>
+        <v>1.2514433933574765E-12</v>
       </c>
       <c r="Q41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE41,ASK)-AG41)</f>
-        <v>1.0080825063596421E-12</v>
+        <v>1.2514433933574765E-12</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON20YD=</v>
       </c>
       <c r="T41" s="16">
         <f>'ON Pricing'!H41*100</f>
-        <v>3.8700000000013133</v>
+        <v>3.9479999999947961</v>
       </c>
       <c r="U41" s="16">
-        <f t="shared" si="15"/>
-        <v>3.8700000000013133</v>
+        <f t="shared" si="14"/>
+        <v>3.9479999999947961</v>
       </c>
       <c r="V41" s="165"/>
       <c r="W41" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>AUD1M20Y=</v>
       </c>
       <c r="X41" s="126">
         <f>'1M Pricing'!H41*100</f>
-        <v>4.0008615461236605</v>
+        <v>4.0696472262070138</v>
       </c>
       <c r="Y41" s="126">
-        <f t="shared" si="18"/>
-        <v>4.0008615461236605</v>
+        <f t="shared" si="17"/>
+        <v>4.0696472262070138</v>
       </c>
       <c r="Z41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AA41" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>AUD3M20Y=</v>
       </c>
       <c r="AB41" s="16">
         <f>'3M Pricing'!H41*100</f>
-        <v>4.0988382545350577</v>
+        <v>4.1681050063972931</v>
       </c>
       <c r="AC41" s="16">
-        <f t="shared" si="20"/>
-        <v>4.0988382545350577</v>
+        <f t="shared" si="19"/>
+        <v>4.1681050063972931</v>
       </c>
       <c r="AD41" s="41" t="s">
         <v>70</v>
       </c>
       <c r="AE41" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>AUD6M20Y=</v>
       </c>
       <c r="AF41" s="16">
         <f>'6M Pricing'!H41*100</f>
-        <v>4.1774999999989921</v>
+        <v>4.2474999999987482</v>
       </c>
       <c r="AG41" s="16">
-        <f t="shared" si="22"/>
-        <v>4.1774999999989921</v>
+        <f t="shared" si="21"/>
+        <v>4.2474999999987482</v>
       </c>
       <c r="AH41" s="41" t="s">
         <v>70</v>
@@ -10830,91 +10824,91 @@
       </c>
       <c r="J42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,BID)-T42)</f>
-        <v>1.3815615318435448E-12</v>
+        <v>1.2629897128135781E-12</v>
       </c>
       <c r="K42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,ASK)-U42)</f>
-        <v>1.3815615318435448E-12</v>
-      </c>
-      <c r="L42" s="127" t="e">
+        <v>1.2629897128135781E-12</v>
+      </c>
+      <c r="L42" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W42,BID)-X42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M42" s="127" t="e">
+        <v>1.7478463121278764E-10</v>
+      </c>
+      <c r="M42" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$W42,ASK)-Y42)</f>
-        <v>#VALUE!</v>
+        <v>1.7478463121278764E-10</v>
       </c>
       <c r="N42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA42,BID)-AB42)</f>
-        <v>2.9234925591481442E-10</v>
+        <v>2.2115642650533118E-13</v>
       </c>
       <c r="O42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AA42,ASK)-AC42)</f>
-        <v>2.9234925591481442E-10</v>
+        <v>2.2115642650533118E-13</v>
       </c>
       <c r="P42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE42,BID)-AF42)</f>
-        <v>3.5527136788005009E-15</v>
+        <v>2.0543566847663897E-12</v>
       </c>
       <c r="Q42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$AE42,ASK)-AG42)</f>
-        <v>3.5527136788005009E-15</v>
+        <v>2.0543566847663897E-12</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON25YD=</v>
       </c>
       <c r="T42" s="16">
         <f>'ON Pricing'!H42*100</f>
-        <v>3.9330000000013814</v>
+        <v>4.0099999999987368</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" si="15"/>
-        <v>3.9330000000013814</v>
+        <f t="shared" si="14"/>
+        <v>4.0099999999987368</v>
       </c>
       <c r="V42" s="165"/>
       <c r="W42" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>AUD1M25Y=</v>
       </c>
       <c r="X42" s="126">
         <f>'1M Pricing'!H42*100</f>
-        <v>4.0723968501078653</v>
+        <v>4.1411741991747846</v>
       </c>
       <c r="Y42" s="126">
-        <f t="shared" si="18"/>
-        <v>4.0723968501078653</v>
+        <f t="shared" si="17"/>
+        <v>4.1411741991747846</v>
       </c>
       <c r="Z42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AA42" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>AUD3M25Y=</v>
       </c>
       <c r="AB42" s="16">
         <f>'3M Pricing'!H42*100</f>
-        <v>4.1620296797076506</v>
+        <v>4.2312922220002216</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" si="20"/>
-        <v>4.1620296797076506</v>
+        <f t="shared" si="19"/>
+        <v>4.2312922220002216</v>
       </c>
       <c r="AD42" s="41" t="s">
         <v>70</v>
       </c>
       <c r="AE42" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>AUD6M25Y=</v>
       </c>
       <c r="AF42" s="16">
         <f>'6M Pricing'!H42*100</f>
-        <v>4.2299999999999969</v>
+        <v>4.3000000000020542</v>
       </c>
       <c r="AG42" s="16">
-        <f t="shared" si="22"/>
-        <v>4.2299999999999969</v>
+        <f t="shared" si="21"/>
+        <v>4.3000000000020542</v>
       </c>
       <c r="AH42" s="41" t="s">
         <v>70</v>
@@ -10974,91 +10968,91 @@
       </c>
       <c r="J43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,BID)-T43)</f>
-        <v>4.687805699177261E-12</v>
+        <v>5.631051180898794E-12</v>
       </c>
       <c r="K43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,ASK)-U43)</f>
-        <v>4.687805699177261E-12</v>
-      </c>
-      <c r="L43" s="140" t="e">
+        <v>5.631051180898794E-12</v>
+      </c>
+      <c r="L43" s="140">
         <f>ABS(_xll.RtGet(SourceAlias,$W43,BID)-X43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M43" s="140" t="e">
+        <v>2.8284041775350488E-10</v>
+      </c>
+      <c r="M43" s="140">
         <f>ABS(_xll.RtGet(SourceAlias,$W43,ASK)-Y43)</f>
-        <v>#VALUE!</v>
+        <v>2.8284041775350488E-10</v>
       </c>
       <c r="N43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AA43,BID)-AB43)</f>
-        <v>1.5754242355114911E-10</v>
+        <v>1.7898127424587074E-10</v>
       </c>
       <c r="O43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AA43,ASK)-AC43)</f>
-        <v>1.5754242355114911E-10</v>
+        <v>1.7898127424587074E-10</v>
       </c>
       <c r="P43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AE43,BID)-AF43)</f>
-        <v>8.5913498537593114E-12</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="Q43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$AE43,ASK)-AG43)</f>
-        <v>8.5913498537593114E-12</v>
+        <v>3.5527136788005009E-15</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>AUDON30YD=</v>
       </c>
       <c r="T43" s="18">
         <f>'ON Pricing'!H43*100</f>
-        <v>3.9680000000046878</v>
+        <v>4.047999999994369</v>
       </c>
       <c r="U43" s="18">
-        <f t="shared" si="15"/>
-        <v>3.9680000000046878</v>
+        <f t="shared" si="14"/>
+        <v>4.047999999994369</v>
       </c>
       <c r="V43" s="165"/>
       <c r="W43" s="138" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>AUD1M30Y=</v>
       </c>
       <c r="X43" s="139">
         <f>'1M Pricing'!H43*100</f>
-        <v>4.1069140114752036</v>
+        <v>4.1756564912828402</v>
       </c>
       <c r="Y43" s="139">
-        <f t="shared" si="18"/>
-        <v>4.1069140114752036</v>
+        <f t="shared" si="17"/>
+        <v>4.1756564912828402</v>
       </c>
       <c r="Z43" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AA43" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>AUD3M30Y=</v>
       </c>
       <c r="AB43" s="18">
         <f>'3M Pricing'!H43*100</f>
-        <v>4.1917587371575422</v>
+        <v>4.2610003068210185</v>
       </c>
       <c r="AC43" s="18">
-        <f t="shared" si="20"/>
-        <v>4.1917587371575422</v>
+        <f t="shared" si="19"/>
+        <v>4.2610003068210185</v>
       </c>
       <c r="AD43" s="41" t="s">
         <v>70</v>
       </c>
       <c r="AE43" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>AUD6M30Y=</v>
       </c>
       <c r="AF43" s="18">
         <f>'6M Pricing'!H43*100</f>
-        <v>4.2500000000085913</v>
+        <v>4.3199999999999967</v>
       </c>
       <c r="AG43" s="18">
-        <f t="shared" si="22"/>
-        <v>4.2500000000085913</v>
+        <f t="shared" si="21"/>
+        <v>4.3199999999999967</v>
       </c>
       <c r="AH43" s="41" t="s">
         <v>70</v>
@@ -14971,19 +14965,19 @@
       </c>
       <c r="E6" s="162">
         <f t="shared" ref="E6" si="0">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F6" s="162">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E6,)</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="G6" s="162">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F6)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlIndexFixing(OvernightIndex,E6,TRUE,InterestRatesTrigger)</f>
-        <v>2.4997091403935467E-2</v>
+        <v>2.4998961746400816E-2</v>
       </c>
       <c r="I6" s="55" t="str">
         <f>Contribution!S6</f>
@@ -15019,19 +15013,19 @@
       </c>
       <c r="E7" s="156">
         <f>G6</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="F7" s="156">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E7,)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G7" s="156">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="H7" s="157">
         <f>_xll.qlIndexFixing(OvernightIndex,E7,TRUE,InterestRatesTrigger)</f>
-        <v>2.4996905830888538E-2</v>
+        <v>2.4999535699627987E-2</v>
       </c>
       <c r="I7" s="153" t="str">
         <f>Contribution!S7</f>
@@ -15065,19 +15059,19 @@
       </c>
       <c r="E8" s="159">
         <f>G6</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="F8" s="159">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E8,)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G8" s="159">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F8)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="H8" s="160">
         <f>_xll.qlIndexFixing(OvernightIndex,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.4996905830888538E-2</v>
+        <v>2.4999535699627987E-2</v>
       </c>
       <c r="I8" s="154" t="str">
         <f>Contribution!S8</f>
@@ -15119,19 +15113,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" ref="E9:E43" si="1">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9)</f>
-        <v>41892</v>
+        <v>41894</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.499999998928671E-2</v>
+        <v>2.4999999989046645E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!S9</f>
@@ -15144,7 +15138,7 @@
       <c r="K9" s="61"/>
       <c r="L9" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C9="SW","1W",C9),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003e2#0000</v>
+        <v>obj_003da#0000</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="87" t="s">
@@ -15177,26 +15171,26 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10)</f>
-        <v>41899</v>
+        <v>41901</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.5001927650198926E-2</v>
+        <v>2.4998352098895851E-2</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="60"/>
       <c r="L10" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C10="SW","1W",C10),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003e6#0000</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="M10" s="92"/>
       <c r="N10" s="41"/>
@@ -15223,26 +15217,26 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11)</f>
-        <v>41906</v>
+        <v>41908</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.5004603907054269E-2</v>
+        <v>2.4997542971857915E-2</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="60"/>
       <c r="L11" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C11="SW","1W",C11),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003d5#0000</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -15269,19 +15263,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12)</f>
-        <v>41915</v>
+        <v>41919</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.5010000000265917E-2</v>
+        <v>2.500000000028221E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!S12</f>
@@ -15294,7 +15288,7 @@
       <c r="K12" s="60"/>
       <c r="L12" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C12="SW","1W",C12),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003aa#0000</v>
+        <v>obj_00398#0000</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
@@ -15321,19 +15315,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13)</f>
-        <v>41946</v>
+        <v>41948</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.4999999999958004E-2</v>
+        <v>2.4999999999959908E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!S13</f>
@@ -15346,7 +15340,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C13="SW","1W",C13),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00394#0000</v>
+        <v>obj_003ea#0000</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -15373,19 +15367,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14)</f>
-        <v>41976</v>
+        <v>41978</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.4910000000005976E-2</v>
+        <v>2.4950000000005235E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!S14</f>
@@ -15398,7 +15392,7 @@
       <c r="K14" s="60"/>
       <c r="L14" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C14="SW","1W",C14),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003e5#0000</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -15425,11 +15419,11 @@
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F15" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15)</f>
@@ -15437,7 +15431,7 @@
       </c>
       <c r="H15" s="47">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRatesTrigger)</f>
-        <v>2.4824999999999108E-2</v>
+        <v>2.4899999999999787E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!S15</f>
@@ -15450,7 +15444,7 @@
       <c r="K15" s="60"/>
       <c r="L15" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C15="SW","1W",C15),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003cc#0000</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -15477,19 +15471,19 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F16" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16)</f>
-        <v>42038</v>
+        <v>42040</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRatesTrigger)</f>
-        <v>2.4775000000002132E-2</v>
+        <v>2.4875000000001181E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!S16</f>
@@ -15502,7 +15496,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C16="SW","1W",C16),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003a9#0000</v>
+        <v>obj_0038b#0000</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -15529,19 +15523,19 @@
       </c>
       <c r="E17" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F17" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L17,E17)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L17,F17)</f>
-        <v>42066</v>
+        <v>42068</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlIndexFixing(L17,E17,TRUE,InterestRatesTrigger)</f>
-        <v>2.4749999999999769E-2</v>
+        <v>2.4869999999999743E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!S17</f>
@@ -15554,7 +15548,7 @@
       <c r="K17" s="60"/>
       <c r="L17" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C17="SW","1W",C17),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003ce#0000</v>
+        <v>obj_003e3#0000</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -15581,19 +15575,19 @@
       </c>
       <c r="E18" s="49">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F18" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L18,E18)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G18" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L18,F18)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H18" s="50">
         <f>_xll.qlIndexFixing(L18,E18,TRUE,InterestRatesTrigger)</f>
-        <v>2.4725000000000108E-2</v>
+        <v>2.4875000000000057E-2</v>
       </c>
       <c r="I18" s="40" t="str">
         <f>Contribution!S18</f>
@@ -15606,7 +15600,7 @@
       <c r="K18" s="60"/>
       <c r="L18" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C18="SW","1W",C18),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003ec#0000</v>
+        <v>obj_003c7#0000</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -15876,19 +15870,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.4749999999999963E-2</v>
+        <v>2.489999999999945E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!S28</f>
@@ -15901,7 +15895,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C28="SW","1W",C28),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003bd#0000</v>
+        <v>obj_0039b#0000</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
@@ -15928,19 +15922,19 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29)</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.4953042868600211E-2</v>
+        <v>2.5204252498544574E-2</v>
       </c>
       <c r="I29" s="38" t="str">
         <f>Contribution!S29</f>
@@ -15953,7 +15947,7 @@
       <c r="K29" s="60"/>
       <c r="L29" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C29="SW","1W",C29),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0038a#0000</v>
+        <v>obj_003e1#0000</v>
       </c>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
@@ -15980,11 +15974,11 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30)</f>
@@ -15992,7 +15986,7 @@
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.5550000000000964E-2</v>
+        <v>2.5799999999999997E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!S30</f>
@@ -16005,7 +15999,7 @@
       <c r="K30" s="60"/>
       <c r="L30" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C30="SW","1W",C30),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003c4#0000</v>
+        <v>obj_003c5#0000</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
@@ -16032,19 +16026,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31)</f>
-        <v>42982</v>
+        <v>42983</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.6949999999999995E-2</v>
+        <v>2.7249999999999643E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!S31</f>
@@ -16057,7 +16051,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C31="SW","1W",C31),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003ed#0000</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
@@ -16084,19 +16078,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32)</f>
-        <v>43346</v>
+        <v>43348</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>2.823000000000005E-2</v>
+        <v>2.8679999999999716E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!S32</f>
@@ -16109,7 +16103,7 @@
       <c r="K32" s="60"/>
       <c r="L32" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C32="SW","1W",C32),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003d6#0000</v>
+        <v>obj_003d5#0000</v>
       </c>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
@@ -16136,19 +16130,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33)</f>
-        <v>43711</v>
+        <v>43713</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>2.9449999999999851E-2</v>
+        <v>3.004999999999974E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!S33</f>
@@ -16161,7 +16155,7 @@
       <c r="K33" s="60"/>
       <c r="L33" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C33="SW","1W",C33),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0038e#0000</v>
+        <v>obj_00394#0000</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -16188,19 +16182,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34)</f>
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.0629999999999876E-2</v>
+        <v>3.1249999999999944E-2</v>
       </c>
       <c r="I34" s="38" t="str">
         <f>Contribution!S34</f>
@@ -16213,7 +16207,7 @@
       <c r="K34" s="60"/>
       <c r="L34" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C34="SW","1W",C34),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003c2#0000</v>
+        <v>obj_0038d#0000</v>
       </c>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
@@ -16240,19 +16234,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35)</f>
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.1779999999999538E-2</v>
+        <v>3.2450000000000069E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!S35</f>
@@ -16265,7 +16259,7 @@
       <c r="K35" s="60"/>
       <c r="L35" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C35="SW","1W",C35),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003a0#0000</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
@@ -16292,11 +16286,11 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36)</f>
@@ -16304,7 +16298,7 @@
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.2579999999999547E-2</v>
+        <v>3.3279999999999831E-2</v>
       </c>
       <c r="I36" s="38" t="str">
         <f>Contribution!S36</f>
@@ -16317,7 +16311,7 @@
       <c r="K36" s="60"/>
       <c r="L36" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C36="SW","1W",C36),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0039d#0000</v>
+        <v>obj_00396#0000</v>
       </c>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
@@ -16344,19 +16338,19 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37)</f>
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.3349999999999679E-2</v>
+        <v>3.4130000000131E-2</v>
       </c>
       <c r="I37" s="38" t="str">
         <f>Contribution!S37</f>
@@ -16369,7 +16363,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C37="SW","1W",C37),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003e7#0000</v>
+        <v>obj_003d1#0000</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -16396,19 +16390,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38)</f>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.4150000000107948E-2</v>
+        <v>3.4950000000100567E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!S38</f>
@@ -16421,7 +16415,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C38="SW","1W",C38),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003d8#0000</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -16448,19 +16442,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39)</f>
-        <v>46268</v>
+        <v>46272</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.5500000000038549E-2</v>
+        <v>3.6329999999960637E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!S39</f>
@@ -16473,7 +16467,7 @@
       <c r="K39" s="60"/>
       <c r="L39" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C39="SW","1W",C39),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003d3#0000</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
@@ -16500,19 +16494,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40)</f>
-        <v>47364</v>
+        <v>47366</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.6999999999999623E-2</v>
+        <v>3.7830000000000572E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!S40</f>
@@ -16525,7 +16519,7 @@
       <c r="K40" s="60"/>
       <c r="L40" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C40="SW","1W",C40),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003a4#0000</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
@@ -16552,19 +16546,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41)</f>
-        <v>49191</v>
+        <v>49192</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>3.8700000000013134E-2</v>
+        <v>3.9479999999947959E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!S41</f>
@@ -16577,7 +16571,7 @@
       <c r="K41" s="60"/>
       <c r="L41" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C41="SW","1W",C41),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003dd#0000</v>
+        <v>obj_003de#0000</v>
       </c>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -16604,11 +16598,11 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42)</f>
@@ -16616,7 +16610,7 @@
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>3.9330000000013812E-2</v>
+        <v>4.0099999999987368E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!S42</f>
@@ -16629,7 +16623,7 @@
       <c r="K42" s="60"/>
       <c r="L42" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C42="SW","1W",C42),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003c3#0000</v>
+        <v>obj_0039c#0000</v>
       </c>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
@@ -16656,11 +16650,11 @@
       </c>
       <c r="E43" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G43" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43)</f>
@@ -16668,7 +16662,7 @@
       </c>
       <c r="H43" s="47">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>3.9680000000046879E-2</v>
+        <v>4.0479999999943693E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!S43</f>
@@ -16681,7 +16675,7 @@
       <c r="K43" s="60"/>
       <c r="L43" s="31" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C43="SW","1W",C43),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_003df#0000</v>
+        <v>obj_003c6#0000</v>
       </c>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
@@ -19030,19 +19024,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E43" si="1">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.6370283722131311E-2</v>
+        <v>2.641601542737473E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!W6</f>
@@ -19052,7 +19046,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>obj_003f0#0002</v>
+        <v>obj_003f1#0001</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="91"/>
@@ -19072,7 +19066,7 @@
       <c r="A7" s="91"/>
       <c r="B7" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>97</v>
@@ -19082,19 +19076,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.636983931212129E-2</v>
+        <v>2.6410399684924285E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!W7</f>
@@ -19129,7 +19123,7 @@
       <c r="A8" s="91"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>98</v>
@@ -19139,19 +19133,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41887</v>
+        <v>41891</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.6369444544279697E-2</v>
+        <v>2.6408738755041572E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!W8</f>
@@ -19161,7 +19155,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003a8#0000</v>
+        <v>obj_003dc#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -19187,7 +19181,7 @@
       <c r="A9" s="91"/>
       <c r="B9" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>16</v>
@@ -19197,19 +19191,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41893</v>
+        <v>41897</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.6365338461335246E-2</v>
+        <v>2.639655784093721E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!W9</f>
@@ -19219,7 +19213,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003dc#0000</v>
+        <v>obj_003e9#0000</v>
       </c>
       <c r="M9" s="85"/>
       <c r="N9" s="91"/>
@@ -19239,7 +19233,7 @@
       <c r="A10" s="91"/>
       <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -19249,19 +19243,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41900</v>
+        <v>41904</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.6349893535757563E-2</v>
+        <v>2.6368737712167013E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!W10</f>
@@ -19271,7 +19265,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003b0#0000</v>
+        <v>obj_00399#0000</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="91"/>
@@ -19291,7 +19285,7 @@
       <c r="A11" s="91"/>
       <c r="B11" s="21">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>18</v>
@@ -19301,19 +19295,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41907</v>
+        <v>41911</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.6322958027918002E-2</v>
+        <v>2.6326240615287651E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!W11</f>
@@ -19323,7 +19317,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00390#0000</v>
+        <v>obj_003c8#0000</v>
       </c>
       <c r="M11" s="85"/>
       <c r="N11" s="91"/>
@@ -19343,7 +19337,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -19353,19 +19347,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.6250000000824274E-2</v>
+        <v>2.6250000002750722E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!W12</f>
@@ -19377,7 +19371,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0038d#0000</v>
+        <v>obj_00387#0000</v>
       </c>
       <c r="M12" s="85"/>
       <c r="N12" s="91"/>
@@ -19736,19 +19730,19 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41976</v>
+        <v>41978</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRatesTrigger)</f>
-        <v>2.5806575951861862E-2</v>
+        <v>2.5741847342191884E-2</v>
       </c>
       <c r="I25" s="39" t="str">
         <f>Contribution!W25</f>
@@ -19758,7 +19752,7 @@
       <c r="K25" s="41"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003bb#0000</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="M25" s="85"/>
       <c r="N25" s="87" t="s">
@@ -19791,19 +19785,19 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42066</v>
+        <v>42068</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.56082467993703E-2</v>
+        <v>2.5645638666499455E-2</v>
       </c>
       <c r="I26" s="38" t="str">
         <f>Contribution!W26</f>
@@ -19813,7 +19807,7 @@
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b4#0000</v>
+        <v>obj_003e2#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -19840,19 +19834,19 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.5454049564829273E-2</v>
+        <v>2.5530811719560398E-2</v>
       </c>
       <c r="I27" s="38" t="str">
         <f>Contribution!W27</f>
@@ -19862,7 +19856,7 @@
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c9#0000</v>
+        <v>obj_0038e#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -19889,19 +19883,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.544697402020684E-2</v>
+        <v>2.5583409876214085E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!W28</f>
@@ -19911,7 +19905,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003eb#0000</v>
+        <v>obj_003c3#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="91"/>
@@ -19938,26 +19932,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.5750779970896375E-2</v>
+        <v>2.5970991896740125E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a7#0000</v>
+        <v>obj_003e6#0000</v>
       </c>
       <c r="M29" s="92"/>
       <c r="N29" s="91"/>
@@ -19984,11 +19978,11 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
@@ -19996,7 +19990,7 @@
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.6317669276448519E-2</v>
+        <v>2.6541656359033754E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!W30</f>
@@ -20006,7 +20000,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a3#0000</v>
+        <v>obj_00397#0000</v>
       </c>
       <c r="M30" s="92"/>
       <c r="N30" s="91"/>
@@ -20033,19 +20027,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>42982</v>
+        <v>42983</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.7748750409932608E-2</v>
+        <v>2.7947532429632171E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!W31</f>
@@ -20055,7 +20049,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ae#0000</v>
+        <v>obj_003d8#0000</v>
       </c>
       <c r="M31" s="92"/>
       <c r="N31" s="91"/>
@@ -20082,19 +20076,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>43346</v>
+        <v>43348</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>2.9071661457944598E-2</v>
+        <v>2.9403842943277501E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!W32</f>
@@ -20104,7 +20098,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003be#0000</v>
+        <v>obj_003cf#0000</v>
       </c>
       <c r="M32" s="92"/>
       <c r="N32" s="91"/>
@@ -20131,19 +20125,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43711</v>
+        <v>43713</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.0331135795126432E-2</v>
+        <v>3.0761547284199418E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!W33</f>
@@ -20153,7 +20147,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b6#0000</v>
+        <v>obj_003ef#0000</v>
       </c>
       <c r="M33" s="92"/>
       <c r="N33" s="91"/>
@@ -20180,26 +20174,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.157567672779886E-2</v>
+        <v>3.2066923895505715E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="41"/>
       <c r="L34" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003cd#0000</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="M34" s="92"/>
       <c r="N34" s="91"/>
@@ -20226,19 +20220,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.2687805527114318E-2</v>
+        <v>3.32164536307753E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!W35</f>
@@ -20248,7 +20242,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0039f#0000</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="M35" s="92"/>
       <c r="N35" s="91"/>
@@ -20275,11 +20269,11 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
@@ -20287,14 +20281,14 @@
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.3624586111631834E-2</v>
+        <v>3.4187934912074031E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="41"/>
       <c r="L36" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00389#0000</v>
+        <v>obj_003cc#0000</v>
       </c>
       <c r="M36" s="92"/>
       <c r="N36" s="91"/>
@@ -20321,26 +20315,26 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.4443727902999995E-2</v>
+        <v>3.5045625455069354E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="41"/>
       <c r="L37" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00395#0000</v>
+        <v>obj_00388#0000</v>
       </c>
       <c r="M37" s="92"/>
       <c r="N37" s="91"/>
@@ -20367,19 +20361,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.5215971370075934E-2</v>
+        <v>3.5842437812933399E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!W38</f>
@@ -20389,7 +20383,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d1#0000</v>
+        <v>obj_0038f#0000</v>
       </c>
       <c r="M38" s="92"/>
       <c r="N38" s="91"/>
@@ -20416,19 +20410,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46268</v>
+        <v>46272</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.6645882833354279E-2</v>
+        <v>3.7296393823177905E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!W39</f>
@@ -20438,7 +20432,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d7#0000</v>
+        <v>obj_00390#0000</v>
       </c>
       <c r="M39" s="92"/>
       <c r="N39" s="91"/>
@@ -20465,19 +20459,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>47364</v>
+        <v>47366</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.8247544593257708E-2</v>
+        <v>3.8960232756472327E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!W40</f>
@@ -20487,7 +20481,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0038c#0000</v>
+        <v>obj_003db#0000</v>
       </c>
       <c r="M40" s="92"/>
       <c r="N40" s="91"/>
@@ -20514,19 +20508,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>49191</v>
+        <v>49192</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>4.0008615461236609E-2</v>
+        <v>4.0696472262070141E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!W41</f>
@@ -20536,7 +20530,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c7#0000</v>
+        <v>obj_003e8#0000</v>
       </c>
       <c r="M41" s="92"/>
       <c r="N41" s="91"/>
@@ -20563,11 +20557,11 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
@@ -20575,7 +20569,7 @@
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.0723968501078657E-2</v>
+        <v>4.1411741991747845E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!W42</f>
@@ -20585,7 +20579,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b5#0000</v>
+        <v>obj_003e7#0000</v>
       </c>
       <c r="M42" s="92"/>
       <c r="N42" s="91"/>
@@ -20612,11 +20606,11 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
@@ -20624,7 +20618,7 @@
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.1069140114752038E-2</v>
+        <v>4.1756564912828406E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!W43</f>
@@ -20634,7 +20628,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="56" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c8#0000</v>
+        <v>obj_003dd#0000</v>
       </c>
       <c r="M43" s="92"/>
       <c r="N43" s="91"/>
@@ -23383,19 +23377,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E14" si="1">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.6266042558600006E-2</v>
+        <v>2.6188835838315449E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!AA6</f>
@@ -23405,7 +23399,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_003f2#0002</v>
+        <v>obj_003f0#0001</v>
       </c>
       <c r="M6" s="57"/>
       <c r="N6" s="6"/>
@@ -23425,7 +23419,7 @@
       <c r="A7" s="91"/>
       <c r="B7" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>97</v>
@@ -23435,19 +23429,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.6266893692347158E-2</v>
+        <v>2.6191530250681001E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!AA7</f>
@@ -23482,7 +23476,7 @@
       <c r="A8" s="91"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>98</v>
@@ -23492,19 +23486,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41887</v>
+        <v>41891</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.6267748096141519E-2</v>
+        <v>2.6192431421796503E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!AA8</f>
@@ -23514,7 +23508,7 @@
       <c r="K8" s="91"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003a6#0000</v>
+        <v>obj_003d3#0000</v>
       </c>
       <c r="M8" s="91"/>
       <c r="N8" s="87" t="b">
@@ -23540,7 +23534,7 @@
       <c r="A9" s="91"/>
       <c r="B9" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>16</v>
@@ -23550,19 +23544,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41893</v>
+        <v>41897</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.6272760067255364E-2</v>
+        <v>2.6197806595056168E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!AA9</f>
@@ -23572,7 +23566,7 @@
       <c r="K9" s="57"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003e3#0000</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
@@ -23592,7 +23586,7 @@
       <c r="A10" s="91"/>
       <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -23602,19 +23596,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41900</v>
+        <v>41904</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.6277893461195054E-2</v>
+        <v>2.6203878925829774E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!AA10</f>
@@ -23624,7 +23618,7 @@
       <c r="K10" s="57"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0038f#0000</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -23644,7 +23638,7 @@
       <c r="A11" s="91"/>
       <c r="B11" s="21">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>18</v>
@@ -23654,19 +23648,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41907</v>
+        <v>41911</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.6282256925277626E-2</v>
+        <v>2.6209736957570579E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!AA11</f>
@@ -23676,7 +23670,7 @@
       <c r="K11" s="57"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003b8#0000</v>
+        <v>obj_0039a#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -23696,7 +23690,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -23706,19 +23700,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.62879425293309E-2</v>
+        <v>2.6216953301160362E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!AA12</f>
@@ -23728,7 +23722,7 @@
       <c r="K12" s="57"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00391#0000</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
@@ -23748,7 +23742,7 @@
       <c r="A13" s="91"/>
       <c r="B13" s="21">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>20</v>
@@ -23758,19 +23752,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>41947</v>
+        <v>41953</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.6292363449617249E-2</v>
+        <v>2.6240366647111844E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!AA13</f>
@@ -23780,7 +23774,7 @@
       <c r="K13" s="57"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003a2#0000</v>
+        <v>obj_0038a#0000</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -23800,7 +23794,7 @@
       <c r="A14" s="91"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>21</v>
@@ -23810,19 +23804,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>41977</v>
+        <v>41981</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.6283289065882339E-2</v>
+        <v>2.625645919117614E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!AA14</f>
@@ -23834,7 +23828,7 @@
       <c r="K14" s="57"/>
       <c r="L14" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003ea#0000</v>
+        <v>obj_00392#0000</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
@@ -23982,11 +23976,11 @@
       </c>
       <c r="H19" s="110">
         <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.3750000001112</v>
+        <v>97.375000000079311</v>
       </c>
       <c r="I19" s="39" t="str">
         <f>Contribution!AA19</f>
-        <v>AUD3MU4=</v>
+        <v>AUD3MU4</v>
       </c>
       <c r="J19" s="39" t="str">
         <f>"YBA"&amp;C19</f>
@@ -24032,11 +24026,11 @@
       </c>
       <c r="H20" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.405000000000001</v>
+        <v>97.384999999999962</v>
       </c>
       <c r="I20" s="38" t="str">
         <f>Contribution!AA20</f>
-        <v>AUD3MZ4=</v>
+        <v>AUD3MZ4</v>
       </c>
       <c r="J20" s="38" t="str">
         <f t="shared" ref="J20:J24" si="2">"YBA"&amp;C20</f>
@@ -24082,11 +24076,11 @@
       </c>
       <c r="H21" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.405000000003611</v>
+        <v>97.385000000002975</v>
       </c>
       <c r="I21" s="38" t="str">
         <f>Contribution!AA21</f>
-        <v>AUD3MH5=</v>
+        <v>AUD3MH5</v>
       </c>
       <c r="J21" s="38" t="str">
         <f t="shared" si="2"/>
@@ -24132,11 +24126,11 @@
       </c>
       <c r="H22" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.384999999996722</v>
+        <v>97.344999999997327</v>
       </c>
       <c r="I22" s="38" t="str">
         <f>Contribution!AA22</f>
-        <v>AUD3MM5=</v>
+        <v>AUD3MM5</v>
       </c>
       <c r="J22" s="38" t="str">
         <f t="shared" si="2"/>
@@ -24182,11 +24176,11 @@
       </c>
       <c r="H23" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.314999999996502</v>
+        <v>97.269999999997097</v>
       </c>
       <c r="I23" s="38" t="str">
         <f>Contribution!AA23</f>
-        <v>AUD3MU5=</v>
+        <v>AUD3MU5</v>
       </c>
       <c r="J23" s="38" t="str">
         <f t="shared" si="2"/>
@@ -24232,11 +24226,11 @@
       </c>
       <c r="H24" s="112">
         <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.224999999999994</v>
+        <v>97.179999999999964</v>
       </c>
       <c r="I24" s="40" t="str">
         <f>Contribution!AA24</f>
-        <v>AUD3MZ5=</v>
+        <v>AUD3MZ5</v>
       </c>
       <c r="J24" s="40" t="str">
         <f t="shared" si="2"/>
@@ -24277,26 +24271,26 @@
       </c>
       <c r="E25" s="45">
         <f>EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41976</v>
+        <v>41978</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRatesTrigger)</f>
-        <v>2.6285517830883502E-2</v>
+        <v>2.6258373027817413E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="91"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,"AudBBSW3M",DiscountingCurve,,Trigger)</f>
-        <v>obj_003cb#0000</v>
+        <v>obj_003a5#0000</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="30" t="s">
@@ -24329,26 +24323,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" ref="E26:E27" si="3">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42066</v>
+        <v>42068</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.6136131807497263E-2</v>
+        <v>2.621152161890478E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="57"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ca#0000</v>
+        <v>obj_0039d#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="58"/>
@@ -24375,26 +24369,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="3"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.6069333128158644E-2</v>
+        <v>2.6184256964764133E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="91"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ab#0000</v>
+        <v>obj_003c4#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="91"/>
@@ -24421,19 +24415,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="4">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.6074409928019283E-2</v>
+        <v>2.6259747842662762E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!AA28</f>
@@ -24446,7 +24440,7 @@
       <c r="K28" s="91"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00396#0000</v>
+        <v>obj_00395#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="57"/>
@@ -24473,26 +24467,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.6434043835148458E-2</v>
+        <v>2.6718182075436622E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="91"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0039e#0000</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="57"/>
@@ -24519,11 +24513,11 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="5">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
@@ -24531,7 +24525,7 @@
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.7125000000213131E-2</v>
+        <v>2.7400000000206998E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!AA30</f>
@@ -24544,7 +24538,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c0#0000</v>
+        <v>obj_003d9#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
@@ -24571,19 +24565,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>42982</v>
+        <v>42983</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.86500000006377E-2</v>
+        <v>2.8900000000591692E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!AA31</f>
@@ -24596,7 +24590,7 @@
       <c r="K31" s="57"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00397#0000</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="57"/>
@@ -24623,19 +24617,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>43346</v>
+        <v>43348</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>3.0029021985254728E-2</v>
+        <v>3.0425776546770457E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!AA32</f>
@@ -24645,7 +24639,7 @@
       <c r="K32" s="57"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0039b#0000</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="57"/>
@@ -24672,19 +24666,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43711</v>
+        <v>43713</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.131957509316418E-2</v>
+        <v>3.1815277370835018E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!AA33</f>
@@ -24694,7 +24688,7 @@
       <c r="K33" s="57"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b3#0000</v>
+        <v>obj_003df#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="57"/>
@@ -24721,26 +24715,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.2584210373716553E-2</v>
+        <v>3.3141418970724146E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="57"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0038b#0000</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="57"/>
@@ -24767,19 +24761,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.3713399982586101E-2</v>
+        <v>3.4308047231646724E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!AA35</f>
@@ -24789,7 +24783,7 @@
       <c r="K35" s="57"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00398#0000</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="57"/>
@@ -24816,11 +24810,11 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
@@ -24828,14 +24822,14 @@
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.4666098315956552E-2</v>
+        <v>3.5293714065311337E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="57"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0039a#0000</v>
+        <v>obj_003d7#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
@@ -24862,26 +24856,26 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.5495013686672183E-2</v>
+        <v>3.6160798940487605E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="57"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b9#0000</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="57"/>
@@ -24908,19 +24902,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.6267651228907877E-2</v>
+        <v>3.6960976687558871E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!AA38</f>
@@ -24930,7 +24924,7 @@
       <c r="K38" s="57"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00388#0000</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="57"/>
@@ -24957,19 +24951,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46268</v>
+        <v>46272</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.7680560271334824E-2</v>
+        <v>3.8398309817982999E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!AA39</f>
@@ -24979,7 +24973,7 @@
       <c r="K39" s="57"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c1#0000</v>
+        <v>obj_003ec#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="57"/>
@@ -25006,19 +25000,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>47364</v>
+        <v>47366</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.9279083367759531E-2</v>
+        <v>3.9996644936524169E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!AA40</f>
@@ -25028,7 +25022,7 @@
       <c r="K40" s="57"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a1#0000</v>
+        <v>obj_003c0#0000</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="57"/>
@@ -25055,19 +25049,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>49191</v>
+        <v>49192</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>4.0988382545350574E-2</v>
+        <v>4.1681050063972928E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!AA41</f>
@@ -25077,7 +25071,7 @@
       <c r="K41" s="57"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00393#0000</v>
+        <v>obj_003e5#0000</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -25104,11 +25098,11 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
@@ -25116,7 +25110,7 @@
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.162029679707651E-2</v>
+        <v>4.2312922220002214E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!AA42</f>
@@ -25126,7 +25120,7 @@
       <c r="K42" s="57"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e0#0000</v>
+        <v>obj_003cb#0000</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -25153,11 +25147,11 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="5"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
@@ -25165,7 +25159,7 @@
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.1917587371575422E-2</v>
+        <v>4.2610003068210181E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!AA43</f>
@@ -25175,7 +25169,7 @@
       <c r="K43" s="57"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00387#0000</v>
+        <v>obj_00393#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -27449,19 +27443,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E17" si="1">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.7525426472184096E-2</v>
+        <v>2.7443552222229498E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!AE6</f>
@@ -27471,7 +27465,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_003f1#0002</v>
+        <v>obj_003f2#0001</v>
       </c>
       <c r="M6" s="91"/>
       <c r="N6" s="91"/>
@@ -27491,7 +27485,7 @@
       <c r="A7" s="91"/>
       <c r="B7" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>97</v>
@@ -27501,19 +27495,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.7526302026469388E-2</v>
+        <v>2.7446036861354224E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!AE7</f>
@@ -27548,7 +27542,7 @@
       <c r="A8" s="91"/>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>98</v>
@@ -27558,19 +27552,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41887</v>
+        <v>41891</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.7527183219022699E-2</v>
+        <v>2.7446879979604599E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!AE8</f>
@@ -27580,7 +27574,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003cf#0000</v>
+        <v>obj_003bd#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -27606,7 +27600,7 @@
       <c r="A9" s="91"/>
       <c r="B9" s="21">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>16</v>
@@ -27616,19 +27610,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41893</v>
+        <v>41897</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.7532273034961894E-2</v>
+        <v>2.7451782184414464E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!AE9</f>
@@ -27638,7 +27632,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003d4#0000</v>
+        <v>obj_003ca#0000</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="91"/>
@@ -27658,7 +27652,7 @@
       <c r="A10" s="91"/>
       <c r="B10" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
@@ -27668,19 +27662,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41900</v>
+        <v>41904</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.7536977641714477E-2</v>
+        <v>2.7456523287233532E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!AE10</f>
@@ -27690,7 +27684,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003de#0000</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="91"/>
@@ -27710,7 +27704,7 @@
       <c r="A11" s="91"/>
       <c r="B11" s="21">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>18</v>
@@ -27720,19 +27714,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41907</v>
+        <v>41911</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.754035184604222E-2</v>
+        <v>2.7460209427179777E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!AE11</f>
@@ -27742,7 +27736,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003e4#0000</v>
+        <v>obj_00391#0000</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="91"/>
@@ -27762,7 +27756,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -27772,19 +27766,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.7543034906933883E-2</v>
+        <v>2.7463395919861504E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!AE12</f>
@@ -27794,7 +27788,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003bc#0000</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="91"/>
@@ -27814,7 +27808,7 @@
       <c r="A13" s="91"/>
       <c r="B13" s="21">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>20</v>
@@ -27824,19 +27818,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>41947</v>
+        <v>41953</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.7534007096966497E-2</v>
+        <v>2.7460078750133888E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!AE13</f>
@@ -27846,7 +27840,7 @@
       <c r="K13" s="41"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003ba#0000</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="57"/>
@@ -27866,7 +27860,7 @@
       <c r="A14" s="91"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>21</v>
@@ -27876,19 +27870,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>41977</v>
+        <v>41981</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.7500458517750015E-2</v>
+        <v>2.7438681405567975E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!AE14</f>
@@ -27898,7 +27892,7 @@
       <c r="K14" s="41"/>
       <c r="L14" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003c5#0000</v>
+        <v>obj_003d0#0000</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="57"/>
@@ -27918,7 +27912,7 @@
       <c r="A15" s="91"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>22</v>
@@ -27928,19 +27922,19 @@
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F15" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
-        <v>42009</v>
+        <v>42012</v>
       </c>
       <c r="H15" s="47">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRatesTrigger)</f>
-        <v>2.7437267710289683E-2</v>
+        <v>2.7394956559383961E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!AE15</f>
@@ -27950,7 +27944,7 @@
       <c r="K15" s="41"/>
       <c r="L15" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C15="ON",C15="TN",C15="SN"),"1D",IF(C15="SW","1W",C15)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003e1#0000</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="57"/>
@@ -27970,7 +27964,7 @@
       <c r="A16" s="91"/>
       <c r="B16" s="21">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>23</v>
@@ -27980,19 +27974,19 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F16" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
-        <v>42039</v>
+        <v>42044</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRatesTrigger)</f>
-        <v>2.7352161177278962E-2</v>
+        <v>2.7327591043471589E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!AE16</f>
@@ -28002,7 +27996,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C16="ON",C16="TN",C16="SN"),"1D",IF(C16="SW","1W",C16)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003b7#0000</v>
+        <v>obj_0038c#0000</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="57"/>
@@ -28022,7 +28016,7 @@
       <c r="A17" s="91"/>
       <c r="B17" s="21">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>14</v>
@@ -28032,19 +28026,19 @@
       </c>
       <c r="E17" s="48">
         <f t="shared" si="1"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F17" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L17,E17,Trigger)</f>
-        <v>41886</v>
+        <v>41890</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L17,F17,Trigger)</f>
-        <v>42067</v>
+        <v>42072</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlIndexFixing(L17,E17,TRUE,InterestRatesTrigger)</f>
-        <v>2.7249999999869656E-2</v>
+        <v>2.7249999999098974E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!AE17</f>
@@ -28056,7 +28050,7 @@
       <c r="K17" s="41"/>
       <c r="L17" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C17="ON",C17="TN",C17="SN"),"1D",IF(C17="SW","1W",C17)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_003ee#0000</v>
+        <v>obj_003d6#0000</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="57"/>
@@ -28280,26 +28274,26 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" ref="E25:E27" si="2">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41976</v>
+        <v>41978</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRatesTrigger)</f>
-        <v>2.750430654031533E-2</v>
+        <v>2.7448030458707459E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="41"/>
       <c r="L25" s="88" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b1#0000</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="87" t="s">
@@ -28332,26 +28326,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="2"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42066</v>
+        <v>42068</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.7257582108895968E-2</v>
+        <v>2.7271305941997483E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ac#0000</v>
+        <v>obj_003ce#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -28378,26 +28372,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="2"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.6769639716290886E-2</v>
+        <v>2.6878522803094041E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d0#0000</v>
+        <v>obj_003ed#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -28424,19 +28418,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="3">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.658681568165731E-2</v>
+        <v>2.6773087144496551E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!AE28</f>
@@ -28446,7 +28440,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ad#0000</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="57"/>
@@ -28473,26 +28467,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="3"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42432</v>
+        <v>42436</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.6993140882817047E-2</v>
+        <v>2.7270080686278269E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e8#0000</v>
+        <v>obj_003e4#0000</v>
       </c>
       <c r="M29" s="85"/>
       <c r="N29" s="57"/>
@@ -28519,11 +28513,11 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="4">EvaluationDate</f>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
@@ -28531,7 +28525,7 @@
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.7775934889645287E-2</v>
+        <v>2.8054200118100246E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!AE30</f>
@@ -28541,7 +28535,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003bf#0000</v>
+        <v>obj_003d4#0000</v>
       </c>
       <c r="M30" s="85"/>
       <c r="N30" s="57"/>
@@ -28568,19 +28562,19 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>42982</v>
+        <v>42983</v>
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.9364547743557217E-2</v>
+        <v>2.9632727779778885E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!AE31</f>
@@ -28590,7 +28584,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003ef#0000</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="M31" s="85"/>
       <c r="N31" s="57"/>
@@ -28617,19 +28611,19 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>43346</v>
+        <v>43348</v>
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>3.0900000000005416E-2</v>
+        <v>3.1299999999995734E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!AE32</f>
@@ -28642,7 +28636,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003b2#0000</v>
+        <v>obj_003c9#0000</v>
       </c>
       <c r="M32" s="85"/>
       <c r="N32" s="57"/>
@@ -28669,19 +28663,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43711</v>
+        <v>43713</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.2225000000000018E-2</v>
+        <v>3.272499999999573E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!AE33</f>
@@ -28694,7 +28688,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00392#0000</v>
+        <v>obj_003d2#0000</v>
       </c>
       <c r="M33" s="85"/>
       <c r="N33" s="57"/>
@@ -28721,19 +28715,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.3499999999818578E-2</v>
+        <v>3.4050000000158495E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38" t="str">
@@ -28743,7 +28737,7 @@
       <c r="K34" s="41"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003db#0000</v>
+        <v>obj_003e0#0000</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="57"/>
@@ -28770,19 +28764,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.4649999999996337E-2</v>
+        <v>3.5250000000159369E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!AE35</f>
@@ -28795,7 +28789,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d2#0000</v>
+        <v>obj_0039e#0000</v>
       </c>
       <c r="M35" s="85"/>
       <c r="N35" s="57"/>
@@ -28822,11 +28816,11 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
@@ -28834,7 +28828,7 @@
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.562500000001656E-2</v>
+        <v>3.6249999999997153E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38" t="str">
@@ -28844,7 +28838,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003da#0000</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="M36" s="85"/>
       <c r="N36" s="57"/>
@@ -28871,19 +28865,19 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.6474999999963641E-2</v>
+        <v>3.7125000000000352E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38" t="str">
@@ -28893,7 +28887,7 @@
       <c r="K37" s="41"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003c6#0000</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="M37" s="85"/>
       <c r="N37" s="57"/>
@@ -28920,19 +28914,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.7224999999997267E-2</v>
+        <v>3.7925000000343385E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!AE38</f>
@@ -28945,7 +28939,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00399#0000</v>
+        <v>obj_003cd#0000</v>
       </c>
       <c r="M38" s="85"/>
       <c r="N38" s="57"/>
@@ -28972,19 +28966,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46268</v>
+        <v>46272</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.8624999999881927E-2</v>
+        <v>3.9349999999997831E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!AE39</f>
@@ -28997,7 +28991,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003af#0000</v>
+        <v>obj_003eb#0000</v>
       </c>
       <c r="M39" s="85"/>
       <c r="N39" s="57"/>
@@ -29024,19 +29018,19 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
-        <v>47364</v>
+        <v>47366</v>
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>4.0175000000003513E-2</v>
+        <v>4.0899999999963459E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!AE40</f>
@@ -29049,7 +29043,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003e9#0000</v>
+        <v>obj_003ee#0000</v>
       </c>
       <c r="M40" s="85"/>
       <c r="N40" s="57"/>
@@ -29076,19 +29070,19 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
-        <v>49191</v>
+        <v>49192</v>
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>4.1774999999989917E-2</v>
+        <v>4.2474999999987481E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!AE41</f>
@@ -29101,7 +29095,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003a5#0000</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="M41" s="57"/>
       <c r="N41" s="57"/>
@@ -29128,11 +29122,11 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
@@ -29140,7 +29134,7 @@
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.229999999999997E-2</v>
+        <v>4.3000000000020543E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!AE42</f>
@@ -29153,7 +29147,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0039c#0000</v>
+        <v>obj_00389#0000</v>
       </c>
       <c r="M42" s="57"/>
       <c r="N42" s="57"/>
@@ -29180,11 +29174,11 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="4"/>
-        <v>41884</v>
+        <v>41886</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41885</v>
+        <v>41887</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
@@ -29192,7 +29186,7 @@
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.2500000000085913E-2</v>
+        <v>4.3199999999999968E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!AE43</f>
@@ -29205,7 +29199,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_003d9#0000</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>

--- a/QuantLibXL/Data2/XLS/AUD_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_MxContributor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="11460" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="12720" windowHeight="11400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="2" r:id="rId1"/>
@@ -918,7 +918,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,6 +1354,12 @@
     <xf numFmtId="171" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Bad" xfId="14" builtinId="27"/>
@@ -1410,436 +1416,492 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5003249319999998</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X7" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDONSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X9" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5003249319999998</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X8" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5004011579999998</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X6" s="7"/>
+      </tp>
+      <tp>
+        <v>3.2130000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X34" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X17" s="7"/>
+      </tp>
+      <tp>
+        <v>3.335</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X35" s="7"/>
+      </tp>
+      <tp>
+        <v>2.9380000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X32" s="7"/>
+      </tp>
+      <tp>
+        <v>2.4975000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X15" s="7"/>
+      </tp>
+      <tp>
+        <v>3.09</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X33" s="7"/>
+      </tp>
+      <tp>
+        <v>2.4975000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X16" s="7"/>
+      </tp>
+      <tp>
+        <v>2.63</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X30" s="7"/>
+      </tp>
+      <tp>
+        <v>2.4975000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X13" s="7"/>
+      </tp>
+      <tp>
+        <v>2.78</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X31" s="7"/>
+      </tp>
+      <tp>
+        <v>2.496</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X14" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5350000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X28" s="7"/>
+      </tp>
+      <tp>
+        <v>2.4975000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X12" s="7"/>
+      </tp>
+      <tp>
+        <v>3.42</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X36" s="7"/>
+      </tp>
+      <tp>
+        <v>3.5030000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X37" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5099999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X18" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5652938189999999</v>
         <stp/>
         <stp xml:space="preserve">
-AUDOISOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X6" s="7"/>
+AUDON18MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>2.5652938189999999</v>
         <stp/>
         <stp xml:space="preserve">
-AUDOISSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X8" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOISTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X7" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W12" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W14" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W13" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W16" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W15" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W17" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W18" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X12" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X14" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X13" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X16" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X15" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X17" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X18" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOISOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOISSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W8" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOISTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W7" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOISSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X9" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOISSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W9" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W28" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W31" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W30" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W33" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W32" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W35" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W34" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W37" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W36" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X28" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X31" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X30" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X33" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X32" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X35" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X34" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X37" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp xml:space="preserve">
-AUDOIS8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X36" s="7"/>
+AUDON18MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X29" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.6653465789999999</v>
+        <v>4.1500000000000004</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W43" s="7"/>
+      </tp>
+      <tp>
+        <v>4.0650000000000004</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W41" s="7"/>
+      </tp>
+      <tp>
+        <v>4.12</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W42" s="7"/>
+      </tp>
+      <tp>
+        <v>3.5880000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W38" s="7"/>
+      </tp>
+      <tp>
+        <v>3.7250000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W39" s="7"/>
+      </tp>
+      <tp>
+        <v>3.8849999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W40" s="7"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>2.5003249319999998</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W7" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDONSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W9" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5003249319999998</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W8" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5004011579999998</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W6" s="7"/>
+      </tp>
+      <tp>
+        <v>3.2130000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W34" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W17" s="7"/>
+      </tp>
+      <tp>
+        <v>3.335</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W35" s="7"/>
+      </tp>
+      <tp>
+        <v>2.9380000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W32" s="7"/>
+      </tp>
+      <tp>
+        <v>2.4975000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W15" s="7"/>
+      </tp>
+      <tp>
+        <v>3.09</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W33" s="7"/>
+      </tp>
+      <tp>
+        <v>2.4975000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W16" s="7"/>
+      </tp>
+      <tp>
+        <v>2.63</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W30" s="7"/>
+      </tp>
+      <tp>
+        <v>2.4975000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W13" s="7"/>
+      </tp>
+      <tp>
+        <v>2.78</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W31" s="7"/>
+      </tp>
+      <tp>
+        <v>2.496</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W14" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5350000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W28" s="7"/>
+      </tp>
+      <tp>
+        <v>2.4975000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W12" s="7"/>
+      </tp>
+      <tp>
+        <v>3.42</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W36" s="7"/>
+      </tp>
+      <tp>
+        <v>3.5030000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W37" s="7"/>
+      </tp>
+      <tp>
+        <v>2.5099999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">	AUDON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W18" s="7"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>3.5880000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X38" s="7"/>
+      </tp>
+      <tp>
+        <v>3.7250000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X39" s="7"/>
+      </tp>
+      <tp>
+        <v>3.8849999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X40" s="7"/>
+      </tp>
+      <tp>
+        <v>4.0650000000000004</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X41" s="7"/>
+      </tp>
+      <tp>
+        <v>4.12</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X42" s="7"/>
+      </tp>
+      <tp>
+        <v>4.1500000000000004</v>
+        <stp/>
+        <stp xml:space="preserve">
+AUDON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="X43" s="7"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>2.6774074149999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC7" s="7"/>
       </tp>
       <tp>
-        <v>2.6659000009999998</v>
+        <v>2.6776999990000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC9" s="7"/>
       </tp>
       <tp>
-        <v>2.665426633</v>
+        <v>2.6774561029999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC8" s="7"/>
       </tp>
       <tp>
-        <v>2.6652667239999999</v>
+        <v>2.6773601060000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC6" s="7"/>
       </tp>
       <tp>
-        <v>2.7105999999999999</v>
+        <v>2.7088000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC17" s="7"/>
       </tp>
       <tp>
-        <v>2.6913</v>
+        <v>2.6962000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC15" s="7"/>
       </tp>
       <tp>
-        <v>2.6996000000000002</v>
+        <v>2.7014</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC16" s="7"/>
       </tp>
       <tp>
-        <v>2.6665000000000001</v>
+        <v>2.6777999989999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC10" s="7"/>
       </tp>
       <tp>
-        <v>2.6775000000000002</v>
+        <v>2.6849000009999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC13" s="7"/>
       </tp>
       <tp>
-        <v>2.6674999989999999</v>
+        <v>2.6781999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC11" s="7"/>
       </tp>
       <tp>
-        <v>2.6829000000000001</v>
+        <v>2.6897000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC14" s="7"/>
       </tp>
       <tp>
-        <v>2.6693999989999999</v>
+        <v>2.6798000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC12" s="7"/>
       </tp>
       <tp>
-        <v>4.2548670260000003</v>
+        <v>4.1689271420000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z41" s="7"/>
       </tp>
       <tp>
-        <v>4.3114374900000003</v>
+        <v>4.2255079750000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z42" s="7"/>
       </tp>
       <tp>
-        <v>4.3422003340000002</v>
+        <v>4.2562987899999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z43" s="7"/>
       </tp>
       <tp>
-        <v>3.9166224060000001</v>
+        <v>3.82812391</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z39" s="7"/>
       </tp>
       <tp>
-        <v>3.7750993830000001</v>
+        <v>3.689009521</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z38" s="7"/>
       </tp>
       <tp>
-        <v>4.0802540489999997</v>
+        <v>3.9893551569999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z40" s="7"/>
       </tp>
       <tp>
-        <v>3.1926482040000002</v>
+        <v>3.1281951609999998</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB32" s="7"/>
       </tp>
       <tp>
-        <v>3.3513991110000001</v>
+        <v>3.2820052199999998</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB33" s="7"/>
       </tp>
       <tp>
-        <v>3.6104686859999999</v>
+        <v>3.531205377</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB35" s="7"/>
       </tp>
       <tp>
-        <v>2.7050000000000001</v>
+        <v>2.69</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB28" s="7"/>
       </tp>
       <tp>
-        <v>2.8475000000000001</v>
+        <v>2.8075000000000001</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB30" s="7"/>
       </tp>
       <tp>
-        <v>3.0225</v>
+        <v>2.9624999999999999</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB31" s="7"/>
@@ -1847,91 +1909,91 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>4.3697168460000002</v>
+        <v>4.2831597180000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB41" s="7"/>
       </tp>
       <tp>
-        <v>4.4279209880000003</v>
+        <v>4.3413703760000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB42" s="7"/>
       </tp>
       <tp>
-        <v>4.4576488320000003</v>
+        <v>4.3711146239999996</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB43" s="7"/>
       </tp>
       <tp>
-        <v>4.027987596</v>
+        <v>3.9388977810000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB39" s="7"/>
       </tp>
       <tp>
-        <v>3.8818270699999999</v>
+        <v>3.7951823330000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB38" s="7"/>
       </tp>
       <tp>
-        <v>4.1926791459999997</v>
+        <v>4.1011476470000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB40" s="7"/>
       </tp>
       <tp>
-        <v>2.592589689</v>
+        <v>2.591083077</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z27" s="7"/>
       </tp>
       <tp>
-        <v>3.0959662780000001</v>
+        <v>3.0318673380000001</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z32" s="7"/>
       </tp>
       <tp>
-        <v>3.2501562480000001</v>
+        <v>3.1811557069999998</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z33" s="7"/>
       </tp>
       <tp>
-        <v>2.589530479</v>
+        <v>2.5878214129999999</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z26" s="7"/>
       </tp>
       <tp>
-        <v>3.5065599509999998</v>
+        <v>3.427775327</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z35" s="7"/>
       </tp>
       <tp>
-        <v>2.634316214</v>
+        <v>2.6193883090000001</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z28" s="7"/>
       </tp>
       <tp>
-        <v>2.7637193</v>
+        <v>2.7238859880000001</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z30" s="7"/>
       </tp>
       <tp>
-        <v>2.9328851779999998</v>
+        <v>2.8731960999999999</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z31" s="7"/>
       </tp>
       <tp>
-        <v>2.5935139490000001</v>
+        <v>2.5893380449999999</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z25" s="7"/>
@@ -1939,91 +2001,91 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.6297137300000002</v>
+        <v>2.6217959309999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA7" s="7"/>
       </tp>
       <tp>
-        <v>2.6299000000000001</v>
+        <v>2.6222000030000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA9" s="7"/>
       </tp>
       <tp>
-        <v>2.6297466780000001</v>
+        <v>2.621858005</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA8" s="7"/>
       </tp>
       <tp>
-        <v>2.6296859879999999</v>
+        <v>2.6217347279999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA6" s="7"/>
       </tp>
       <tp>
-        <v>2.629899998</v>
+        <v>2.6225000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA10" s="7"/>
       </tp>
       <tp>
-        <v>2.6366999999999998</v>
+        <v>2.6305999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA13" s="7"/>
       </tp>
       <tp>
-        <v>2.6303000000000001</v>
+        <v>2.6231</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA11" s="7"/>
       </tp>
       <tp>
-        <v>2.6389999999999998</v>
+        <v>2.6356000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA14" s="7"/>
       </tp>
       <tp>
-        <v>2.6315</v>
+        <v>2.625</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA12" s="7"/>
       </tp>
       <tp>
-        <v>3.2875000000000001</v>
+        <v>3.2225000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD32" s="7"/>
       </tp>
       <tp>
-        <v>3.45</v>
+        <v>3.38</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD33" s="7"/>
       </tp>
       <tp>
-        <v>3.7149999999999999</v>
+        <v>3.6349999999999998</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD35" s="7"/>
       </tp>
       <tp>
-        <v>2.7756937869999998</v>
+        <v>2.7604385850000002</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD28" s="7"/>
       </tp>
       <tp>
-        <v>2.9288929700000002</v>
+        <v>2.8872376449999999</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD30" s="7"/>
       </tp>
       <tp>
-        <v>3.1114335569999998</v>
+        <v>3.0508972679999999</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD31" s="7"/>
@@ -2031,79 +2093,79 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.6058593920000002</v>
+        <v>2.5960188870000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y7" s="7"/>
       </tp>
       <tp>
-        <v>2.6053000009999998</v>
+        <v>2.595700001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y9" s="7"/>
       </tp>
       <tp>
-        <v>2.605802041</v>
+        <v>2.5959913160000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y8" s="7"/>
       </tp>
       <tp>
-        <v>2.6059212550000002</v>
+        <v>2.5960500550000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y6" s="7"/>
       </tp>
       <tp>
-        <v>2.6040000010000002</v>
+        <v>2.5948000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y10" s="7"/>
       </tp>
       <tp>
-        <v>2.6029999990000001</v>
+        <v>2.5941999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y11" s="7"/>
       </tp>
       <tp>
-        <v>2.6023999990000002</v>
+        <v>2.5941999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y12" s="7"/>
       </tp>
       <tp>
-        <v>4.4524999999999997</v>
+        <v>4.3650000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD41" s="7"/>
       </tp>
       <tp>
-        <v>4.5049999999999999</v>
+        <v>4.4175000000000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD42" s="7"/>
       </tp>
       <tp>
-        <v>4.5250000000000004</v>
+        <v>4.4375</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD43" s="7"/>
       </tp>
       <tp>
-        <v>4.1325000000000003</v>
+        <v>4.0425000000000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD39" s="7"/>
       </tp>
       <tp>
-        <v>3.9874999999999998</v>
+        <v>3.9</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD38" s="7"/>
       </tp>
       <tp>
-        <v>4.2874999999999996</v>
+        <v>4.1950000000000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD40" s="7"/>
@@ -2111,37 +2173,37 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.7149999999999999</v>
+        <v>3.6349999999999998</v>
         <stp/>
         <stp>_x0008_AUD6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC35" s="7"/>
       </tp>
       <tp>
-        <v>3.45</v>
+        <v>3.38</v>
         <stp/>
         <stp>_x0008_AUD6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC33" s="7"/>
       </tp>
       <tp>
-        <v>3.2875000000000001</v>
+        <v>3.2225000000000001</v>
         <stp/>
         <stp>_x0008_AUD6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC32" s="7"/>
       </tp>
       <tp>
-        <v>3.1114335569999998</v>
+        <v>3.0508972679999999</v>
         <stp/>
         <stp>_x0008_AUD6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC31" s="7"/>
       </tp>
       <tp>
-        <v>2.9288929700000002</v>
+        <v>2.8872376449999999</v>
         <stp/>
         <stp>_x0008_AUD6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC30" s="7"/>
       </tp>
       <tp>
-        <v>2.7756937869999998</v>
+        <v>2.7604385850000002</v>
         <stp/>
         <stp>_x0008_AUD6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC28" s="7"/>
@@ -2149,457 +2211,375 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.592589689</v>
+        <v>2.591083077</v>
         <stp/>
         <stp>_x0008_AUD1M9M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y27" s="7"/>
       </tp>
       <tp>
-        <v>3.5065599509999998</v>
+        <v>3.427775327</v>
         <stp/>
         <stp>_x0008_AUD1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y35" s="7"/>
       </tp>
       <tp>
-        <v>2.589530479</v>
+        <v>2.5878214129999999</v>
         <stp/>
         <stp>_x0008_AUD1M6M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y26" s="7"/>
       </tp>
       <tp>
-        <v>3.2501562480000001</v>
+        <v>3.1811557069999998</v>
         <stp/>
         <stp>_x0008_AUD1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y33" s="7"/>
       </tp>
       <tp>
-        <v>3.0959662780000001</v>
+        <v>3.0318673380000001</v>
         <stp/>
         <stp>_x0008_AUD1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y32" s="7"/>
       </tp>
       <tp>
-        <v>2.5935139490000001</v>
+        <v>2.5893380449999999</v>
         <stp/>
         <stp>_x0008_AUD1M3M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y25" s="7"/>
       </tp>
       <tp>
-        <v>2.9328851779999998</v>
+        <v>2.8731960999999999</v>
         <stp/>
         <stp>_x0008_AUD1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y31" s="7"/>
       </tp>
       <tp>
-        <v>2.7637193</v>
+        <v>2.7238859880000001</v>
         <stp/>
         <stp>_x0008_AUD1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y30" s="7"/>
       </tp>
       <tp>
-        <v>2.634316214</v>
+        <v>2.6193883090000001</v>
         <stp/>
         <stp>_x0008_AUD1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y28" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.6104686859999999</v>
+        <v>3.531205377</v>
         <stp/>
         <stp>_x0008_AUD3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA35" s="7"/>
       </tp>
       <tp>
-        <v>3.3513991110000001</v>
+        <v>3.2820052199999998</v>
         <stp/>
         <stp>_x0008_AUD3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA33" s="7"/>
       </tp>
       <tp>
-        <v>3.1926482040000002</v>
+        <v>3.1281951609999998</v>
         <stp/>
         <stp>_x0008_AUD3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA32" s="7"/>
       </tp>
       <tp>
-        <v>3.0225</v>
+        <v>2.9624999999999999</v>
         <stp/>
         <stp>_x0008_AUD3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA31" s="7"/>
       </tp>
       <tp>
-        <v>2.8475000000000001</v>
+        <v>2.8075000000000001</v>
         <stp/>
         <stp>_x0008_AUD3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA30" s="7"/>
       </tp>
       <tp>
-        <v>2.7050000000000001</v>
+        <v>2.69</v>
         <stp/>
         <stp>_x0008_AUD3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA28" s="7"/>
       </tp>
       <tp>
-        <v>4.3697168460000002</v>
+        <v>4.2831597180000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA41" s="7"/>
       </tp>
       <tp>
-        <v>4.4279209880000003</v>
+        <v>4.3413703760000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA42" s="7"/>
       </tp>
       <tp>
-        <v>4.4576488320000003</v>
+        <v>4.3711146239999996</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA43" s="7"/>
       </tp>
       <tp>
-        <v>3.8818270699999999</v>
+        <v>3.7951823330000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA38" s="7"/>
       </tp>
       <tp>
-        <v>4.027987596</v>
+        <v>3.9388977810000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA39" s="7"/>
       </tp>
       <tp>
-        <v>4.1926791459999997</v>
+        <v>4.1011476470000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA40" s="7"/>
       </tp>
       <tp>
-        <v>4.2548670260000003</v>
+        <v>4.1689271420000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y41" s="7"/>
       </tp>
       <tp>
-        <v>4.3114374900000003</v>
+        <v>4.2255079750000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y42" s="7"/>
       </tp>
       <tp>
-        <v>4.3422003340000002</v>
+        <v>4.2562987899999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y43" s="7"/>
       </tp>
       <tp>
-        <v>3.7750993830000001</v>
+        <v>3.689009521</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y38" s="7"/>
       </tp>
       <tp>
-        <v>3.9166224060000001</v>
+        <v>3.82812391</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y39" s="7"/>
       </tp>
       <tp>
-        <v>4.0802540489999997</v>
+        <v>3.9893551569999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y40" s="7"/>
       </tp>
       <tp>
-        <v>2.6653465789999999</v>
+        <v>2.6774074149999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD7" s="7"/>
       </tp>
       <tp>
-        <v>2.6659000009999998</v>
+        <v>2.6776999990000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD9" s="7"/>
       </tp>
       <tp>
-        <v>2.665426633</v>
+        <v>2.6774561029999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD8" s="7"/>
       </tp>
       <tp>
-        <v>2.6652667239999999</v>
+        <v>2.6773601060000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD6" s="7"/>
       </tp>
       <tp>
-        <v>2.7105999999999999</v>
+        <v>2.7088000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD17" s="7"/>
       </tp>
       <tp>
-        <v>2.6913</v>
+        <v>2.6962000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD15" s="7"/>
       </tp>
       <tp>
-        <v>2.6996000000000002</v>
+        <v>2.7014</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD16" s="7"/>
       </tp>
       <tp>
-        <v>2.6665000000000001</v>
+        <v>2.6777999989999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD10" s="7"/>
       </tp>
       <tp>
-        <v>2.6775000000000002</v>
+        <v>2.6849000009999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD13" s="7"/>
       </tp>
       <tp>
-        <v>2.6674999989999999</v>
+        <v>2.6781999999999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD11" s="7"/>
       </tp>
       <tp>
-        <v>2.6829000000000001</v>
+        <v>2.6897000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD14" s="7"/>
       </tp>
       <tp>
-        <v>2.6693999989999999</v>
+        <v>2.6798000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD12" s="7"/>
       </tp>
       <tp>
-        <v>4.4524999999999997</v>
+        <v>4.3650000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC41" s="7"/>
       </tp>
       <tp>
-        <v>4.5049999999999999</v>
+        <v>4.4175000000000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC42" s="7"/>
       </tp>
       <tp>
-        <v>4.5250000000000004</v>
+        <v>4.4375</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC43" s="7"/>
       </tp>
       <tp>
-        <v>3.9874999999999998</v>
+        <v>3.9</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC38" s="7"/>
       </tp>
       <tp>
-        <v>4.1325000000000003</v>
+        <v>4.0425000000000004</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC39" s="7"/>
       </tp>
       <tp>
-        <v>4.2874999999999996</v>
+        <v>4.1950000000000003</v>
         <stp/>
         <stp xml:space="preserve">	AUD6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC40" s="7"/>
       </tp>
       <tp>
-        <v>2.6058593920000002</v>
+        <v>2.5960188870000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z7" s="7"/>
       </tp>
       <tp>
-        <v>2.6053000009999998</v>
+        <v>2.595700001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z9" s="7"/>
       </tp>
       <tp>
-        <v>2.605802041</v>
+        <v>2.5959913160000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z8" s="7"/>
       </tp>
       <tp>
-        <v>2.6059212550000002</v>
+        <v>2.5960500550000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD1MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z6" s="7"/>
       </tp>
       <tp>
-        <v>2.6040000010000002</v>
+        <v>2.5948000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z10" s="7"/>
       </tp>
       <tp>
-        <v>2.6029999990000001</v>
+        <v>2.5941999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z11" s="7"/>
       </tp>
       <tp>
-        <v>2.6023999990000002</v>
+        <v>2.5941999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Z12" s="7"/>
       </tp>
       <tp>
-        <v>2.6297137300000002</v>
+        <v>2.6217959309999999</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB7" s="7"/>
       </tp>
       <tp>
-        <v>2.6299000000000001</v>
+        <v>2.6222000030000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB9" s="7"/>
       </tp>
       <tp>
-        <v>2.6297466780000001</v>
+        <v>2.621858005</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB8" s="7"/>
       </tp>
       <tp>
-        <v>2.6296859879999999</v>
+        <v>2.6217347279999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB6" s="7"/>
       </tp>
       <tp>
-        <v>2.629899998</v>
+        <v>2.6225000000000001</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB10" s="7"/>
       </tp>
       <tp>
-        <v>2.6366999999999998</v>
+        <v>2.6305999999999998</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB13" s="7"/>
       </tp>
       <tp>
-        <v>2.6303000000000001</v>
+        <v>2.6231</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB11" s="7"/>
       </tp>
       <tp>
-        <v>2.6389999999999998</v>
+        <v>2.6356000000000002</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB14" s="7"/>
       </tp>
       <tp>
-        <v>2.6315</v>
+        <v>2.625</v>
         <stp/>
         <stp xml:space="preserve">	AUD3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS18MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X29" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS18MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W29" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X43" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X41" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X38" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W38" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W41" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W43" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X39" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W39" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X42" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="X40" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W40" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
-        <stp/>
-        <stp>_x000B_AUDOIS25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W42" s="7"/>
-      </tp>
       <tp>
-        <v>96.987686256999993</v>
+        <v>97.054231165999994</v>
         <stp/>
         <stp>_x0007_AUD3MH6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB24" s="7"/>
@@ -2611,7 +2591,7 @@
         <tr r="AB20" s="7"/>
       </tp>
       <tp>
-        <v>97.173221609999999</v>
+        <v>97.226896873000001</v>
         <stp/>
         <stp>_x0007_AUD3MM5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB21" s="7"/>
@@ -2623,25 +2603,25 @@
         <tr r="AB19" s="7"/>
       </tp>
       <tp>
-        <v>97.059584580000006</v>
+        <v>97.121854310000003</v>
         <stp/>
         <stp>_x0007_AUD3MZ5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB23" s="7"/>
       </tp>
       <tp>
-        <v>97.108056934000004</v>
+        <v>97.172524311999993</v>
         <stp/>
         <stp>_x0007_AUD3MU5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB22" s="7"/>
       </tp>
       <tp>
-        <v>97.108056934000004</v>
+        <v>97.172524311999993</v>
         <stp/>
         <stp>_x0007_AUD3MU5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA22" s="7"/>
       </tp>
       <tp>
-        <v>97.059584580000006</v>
+        <v>97.121854310000003</v>
         <stp/>
         <stp>_x0007_AUD3MZ5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA23" s="7"/>
@@ -2659,13 +2639,13 @@
         <tr r="AA20" s="7"/>
       </tp>
       <tp>
-        <v>96.987686256999993</v>
+        <v>97.054231165999994</v>
         <stp/>
         <stp>_x0007_AUD3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA24" s="7"/>
       </tp>
       <tp>
-        <v>97.173221609999999</v>
+        <v>97.226896873000001</v>
         <stp/>
         <stp>_x0007_AUD3MM5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AA21" s="7"/>
@@ -2701,7 +2681,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>5</v>
+            <v>8</v>
           </cell>
         </row>
       </sheetData>
@@ -2817,7 +2797,7 @@
       <sheetData sheetId="0">
         <row r="22">
           <cell r="J22">
-            <v>6</v>
+            <v>9</v>
           </cell>
         </row>
       </sheetData>
@@ -2825,28 +2805,28 @@
       <sheetData sheetId="2">
         <row r="22">
           <cell r="J22">
-            <v>8.2191780821917804E-2</v>
+            <v>8.7671232876712329E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="22">
           <cell r="J22">
-            <v>8.2191780821917804E-2</v>
+            <v>8.7671232876712329E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="22">
           <cell r="J22">
-            <v>8.2191780821917804E-2</v>
+            <v>8.7671232876712329E-2</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="22">
           <cell r="J22">
-            <v>2.6774887909097569E-2</v>
+            <v>2.6847408946266721E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3264,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="68">
-        <v>41904.469328703701</v>
+        <v>41905.407812500001</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="2"/>
@@ -3297,7 +3277,7 @@
       </c>
       <c r="D5" s="68">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="2"/>
@@ -3330,7 +3310,7 @@
       </c>
       <c r="D6" s="69">
         <f>[1]!TriggerCounter</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" s="67"/>
       <c r="F6" s="2"/>
@@ -3363,7 +3343,7 @@
       </c>
       <c r="D7" s="69">
         <f>[2]!TriggerCounter</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="2"/>
@@ -3802,7 +3782,7 @@
       </c>
       <c r="D21" s="76">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="E21" s="67"/>
       <c r="F21" s="2"/>
@@ -6379,22 +6359,22 @@
       <c r="V4" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="33" t="s">
+      <c r="X4" s="172"/>
+      <c r="Y4" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="33" t="s">
+      <c r="Z4" s="172"/>
+      <c r="AA4" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="33" t="s">
+      <c r="AB4" s="172"/>
+      <c r="AC4" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="114"/>
+      <c r="AD4" s="172"/>
       <c r="AE4" s="41" t="s">
         <v>70</v>
       </c>
@@ -6484,28 +6464,28 @@
       <c r="V5" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="23" t="s">
+      <c r="W5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="23" t="s">
+      <c r="X5" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Y5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="Z5" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AA5" s="23" t="s">
+      <c r="AA5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AC5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AD5" s="23" t="s">
+      <c r="AD5" s="27" t="s">
         <v>72</v>
       </c>
       <c r="AE5" s="42" t="s">
@@ -6565,16 +6545,16 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="13" t="str">
-        <f>Currency&amp;$J$4&amp;D6&amp;"="</f>
-        <v>AUDOISOND=</v>
+        <f>Currency&amp;"ON"&amp;D6&amp;"="</f>
+        <v>AUDONOND=</v>
       </c>
       <c r="K6" s="14">
         <f>'ON Pricing'!H6*100</f>
-        <v>2.5002710701456099</v>
+        <v>2.500401157774057</v>
       </c>
       <c r="L6" s="14">
         <f>K6</f>
-        <v>2.5002710701456099</v>
+        <v>2.500401157774057</v>
       </c>
       <c r="M6" s="122" t="str">
         <f t="shared" ref="M6:M12" si="0">Currency&amp;$M$4&amp;D6&amp;"="</f>
@@ -6582,11 +6562,11 @@
       </c>
       <c r="N6" s="123">
         <f>'1M Pricing'!H6*100</f>
-        <v>2.6059212567440153</v>
+        <v>2.5956907080857761</v>
       </c>
       <c r="O6" s="123">
         <f>N6</f>
-        <v>2.6059212567440153</v>
+        <v>2.5956907080857761</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" ref="P6:P14" si="1">Currency&amp;$P$4&amp;D6&amp;"="</f>
@@ -6594,11 +6574,11 @@
       </c>
       <c r="Q6" s="14">
         <f>'3M Pricing'!H6*100</f>
-        <v>2.6296859853284458</v>
+        <v>2.6210371948350004</v>
       </c>
       <c r="R6" s="14">
         <f>Q6</f>
-        <v>2.6296859853284458</v>
+        <v>2.6210371948350004</v>
       </c>
       <c r="S6" s="13" t="str">
         <f t="shared" ref="S6:S17" si="2">Currency&amp;$S$4&amp;D6&amp;"="</f>
@@ -6606,46 +6586,46 @@
       </c>
       <c r="T6" s="14">
         <f>'6M Pricing'!H6*100</f>
-        <v>2.6652667239842587</v>
+        <v>2.6771601653011254</v>
       </c>
       <c r="U6" s="14">
         <f>T6</f>
-        <v>2.6652667239842587</v>
+        <v>2.6771601653011254</v>
       </c>
       <c r="V6" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="14" t="e">
+      <c r="W6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$J6,BID)-K6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X6" s="14" t="e">
+        <v>2.2594282000909516E-10</v>
+      </c>
+      <c r="X6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$J6,ASK)-L6)</f>
-        <v>#VALUE!</v>
+        <v>2.2594282000909516E-10</v>
       </c>
       <c r="Y6" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
-        <v>1.7440151545145E-9</v>
+        <v>3.5934691422401244E-4</v>
       </c>
       <c r="Z6" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
-        <v>1.7440151545145E-9</v>
+        <v>3.5934691422401244E-4</v>
       </c>
       <c r="AA6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P6,BID)-Q6)</f>
-        <v>2.6715540890620559E-9</v>
+        <v>6.9753316499943097E-4</v>
       </c>
       <c r="AB6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P6,ASK)-R6)</f>
-        <v>2.6715540890620559E-9</v>
+        <v>6.9753316499943097E-4</v>
       </c>
       <c r="AC6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,BID)-T6)</f>
-        <v>1.5741186132345319E-11</v>
+        <v>1.9994069887463439E-4</v>
       </c>
       <c r="AD6" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$S6,ASK)-U6)</f>
-        <v>1.5741186132345319E-11</v>
+        <v>1.9994069887463439E-4</v>
       </c>
       <c r="AE6" s="41" t="s">
         <v>70</v>
@@ -6702,16 +6682,16 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="15" t="str">
-        <f>Currency&amp;$J$4&amp;D7&amp;"="</f>
-        <v>AUDOISTND=</v>
+        <f>Currency&amp;"ON"&amp;D7&amp;"="</f>
+        <v>AUDONTND=</v>
       </c>
       <c r="K7" s="16">
         <f>'ON Pricing'!H7*100</f>
-        <v>2.500205685588508</v>
+        <v>2.5003249324340171</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L8" si="3">K7</f>
-        <v>2.500205685588508</v>
+        <v>2.5003249324340171</v>
       </c>
       <c r="M7" s="125" t="str">
         <f t="shared" si="0"/>
@@ -6719,11 +6699,11 @@
       </c>
       <c r="N7" s="126">
         <f>'1M Pricing'!H7*100</f>
-        <v>2.6058593930794594</v>
+        <v>2.5956543764969924</v>
       </c>
       <c r="O7" s="126">
         <f t="shared" ref="O7:O8" si="4">N7</f>
-        <v>2.6058593930794594</v>
+        <v>2.5956543764969924</v>
       </c>
       <c r="P7" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6731,11 +6711,11 @@
       </c>
       <c r="Q7" s="16">
         <f>'3M Pricing'!H7*100</f>
-        <v>2.6297137262020196</v>
+        <v>2.6211097942790951</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" ref="R7:R8" si="5">Q7</f>
-        <v>2.6297137262020196</v>
+        <v>2.6211097942790951</v>
       </c>
       <c r="S7" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6743,46 +6723,46 @@
       </c>
       <c r="T7" s="16">
         <f>'6M Pricing'!H7*100</f>
-        <v>2.6653465791531943</v>
+        <v>2.6772074665179351</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" ref="U7:U8" si="6">T7</f>
-        <v>2.6653465791531943</v>
+        <v>2.6772074665179351</v>
       </c>
       <c r="V7" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="16" t="e">
+      <c r="W7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J7,BID)-K7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" s="16" t="e">
+        <v>4.340172665706632E-10</v>
+      </c>
+      <c r="X7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J7,ASK)-L7)</f>
-        <v>#VALUE!</v>
+        <v>4.340172665706632E-10</v>
       </c>
       <c r="Y7" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
-        <v>1.0794591887020033E-9</v>
+        <v>3.6451050300767562E-4</v>
       </c>
       <c r="Z7" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
-        <v>1.0794591887020033E-9</v>
+        <v>3.6451050300767562E-4</v>
       </c>
       <c r="AA7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P7,BID)-Q7)</f>
-        <v>3.7979805966870117E-9</v>
+        <v>6.8613672090478417E-4</v>
       </c>
       <c r="AB7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P7,ASK)-R7)</f>
-        <v>3.7979805966870117E-9</v>
+        <v>6.8613672090478417E-4</v>
       </c>
       <c r="AC7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,BID)-T7)</f>
-        <v>1.5319434609750715E-10</v>
+        <v>1.9994848206472682E-4</v>
       </c>
       <c r="AD7" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S7,ASK)-U7)</f>
-        <v>1.5319434609750715E-10</v>
+        <v>1.9994848206472682E-4</v>
       </c>
       <c r="AE7" s="41"/>
       <c r="AF7" s="2"/>
@@ -6837,16 +6817,16 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="15" t="str">
-        <f>Currency&amp;$J$4&amp;D8&amp;"="</f>
-        <v>AUDOISSND=</v>
+        <f>Currency&amp;"ON"&amp;D8&amp;"="</f>
+        <v>AUDONSND=</v>
       </c>
       <c r="K8" s="16">
         <f>'ON Pricing'!H8*100</f>
-        <v>2.500205685588508</v>
+        <v>2.5003249324340171</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>2.500205685588508</v>
+        <v>2.5003249324340171</v>
       </c>
       <c r="M8" s="125" t="str">
         <f t="shared" si="0"/>
@@ -6854,11 +6834,11 @@
       </c>
       <c r="N8" s="126">
         <f>'1M Pricing'!H8*100</f>
-        <v>2.6058020417591976</v>
+        <v>2.5956216182763114</v>
       </c>
       <c r="O8" s="126">
         <f t="shared" si="4"/>
-        <v>2.6058020417591976</v>
+        <v>2.5956216182763114</v>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="1"/>
@@ -6866,11 +6846,11 @@
       </c>
       <c r="Q8" s="16">
         <f>'3M Pricing'!H8*100</f>
-        <v>2.6297466747666753</v>
+        <v>2.6211830361804189</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="5"/>
-        <v>2.6297466747666753</v>
+        <v>2.6211830361804189</v>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6878,46 +6858,46 @@
       </c>
       <c r="T8" s="16">
         <f>'6M Pricing'!H8*100</f>
-        <v>2.6654266330876641</v>
+        <v>2.6772561454367905</v>
       </c>
       <c r="U8" s="16">
         <f t="shared" si="6"/>
-        <v>2.6654266330876641</v>
+        <v>2.6772561454367905</v>
       </c>
       <c r="V8" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="16" t="e">
+      <c r="W8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J8,BID)-K8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X8" s="16" t="e">
+        <v>4.340172665706632E-10</v>
+      </c>
+      <c r="X8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J8,ASK)-L8)</f>
-        <v>#VALUE!</v>
+        <v>4.340172665706632E-10</v>
       </c>
       <c r="Y8" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,BID)-N8)</f>
-        <v>7.591975936804829E-10</v>
+        <v>3.6969772368866671E-4</v>
       </c>
       <c r="Z8" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M8,ASK)-O8)</f>
-        <v>7.591975936804829E-10</v>
+        <v>3.6969772368866671E-4</v>
       </c>
       <c r="AA8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,BID)-Q8)</f>
-        <v>3.2333247190763359E-9</v>
+        <v>6.7496881958106769E-4</v>
       </c>
       <c r="AB8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,ASK)-R8)</f>
-        <v>3.2333247190763359E-9</v>
+        <v>6.7496881958106769E-4</v>
       </c>
       <c r="AC8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>8.7664098202822061E-11</v>
+        <v>1.9995756320945191E-4</v>
       </c>
       <c r="AD8" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>8.7664098202822061E-11</v>
+        <v>1.9995756320945191E-4</v>
       </c>
       <c r="AE8" s="41"/>
       <c r="AF8" s="2"/>
@@ -6972,16 +6952,16 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="15" t="str">
-        <f>Currency&amp;$J$4&amp;D9&amp;"="</f>
-        <v>AUDOISSWD=</v>
+        <f>Currency&amp;"ON"&amp;D9&amp;"="</f>
+        <v>AUDONSWD=</v>
       </c>
       <c r="K9" s="16">
         <f>'ON Pricing'!H9*100</f>
-        <v>2.5000000017125759</v>
+        <v>2.499999999886549</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" ref="L9:L17" si="7">K9</f>
-        <v>2.5000000017125759</v>
+        <v>2.499999999886549</v>
       </c>
       <c r="M9" s="125" t="str">
         <f t="shared" si="0"/>
@@ -6989,11 +6969,11 @@
       </c>
       <c r="N9" s="126">
         <f>'1M Pricing'!H9*100</f>
-        <v>2.6053000017873327</v>
+        <v>2.5953000010686358</v>
       </c>
       <c r="O9" s="126">
         <f t="shared" ref="O9:O12" si="8">N9</f>
-        <v>2.6053000017873327</v>
+        <v>2.5953000010686358</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7001,11 +6981,11 @@
       </c>
       <c r="Q9" s="16">
         <f>'3M Pricing'!H9*100</f>
-        <v>2.6299000000102244</v>
+        <v>2.6216000015853522</v>
       </c>
       <c r="R9" s="16">
         <f t="shared" ref="R9:R14" si="9">Q9</f>
-        <v>2.6299000000102244</v>
+        <v>2.6216000015853522</v>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7013,46 +6993,46 @@
       </c>
       <c r="T9" s="16">
         <f>'6M Pricing'!H9*100</f>
-        <v>2.6658999999007764</v>
+        <v>2.677499999378306</v>
       </c>
       <c r="U9" s="16">
         <f t="shared" ref="U9:U17" si="10">T9</f>
-        <v>2.6658999999007764</v>
+        <v>2.677499999378306</v>
       </c>
       <c r="V9" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="16" t="e">
+      <c r="W9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J9,BID)-K9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X9" s="16" t="e">
+        <v>1.1345102635118565E-10</v>
+      </c>
+      <c r="X9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J9,ASK)-L9)</f>
-        <v>#VALUE!</v>
+        <v>1.1345102635118565E-10</v>
       </c>
       <c r="Y9" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,BID)-N9)</f>
-        <v>7.8733286557053361E-10</v>
+        <v>3.9999993136419221E-4</v>
       </c>
       <c r="Z9" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M9,ASK)-O9)</f>
-        <v>7.8733286557053361E-10</v>
+        <v>3.9999993136419221E-4</v>
       </c>
       <c r="AA9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,BID)-Q9)</f>
-        <v>1.0224265878377992E-11</v>
+        <v>6.0000141464788825E-4</v>
       </c>
       <c r="AB9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,ASK)-R9)</f>
-        <v>1.0224265878377992E-11</v>
+        <v>6.0000141464788825E-4</v>
       </c>
       <c r="AC9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>1.0992233789863803E-9</v>
+        <v>1.9999962169414687E-4</v>
       </c>
       <c r="AD9" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>1.0992233789863803E-9</v>
+        <v>1.9999962169414687E-4</v>
       </c>
       <c r="AE9" s="41" t="s">
         <v>70</v>
@@ -7116,11 +7096,11 @@
       </c>
       <c r="N10" s="126">
         <f>'1M Pricing'!H10*100</f>
-        <v>2.6040000007303314</v>
+        <v>2.5944000004588359</v>
       </c>
       <c r="O10" s="126">
         <f t="shared" si="8"/>
-        <v>2.6040000007303314</v>
+        <v>2.5944000004588359</v>
       </c>
       <c r="P10" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7128,11 +7108,11 @@
       </c>
       <c r="Q10" s="16">
         <f>'3M Pricing'!H10*100</f>
-        <v>2.6299000005457085</v>
+        <v>2.6220000002570614</v>
       </c>
       <c r="R10" s="16">
         <f t="shared" si="9"/>
-        <v>2.6299000005457085</v>
+        <v>2.6220000002570614</v>
       </c>
       <c r="S10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7140,11 +7120,11 @@
       </c>
       <c r="T10" s="16">
         <f>'6M Pricing'!H10*100</f>
-        <v>2.6664999995755778</v>
+        <v>2.6775999988314605</v>
       </c>
       <c r="U10" s="16">
         <f t="shared" si="10"/>
-        <v>2.6664999995755778</v>
+        <v>2.6775999988314605</v>
       </c>
       <c r="V10" s="98" t="s">
         <v>70</v>
@@ -7153,27 +7133,27 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M10,BID)-N10)</f>
-        <v>2.6966873178935202E-10</v>
+        <v>3.9999954116431979E-4</v>
       </c>
       <c r="Z10" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M10,ASK)-O10)</f>
-        <v>2.6966873178935202E-10</v>
+        <v>3.9999954116431979E-4</v>
       </c>
       <c r="AA10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,BID)-Q10)</f>
-        <v>2.545708532863955E-9</v>
+        <v>4.9999974293868377E-4</v>
       </c>
       <c r="AB10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,ASK)-R10)</f>
-        <v>2.545708532863955E-9</v>
+        <v>4.9999974293868377E-4</v>
       </c>
       <c r="AC10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,BID)-T10)</f>
-        <v>4.2442227510264274E-10</v>
+        <v>2.0000016853938263E-4</v>
       </c>
       <c r="AD10" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,ASK)-U10)</f>
-        <v>4.2442227510264274E-10</v>
+        <v>2.0000016853938263E-4</v>
       </c>
       <c r="AE10" s="41" t="s">
         <v>70</v>
@@ -7237,11 +7217,11 @@
       </c>
       <c r="N11" s="126">
         <f>'1M Pricing'!H11*100</f>
-        <v>2.603000000000868</v>
+        <v>2.5938999999957875</v>
       </c>
       <c r="O11" s="126">
         <f t="shared" si="8"/>
-        <v>2.603000000000868</v>
+        <v>2.5938999999957875</v>
       </c>
       <c r="P11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7249,11 +7229,11 @@
       </c>
       <c r="Q11" s="16">
         <f>'3M Pricing'!H11*100</f>
-        <v>2.6302999999809895</v>
+        <v>2.622600000006734</v>
       </c>
       <c r="R11" s="16">
         <f t="shared" si="9"/>
-        <v>2.6302999999809895</v>
+        <v>2.622600000006734</v>
       </c>
       <c r="S11" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7261,11 +7241,11 @@
       </c>
       <c r="T11" s="16">
         <f>'6M Pricing'!H11*100</f>
-        <v>2.6675000007710574</v>
+        <v>2.6780000000076924</v>
       </c>
       <c r="U11" s="16">
         <f t="shared" si="10"/>
-        <v>2.6675000007710574</v>
+        <v>2.6780000000076924</v>
       </c>
       <c r="V11" s="98" t="s">
         <v>70</v>
@@ -7274,27 +7254,27 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,BID)-N11)</f>
-        <v>1.000867833056418E-9</v>
+        <v>3.0000000421237516E-4</v>
       </c>
       <c r="Z11" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M11,ASK)-O11)</f>
-        <v>1.000867833056418E-9</v>
+        <v>3.0000000421237516E-4</v>
       </c>
       <c r="AA11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,BID)-Q11)</f>
-        <v>1.901057089526148E-11</v>
+        <v>4.999999932659982E-4</v>
       </c>
       <c r="AB11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,ASK)-R11)</f>
-        <v>1.901057089526148E-11</v>
+        <v>4.999999932659982E-4</v>
       </c>
       <c r="AC11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,BID)-T11)</f>
-        <v>1.7710575228591097E-9</v>
+        <v>1.9999999230746468E-4</v>
       </c>
       <c r="AD11" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,ASK)-U11)</f>
-        <v>1.7710575228591097E-9</v>
+        <v>1.9999999230746468E-4</v>
       </c>
       <c r="AE11" s="41" t="s">
         <v>70</v>
@@ -7351,16 +7331,16 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="15" t="str">
-        <f t="shared" ref="J12:J18" si="11">Currency&amp;$J$4&amp;D12&amp;"="</f>
-        <v>AUDOIS1MD=</v>
+        <f>Currency&amp;"ON"&amp;D12&amp;"="</f>
+        <v>AUDON1MD=</v>
       </c>
       <c r="K12" s="16">
         <f>'ON Pricing'!H12*100</f>
-        <v>2.4985000010740044</v>
+        <v>2.4975000002205121</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="7"/>
-        <v>2.4985000010740044</v>
+        <v>2.4975000002205121</v>
       </c>
       <c r="M12" s="125" t="str">
         <f t="shared" si="0"/>
@@ -7368,11 +7348,11 @@
       </c>
       <c r="N12" s="126">
         <f>'1M Pricing'!H12*100</f>
-        <v>2.6024000000716585</v>
+        <v>2.5938999991624581</v>
       </c>
       <c r="O12" s="126">
         <f t="shared" si="8"/>
-        <v>2.6024000000716585</v>
+        <v>2.5938999991624581</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -7380,11 +7360,11 @@
       </c>
       <c r="Q12" s="16">
         <f>'3M Pricing'!H12*100</f>
-        <v>2.6315000005167621</v>
+        <v>2.6245000002434913</v>
       </c>
       <c r="R12" s="16">
         <f t="shared" si="9"/>
-        <v>2.6315000005167621</v>
+        <v>2.6245000002434913</v>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7392,46 +7372,46 @@
       </c>
       <c r="T12" s="16">
         <f>'6M Pricing'!H12*100</f>
-        <v>2.6693999999675739</v>
+        <v>2.679600000380058</v>
       </c>
       <c r="U12" s="16">
         <f t="shared" si="10"/>
-        <v>2.6693999999675739</v>
+        <v>2.679600000380058</v>
       </c>
       <c r="V12" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="16" t="e">
+      <c r="W12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J12,BID)-K12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X12" s="16" t="e">
+        <v>2.2051205306183874E-10</v>
+      </c>
+      <c r="X12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J12,ASK)-L12)</f>
-        <v>#VALUE!</v>
+        <v>2.2051205306183874E-10</v>
       </c>
       <c r="Y12" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
-        <v>1.0716583176417771E-9</v>
+        <v>3.0000083754178064E-4</v>
       </c>
       <c r="Z12" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
-        <v>1.0716583176417771E-9</v>
+        <v>3.0000083754178064E-4</v>
       </c>
       <c r="AA12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,BID)-Q12)</f>
-        <v>5.1676218859597611E-10</v>
+        <v>4.9999975650871775E-4</v>
       </c>
       <c r="AB12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,ASK)-R12)</f>
-        <v>5.1676218859597611E-10</v>
+        <v>4.9999975650871775E-4</v>
       </c>
       <c r="AC12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>9.6757402090474898E-10</v>
+        <v>1.9999961994221493E-4</v>
       </c>
       <c r="AD12" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>9.6757402090474898E-10</v>
+        <v>1.9999961994221493E-4</v>
       </c>
       <c r="AE12" s="41" t="s">
         <v>70</v>
@@ -7487,16 +7467,16 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>AUDOIS2MD=</v>
+        <f>Currency&amp;"ON"&amp;D13&amp;"="</f>
+        <v>AUDON2MD=</v>
       </c>
       <c r="K13" s="16">
         <f>'ON Pricing'!H13*100</f>
-        <v>2.5000000000031286</v>
+        <v>2.4975000004097905</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="7"/>
-        <v>2.5000000000031286</v>
+        <v>2.4975000004097905</v>
       </c>
       <c r="M13" s="125"/>
       <c r="N13" s="126"/>
@@ -7507,11 +7487,11 @@
       </c>
       <c r="Q13" s="16">
         <f>'3M Pricing'!H13*100</f>
-        <v>2.636700000000495</v>
+        <v>2.6303000003439703</v>
       </c>
       <c r="R13" s="16">
         <f t="shared" si="9"/>
-        <v>2.636700000000495</v>
+        <v>2.6303000003439703</v>
       </c>
       <c r="S13" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7519,40 +7499,40 @@
       </c>
       <c r="T13" s="16">
         <f>'6M Pricing'!H13*100</f>
-        <v>2.6775000002699287</v>
+        <v>2.6847000005392632</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="10"/>
-        <v>2.6775000002699287</v>
+        <v>2.6847000005392632</v>
       </c>
       <c r="V13" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W13" s="16" t="e">
+      <c r="W13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J13,BID)-K13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X13" s="16" t="e">
+        <v>4.0979042381650288E-10</v>
+      </c>
+      <c r="X13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J13,ASK)-L13)</f>
-        <v>#VALUE!</v>
+        <v>4.0979042381650288E-10</v>
       </c>
       <c r="Y13" s="127"/>
       <c r="Z13" s="127"/>
       <c r="AA13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P13,BID)-Q13)</f>
-        <v>4.9515946898281982E-13</v>
+        <v>2.9999965602955925E-4</v>
       </c>
       <c r="AB13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P13,ASK)-R13)</f>
-        <v>4.9515946898281982E-13</v>
+        <v>2.9999965602955925E-4</v>
       </c>
       <c r="AC13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>2.6992852397711431E-10</v>
+        <v>2.0000046073676003E-4</v>
       </c>
       <c r="AD13" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>2.6992852397711431E-10</v>
+        <v>2.0000046073676003E-4</v>
       </c>
       <c r="AE13" s="41" t="s">
         <v>70</v>
@@ -7608,16 +7588,16 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>AUDOIS3MD=</v>
+        <f>Currency&amp;"ON"&amp;D14&amp;"="</f>
+        <v>AUDON3MD=</v>
       </c>
       <c r="K14" s="16">
         <f>'ON Pricing'!H14*100</f>
-        <v>2.4989999999995969</v>
+        <v>2.4960000003375509</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="7"/>
-        <v>2.4989999999995969</v>
+        <v>2.4960000003375509</v>
       </c>
       <c r="M14" s="128"/>
       <c r="N14" s="129"/>
@@ -7628,11 +7608,11 @@
       </c>
       <c r="Q14" s="16">
         <f>'3M Pricing'!H14*100</f>
-        <v>2.639000000000046</v>
+        <v>2.635400000261118</v>
       </c>
       <c r="R14" s="16">
         <f t="shared" si="9"/>
-        <v>2.639000000000046</v>
+        <v>2.635400000261118</v>
       </c>
       <c r="S14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7640,40 +7620,40 @@
       </c>
       <c r="T14" s="16">
         <f>'6M Pricing'!H14*100</f>
-        <v>2.6829000001808927</v>
+        <v>2.6894999999999682</v>
       </c>
       <c r="U14" s="16">
         <f t="shared" si="10"/>
-        <v>2.6829000001808927</v>
+        <v>2.6894999999999682</v>
       </c>
       <c r="V14" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W14" s="16" t="e">
+      <c r="W14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J14,BID)-K14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X14" s="16" t="e">
+        <v>3.3755087613940304E-10</v>
+      </c>
+      <c r="X14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J14,ASK)-L14)</f>
-        <v>#VALUE!</v>
+        <v>3.3755087613940304E-10</v>
       </c>
       <c r="Y14" s="130"/>
       <c r="Z14" s="130"/>
       <c r="AA14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P14,BID)-Q14)</f>
-        <v>4.6185277824406512E-14</v>
+        <v>1.9999973888218392E-4</v>
       </c>
       <c r="AB14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P14,ASK)-R14)</f>
-        <v>4.6185277824406512E-14</v>
+        <v>1.9999973888218392E-4</v>
       </c>
       <c r="AC14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>1.8089263420506541E-10</v>
+        <v>2.000000000319524E-4</v>
       </c>
       <c r="AD14" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>1.8089263420506541E-10</v>
+        <v>2.000000000319524E-4</v>
       </c>
       <c r="AE14" s="41" t="s">
         <v>70</v>
@@ -7728,16 +7708,16 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>AUDOIS4MD=</v>
+        <f>Currency&amp;"ON"&amp;D15&amp;"="</f>
+        <v>AUDON4MD=</v>
       </c>
       <c r="K15" s="16">
         <f>'ON Pricing'!H15*100</f>
-        <v>2.5000000000002522</v>
+        <v>2.497500000255751</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="7"/>
-        <v>2.5000000000002522</v>
+        <v>2.497500000255751</v>
       </c>
       <c r="M15" s="125"/>
       <c r="N15" s="126"/>
@@ -7751,22 +7731,22 @@
       </c>
       <c r="T15" s="16">
         <f>'6M Pricing'!H15*100</f>
-        <v>2.6913000001320362</v>
+        <v>2.6960000002661486</v>
       </c>
       <c r="U15" s="16">
         <f t="shared" si="10"/>
-        <v>2.6913000001320362</v>
+        <v>2.6960000002661486</v>
       </c>
       <c r="V15" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W15" s="16" t="e">
+      <c r="W15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J15,BID)-K15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X15" s="16" t="e">
+        <v>2.5575097595265106E-10</v>
+      </c>
+      <c r="X15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J15,ASK)-L15)</f>
-        <v>#VALUE!</v>
+        <v>2.5575097595265106E-10</v>
       </c>
       <c r="Y15" s="127"/>
       <c r="Z15" s="127"/>
@@ -7774,11 +7754,11 @@
       <c r="AB15" s="104"/>
       <c r="AC15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,BID)-T15)</f>
-        <v>1.3203615978341077E-10</v>
+        <v>1.9999973385154135E-4</v>
       </c>
       <c r="AD15" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S15,ASK)-U15)</f>
-        <v>1.3203615978341077E-10</v>
+        <v>1.9999973385154135E-4</v>
       </c>
       <c r="AE15" s="41" t="s">
         <v>70</v>
@@ -7833,16 +7813,16 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>AUDOIS5MD=</v>
+        <f>Currency&amp;"ON"&amp;D16&amp;"="</f>
+        <v>AUDON5MD=</v>
       </c>
       <c r="K16" s="16">
         <f>'ON Pricing'!H16*100</f>
-        <v>2.5025000000000652</v>
+        <v>2.4975000001827889</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="7"/>
-        <v>2.5025000000000652</v>
+        <v>2.4975000001827889</v>
       </c>
       <c r="M16" s="125"/>
       <c r="N16" s="126"/>
@@ -7856,22 +7836,22 @@
       </c>
       <c r="T16" s="16">
         <f>'6M Pricing'!H16*100</f>
-        <v>2.6996000001081093</v>
+        <v>2.701200000216109</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="10"/>
-        <v>2.6996000001081093</v>
+        <v>2.701200000216109</v>
       </c>
       <c r="V16" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W16" s="16" t="e">
+      <c r="W16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J16,BID)-K16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X16" s="16" t="e">
+        <v>1.8278889513112517E-10</v>
+      </c>
+      <c r="X16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J16,ASK)-L16)</f>
-        <v>#VALUE!</v>
+        <v>1.8278889513112517E-10</v>
       </c>
       <c r="Y16" s="127"/>
       <c r="Z16" s="127"/>
@@ -7879,11 +7859,11 @@
       <c r="AB16" s="104"/>
       <c r="AC16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,BID)-T16)</f>
-        <v>1.0810907724589924E-10</v>
+        <v>1.9999978389106943E-4</v>
       </c>
       <c r="AD16" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S16,ASK)-U16)</f>
-        <v>1.0810907724589924E-10</v>
+        <v>1.9999978389106943E-4</v>
       </c>
       <c r="AE16" s="41" t="s">
         <v>70</v>
@@ -7938,16 +7918,16 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>AUDOIS6MD=</v>
+        <f>Currency&amp;"ON"&amp;D17&amp;"="</f>
+        <v>AUDON6MD=</v>
       </c>
       <c r="K17" s="16">
         <f>'ON Pricing'!H17*100</f>
-        <v>2.5075000000000536</v>
+        <v>2.5000000001542211</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="7"/>
-        <v>2.5075000000000536</v>
+        <v>2.5000000001542211</v>
       </c>
       <c r="M17" s="128"/>
       <c r="N17" s="129"/>
@@ -7961,22 +7941,22 @@
       </c>
       <c r="T17" s="16">
         <f>'6M Pricing'!H17*100</f>
-        <v>2.7106000000915915</v>
+        <v>2.7087000001765427</v>
       </c>
       <c r="U17" s="16">
         <f t="shared" si="10"/>
-        <v>2.7106000000915915</v>
+        <v>2.7087000001765427</v>
       </c>
       <c r="V17" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W17" s="16" t="e">
+      <c r="W17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J17,BID)-K17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X17" s="16" t="e">
+        <v>1.542210803506805E-10</v>
+      </c>
+      <c r="X17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J17,ASK)-L17)</f>
-        <v>#VALUE!</v>
+        <v>1.542210803506805E-10</v>
       </c>
       <c r="Y17" s="130"/>
       <c r="Z17" s="130"/>
@@ -7984,11 +7964,11 @@
       <c r="AB17" s="104"/>
       <c r="AC17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,BID)-T17)</f>
-        <v>9.1591623174736014E-11</v>
+        <v>9.9999823457430637E-5</v>
       </c>
       <c r="AD17" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S17,ASK)-U17)</f>
-        <v>9.1591623174736014E-11</v>
+        <v>9.9999823457430637E-5</v>
       </c>
       <c r="AE17" s="41" t="s">
         <v>70</v>
@@ -8042,16 +8022,16 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>AUDOIS9MD=</v>
+        <f>Currency&amp;"ON"&amp;D18&amp;"="</f>
+        <v>AUDON9MD=</v>
       </c>
       <c r="K18" s="16">
         <f>'ON Pricing'!H18*100</f>
-        <v>2.5225000000000142</v>
+        <v>2.5100000000257969</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" ref="L18" si="12">K18</f>
-        <v>2.5225000000000142</v>
+        <f t="shared" ref="L18" si="11">K18</f>
+        <v>2.5100000000257969</v>
       </c>
       <c r="M18" s="131"/>
       <c r="N18" s="132"/>
@@ -8065,13 +8045,13 @@
       <c r="V18" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="16" t="e">
+      <c r="W18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J18,BID)-K18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X18" s="16" t="e">
+        <v>2.5797142200190137E-11</v>
+      </c>
+      <c r="X18" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J18,ASK)-L18)</f>
-        <v>#VALUE!</v>
+        <v>2.5797142200190137E-11</v>
       </c>
       <c r="Y18" s="133"/>
       <c r="Z18" s="133"/>
@@ -8145,16 +8125,16 @@
       <c r="N19" s="135"/>
       <c r="O19" s="135"/>
       <c r="P19" s="13" t="str">
-        <f t="shared" ref="P19:P24" si="13">Currency&amp;$P$4&amp;D19</f>
+        <f t="shared" ref="P19:P24" si="12">Currency&amp;$P$4&amp;D19</f>
         <v>AUD3MZ4</v>
       </c>
       <c r="Q19" s="14">
         <f>'3M Pricing'!H19</f>
-        <v>97.345000000006081</v>
+        <v>97.345000000197544</v>
       </c>
       <c r="R19" s="14">
-        <f t="shared" ref="R19:R24" si="14">Q19</f>
-        <v>97.345000000006081</v>
+        <f t="shared" ref="R19:R24" si="13">Q19</f>
+        <v>97.345000000197544</v>
       </c>
       <c r="S19" s="101"/>
       <c r="T19" s="101"/>
@@ -8168,11 +8148,11 @@
       <c r="Z19" s="136"/>
       <c r="AA19" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P19,BID)-Q19)</f>
-        <v>6.0822458181064576E-12</v>
+        <v>1.9754509139602305E-10</v>
       </c>
       <c r="AB19" s="14">
         <f>ABS(_xll.RtGet(SourceAlias,$P19,ASK)-R19)</f>
-        <v>6.0822458181064576E-12</v>
+        <v>1.9754509139602305E-10</v>
       </c>
       <c r="AC19" s="102"/>
       <c r="AD19" s="102"/>
@@ -8239,16 +8219,16 @@
       <c r="N20" s="129"/>
       <c r="O20" s="129"/>
       <c r="P20" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>AUD3MH5</v>
       </c>
       <c r="Q20" s="16">
         <f>'3M Pricing'!H20</f>
-        <v>97.314999999995294</v>
+        <v>97.315000000238356</v>
       </c>
       <c r="R20" s="16">
-        <f t="shared" si="14"/>
-        <v>97.314999999995294</v>
+        <f t="shared" si="13"/>
+        <v>97.315000000238356</v>
       </c>
       <c r="S20" s="103"/>
       <c r="T20" s="103"/>
@@ -8262,11 +8242,11 @@
       <c r="Z20" s="130"/>
       <c r="AA20" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P20,BID)-Q20)</f>
-        <v>4.7037929107318632E-12</v>
+        <v>2.3835866613808321E-10</v>
       </c>
       <c r="AB20" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P20,ASK)-R20)</f>
-        <v>4.7037929107318632E-12</v>
+        <v>2.3835866613808321E-10</v>
       </c>
       <c r="AC20" s="104"/>
       <c r="AD20" s="104"/>
@@ -8333,16 +8313,16 @@
       <c r="N21" s="129"/>
       <c r="O21" s="129"/>
       <c r="P21" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>AUD3MM5</v>
       </c>
       <c r="Q21" s="16">
         <f>'3M Pricing'!H21</f>
-        <v>97.173221609548889</v>
+        <v>97.226698256193131</v>
       </c>
       <c r="R21" s="16">
-        <f t="shared" si="14"/>
-        <v>97.173221609548889</v>
+        <f t="shared" si="13"/>
+        <v>97.226698256193131</v>
       </c>
       <c r="S21" s="103"/>
       <c r="T21" s="103"/>
@@ -8356,11 +8336,11 @@
       <c r="Z21" s="130"/>
       <c r="AA21" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P21,BID)-Q21)</f>
-        <v>4.5110937207937241E-10</v>
+        <v>1.986168068697225E-4</v>
       </c>
       <c r="AB21" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P21,ASK)-R21)</f>
-        <v>4.5110937207937241E-10</v>
+        <v>1.986168068697225E-4</v>
       </c>
       <c r="AC21" s="104"/>
       <c r="AD21" s="104"/>
@@ -8427,16 +8407,16 @@
       <c r="N22" s="129"/>
       <c r="O22" s="129"/>
       <c r="P22" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>AUD3MU5</v>
       </c>
       <c r="Q22" s="16">
         <f>'3M Pricing'!H22</f>
-        <v>97.108056933674234</v>
+        <v>97.172385893332617</v>
       </c>
       <c r="R22" s="16">
-        <f t="shared" si="14"/>
-        <v>97.108056933674234</v>
+        <f t="shared" si="13"/>
+        <v>97.172385893332617</v>
       </c>
       <c r="S22" s="103"/>
       <c r="T22" s="103"/>
@@ -8450,11 +8430,11 @@
       <c r="Z22" s="130"/>
       <c r="AA22" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P22,BID)-Q22)</f>
-        <v>3.2576963349129073E-10</v>
+        <v>1.3841866737607234E-4</v>
       </c>
       <c r="AB22" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P22,ASK)-R22)</f>
-        <v>3.2576963349129073E-10</v>
+        <v>1.3841866737607234E-4</v>
       </c>
       <c r="AC22" s="104"/>
       <c r="AD22" s="104"/>
@@ -8521,16 +8501,16 @@
       <c r="N23" s="129"/>
       <c r="O23" s="129"/>
       <c r="P23" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>AUD3MZ5</v>
       </c>
       <c r="Q23" s="16">
         <f>'3M Pricing'!H23</f>
-        <v>97.059584580505401</v>
+        <v>97.121840874458982</v>
       </c>
       <c r="R23" s="16">
-        <f t="shared" si="14"/>
-        <v>97.059584580505401</v>
+        <f t="shared" si="13"/>
+        <v>97.121840874458982</v>
       </c>
       <c r="S23" s="103"/>
       <c r="T23" s="103"/>
@@ -8544,11 +8524,11 @@
       <c r="Z23" s="130"/>
       <c r="AA23" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P23,BID)-Q23)</f>
-        <v>5.0539483709144406E-10</v>
+        <v>1.3435541021067365E-5</v>
       </c>
       <c r="AB23" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P23,ASK)-R23)</f>
-        <v>5.0539483709144406E-10</v>
+        <v>1.3435541021067365E-5</v>
       </c>
       <c r="AC23" s="104"/>
       <c r="AD23" s="104"/>
@@ -8613,16 +8593,16 @@
       <c r="N24" s="132"/>
       <c r="O24" s="132"/>
       <c r="P24" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>AUD3MH6</v>
       </c>
       <c r="Q24" s="18">
         <f>'3M Pricing'!H24</f>
-        <v>96.987686257077144</v>
+        <v>97.054287886406939</v>
       </c>
       <c r="R24" s="18">
-        <f t="shared" si="14"/>
-        <v>96.987686257077144</v>
+        <f t="shared" si="13"/>
+        <v>97.054287886406939</v>
       </c>
       <c r="S24" s="105"/>
       <c r="T24" s="105"/>
@@ -8636,11 +8616,11 @@
       <c r="Z24" s="137"/>
       <c r="AA24" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P24,BID)-Q24)</f>
-        <v>7.7150730248831678E-11</v>
+        <v>5.6720406945487412E-5</v>
       </c>
       <c r="AB24" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P24,ASK)-R24)</f>
-        <v>7.7150730248831678E-11</v>
+        <v>5.6720406945487412E-5</v>
       </c>
       <c r="AC24" s="106"/>
       <c r="AD24" s="106"/>
@@ -8706,11 +8686,11 @@
       </c>
       <c r="N25" s="123">
         <f>'1M Pricing'!H25*100</f>
-        <v>2.5935139492206365</v>
+        <v>2.5891239210207768</v>
       </c>
       <c r="O25" s="123">
         <f>N25</f>
-        <v>2.5935139492206365</v>
+        <v>2.5891239210207768</v>
       </c>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
@@ -8725,11 +8705,11 @@
       <c r="X25" s="14"/>
       <c r="Y25" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,BID)-N25)</f>
-        <v>2.2063639804059676E-10</v>
+        <v>2.1412397922304649E-4</v>
       </c>
       <c r="Z25" s="124">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,ASK)-O25)</f>
-        <v>2.2063639804059676E-10</v>
+        <v>2.1412397922304649E-4</v>
       </c>
       <c r="AA25" s="102"/>
       <c r="AB25" s="102"/>
@@ -8793,11 +8773,11 @@
       </c>
       <c r="N26" s="126">
         <f>'1M Pricing'!H26*100</f>
-        <v>2.5895304795007852</v>
+        <v>2.5877142129941277</v>
       </c>
       <c r="O26" s="126">
         <f>N26</f>
-        <v>2.5895304795007852</v>
+        <v>2.5877142129941277</v>
       </c>
       <c r="P26" s="103"/>
       <c r="Q26" s="103"/>
@@ -8812,11 +8792,11 @@
       <c r="X26" s="16"/>
       <c r="Y26" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
-        <v>5.0078519109320041E-10</v>
+        <v>1.072000058721656E-4</v>
       </c>
       <c r="Z26" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
-        <v>5.0078519109320041E-10</v>
+        <v>1.072000058721656E-4</v>
       </c>
       <c r="AA26" s="104"/>
       <c r="AB26" s="104"/>
@@ -8880,11 +8860,11 @@
       </c>
       <c r="N27" s="126">
         <f>'1M Pricing'!H27*100</f>
-        <v>2.5925896892776219</v>
+        <v>2.5910145780885738</v>
       </c>
       <c r="O27" s="126">
         <f>N27</f>
-        <v>2.5925896892776219</v>
+        <v>2.5910145780885738</v>
       </c>
       <c r="P27" s="103"/>
       <c r="Q27" s="103"/>
@@ -8899,11 +8879,11 @@
       <c r="X27" s="16"/>
       <c r="Y27" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
-        <v>2.7762192544855679E-10</v>
+        <v>6.8498911426129183E-5</v>
       </c>
       <c r="Z27" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
-        <v>2.7762192544855679E-10</v>
+        <v>6.8498911426129183E-5</v>
       </c>
       <c r="AA27" s="104"/>
       <c r="AB27" s="104"/>
@@ -8962,16 +8942,16 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="15" t="str">
-        <f t="shared" ref="J28:J43" si="15">Currency&amp;$J$4&amp;D28&amp;"D"&amp;"="</f>
-        <v>AUDOIS1YD=</v>
+        <f>Currency&amp;"ON"&amp;D28&amp;"D"&amp;"="</f>
+        <v>AUDON1YD=</v>
       </c>
       <c r="K28" s="16">
         <f>'ON Pricing'!H28*100</f>
-        <v>2.5500000000460346</v>
+        <v>2.5350000000194575</v>
       </c>
       <c r="L28" s="16">
-        <f t="shared" ref="L28:L43" si="16">K28</f>
-        <v>2.5500000000460346</v>
+        <f t="shared" ref="L28:L43" si="14">K28</f>
+        <v>2.5350000000194575</v>
       </c>
       <c r="M28" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D28&amp;"="</f>
@@ -8979,11 +8959,11 @@
       </c>
       <c r="N28" s="126">
         <f>'1M Pricing'!H28*100</f>
-        <v>2.6343162143898109</v>
+        <v>2.6193883086106284</v>
       </c>
       <c r="O28" s="126">
         <f>N28</f>
-        <v>2.6343162143898109</v>
+        <v>2.6193883086106284</v>
       </c>
       <c r="P28" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D28&amp;"="</f>
@@ -8991,11 +8971,11 @@
       </c>
       <c r="Q28" s="16">
         <f>'3M Pricing'!H28*100</f>
-        <v>2.7050000000000085</v>
+        <v>2.6900000000000128</v>
       </c>
       <c r="R28" s="16">
         <f>Q28</f>
-        <v>2.7050000000000085</v>
+        <v>2.6900000000000128</v>
       </c>
       <c r="S28" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D28&amp;"="</f>
@@ -9003,46 +8983,46 @@
       </c>
       <c r="T28" s="16">
         <f>'6M Pricing'!H28*100</f>
-        <v>2.7756937871229024</v>
+        <v>2.7604410492454092</v>
       </c>
       <c r="U28" s="16">
         <f>T28</f>
-        <v>2.7756937871229024</v>
+        <v>2.7604410492454092</v>
       </c>
       <c r="V28" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W28" s="16" t="e">
+      <c r="W28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J28,BID)-K28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X28" s="16" t="e">
+        <v>1.9457324640370643E-11</v>
+      </c>
+      <c r="X28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J28,ASK)-L28)</f>
-        <v>#VALUE!</v>
+        <v>1.9457324640370643E-11</v>
       </c>
       <c r="Y28" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
-        <v>3.8981085026534856E-10</v>
+        <v>3.8937164603680685E-10</v>
       </c>
       <c r="Z28" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
-        <v>3.8981085026534856E-10</v>
+        <v>3.8937164603680685E-10</v>
       </c>
       <c r="AA28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,BID)-Q28)</f>
-        <v>8.4376949871511897E-15</v>
+        <v>1.2878587085651816E-14</v>
       </c>
       <c r="AB28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,ASK)-R28)</f>
-        <v>8.4376949871511897E-15</v>
+        <v>1.2878587085651816E-14</v>
       </c>
       <c r="AC28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
-        <v>1.2290257700442453E-10</v>
+        <v>2.4642454090617605E-6</v>
       </c>
       <c r="AD28" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
-        <v>1.2290257700442453E-10</v>
+        <v>2.4642454090617605E-6</v>
       </c>
       <c r="AE28" s="41" t="s">
         <v>70</v>
@@ -9096,16 +9076,16 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS18MD=</v>
+        <f>Currency&amp;"ON"&amp;D29&amp;"D"&amp;"="</f>
+        <v>AUDON18MD=</v>
       </c>
       <c r="K29" s="16">
         <f>'ON Pricing'!H29*100</f>
-        <v>2.5954592784794244</v>
+        <v>2.5652938190301953</v>
       </c>
       <c r="L29" s="16">
-        <f t="shared" si="16"/>
-        <v>2.5954592784794244</v>
+        <f t="shared" si="14"/>
+        <v>2.5652938190301953</v>
       </c>
       <c r="M29" s="125"/>
       <c r="N29" s="126"/>
@@ -9119,13 +9099,13 @@
       <c r="V29" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W29" s="16" t="e">
+      <c r="W29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J29,BID)-K29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X29" s="16" t="e">
+        <v>3.0195401734545158E-11</v>
+      </c>
+      <c r="X29" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J29,ASK)-L29)</f>
-        <v>#VALUE!</v>
+        <v>3.0195401734545158E-11</v>
       </c>
       <c r="Y29" s="127"/>
       <c r="Z29" s="127"/>
@@ -9188,16 +9168,16 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS2YD=</v>
+        <f>Currency&amp;"ON"&amp;D30&amp;"D"&amp;"="</f>
+        <v>AUDON2YD=</v>
       </c>
       <c r="K30" s="16">
         <f>'ON Pricing'!H30*100</f>
-        <v>2.6700000000320321</v>
+        <v>2.6300000000098471</v>
       </c>
       <c r="L30" s="16">
-        <f t="shared" si="16"/>
-        <v>2.6700000000320321</v>
+        <f t="shared" si="14"/>
+        <v>2.6300000000098471</v>
       </c>
       <c r="M30" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D30&amp;"="</f>
@@ -9205,11 +9185,11 @@
       </c>
       <c r="N30" s="126">
         <f>'1M Pricing'!H30*100</f>
-        <v>2.7637192996435376</v>
+        <v>2.7238859882185471</v>
       </c>
       <c r="O30" s="126">
         <f>N30</f>
-        <v>2.7637192996435376</v>
+        <v>2.7238859882185471</v>
       </c>
       <c r="P30" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D30&amp;"="</f>
@@ -9217,11 +9197,11 @@
       </c>
       <c r="Q30" s="16">
         <f>'3M Pricing'!H30*100</f>
-        <v>2.8474999999949127</v>
+        <v>2.807499999995442</v>
       </c>
       <c r="R30" s="16">
         <f>Q30</f>
-        <v>2.8474999999949127</v>
+        <v>2.807499999995442</v>
       </c>
       <c r="S30" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D30&amp;"="</f>
@@ -9229,46 +9209,46 @@
       </c>
       <c r="T30" s="16">
         <f>'6M Pricing'!H30*100</f>
-        <v>2.9288929698821589</v>
+        <v>2.8872386160509778</v>
       </c>
       <c r="U30" s="16">
         <f>T30</f>
-        <v>2.9288929698821589</v>
+        <v>2.8872386160509778</v>
       </c>
       <c r="V30" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W30" s="16" t="e">
+      <c r="W30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J30,BID)-K30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X30" s="16" t="e">
+        <v>9.8472341392152885E-12</v>
+      </c>
+      <c r="X30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J30,ASK)-L30)</f>
-        <v>#VALUE!</v>
+        <v>9.8472341392152885E-12</v>
       </c>
       <c r="Y30" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,BID)-N30)</f>
-        <v>3.5646241514086796E-10</v>
+        <v>2.1854695830825221E-10</v>
       </c>
       <c r="Z30" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,ASK)-O30)</f>
-        <v>3.5646241514086796E-10</v>
+        <v>2.1854695830825221E-10</v>
       </c>
       <c r="AA30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,BID)-Q30)</f>
-        <v>5.0874859880423173E-12</v>
+        <v>4.5581316499010427E-12</v>
       </c>
       <c r="AB30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,ASK)-R30)</f>
-        <v>5.0874859880423173E-12</v>
+        <v>4.5581316499010427E-12</v>
       </c>
       <c r="AC30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
-        <v>1.1784129227976337E-10</v>
+        <v>9.7105097784933037E-7</v>
       </c>
       <c r="AD30" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
-        <v>1.1784129227976337E-10</v>
+        <v>9.7105097784933037E-7</v>
       </c>
       <c r="AE30" s="41" t="s">
         <v>70</v>
@@ -9325,16 +9305,16 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS3YD=</v>
+        <f>Currency&amp;"ON"&amp;D31&amp;"D"&amp;"="</f>
+        <v>AUDON3YD=</v>
       </c>
       <c r="K31" s="16">
         <f>'ON Pricing'!H31*100</f>
-        <v>2.844999999982893</v>
+        <v>2.780000000006754</v>
       </c>
       <c r="L31" s="16">
-        <f t="shared" si="16"/>
-        <v>2.844999999982893</v>
+        <f t="shared" si="14"/>
+        <v>2.780000000006754</v>
       </c>
       <c r="M31" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D31&amp;"="</f>
@@ -9342,11 +9322,11 @@
       </c>
       <c r="N31" s="126">
         <f>'1M Pricing'!H31*100</f>
-        <v>2.9328851778102658</v>
+        <v>2.8731961004615467</v>
       </c>
       <c r="O31" s="126">
         <f>N31</f>
-        <v>2.9328851778102658</v>
+        <v>2.8731961004615467</v>
       </c>
       <c r="P31" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D31&amp;"="</f>
@@ -9354,11 +9334,11 @@
       </c>
       <c r="Q31" s="16">
         <f>'3M Pricing'!H31*100</f>
-        <v>3.022500000007537</v>
+        <v>2.9625000000164636</v>
       </c>
       <c r="R31" s="16">
         <f>Q31</f>
-        <v>3.022500000007537</v>
+        <v>2.9625000000164636</v>
       </c>
       <c r="S31" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D31&amp;"="</f>
@@ -9366,46 +9346,46 @@
       </c>
       <c r="T31" s="16">
         <f>'6M Pricing'!H31*100</f>
-        <v>3.1114335568713734</v>
+        <v>3.0508979250689485</v>
       </c>
       <c r="U31" s="16">
         <f>T31</f>
-        <v>3.1114335568713734</v>
+        <v>3.0508979250689485</v>
       </c>
       <c r="V31" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W31" s="16" t="e">
+      <c r="W31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J31,BID)-K31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X31" s="16" t="e">
+        <v>6.7541527926096023E-12</v>
+      </c>
+      <c r="X31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J31,ASK)-L31)</f>
-        <v>#VALUE!</v>
+        <v>6.7541527926096023E-12</v>
       </c>
       <c r="Y31" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,BID)-N31)</f>
-        <v>1.897340062839703E-10</v>
+        <v>4.6154680077847843E-10</v>
       </c>
       <c r="Z31" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,ASK)-O31)</f>
-        <v>1.897340062839703E-10</v>
+        <v>4.6154680077847843E-10</v>
       </c>
       <c r="AA31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,BID)-Q31)</f>
-        <v>7.5370820695752627E-12</v>
+        <v>1.6463719276771371E-11</v>
       </c>
       <c r="AB31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,ASK)-R31)</f>
-        <v>7.5370820695752627E-12</v>
+        <v>1.6463719276771371E-11</v>
       </c>
       <c r="AC31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>1.2862644283018199E-10</v>
+        <v>6.5706894858408305E-7</v>
       </c>
       <c r="AD31" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>1.2862644283018199E-10</v>
+        <v>6.5706894858408305E-7</v>
       </c>
       <c r="AE31" s="41" t="s">
         <v>70</v>
@@ -9462,16 +9442,16 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS4YD=</v>
+        <f>Currency&amp;"ON"&amp;D32&amp;"D"&amp;"="</f>
+        <v>AUDON4YD=</v>
       </c>
       <c r="K32" s="16">
         <f>'ON Pricing'!H32*100</f>
-        <v>3.0099999999907774</v>
+        <v>2.9380000000050766</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="16"/>
-        <v>3.0099999999907774</v>
+        <f t="shared" si="14"/>
+        <v>2.9380000000050766</v>
       </c>
       <c r="M32" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D32&amp;"="</f>
@@ -9479,11 +9459,11 @@
       </c>
       <c r="N32" s="126">
         <f>'1M Pricing'!H32*100</f>
-        <v>3.0959662777816099</v>
+        <v>3.0318673375193956</v>
       </c>
       <c r="O32" s="126">
         <f>N32</f>
-        <v>3.0959662777816099</v>
+        <v>3.0318673375193956</v>
       </c>
       <c r="P32" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D32&amp;"="</f>
@@ -9491,11 +9471,11 @@
       </c>
       <c r="Q32" s="16">
         <f>'3M Pricing'!H32*100</f>
-        <v>3.1926482038829014</v>
+        <v>3.1281951613233652</v>
       </c>
       <c r="R32" s="16">
         <f>Q32</f>
-        <v>3.1926482038829014</v>
+        <v>3.1281951613233652</v>
       </c>
       <c r="S32" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D32&amp;"="</f>
@@ -9503,46 +9483,46 @@
       </c>
       <c r="T32" s="16">
         <f>'6M Pricing'!H32*100</f>
-        <v>3.2875000000056476</v>
+        <v>3.2225000000032562</v>
       </c>
       <c r="U32" s="16">
         <f>T32</f>
-        <v>3.2875000000056476</v>
+        <v>3.2225000000032562</v>
       </c>
       <c r="V32" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W32" s="16" t="e">
+      <c r="W32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J32,BID)-K32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X32" s="16" t="e">
+        <v>5.0763837577960658E-12</v>
+      </c>
+      <c r="X32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J32,ASK)-L32)</f>
-        <v>#VALUE!</v>
+        <v>5.0763837577960658E-12</v>
       </c>
       <c r="Y32" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,BID)-N32)</f>
-        <v>2.1839019481717514E-10</v>
+        <v>4.8060444512998401E-10</v>
       </c>
       <c r="Z32" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,ASK)-O32)</f>
-        <v>2.1839019481717514E-10</v>
+        <v>4.8060444512998401E-10</v>
       </c>
       <c r="AA32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,BID)-Q32)</f>
-        <v>1.1709877512089406E-10</v>
+        <v>3.2336533450916249E-10</v>
       </c>
       <c r="AB32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,ASK)-R32)</f>
-        <v>1.1709877512089406E-10</v>
+        <v>3.2336533450916249E-10</v>
       </c>
       <c r="AC32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>5.6474824816632463E-12</v>
+        <v>3.2560620866206591E-12</v>
       </c>
       <c r="AD32" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>5.6474824816632463E-12</v>
+        <v>3.2560620866206591E-12</v>
       </c>
       <c r="AE32" s="41" t="s">
         <v>70</v>
@@ -9599,16 +9579,16 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS5YD=</v>
+        <f>Currency&amp;"ON"&amp;D33&amp;"D"&amp;"="</f>
+        <v>AUDON5YD=</v>
       </c>
       <c r="K33" s="16">
         <f>'ON Pricing'!H33*100</f>
-        <v>3.1679999999955051</v>
+        <v>3.0899999999832999</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" si="16"/>
-        <v>3.1679999999955051</v>
+        <f t="shared" si="14"/>
+        <v>3.0899999999832999</v>
       </c>
       <c r="M33" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D33&amp;"="</f>
@@ -9616,11 +9596,11 @@
       </c>
       <c r="N33" s="126">
         <f>'1M Pricing'!H33*100</f>
-        <v>3.2501562483440138</v>
+        <v>3.1811557065218516</v>
       </c>
       <c r="O33" s="126">
         <f>N33</f>
-        <v>3.2501562483440138</v>
+        <v>3.1811557065218516</v>
       </c>
       <c r="P33" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D33&amp;"="</f>
@@ -9628,11 +9608,11 @@
       </c>
       <c r="Q33" s="16">
         <f>'3M Pricing'!H33*100</f>
-        <v>3.3513991109495258</v>
+        <v>3.2820052200943568</v>
       </c>
       <c r="R33" s="16">
         <f>Q33</f>
-        <v>3.3513991109495258</v>
+        <v>3.2820052200943568</v>
       </c>
       <c r="S33" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D33&amp;"="</f>
@@ -9640,46 +9620,46 @@
       </c>
       <c r="T33" s="16">
         <f>'6M Pricing'!H33*100</f>
-        <v>3.4500000000044695</v>
+        <v>3.3799999999517021</v>
       </c>
       <c r="U33" s="16">
         <f>T33</f>
-        <v>3.4500000000044695</v>
+        <v>3.3799999999517021</v>
       </c>
       <c r="V33" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W33" s="16" t="e">
+      <c r="W33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J33,BID)-K33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X33" s="16" t="e">
+        <v>1.6699974736411605E-11</v>
+      </c>
+      <c r="X33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J33,ASK)-L33)</f>
-        <v>#VALUE!</v>
+        <v>1.6699974736411605E-11</v>
       </c>
       <c r="Y33" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,BID)-N33)</f>
-        <v>3.4401370641035101E-10</v>
+        <v>4.7814818771030332E-10</v>
       </c>
       <c r="Z33" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,ASK)-O33)</f>
-        <v>3.4401370641035101E-10</v>
+        <v>4.7814818771030332E-10</v>
       </c>
       <c r="AA33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,BID)-Q33)</f>
-        <v>5.0474291413138417E-11</v>
+        <v>9.4356966684472354E-11</v>
       </c>
       <c r="AB33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,ASK)-R33)</f>
-        <v>5.0474291413138417E-11</v>
+        <v>9.4356966684472354E-11</v>
       </c>
       <c r="AC33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>4.4693138079310302E-12</v>
+        <v>4.829781019566326E-11</v>
       </c>
       <c r="AD33" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>4.4693138079310302E-12</v>
+        <v>4.829781019566326E-11</v>
       </c>
       <c r="AE33" s="41" t="s">
         <v>70</v>
@@ -9733,16 +9713,16 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS6YD=</v>
+        <f>Currency&amp;"ON"&amp;D34&amp;"D"&amp;"="</f>
+        <v>AUDON6YD=</v>
       </c>
       <c r="K34" s="16">
         <f>'ON Pricing'!H34*100</f>
-        <v>3.2949999999972106</v>
+        <v>3.2129999999896284</v>
       </c>
       <c r="L34" s="16">
-        <f t="shared" si="16"/>
-        <v>3.2949999999972106</v>
+        <f t="shared" si="14"/>
+        <v>3.2129999999896284</v>
       </c>
       <c r="M34" s="125"/>
       <c r="N34" s="126"/>
@@ -9756,13 +9736,13 @@
       <c r="V34" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W34" s="16" t="e">
+      <c r="W34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J34,BID)-K34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X34" s="16" t="e">
+        <v>1.0371703496048212E-11</v>
+      </c>
+      <c r="X34" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J34,ASK)-L34)</f>
-        <v>#VALUE!</v>
+        <v>1.0371703496048212E-11</v>
       </c>
       <c r="Y34" s="127"/>
       <c r="Z34" s="127"/>
@@ -9825,16 +9805,16 @@
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS7YD=</v>
+        <f>Currency&amp;"ON"&amp;D35&amp;"D"&amp;"="</f>
+        <v>AUDON7YD=</v>
       </c>
       <c r="K35" s="16">
         <f>'ON Pricing'!H35*100</f>
-        <v>3.4229999999977565</v>
+        <v>3.3349999999933564</v>
       </c>
       <c r="L35" s="16">
-        <f t="shared" si="16"/>
-        <v>3.4229999999977565</v>
+        <f t="shared" si="14"/>
+        <v>3.3349999999933564</v>
       </c>
       <c r="M35" s="125" t="str">
         <f>Currency&amp;$M$4&amp;D35&amp;"="</f>
@@ -9842,11 +9822,11 @@
       </c>
       <c r="N35" s="126">
         <f>'1M Pricing'!H35*100</f>
-        <v>3.5065599508642054</v>
+        <v>3.4277753270347713</v>
       </c>
       <c r="O35" s="126">
         <f>N35</f>
-        <v>3.5065599508642054</v>
+        <v>3.4277753270347713</v>
       </c>
       <c r="P35" s="15" t="str">
         <f>Currency&amp;$P$4&amp;D35&amp;"="</f>
@@ -9854,11 +9834,11 @@
       </c>
       <c r="Q35" s="16">
         <f>'3M Pricing'!H35*100</f>
-        <v>3.6104686863325073</v>
+        <v>3.5312053773827774</v>
       </c>
       <c r="R35" s="16">
         <f>Q35</f>
-        <v>3.6104686863325073</v>
+        <v>3.5312053773827774</v>
       </c>
       <c r="S35" s="15" t="str">
         <f>Currency&amp;$S$4&amp;D35&amp;"="</f>
@@ -9866,46 +9846,46 @@
       </c>
       <c r="T35" s="16">
         <f>'6M Pricing'!H35*100</f>
-        <v>3.715000000001782</v>
+        <v>3.6350000000177456</v>
       </c>
       <c r="U35" s="16">
         <f>T35</f>
-        <v>3.715000000001782</v>
+        <v>3.6350000000177456</v>
       </c>
       <c r="V35" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W35" s="16" t="e">
+      <c r="W35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J35,BID)-K35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X35" s="16" t="e">
+        <v>6.6435745793569367E-12</v>
+      </c>
+      <c r="X35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J35,ASK)-L35)</f>
-        <v>#VALUE!</v>
+        <v>6.6435745793569367E-12</v>
       </c>
       <c r="Y35" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,BID)-N35)</f>
-        <v>1.3579448676637185E-10</v>
+        <v>3.4771296952840203E-11</v>
       </c>
       <c r="Z35" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,ASK)-O35)</f>
-        <v>1.3579448676637185E-10</v>
+        <v>3.4771296952840203E-11</v>
       </c>
       <c r="AA35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,BID)-Q35)</f>
-        <v>3.3250735498313588E-10</v>
+        <v>3.8277736535974327E-10</v>
       </c>
       <c r="AB35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,ASK)-R35)</f>
-        <v>3.3250735498313588E-10</v>
+        <v>3.8277736535974327E-10</v>
       </c>
       <c r="AC35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>1.7821299991283013E-12</v>
+        <v>1.7745804825608502E-11</v>
       </c>
       <c r="AD35" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>1.7821299991283013E-12</v>
+        <v>1.7745804825608502E-11</v>
       </c>
       <c r="AE35" s="41" t="s">
         <v>70</v>
@@ -9959,16 +9939,16 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS8YD=</v>
+        <f>Currency&amp;"ON"&amp;D36&amp;"D"&amp;"="</f>
+        <v>AUDON8YD=</v>
       </c>
       <c r="K36" s="16">
         <f>'ON Pricing'!H36*100</f>
-        <v>3.5099999999984504</v>
+        <v>3.419999999995599</v>
       </c>
       <c r="L36" s="16">
-        <f t="shared" si="16"/>
-        <v>3.5099999999984504</v>
+        <f t="shared" si="14"/>
+        <v>3.419999999995599</v>
       </c>
       <c r="M36" s="125"/>
       <c r="N36" s="126"/>
@@ -9982,13 +9962,13 @@
       <c r="V36" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W36" s="16" t="e">
+      <c r="W36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J36,BID)-K36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X36" s="16" t="e">
+        <v>4.4009240696141205E-12</v>
+      </c>
+      <c r="X36" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J36,ASK)-L36)</f>
-        <v>#VALUE!</v>
+        <v>4.4009240696141205E-12</v>
       </c>
       <c r="Y36" s="127"/>
       <c r="Z36" s="127"/>
@@ -10048,16 +10028,16 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS9YD=</v>
+        <f>Currency&amp;"ON"&amp;D37&amp;"D"&amp;"="</f>
+        <v>AUDON9YD=</v>
       </c>
       <c r="K37" s="16">
         <f>'ON Pricing'!H37*100</f>
-        <v>3.5949999999905926</v>
+        <v>3.5029999999971544</v>
       </c>
       <c r="L37" s="16">
-        <f t="shared" si="16"/>
-        <v>3.5949999999905926</v>
+        <f t="shared" si="14"/>
+        <v>3.5029999999971544</v>
       </c>
       <c r="M37" s="125"/>
       <c r="N37" s="126"/>
@@ -10071,13 +10051,13 @@
       <c r="V37" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W37" s="16" t="e">
+      <c r="W37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J37,BID)-K37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X37" s="16" t="e">
+        <v>2.8457236567192012E-12</v>
+      </c>
+      <c r="X37" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J37,ASK)-L37)</f>
-        <v>#VALUE!</v>
+        <v>2.8457236567192012E-12</v>
       </c>
       <c r="Y37" s="127"/>
       <c r="Z37" s="127"/>
@@ -10140,87 +10120,87 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS10YD=</v>
+        <f>Currency&amp;"ON"&amp;D38&amp;"D"&amp;"="</f>
+        <v>AUDON10YD=</v>
       </c>
       <c r="K38" s="16">
         <f>'ON Pricing'!H38*100</f>
-        <v>3.6829999999906597</v>
+        <v>3.5879999999981824</v>
       </c>
       <c r="L38" s="16">
-        <f t="shared" si="16"/>
-        <v>3.6829999999906597</v>
+        <f t="shared" si="14"/>
+        <v>3.5879999999981824</v>
       </c>
       <c r="M38" s="125" t="str">
-        <f t="shared" ref="M38:M43" si="17">Currency&amp;$M$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="M38:M43" si="15">Currency&amp;$M$4&amp;D38&amp;"="</f>
         <v>AUD1M10Y=</v>
       </c>
       <c r="N38" s="126">
         <f>'1M Pricing'!H38*100</f>
-        <v>3.7750993829111206</v>
+        <v>3.689009520872085</v>
       </c>
       <c r="O38" s="126">
-        <f t="shared" ref="O38:O43" si="18">N38</f>
-        <v>3.7750993829111206</v>
+        <f t="shared" ref="O38:O43" si="16">N38</f>
+        <v>3.689009520872085</v>
       </c>
       <c r="P38" s="15" t="str">
-        <f t="shared" ref="P38:P43" si="19">Currency&amp;$P$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="P38:P43" si="17">Currency&amp;$P$4&amp;D38&amp;"="</f>
         <v>AUD3M10Y=</v>
       </c>
       <c r="Q38" s="16">
         <f>'3M Pricing'!H38*100</f>
-        <v>3.8818270702503854</v>
+        <v>3.7951823332616721</v>
       </c>
       <c r="R38" s="16">
-        <f t="shared" ref="R38:R43" si="20">Q38</f>
-        <v>3.8818270702503854</v>
+        <f t="shared" ref="R38:R43" si="18">Q38</f>
+        <v>3.7951823332616721</v>
       </c>
       <c r="S38" s="15" t="str">
-        <f t="shared" ref="S38:S43" si="21">Currency&amp;$S$4&amp;D38&amp;"="</f>
+        <f t="shared" ref="S38:S43" si="19">Currency&amp;$S$4&amp;D38&amp;"="</f>
         <v>AUD6M10Y=</v>
       </c>
       <c r="T38" s="16">
         <f>'6M Pricing'!H38*100</f>
-        <v>3.9875000000190299</v>
+        <v>3.9000000000175339</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" ref="U38:U43" si="22">T38</f>
-        <v>3.9875000000190299</v>
+        <f t="shared" ref="U38:U43" si="20">T38</f>
+        <v>3.9000000000175339</v>
       </c>
       <c r="V38" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W38" s="16" t="e">
+      <c r="W38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J38,BID)-K38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X38" s="16" t="e">
+        <v>1.8176571359163063E-12</v>
+      </c>
+      <c r="X38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J38,ASK)-L38)</f>
-        <v>#VALUE!</v>
+        <v>1.8176571359163063E-12</v>
       </c>
       <c r="Y38" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,BID)-N38)</f>
-        <v>8.8879570370181682E-11</v>
+        <v>1.2791501191600219E-10</v>
       </c>
       <c r="Z38" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,ASK)-O38)</f>
-        <v>8.8879570370181682E-11</v>
+        <v>1.2791501191600219E-10</v>
       </c>
       <c r="AA38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,BID)-Q38)</f>
-        <v>2.503854901192426E-10</v>
+        <v>2.6167201738758195E-10</v>
       </c>
       <c r="AB38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,ASK)-R38)</f>
-        <v>2.503854901192426E-10</v>
+        <v>2.6167201738758195E-10</v>
       </c>
       <c r="AC38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>1.9030110820494883E-11</v>
+        <v>1.7533974272510022E-11</v>
       </c>
       <c r="AD38" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>1.9030110820494883E-11</v>
+        <v>1.7533974272510022E-11</v>
       </c>
       <c r="AE38" s="41" t="s">
         <v>70</v>
@@ -10277,87 +10257,87 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS12YD=</v>
+        <f>Currency&amp;"ON"&amp;D39&amp;"D"&amp;"="</f>
+        <v>AUDON12YD=</v>
       </c>
       <c r="K39" s="16">
         <f>'ON Pricing'!H39*100</f>
-        <v>3.8230000000054103</v>
+        <v>3.7249999999987695</v>
       </c>
       <c r="L39" s="16">
-        <f t="shared" si="16"/>
-        <v>3.8230000000054103</v>
+        <f t="shared" si="14"/>
+        <v>3.7249999999987695</v>
       </c>
       <c r="M39" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>AUD1M12Y=</v>
       </c>
       <c r="N39" s="126">
         <f>'1M Pricing'!H39*100</f>
-        <v>3.9166224062817978</v>
+        <v>3.8281239098081219</v>
       </c>
       <c r="O39" s="126">
-        <f t="shared" si="18"/>
-        <v>3.9166224062817978</v>
+        <f t="shared" si="16"/>
+        <v>3.8281239098081219</v>
       </c>
       <c r="P39" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>AUD3M12Y=</v>
       </c>
       <c r="Q39" s="16">
         <f>'3M Pricing'!H39*100</f>
-        <v>4.0279875963439098</v>
+        <v>3.9388977810415158</v>
       </c>
       <c r="R39" s="16">
-        <f t="shared" si="20"/>
-        <v>4.0279875963439098</v>
+        <f t="shared" si="18"/>
+        <v>3.9388977810415158</v>
       </c>
       <c r="S39" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>AUD6M12Y=</v>
       </c>
       <c r="T39" s="16">
         <f>'6M Pricing'!H39*100</f>
-        <v>4.1324999999993413</v>
+        <v>4.0424999999994018</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" si="22"/>
-        <v>4.1324999999993413</v>
+        <f t="shared" si="20"/>
+        <v>4.0424999999994018</v>
       </c>
       <c r="V39" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W39" s="16" t="e">
+      <c r="W39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J39,BID)-K39)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X39" s="16" t="e">
+        <v>1.2305712004945235E-12</v>
+      </c>
+      <c r="X39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J39,ASK)-L39)</f>
-        <v>#VALUE!</v>
+        <v>1.2305712004945235E-12</v>
       </c>
       <c r="Y39" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,BID)-N39)</f>
-        <v>2.8179769628877693E-10</v>
+        <v>1.918780689891264E-10</v>
       </c>
       <c r="Z39" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,ASK)-O39)</f>
-        <v>2.8179769628877693E-10</v>
+        <v>1.918780689891264E-10</v>
       </c>
       <c r="AA39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,BID)-Q39)</f>
-        <v>3.4390978953524609E-10</v>
+        <v>4.1515679782833104E-11</v>
       </c>
       <c r="AB39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,ASK)-R39)</f>
-        <v>3.4390978953524609E-10</v>
+        <v>4.1515679782833104E-11</v>
       </c>
       <c r="AC39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>6.5902838741749292E-13</v>
+        <v>5.9863225487788441E-13</v>
       </c>
       <c r="AD39" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>6.5902838741749292E-13</v>
+        <v>5.9863225487788441E-13</v>
       </c>
       <c r="AE39" s="41" t="s">
         <v>70</v>
@@ -10414,87 +10394,87 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS15YD=</v>
+        <f>Currency&amp;"ON"&amp;D40&amp;"D"&amp;"="</f>
+        <v>AUDON15YD=</v>
       </c>
       <c r="K40" s="16">
         <f>'ON Pricing'!H40*100</f>
-        <v>3.9849999999999741</v>
+        <v>3.8849999999999989</v>
       </c>
       <c r="L40" s="16">
-        <f t="shared" si="16"/>
-        <v>3.9849999999999741</v>
+        <f t="shared" si="14"/>
+        <v>3.8849999999999989</v>
       </c>
       <c r="M40" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>AUD1M15Y=</v>
       </c>
       <c r="N40" s="126">
         <f>'1M Pricing'!H40*100</f>
-        <v>4.0802540492382446</v>
+        <v>3.9893551566755439</v>
       </c>
       <c r="O40" s="126">
-        <f t="shared" si="18"/>
-        <v>4.0802540492382446</v>
+        <f t="shared" si="16"/>
+        <v>3.9893551566755439</v>
       </c>
       <c r="P40" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>AUD3M15Y=</v>
       </c>
       <c r="Q40" s="16">
         <f>'3M Pricing'!H40*100</f>
-        <v>4.1926791455860961</v>
+        <v>4.1011476474981778</v>
       </c>
       <c r="R40" s="16">
-        <f t="shared" si="20"/>
-        <v>4.1926791455860961</v>
+        <f t="shared" si="18"/>
+        <v>4.1011476474981778</v>
       </c>
       <c r="S40" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>AUD6M15Y=</v>
       </c>
       <c r="T40" s="16">
         <f>'6M Pricing'!H40*100</f>
-        <v>4.2875000000008381</v>
+        <v>4.1950000000008263</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="22"/>
-        <v>4.2875000000008381</v>
+        <f t="shared" si="20"/>
+        <v>4.1950000000008263</v>
       </c>
       <c r="V40" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W40" s="16" t="e">
+      <c r="W40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J40,BID)-K40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X40" s="16" t="e">
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="X40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J40,ASK)-L40)</f>
-        <v>#VALUE!</v>
+        <v>8.8817841970012523E-16</v>
       </c>
       <c r="Y40" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,BID)-N40)</f>
-        <v>2.3824497930036159E-10</v>
+        <v>3.2445601760855425E-10</v>
       </c>
       <c r="Z40" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M40,ASK)-O40)</f>
-        <v>2.3824497930036159E-10</v>
+        <v>3.2445601760855425E-10</v>
       </c>
       <c r="AA40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,BID)-Q40)</f>
-        <v>4.1390357807813416E-10</v>
+        <v>4.9817749925296084E-10</v>
       </c>
       <c r="AB40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P40,ASK)-R40)</f>
-        <v>4.1390357807813416E-10</v>
+        <v>4.9817749925296084E-10</v>
       </c>
       <c r="AC40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,BID)-T40)</f>
-        <v>8.3844042819691822E-13</v>
+        <v>8.2600593032111647E-13</v>
       </c>
       <c r="AD40" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S40,ASK)-U40)</f>
-        <v>8.3844042819691822E-13</v>
+        <v>8.2600593032111647E-13</v>
       </c>
       <c r="AE40" s="41" t="s">
         <v>70</v>
@@ -10551,87 +10531,87 @@
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS20YD=</v>
+        <f>Currency&amp;"ON"&amp;D41&amp;"D"&amp;"="</f>
+        <v>AUDON20YD=</v>
       </c>
       <c r="K41" s="16">
         <f>'ON Pricing'!H41*100</f>
-        <v>4.1580000000017945</v>
+        <v>4.0650000000058206</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" si="16"/>
-        <v>4.1580000000017945</v>
+        <f t="shared" si="14"/>
+        <v>4.0650000000058206</v>
       </c>
       <c r="M41" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>AUD1M20Y=</v>
       </c>
       <c r="N41" s="126">
         <f>'1M Pricing'!H41*100</f>
-        <v>4.2548670256142884</v>
+        <v>4.1689271416802631</v>
       </c>
       <c r="O41" s="126">
-        <f t="shared" si="18"/>
-        <v>4.2548670256142884</v>
+        <f t="shared" si="16"/>
+        <v>4.1689271416802631</v>
       </c>
       <c r="P41" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>AUD3M20Y=</v>
       </c>
       <c r="Q41" s="16">
         <f>'3M Pricing'!H41*100</f>
-        <v>4.3697168457538833</v>
+        <v>4.2831597175156064</v>
       </c>
       <c r="R41" s="16">
-        <f t="shared" si="20"/>
-        <v>4.3697168457538833</v>
+        <f t="shared" si="18"/>
+        <v>4.2831597175156064</v>
       </c>
       <c r="S41" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>AUD6M20Y=</v>
       </c>
       <c r="T41" s="16">
         <f>'6M Pricing'!H41*100</f>
-        <v>4.4525000000007617</v>
+        <v>4.3650000000007019</v>
       </c>
       <c r="U41" s="16">
-        <f t="shared" si="22"/>
-        <v>4.4525000000007617</v>
+        <f t="shared" si="20"/>
+        <v>4.3650000000007019</v>
       </c>
       <c r="V41" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W41" s="16" t="e">
+      <c r="W41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J41,BID)-K41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X41" s="16" t="e">
+        <v>5.8202331842949206E-12</v>
+      </c>
+      <c r="X41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J41,ASK)-L41)</f>
-        <v>#VALUE!</v>
+        <v>5.8202331842949206E-12</v>
       </c>
       <c r="Y41" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M41,BID)-N41)</f>
-        <v>3.8571190685843249E-10</v>
+        <v>3.1973712566468748E-10</v>
       </c>
       <c r="Z41" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M41,ASK)-O41)</f>
-        <v>3.8571190685843249E-10</v>
+        <v>3.1973712566468748E-10</v>
       </c>
       <c r="AA41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P41,BID)-Q41)</f>
-        <v>2.461169046341638E-10</v>
+        <v>4.843938583576346E-10</v>
       </c>
       <c r="AB41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P41,ASK)-R41)</f>
-        <v>2.461169046341638E-10</v>
+        <v>4.843938583576346E-10</v>
       </c>
       <c r="AC41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,BID)-T41)</f>
-        <v>7.6205708410270745E-13</v>
+        <v>7.0166095156309893E-13</v>
       </c>
       <c r="AD41" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S41,ASK)-U41)</f>
-        <v>7.6205708410270745E-13</v>
+        <v>7.0166095156309893E-13</v>
       </c>
       <c r="AE41" s="41" t="s">
         <v>70</v>
@@ -10688,87 +10668,87 @@
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS25YD=</v>
+        <f>Currency&amp;"ON"&amp;D42&amp;"D"&amp;"="</f>
+        <v>AUDON25YD=</v>
       </c>
       <c r="K42" s="16">
         <f>'ON Pricing'!H42*100</f>
-        <v>4.2130000000019212</v>
+        <v>4.1200000000056383</v>
       </c>
       <c r="L42" s="16">
-        <f t="shared" si="16"/>
-        <v>4.2130000000019212</v>
+        <f t="shared" si="14"/>
+        <v>4.1200000000056383</v>
       </c>
       <c r="M42" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>AUD1M25Y=</v>
       </c>
       <c r="N42" s="126">
         <f>'1M Pricing'!H42*100</f>
-        <v>4.3114374898594843</v>
+        <v>4.2255079750885631</v>
       </c>
       <c r="O42" s="126">
-        <f t="shared" si="18"/>
-        <v>4.3114374898594843</v>
+        <f t="shared" si="16"/>
+        <v>4.2255079750885631</v>
       </c>
       <c r="P42" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>AUD3M25Y=</v>
       </c>
       <c r="Q42" s="16">
         <f>'3M Pricing'!H42*100</f>
-        <v>4.4279209880123238</v>
+        <v>4.3413703762302243</v>
       </c>
       <c r="R42" s="16">
-        <f t="shared" si="20"/>
-        <v>4.4279209880123238</v>
+        <f t="shared" si="18"/>
+        <v>4.3413703762302243</v>
       </c>
       <c r="S42" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>AUD6M25Y=</v>
       </c>
       <c r="T42" s="16">
         <f>'6M Pricing'!H42*100</f>
-        <v>4.5049999999993675</v>
+        <v>4.417499999997534</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" si="22"/>
-        <v>4.5049999999993675</v>
+        <f t="shared" si="20"/>
+        <v>4.417499999997534</v>
       </c>
       <c r="V42" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W42" s="16" t="e">
+      <c r="W42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J42,BID)-K42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X42" s="16" t="e">
+        <v>5.638156608256395E-12</v>
+      </c>
+      <c r="X42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$J42,ASK)-L42)</f>
-        <v>#VALUE!</v>
+        <v>5.638156608256395E-12</v>
       </c>
       <c r="Y42" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M42,BID)-N42)</f>
-        <v>1.4051604324549771E-10</v>
+        <v>8.8562934763558587E-11</v>
       </c>
       <c r="Z42" s="127">
         <f>ABS(_xll.RtGet(SourceAlias,$M42,ASK)-O42)</f>
-        <v>1.4051604324549771E-10</v>
+        <v>8.8562934763558587E-11</v>
       </c>
       <c r="AA42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P42,BID)-Q42)</f>
-        <v>1.2323475573339238E-11</v>
+        <v>2.3022383999204976E-10</v>
       </c>
       <c r="AB42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$P42,ASK)-R42)</f>
-        <v>1.2323475573339238E-11</v>
+        <v>2.3022383999204976E-10</v>
       </c>
       <c r="AC42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,BID)-T42)</f>
-        <v>6.3238303482648917E-13</v>
+        <v>2.4664714715072478E-12</v>
       </c>
       <c r="AD42" s="16">
         <f>ABS(_xll.RtGet(SourceAlias,$S42,ASK)-U42)</f>
-        <v>6.3238303482648917E-13</v>
+        <v>2.4664714715072478E-12</v>
       </c>
       <c r="AE42" s="41" t="s">
         <v>70</v>
@@ -10825,87 +10805,87 @@
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>AUDOIS30YD=</v>
+        <f>Currency&amp;"ON"&amp;D43&amp;"D"&amp;"="</f>
+        <v>AUDON30YD=</v>
       </c>
       <c r="K43" s="18">
         <f>'ON Pricing'!H43*100</f>
-        <v>4.2450000000066774</v>
+        <v>4.150000000000527</v>
       </c>
       <c r="L43" s="18">
-        <f t="shared" si="16"/>
-        <v>4.2450000000066774</v>
+        <f t="shared" si="14"/>
+        <v>4.150000000000527</v>
       </c>
       <c r="M43" s="138" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>AUD1M30Y=</v>
       </c>
       <c r="N43" s="139">
         <f>'1M Pricing'!H43*100</f>
-        <v>4.3422003338820065</v>
+        <v>4.2562987902059195</v>
       </c>
       <c r="O43" s="139">
-        <f t="shared" si="18"/>
-        <v>4.3422003338820065</v>
+        <f t="shared" si="16"/>
+        <v>4.2562987902059195</v>
       </c>
       <c r="P43" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>AUD3M30Y=</v>
       </c>
       <c r="Q43" s="18">
         <f>'3M Pricing'!H43*100</f>
-        <v>4.4576488318914445</v>
+        <v>4.3711146242034733</v>
       </c>
       <c r="R43" s="18">
-        <f t="shared" si="20"/>
-        <v>4.4576488318914445</v>
+        <f t="shared" si="18"/>
+        <v>4.3711146242034733</v>
       </c>
       <c r="S43" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>AUD6M30Y=</v>
       </c>
       <c r="T43" s="18">
         <f>'6M Pricing'!H43*100</f>
-        <v>4.5249999999922643</v>
+        <v>4.4374999999901164</v>
       </c>
       <c r="U43" s="18">
-        <f t="shared" si="22"/>
-        <v>4.5249999999922643</v>
+        <f t="shared" si="20"/>
+        <v>4.4374999999901164</v>
       </c>
       <c r="V43" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="W43" s="18" t="e">
+      <c r="W43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$J43,BID)-K43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X43" s="18" t="e">
+        <v>5.2668980288217426E-13</v>
+      </c>
+      <c r="X43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$J43,ASK)-L43)</f>
-        <v>#VALUE!</v>
+        <v>5.2668980288217426E-13</v>
       </c>
       <c r="Y43" s="140">
         <f>ABS(_xll.RtGet(SourceAlias,$M43,BID)-N43)</f>
-        <v>1.1799361487874194E-10</v>
+        <v>2.0591972571537553E-10</v>
       </c>
       <c r="Z43" s="140">
         <f>ABS(_xll.RtGet(SourceAlias,$M43,ASK)-O43)</f>
-        <v>1.1799361487874194E-10</v>
+        <v>2.0591972571537553E-10</v>
       </c>
       <c r="AA43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P43,BID)-Q43)</f>
-        <v>1.0855583099100841E-10</v>
+        <v>2.0347368234752139E-10</v>
       </c>
       <c r="AB43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$P43,ASK)-R43)</f>
-        <v>1.0855583099100841E-10</v>
+        <v>2.0347368234752139E-10</v>
       </c>
       <c r="AC43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,BID)-T43)</f>
-        <v>7.7360340355880908E-12</v>
+        <v>9.8836494544229936E-12</v>
       </c>
       <c r="AD43" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$S43,ASK)-U43)</f>
-        <v>7.7360340355880908E-12</v>
+        <v>9.8836494544229936E-12</v>
       </c>
       <c r="AE43" s="41" t="s">
         <v>70</v>
@@ -14644,23 +14624,23 @@
       </c>
       <c r="E6" s="162">
         <f t="shared" ref="E6" si="0">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F6" s="162">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E6,)</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="G6" s="162">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F6)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlIndexFixing(OvernightIndex,E6,TRUE,InterestRatesTrigger)</f>
-        <v>2.5002710701456099E-2</v>
+        <v>2.500401157774057E-2</v>
       </c>
       <c r="I6" s="55" t="str">
         <f>Contribution!J6</f>
-        <v>AUDOISOND=</v>
+        <v>AUDONOND=</v>
       </c>
       <c r="J6" s="55"/>
       <c r="K6" s="41"/>
@@ -14692,23 +14672,23 @@
       </c>
       <c r="E7" s="156">
         <f>G6</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="F7" s="156">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E7,)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G7" s="156">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="H7" s="157">
         <f>_xll.qlIndexFixing(OvernightIndex,E7,TRUE,InterestRatesTrigger)</f>
-        <v>2.500205685588508E-2</v>
+        <v>2.5003249324340171E-2</v>
       </c>
       <c r="I7" s="153" t="str">
         <f>Contribution!J7</f>
-        <v>AUDOISTND=</v>
+        <v>AUDONTND=</v>
       </c>
       <c r="J7" s="153"/>
       <c r="K7" s="61"/>
@@ -14738,23 +14718,23 @@
       </c>
       <c r="E8" s="159">
         <f>G6</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="F8" s="159">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E8,)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G8" s="159">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F8)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="H8" s="160">
         <f>_xll.qlIndexFixing(OvernightIndex,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.500205685588508E-2</v>
+        <v>2.5003249324340171E-2</v>
       </c>
       <c r="I8" s="154" t="str">
         <f>Contribution!J8</f>
-        <v>AUDOISSND=</v>
+        <v>AUDONSND=</v>
       </c>
       <c r="J8" s="154"/>
       <c r="K8" s="61"/>
@@ -14792,23 +14772,23 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" ref="E9:E43" si="1">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9)</f>
-        <v>41912</v>
+        <v>41913</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.5000000017125761E-2</v>
+        <v>2.4999999998865489E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!J9</f>
-        <v>AUDOISSWD=</v>
+        <v>AUDONSWD=</v>
       </c>
       <c r="J9" s="38" t="str">
         <f>Currency&amp;C9&amp;"OIS=ICAA"</f>
@@ -14817,7 +14797,7 @@
       <c r="K9" s="61"/>
       <c r="L9" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C9="SW","1W",C9),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005b4#0000</v>
+        <v>obj_005c0#0000</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="87" t="s">
@@ -14850,26 +14830,26 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10)</f>
-        <v>41919</v>
+        <v>41920</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.4991637151170122E-2</v>
+        <v>2.4989000628130618E-2</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="60"/>
       <c r="L10" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C10="SW","1W",C10),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00590#0000</v>
+        <v>obj_00582#0000</v>
       </c>
       <c r="M10" s="92"/>
       <c r="N10" s="41"/>
@@ -14896,26 +14876,26 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.4985801205208557E-2</v>
+        <v>2.4980091933858799E-2</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="60"/>
       <c r="L11" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C11="SW","1W",C11),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005b1#0000</v>
+        <v>obj_005b3#0000</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
@@ -14942,23 +14922,23 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12)</f>
-        <v>41935</v>
+        <v>41936</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.4985000010740045E-2</v>
+        <v>2.4975000002205122E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!J12</f>
-        <v>AUDOIS1MD=</v>
+        <v>AUDON1MD=</v>
       </c>
       <c r="J12" s="38" t="str">
         <f t="shared" ref="J12:J17" si="2">Currency&amp;C12&amp;"OIS=ICAA"</f>
@@ -14967,7 +14947,7 @@
       <c r="K12" s="60"/>
       <c r="L12" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C12="SW","1W",C12),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00593#0000</v>
+        <v>obj_00564#0000</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
@@ -14994,11 +14974,11 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13)</f>
@@ -15006,11 +14986,11 @@
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.5000000000031285E-2</v>
+        <v>2.4975000004097903E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!J13</f>
-        <v>AUDOIS2MD=</v>
+        <v>AUDON2MD=</v>
       </c>
       <c r="J13" s="38" t="str">
         <f t="shared" si="2"/>
@@ -15019,7 +14999,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C13="SW","1W",C13),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005aa#0000</v>
+        <v>obj_00595#0000</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -15046,23 +15026,23 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14)</f>
-        <v>41996</v>
+        <v>41997</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.4989999999995967E-2</v>
+        <v>2.4960000003375508E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!J14</f>
-        <v>AUDOIS3MD=</v>
+        <v>AUDON3MD=</v>
       </c>
       <c r="J14" s="38" t="str">
         <f t="shared" si="2"/>
@@ -15071,7 +15051,7 @@
       <c r="K14" s="60"/>
       <c r="L14" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C14="SW","1W",C14),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00591#0000</v>
+        <v>obj_00586#0000</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -15098,23 +15078,23 @@
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F15" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15)</f>
-        <v>42027</v>
+        <v>42031</v>
       </c>
       <c r="H15" s="47">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRatesTrigger)</f>
-        <v>2.5000000000002524E-2</v>
+        <v>2.497500000255751E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!J15</f>
-        <v>AUDOIS4MD=</v>
+        <v>AUDON4MD=</v>
       </c>
       <c r="J15" s="38" t="str">
         <f t="shared" si="2"/>
@@ -15123,7 +15103,7 @@
       <c r="K15" s="60"/>
       <c r="L15" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C15="SW","1W",C15),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0059d#0000</v>
+        <v>obj_005c6#0000</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -15150,23 +15130,23 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F16" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16)</f>
-        <v>42058</v>
+        <v>42059</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRatesTrigger)</f>
-        <v>2.5025000000000654E-2</v>
+        <v>2.4975000001827889E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!J16</f>
-        <v>AUDOIS5MD=</v>
+        <v>AUDON5MD=</v>
       </c>
       <c r="J16" s="38" t="str">
         <f t="shared" si="2"/>
@@ -15175,7 +15155,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C16="SW","1W",C16),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0058d#0000</v>
+        <v>obj_00590#0000</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -15202,23 +15182,23 @@
       </c>
       <c r="E17" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F17" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L17,E17)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L17,F17)</f>
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlIndexFixing(L17,E17,TRUE,InterestRatesTrigger)</f>
-        <v>2.5075000000000538E-2</v>
+        <v>2.5000000001542209E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!J17</f>
-        <v>AUDOIS6MD=</v>
+        <v>AUDON6MD=</v>
       </c>
       <c r="J17" s="38" t="str">
         <f t="shared" si="2"/>
@@ -15227,7 +15207,7 @@
       <c r="K17" s="60"/>
       <c r="L17" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C17="SW","1W",C17),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0058a#0000</v>
+        <v>obj_00589#0000</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -15254,23 +15234,23 @@
       </c>
       <c r="E18" s="49">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F18" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L18,E18)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G18" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L18,F18)</f>
-        <v>42178</v>
+        <v>42179</v>
       </c>
       <c r="H18" s="50">
         <f>_xll.qlIndexFixing(L18,E18,TRUE,InterestRatesTrigger)</f>
-        <v>2.522500000000014E-2</v>
+        <v>2.5100000000257968E-2</v>
       </c>
       <c r="I18" s="40" t="str">
         <f>Contribution!J18</f>
-        <v>AUDOIS9MD=</v>
+        <v>AUDON9MD=</v>
       </c>
       <c r="J18" s="40" t="str">
         <f>Currency&amp;C18&amp;"OIS=ICAA"</f>
@@ -15279,7 +15259,7 @@
       <c r="K18" s="60"/>
       <c r="L18" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C18="SW","1W",C18),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00583#0000</v>
+        <v>obj_005a3#0000</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -15549,23 +15529,23 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28)</f>
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.5500000000460345E-2</v>
+        <v>2.5350000000194575E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!J28</f>
-        <v>AUDOIS1YD=</v>
+        <v>AUDON1YD=</v>
       </c>
       <c r="J28" s="38" t="str">
         <f t="shared" ref="J28:J43" si="3">Currency&amp;C28&amp;"MTOIS=ICAA"</f>
@@ -15574,7 +15554,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C28="SW","1W",C28),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0056c#0000</v>
+        <v>obj_0057d#0000</v>
       </c>
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
@@ -15601,23 +15581,23 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29)</f>
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.5954592784794242E-2</v>
+        <v>2.5652938190301951E-2</v>
       </c>
       <c r="I29" s="38" t="str">
         <f>Contribution!J29</f>
-        <v>AUDOIS18MD=</v>
+        <v>AUDON18MD=</v>
       </c>
       <c r="J29" s="38" t="str">
         <f t="shared" si="3"/>
@@ -15626,7 +15606,7 @@
       <c r="K29" s="60"/>
       <c r="L29" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C29="SW","1W",C29),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00581#0000</v>
+        <v>obj_005b9#0000</v>
       </c>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
@@ -15653,23 +15633,23 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30)</f>
-        <v>42636</v>
+        <v>42639</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.6700000000320322E-2</v>
+        <v>2.630000000009847E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!J30</f>
-        <v>AUDOIS2YD=</v>
+        <v>AUDON2YD=</v>
       </c>
       <c r="J30" s="38" t="str">
         <f t="shared" si="3"/>
@@ -15678,7 +15658,7 @@
       <c r="K30" s="60"/>
       <c r="L30" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C30="SW","1W",C30),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0059e#0000</v>
+        <v>obj_005a0#0000</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
@@ -15705,11 +15685,11 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31)</f>
@@ -15717,11 +15697,11 @@
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>2.8449999999828928E-2</v>
+        <v>2.7800000000067538E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!J31</f>
-        <v>AUDOIS3YD=</v>
+        <v>AUDON3YD=</v>
       </c>
       <c r="J31" s="38" t="str">
         <f t="shared" si="3"/>
@@ -15730,7 +15710,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C31="SW","1W",C31),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005a0#0000</v>
+        <v>obj_00566#0000</v>
       </c>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
@@ -15757,11 +15737,11 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32)</f>
@@ -15769,11 +15749,11 @@
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>3.0099999999907773E-2</v>
+        <v>2.9380000000050765E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!J32</f>
-        <v>AUDOIS4YD=</v>
+        <v>AUDON4YD=</v>
       </c>
       <c r="J32" s="38" t="str">
         <f t="shared" si="3"/>
@@ -15782,7 +15762,7 @@
       <c r="K32" s="60"/>
       <c r="L32" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C32="SW","1W",C32),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005c6#0000</v>
+        <v>obj_0057c#0000</v>
       </c>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
@@ -15809,23 +15789,23 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33)</f>
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.167999999995505E-2</v>
+        <v>3.0899999999832999E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!J33</f>
-        <v>AUDOIS5YD=</v>
+        <v>AUDON5YD=</v>
       </c>
       <c r="J33" s="38" t="str">
         <f t="shared" si="3"/>
@@ -15834,7 +15814,7 @@
       <c r="K33" s="60"/>
       <c r="L33" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C33="SW","1W",C33),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005b5#0000</v>
+        <v>obj_0058b#0000</v>
       </c>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -15861,23 +15841,23 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34)</f>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.2949999999972106E-2</v>
+        <v>3.2129999999896283E-2</v>
       </c>
       <c r="I34" s="38" t="str">
         <f>Contribution!J34</f>
-        <v>AUDOIS6YD=</v>
+        <v>AUDON6YD=</v>
       </c>
       <c r="J34" s="38" t="str">
         <f t="shared" si="3"/>
@@ -15886,7 +15866,7 @@
       <c r="K34" s="60"/>
       <c r="L34" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C34="SW","1W",C34),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005b7#0000</v>
+        <v>obj_0058f#0000</v>
       </c>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
@@ -15913,23 +15893,23 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35)</f>
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.4229999999977563E-2</v>
+        <v>3.3349999999933565E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!J35</f>
-        <v>AUDOIS7YD=</v>
+        <v>AUDON7YD=</v>
       </c>
       <c r="J35" s="38" t="str">
         <f t="shared" si="3"/>
@@ -15938,7 +15918,7 @@
       <c r="K35" s="60"/>
       <c r="L35" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C35="SW","1W",C35),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0058b#0000</v>
+        <v>obj_00563#0000</v>
       </c>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
@@ -15965,23 +15945,23 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36)</f>
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.5099999999984505E-2</v>
+        <v>3.4199999999955988E-2</v>
       </c>
       <c r="I36" s="38" t="str">
         <f>Contribution!J36</f>
-        <v>AUDOIS8YD=</v>
+        <v>AUDON8YD=</v>
       </c>
       <c r="J36" s="38" t="str">
         <f t="shared" si="3"/>
@@ -15990,7 +15970,7 @@
       <c r="K36" s="60"/>
       <c r="L36" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C36="SW","1W",C36),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00565#0000</v>
+        <v>obj_005a7#0000</v>
       </c>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
@@ -16017,11 +15997,11 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37)</f>
@@ -16029,11 +16009,11 @@
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.5949999999905925E-2</v>
+        <v>3.5029999999971542E-2</v>
       </c>
       <c r="I37" s="38" t="str">
         <f>Contribution!J37</f>
-        <v>AUDOIS9YD=</v>
+        <v>AUDON9YD=</v>
       </c>
       <c r="J37" s="38" t="str">
         <f t="shared" si="3"/>
@@ -16042,7 +16022,7 @@
       <c r="K37" s="60"/>
       <c r="L37" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C37="SW","1W",C37),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005c3#0000</v>
+        <v>obj_005a6#0000</v>
       </c>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -16069,23 +16049,23 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38)</f>
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.6829999999906597E-2</v>
+        <v>3.5879999999981822E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!J38</f>
-        <v>AUDOIS10YD=</v>
+        <v>AUDON10YD=</v>
       </c>
       <c r="J38" s="38" t="str">
         <f t="shared" si="3"/>
@@ -16094,7 +16074,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C38="SW","1W",C38),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005a5#0000</v>
+        <v>obj_005bf#0000</v>
       </c>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -16121,23 +16101,23 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39)</f>
-        <v>46288</v>
+        <v>46289</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>3.8230000000054103E-2</v>
+        <v>3.7249999999987696E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!J39</f>
-        <v>AUDOIS12YD=</v>
+        <v>AUDON12YD=</v>
       </c>
       <c r="J39" s="38" t="str">
         <f t="shared" si="3"/>
@@ -16146,7 +16126,7 @@
       <c r="K39" s="60"/>
       <c r="L39" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C39="SW","1W",C39),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0058e#0000</v>
+        <v>obj_00579#0000</v>
       </c>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
@@ -16173,11 +16153,11 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40)</f>
@@ -16185,11 +16165,11 @@
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>3.984999999999974E-2</v>
+        <v>3.8849999999999989E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!J40</f>
-        <v>AUDOIS15YD=</v>
+        <v>AUDON15YD=</v>
       </c>
       <c r="J40" s="38" t="str">
         <f t="shared" si="3"/>
@@ -16198,7 +16178,7 @@
       <c r="K40" s="60"/>
       <c r="L40" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C40="SW","1W",C40),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_00566#0000</v>
+        <v>obj_00577#0000</v>
       </c>
       <c r="M40" s="41"/>
       <c r="N40" s="41"/>
@@ -16225,11 +16205,11 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41)</f>
@@ -16237,11 +16217,11 @@
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>4.1580000000017943E-2</v>
+        <v>4.0650000000058209E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!J41</f>
-        <v>AUDOIS20YD=</v>
+        <v>AUDON20YD=</v>
       </c>
       <c r="J41" s="38" t="str">
         <f t="shared" si="3"/>
@@ -16250,7 +16230,7 @@
       <c r="K41" s="60"/>
       <c r="L41" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C41="SW","1W",C41),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0055f#0000</v>
+        <v>obj_00592#0000</v>
       </c>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -16277,23 +16257,23 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42)</f>
-        <v>51036</v>
+        <v>51039</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.2130000000019208E-2</v>
+        <v>4.1200000000056379E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!J42</f>
-        <v>AUDOIS25YD=</v>
+        <v>AUDON25YD=</v>
       </c>
       <c r="J42" s="38" t="str">
         <f t="shared" si="3"/>
@@ -16302,7 +16282,7 @@
       <c r="K42" s="60"/>
       <c r="L42" s="29" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C42="SW","1W",C42),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_0056d#0000</v>
+        <v>obj_005b7#0000</v>
       </c>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
@@ -16329,23 +16309,23 @@
       </c>
       <c r="E43" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F43" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G43" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43)</f>
-        <v>52863</v>
+        <v>52866</v>
       </c>
       <c r="H43" s="47">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.2450000000066775E-2</v>
+        <v>4.1500000000005269E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!J43</f>
-        <v>AUDOIS30YD=</v>
+        <v>AUDON30YD=</v>
       </c>
       <c r="J43" s="40" t="str">
         <f t="shared" si="3"/>
@@ -16354,7 +16334,7 @@
       <c r="K43" s="60"/>
       <c r="L43" s="31" t="str">
         <f>_xll.qlSwapIndex(,"Aonia",IF(C43="SW","1W",C43),SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,OvernightIndex,YieldCurve,,Trigger)</f>
-        <v>obj_005c2#0000</v>
+        <v>obj_00588#0000</v>
       </c>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
@@ -18703,19 +18683,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E43" si="1">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.6059212567440152E-2</v>
+        <v>2.5956907080857759E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!M6</f>
@@ -18725,7 +18705,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>obj_005cc#0001</v>
+        <v>obj_005cc#0004</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="91"/>
@@ -18755,19 +18735,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.6058593930794596E-2</v>
+        <v>2.5956543764969923E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!M7</f>
@@ -18812,19 +18792,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41907</v>
+        <v>41908</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,AllTriggers)</f>
-        <v>2.6058020417591976E-2</v>
+        <v>2.5956216182763114E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!M8</f>
@@ -18834,7 +18814,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00596#0000</v>
+        <v>obj_00594#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -18870,19 +18850,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,AllTriggers)</f>
-        <v>2.6053000017873328E-2</v>
+        <v>2.5953000010686358E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!M9</f>
@@ -18892,7 +18872,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00567#0000</v>
+        <v>obj_00580#0000</v>
       </c>
       <c r="M9" s="85"/>
       <c r="N9" s="91"/>
@@ -18922,19 +18902,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,AllTriggers)</f>
-        <v>2.6040000007303315E-2</v>
+        <v>2.5944000004588359E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!M10</f>
@@ -18944,7 +18924,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00577#0000</v>
+        <v>obj_0056e#0000</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="91"/>
@@ -18974,19 +18954,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41927</v>
+        <v>41928</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,AllTriggers)</f>
-        <v>2.6030000000008678E-2</v>
+        <v>2.5938999999957874E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!M11</f>
@@ -18996,7 +18976,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00571#0000</v>
+        <v>obj_00578#0000</v>
       </c>
       <c r="M11" s="85"/>
       <c r="N11" s="91"/>
@@ -19016,7 +18996,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -19026,19 +19006,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41936</v>
+        <v>41939</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,AllTriggers)</f>
-        <v>2.6024000000716585E-2</v>
+        <v>2.5938999991624578E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!M12</f>
@@ -19048,7 +19028,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00585#0000</v>
+        <v>obj_005ac#0000</v>
       </c>
       <c r="M12" s="85"/>
       <c r="N12" s="91"/>
@@ -19407,19 +19387,19 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41996</v>
+        <v>41997</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,AllTriggers)</f>
-        <v>2.5935139492206365E-2</v>
+        <v>2.5891239210207768E-2</v>
       </c>
       <c r="I25" s="39" t="str">
         <f>Contribution!M25</f>
@@ -19429,7 +19409,7 @@
       <c r="K25" s="41"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005af#0000</v>
+        <v>obj_00568#0000</v>
       </c>
       <c r="M25" s="85"/>
       <c r="N25" s="87" t="s">
@@ -19462,19 +19442,19 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,AllTriggers)</f>
-        <v>2.5895304795007852E-2</v>
+        <v>2.5877142129941275E-2</v>
       </c>
       <c r="I26" s="38" t="str">
         <f>Contribution!M26</f>
@@ -19484,7 +19464,7 @@
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005ae#0000</v>
+        <v>obj_005a5#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -19511,19 +19491,19 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42178</v>
+        <v>42179</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,AllTriggers)</f>
-        <v>2.5925896892776218E-2</v>
+        <v>2.5910145780885737E-2</v>
       </c>
       <c r="I27" s="38" t="str">
         <f>Contribution!M27</f>
@@ -19533,7 +19513,7 @@
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005bf#0000</v>
+        <v>obj_00574#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -19560,19 +19540,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,AllTriggers)</f>
-        <v>2.6343162143898109E-2</v>
+        <v>2.6193883086106286E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!M28</f>
@@ -19582,7 +19562,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00589#0000</v>
+        <v>obj_0059f#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="91"/>
@@ -19609,26 +19589,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,AllTriggers)</f>
-        <v>2.6986889260420793E-2</v>
+        <v>2.6681857745274321E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00576#0000</v>
+        <v>obj_00560#0000</v>
       </c>
       <c r="M29" s="92"/>
       <c r="N29" s="91"/>
@@ -19655,19 +19635,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42636</v>
+        <v>42639</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,AllTriggers)</f>
-        <v>2.7637192996435377E-2</v>
+        <v>2.7238859882185471E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!M30</f>
@@ -19677,7 +19657,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0059a#0000</v>
+        <v>obj_00565#0000</v>
       </c>
       <c r="M30" s="92"/>
       <c r="N30" s="91"/>
@@ -19704,11 +19684,11 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
@@ -19716,7 +19696,7 @@
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,AllTriggers)</f>
-        <v>2.9328851778102658E-2</v>
+        <v>2.8731961004615468E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!M31</f>
@@ -19726,7 +19706,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00574#0000</v>
+        <v>obj_0059e#0000</v>
       </c>
       <c r="M31" s="92"/>
       <c r="N31" s="91"/>
@@ -19753,11 +19733,11 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
@@ -19765,7 +19745,7 @@
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,AllTriggers)</f>
-        <v>3.0959662777816099E-2</v>
+        <v>3.0318673375193957E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!M32</f>
@@ -19775,7 +19755,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005bc#0000</v>
+        <v>obj_005a1#0000</v>
       </c>
       <c r="M32" s="92"/>
       <c r="N32" s="91"/>
@@ -19802,19 +19782,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,AllTriggers)</f>
-        <v>3.250156248344014E-2</v>
+        <v>3.1811557065218515E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!M33</f>
@@ -19824,7 +19804,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00599#0000</v>
+        <v>obj_005a4#0000</v>
       </c>
       <c r="M33" s="92"/>
       <c r="N33" s="91"/>
@@ -19851,26 +19831,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,AllTriggers)</f>
-        <v>3.3882516005882934E-2</v>
+        <v>3.3138158934779963E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="41"/>
       <c r="L34" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00573#0000</v>
+        <v>obj_005b8#0000</v>
       </c>
       <c r="M34" s="92"/>
       <c r="N34" s="91"/>
@@ -19897,19 +19877,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,AllTriggers)</f>
-        <v>3.5065599508642055E-2</v>
+        <v>3.4277753270347711E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!M35</f>
@@ -19919,7 +19899,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00572#0000</v>
+        <v>obj_005b5#0000</v>
       </c>
       <c r="M35" s="92"/>
       <c r="N35" s="91"/>
@@ -19946,26 +19926,26 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,AllTriggers)</f>
-        <v>3.606852564790039E-2</v>
+        <v>3.525344968502158E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="41"/>
       <c r="L36" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00592#0000</v>
+        <v>obj_005c3#0000</v>
       </c>
       <c r="M36" s="92"/>
       <c r="N36" s="91"/>
@@ -19992,11 +19972,11 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
@@ -20004,14 +19984,14 @@
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,AllTriggers)</f>
-        <v>3.6953205673025208E-2</v>
+        <v>3.6107121176043831E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="41"/>
       <c r="L37" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005c1#0000</v>
+        <v>obj_0059d#0000</v>
       </c>
       <c r="M37" s="92"/>
       <c r="N37" s="91"/>
@@ -20038,19 +20018,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,AllTriggers)</f>
-        <v>3.7750993829111207E-2</v>
+        <v>3.6890095208720851E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!M38</f>
@@ -20060,7 +20040,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b3#0000</v>
+        <v>obj_005bb#0000</v>
       </c>
       <c r="M38" s="92"/>
       <c r="N38" s="91"/>
@@ -20087,19 +20067,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46288</v>
+        <v>46289</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,AllTriggers)</f>
-        <v>3.9166224062817979E-2</v>
+        <v>3.8281239098081218E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!M39</f>
@@ -20109,7 +20089,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b9#0000</v>
+        <v>obj_0057b#0000</v>
       </c>
       <c r="M39" s="92"/>
       <c r="N39" s="91"/>
@@ -20136,11 +20116,11 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
@@ -20148,7 +20128,7 @@
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,AllTriggers)</f>
-        <v>4.0802540492382446E-2</v>
+        <v>3.9893551566755441E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!M40</f>
@@ -20158,7 +20138,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00584#0000</v>
+        <v>obj_00562#0000</v>
       </c>
       <c r="M40" s="92"/>
       <c r="N40" s="91"/>
@@ -20185,11 +20165,11 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
@@ -20197,7 +20177,7 @@
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,AllTriggers)</f>
-        <v>4.2548670256142888E-2</v>
+        <v>4.1689271416802634E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!M41</f>
@@ -20207,7 +20187,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00564#0000</v>
+        <v>obj_0055e#0000</v>
       </c>
       <c r="M41" s="92"/>
       <c r="N41" s="91"/>
@@ -20234,19 +20214,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51036</v>
+        <v>51039</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,AllTriggers)</f>
-        <v>4.3114374898594841E-2</v>
+        <v>4.2255079750885632E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!M42</f>
@@ -20256,7 +20236,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="89" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a9#0000</v>
+        <v>obj_00576#0000</v>
       </c>
       <c r="M42" s="92"/>
       <c r="N42" s="91"/>
@@ -20283,19 +20263,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>52863</v>
+        <v>52866</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,AllTriggers)</f>
-        <v>4.342200333882007E-2</v>
+        <v>4.2562987902059195E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!M43</f>
@@ -20305,7 +20285,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="56" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005ab#0000</v>
+        <v>obj_005b6#0000</v>
       </c>
       <c r="M43" s="92"/>
       <c r="N43" s="91"/>
@@ -23054,19 +23034,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E14" si="1">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.6296859853284459E-2</v>
+        <v>2.6210371948350006E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!P6</f>
@@ -23076,7 +23056,7 @@
       <c r="K6" s="57"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_005cb#0001</v>
+        <v>obj_005ca#0004</v>
       </c>
       <c r="M6" s="57"/>
       <c r="N6" s="6"/>
@@ -23106,19 +23086,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.6297137262020195E-2</v>
+        <v>2.6211097942790952E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!P7</f>
@@ -23163,19 +23143,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41907</v>
+        <v>41908</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRatesTrigger)</f>
-        <v>2.6297466747666753E-2</v>
+        <v>2.6211830361804189E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!P8</f>
@@ -23185,7 +23165,7 @@
       <c r="K8" s="91"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005a8#0000</v>
+        <v>obj_00572#0000</v>
       </c>
       <c r="M8" s="91"/>
       <c r="N8" s="87" t="b">
@@ -23221,19 +23201,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRatesTrigger)</f>
-        <v>2.6299000000102244E-2</v>
+        <v>2.6216000015853523E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!P9</f>
@@ -23243,7 +23223,7 @@
       <c r="K9" s="57"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00568#0000</v>
+        <v>obj_005a2#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
@@ -23273,19 +23253,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRatesTrigger)</f>
-        <v>2.6299000005457086E-2</v>
+        <v>2.6220000002570614E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!P10</f>
@@ -23295,7 +23275,7 @@
       <c r="K10" s="57"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0058c#0000</v>
+        <v>obj_0056f#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -23325,19 +23305,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41927</v>
+        <v>41928</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRatesTrigger)</f>
-        <v>2.6302999999809895E-2</v>
+        <v>2.6226000000067341E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!P11</f>
@@ -23347,7 +23327,7 @@
       <c r="K11" s="57"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0057e#0000</v>
+        <v>obj_0058d#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -23367,7 +23347,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -23377,19 +23357,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41936</v>
+        <v>41939</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRatesTrigger)</f>
-        <v>2.6315000005167621E-2</v>
+        <v>2.6245000002434911E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!P12</f>
@@ -23399,7 +23379,7 @@
       <c r="K12" s="57"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005bd#0000</v>
+        <v>obj_005c5#0000</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
@@ -23429,19 +23409,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>41967</v>
+        <v>41968</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRatesTrigger)</f>
-        <v>2.6367000000004949E-2</v>
+        <v>2.6303000003439703E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!P13</f>
@@ -23451,7 +23431,7 @@
       <c r="K13" s="57"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00588#0000</v>
+        <v>obj_0059b#0000</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -23471,7 +23451,7 @@
       <c r="A14" s="91"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>21</v>
@@ -23481,19 +23461,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>41997</v>
+        <v>42002</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRatesTrigger)</f>
-        <v>2.6390000000000458E-2</v>
+        <v>2.6354000002611178E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!P14</f>
@@ -23503,7 +23483,7 @@
       <c r="K14" s="57"/>
       <c r="L14" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00586#0000</v>
+        <v>obj_005b1#0000</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
@@ -23651,7 +23631,7 @@
       </c>
       <c r="H19" s="110">
         <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.345000000006081</v>
+        <v>97.345000000197544</v>
       </c>
       <c r="I19" s="39" t="str">
         <f>Contribution!P19</f>
@@ -23701,7 +23681,7 @@
       </c>
       <c r="H20" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.314999999995294</v>
+        <v>97.315000000238356</v>
       </c>
       <c r="I20" s="38" t="str">
         <f>Contribution!P20</f>
@@ -23751,7 +23731,7 @@
       </c>
       <c r="H21" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.173221609548889</v>
+        <v>97.226698256193131</v>
       </c>
       <c r="I21" s="38" t="str">
         <f>Contribution!P21</f>
@@ -23801,7 +23781,7 @@
       </c>
       <c r="H22" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.108056933674234</v>
+        <v>97.172385893332617</v>
       </c>
       <c r="I22" s="38" t="str">
         <f>Contribution!P22</f>
@@ -23851,7 +23831,7 @@
       </c>
       <c r="H23" s="111">
         <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRatesTrigger))*100</f>
-        <v>97.059584580505401</v>
+        <v>97.121840874458982</v>
       </c>
       <c r="I23" s="38" t="str">
         <f>Contribution!P23</f>
@@ -23901,7 +23881,7 @@
       </c>
       <c r="H24" s="112">
         <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRatesTrigger))*100</f>
-        <v>96.987686257077144</v>
+        <v>97.054287886406939</v>
       </c>
       <c r="I24" s="40" t="str">
         <f>Contribution!P24</f>
@@ -23946,26 +23926,26 @@
       </c>
       <c r="E25" s="45">
         <f>EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41996</v>
+        <v>41997</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRatesTrigger)</f>
-        <v>2.6389621768886151E-2</v>
+        <v>2.6345585116535536E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="91"/>
       <c r="L25" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,"AudBBSW3M",DiscountingCurve,,Trigger)</f>
-        <v>obj_005be#0000</v>
+        <v>obj_0056a#0000</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="30" t="s">
@@ -23998,26 +23978,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" ref="E26:E27" si="3">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRatesTrigger)</f>
-        <v>2.6474794624153242E-2</v>
+        <v>2.6456279530127375E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="57"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00578#0000</v>
+        <v>obj_005aa#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="58"/>
@@ -24044,26 +24024,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="3"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42178</v>
+        <v>42179</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRatesTrigger)</f>
-        <v>2.6618682104871345E-2</v>
+        <v>2.660254217096129E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="91"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0056b#0000</v>
+        <v>obj_005af#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="91"/>
@@ -24090,19 +24070,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="4">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRatesTrigger)</f>
-        <v>2.7050000000000084E-2</v>
+        <v>2.6900000000000129E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!P28</f>
@@ -24115,7 +24095,7 @@
       <c r="K28" s="91"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0057c#0000</v>
+        <v>obj_00585#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="57"/>
@@ -24142,26 +24122,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRatesTrigger)</f>
-        <v>2.7755748743147863E-2</v>
+        <v>2.7449582861863039E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="91"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b2#0000</v>
+        <v>obj_00599#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="57"/>
@@ -24188,19 +24168,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="5">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42636</v>
+        <v>42639</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRatesTrigger)</f>
-        <v>2.8474999999949128E-2</v>
+        <v>2.8074999999954421E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!P30</f>
@@ -24213,7 +24193,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b0#0000</v>
+        <v>obj_00573#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="57"/>
@@ -24240,11 +24220,11 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
@@ -24252,7 +24232,7 @@
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRatesTrigger)</f>
-        <v>3.0225000000075372E-2</v>
+        <v>2.9625000000164634E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!P31</f>
@@ -24265,7 +24245,7 @@
       <c r="K31" s="57"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00563#0000</v>
+        <v>obj_005c1#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="57"/>
@@ -24292,11 +24272,11 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
@@ -24304,7 +24284,7 @@
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRatesTrigger)</f>
-        <v>3.1926482038829015E-2</v>
+        <v>3.1281951613233654E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!P32</f>
@@ -24314,7 +24294,7 @@
       <c r="K32" s="57"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00582#0000</v>
+        <v>obj_005bd#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="57"/>
@@ -24341,19 +24321,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRatesTrigger)</f>
-        <v>3.351399110949526E-2</v>
+        <v>3.282005220094357E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!P33</f>
@@ -24363,7 +24343,7 @@
       <c r="K33" s="57"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005ac#0000</v>
+        <v>obj_0059c#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="57"/>
@@ -24390,26 +24370,26 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRatesTrigger)</f>
-        <v>3.4914657618848072E-2</v>
+        <v>3.4165883861333859E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="57"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00575#0000</v>
+        <v>obj_005c2#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="57"/>
@@ -24436,19 +24416,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRatesTrigger)</f>
-        <v>3.6104686863325075E-2</v>
+        <v>3.5312053773827776E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!P35</f>
@@ -24458,7 +24438,7 @@
       <c r="K35" s="57"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00569#0000</v>
+        <v>obj_0058c#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="57"/>
@@ -24485,26 +24465,26 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRatesTrigger)</f>
-        <v>3.7111242696236543E-2</v>
+        <v>3.6291200661658772E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="57"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0057f#0000</v>
+        <v>obj_005ab#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
@@ -24531,11 +24511,11 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
@@ -24543,14 +24523,14 @@
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRatesTrigger)</f>
-        <v>3.8003809324468743E-2</v>
+        <v>3.7152316597339564E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="57"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0058f#0000</v>
+        <v>obj_00598#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="57"/>
@@ -24577,19 +24557,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRatesTrigger)</f>
-        <v>3.8818270702503856E-2</v>
+        <v>3.7951823332616721E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!P38</f>
@@ -24599,7 +24579,7 @@
       <c r="K38" s="57"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00562#0000</v>
+        <v>obj_005bc#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="57"/>
@@ -24626,19 +24606,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46288</v>
+        <v>46289</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRatesTrigger)</f>
-        <v>4.0279875963439099E-2</v>
+        <v>3.9388977810415157E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!P39</f>
@@ -24648,7 +24628,7 @@
       <c r="K39" s="57"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00570#0000</v>
+        <v>obj_005a9#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="57"/>
@@ -24675,11 +24655,11 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
@@ -24687,7 +24667,7 @@
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,InterestRatesTrigger)</f>
-        <v>4.1926791455860958E-2</v>
+        <v>4.1011476474981781E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!P40</f>
@@ -24697,7 +24677,7 @@
       <c r="K40" s="57"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0059b#0000</v>
+        <v>obj_00571#0000</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="57"/>
@@ -24724,11 +24704,11 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
@@ -24736,7 +24716,7 @@
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,InterestRatesTrigger)</f>
-        <v>4.3697168457538835E-2</v>
+        <v>4.2831597175156062E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!P41</f>
@@ -24746,7 +24726,7 @@
       <c r="K41" s="57"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a6#0000</v>
+        <v>obj_005c4#0000</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -24773,19 +24753,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51036</v>
+        <v>51039</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,InterestRatesTrigger)</f>
-        <v>4.4279209880123238E-2</v>
+        <v>4.341370376230224E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!P42</f>
@@ -24795,7 +24775,7 @@
       <c r="K42" s="57"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0056e#0000</v>
+        <v>obj_0055f#0000</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -24822,19 +24802,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="5"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>52863</v>
+        <v>52866</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,InterestRatesTrigger)</f>
-        <v>4.4576488318914441E-2</v>
+        <v>4.3711146242034732E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!P43</f>
@@ -24844,7 +24824,7 @@
       <c r="K43" s="57"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a2#0000</v>
+        <v>obj_00591#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -27118,19 +27098,19 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" ref="E6:E17" si="1">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F6" s="45">
         <f>E6</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="G6" s="45">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="H6" s="52">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>2.6652667239842588E-2</v>
+        <v>2.6771601653011255E-2</v>
       </c>
       <c r="I6" s="53" t="str">
         <f>Contribution!S6</f>
@@ -27140,7 +27120,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="87" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_005ca#0001</v>
+        <v>obj_005cb#0004</v>
       </c>
       <c r="M6" s="91"/>
       <c r="N6" s="91"/>
@@ -27170,19 +27150,19 @@
       </c>
       <c r="E7" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F7" s="48">
         <f>G6</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G7" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="H7" s="152">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>2.6653465791531942E-2</v>
+        <v>2.6772074665179349E-2</v>
       </c>
       <c r="I7" s="55" t="str">
         <f>Contribution!S7</f>
@@ -27227,19 +27207,19 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F8" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G8" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>41907</v>
+        <v>41908</v>
       </c>
       <c r="H8" s="52">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,AllTriggers)</f>
-        <v>2.6654266330876641E-2</v>
+        <v>2.6772561454367905E-2</v>
       </c>
       <c r="I8" s="53" t="str">
         <f>Contribution!S8</f>
@@ -27249,7 +27229,7 @@
       <c r="K8" s="41"/>
       <c r="L8" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C8="ON",C8="TN",C8="SN"),"1D",IF(C8="SW","1W",C8)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00587#0000</v>
+        <v>obj_0057e#0000</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="87" t="b">
@@ -27285,19 +27265,19 @@
       </c>
       <c r="E9" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F9" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G9" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="H9" s="47">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,AllTriggers)</f>
-        <v>2.6658999999007765E-2</v>
+        <v>2.677499999378306E-2</v>
       </c>
       <c r="I9" s="38" t="str">
         <f>Contribution!S9</f>
@@ -27307,7 +27287,7 @@
       <c r="K9" s="41"/>
       <c r="L9" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C9="ON",C9="TN",C9="SN"),"1D",IF(C9="SW","1W",C9)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00594#0000</v>
+        <v>obj_00570#0000</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="91"/>
@@ -27337,19 +27317,19 @@
       </c>
       <c r="E10" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F10" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G10" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="H10" s="47">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,AllTriggers)</f>
-        <v>2.6664999995755778E-2</v>
+        <v>2.6775999988314605E-2</v>
       </c>
       <c r="I10" s="38" t="str">
         <f>Contribution!S10</f>
@@ -27359,7 +27339,7 @@
       <c r="K10" s="41"/>
       <c r="L10" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C10="ON",C10="TN",C10="SN"),"1D",IF(C10="SW","1W",C10)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0056f#0000</v>
+        <v>obj_0056d#0000</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="91"/>
@@ -27389,19 +27369,19 @@
       </c>
       <c r="E11" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F11" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G11" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>41927</v>
+        <v>41928</v>
       </c>
       <c r="H11" s="47">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,AllTriggers)</f>
-        <v>2.6675000007710576E-2</v>
+        <v>2.6780000000076926E-2</v>
       </c>
       <c r="I11" s="38" t="str">
         <f>Contribution!S11</f>
@@ -27411,7 +27391,7 @@
       <c r="K11" s="41"/>
       <c r="L11" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C11="ON",C11="TN",C11="SN"),"1D",IF(C11="SW","1W",C11)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00595#0000</v>
+        <v>obj_005ad#0000</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="91"/>
@@ -27431,7 +27411,7 @@
       <c r="A12" s="91"/>
       <c r="B12" s="21">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -27441,19 +27421,19 @@
       </c>
       <c r="E12" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F12" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G12" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>41936</v>
+        <v>41939</v>
       </c>
       <c r="H12" s="47">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,AllTriggers)</f>
-        <v>2.6693999999675738E-2</v>
+        <v>2.6796000003800578E-2</v>
       </c>
       <c r="I12" s="38" t="str">
         <f>Contribution!S12</f>
@@ -27463,7 +27443,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C12="ON",C12="TN",C12="SN"),"1D",IF(C12="SW","1W",C12)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00579#0000</v>
+        <v>obj_00593#0000</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="91"/>
@@ -27493,19 +27473,19 @@
       </c>
       <c r="E13" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F13" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G13" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>41967</v>
+        <v>41968</v>
       </c>
       <c r="H13" s="47">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,AllTriggers)</f>
-        <v>2.6775000002699289E-2</v>
+        <v>2.6847000005392634E-2</v>
       </c>
       <c r="I13" s="38" t="str">
         <f>Contribution!S13</f>
@@ -27515,7 +27495,7 @@
       <c r="K13" s="41"/>
       <c r="L13" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C13="ON",C13="TN",C13="SN"),"1D",IF(C13="SW","1W",C13)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005b6#0000</v>
+        <v>obj_00569#0000</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="57"/>
@@ -27535,7 +27515,7 @@
       <c r="A14" s="91"/>
       <c r="B14" s="21">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>21</v>
@@ -27545,19 +27525,19 @@
       </c>
       <c r="E14" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F14" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G14" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>41997</v>
+        <v>42002</v>
       </c>
       <c r="H14" s="47">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,AllTriggers)</f>
-        <v>2.6829000001808927E-2</v>
+        <v>2.6894999999999683E-2</v>
       </c>
       <c r="I14" s="38" t="str">
         <f>Contribution!S14</f>
@@ -27567,7 +27547,7 @@
       <c r="K14" s="41"/>
       <c r="L14" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C14="ON",C14="TN",C14="SN"),"1D",IF(C14="SW","1W",C14)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00561#0000</v>
+        <v>obj_0059a#0000</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="57"/>
@@ -27587,7 +27567,7 @@
       <c r="A15" s="91"/>
       <c r="B15" s="21">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>22</v>
@@ -27597,11 +27577,11 @@
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F15" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G15" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
@@ -27609,7 +27589,7 @@
       </c>
       <c r="H15" s="47">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,AllTriggers)</f>
-        <v>2.691300000132036E-2</v>
+        <v>2.6960000002661487E-2</v>
       </c>
       <c r="I15" s="38" t="str">
         <f>Contribution!S15</f>
@@ -27619,7 +27599,7 @@
       <c r="K15" s="41"/>
       <c r="L15" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C15="ON",C15="TN",C15="SN"),"1D",IF(C15="SW","1W",C15)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005c5#0000</v>
+        <v>obj_00575#0000</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="57"/>
@@ -27649,19 +27629,19 @@
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F16" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G16" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
-        <v>42059</v>
+        <v>42060</v>
       </c>
       <c r="H16" s="47">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,AllTriggers)</f>
-        <v>2.6996000001081093E-2</v>
+        <v>2.7012000002161089E-2</v>
       </c>
       <c r="I16" s="38" t="str">
         <f>Contribution!S16</f>
@@ -27671,7 +27651,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="30" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C16="ON",C16="TN",C16="SN"),"1D",IF(C16="SW","1W",C16)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00597#0000</v>
+        <v>obj_005ba#0000</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="57"/>
@@ -27701,19 +27681,19 @@
       </c>
       <c r="E17" s="48">
         <f t="shared" si="1"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F17" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L17,E17,Trigger)</f>
-        <v>41906</v>
+        <v>41907</v>
       </c>
       <c r="G17" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L17,F17,Trigger)</f>
-        <v>42087</v>
+        <v>42088</v>
       </c>
       <c r="H17" s="47">
         <f>_xll.qlIndexFixing(L17,E17,TRUE,AllTriggers)</f>
-        <v>2.7106000000915915E-2</v>
+        <v>2.7087000001765428E-2</v>
       </c>
       <c r="I17" s="38" t="str">
         <f>Contribution!S17</f>
@@ -27723,7 +27703,7 @@
       <c r="K17" s="41"/>
       <c r="L17" s="32" t="str">
         <f>_xll.qlIborIndex(,"BBSW",IF(OR(C17="ON",C17="TN",C17="SN"),"1D",IF(C17="SW","1W",C17)),2,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_005ad#0000</v>
+        <v>obj_00587#0000</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="57"/>
@@ -27947,26 +27927,26 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" ref="E25:E27" si="2">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F25" s="45">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G25" s="45">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>41996</v>
+        <v>41997</v>
       </c>
       <c r="H25" s="46">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,AllTriggers)</f>
-        <v>2.682698867282415E-2</v>
+        <v>2.6886152471083766E-2</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
       <c r="K25" s="41"/>
       <c r="L25" s="88" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00560#0000</v>
+        <v>obj_005b4#0000</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="87" t="s">
@@ -27999,26 +27979,26 @@
       </c>
       <c r="E26" s="48">
         <f t="shared" si="2"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F26" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G26" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="H26" s="47">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,AllTriggers)</f>
-        <v>2.7101296275877977E-2</v>
+        <v>2.7084187358995641E-2</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="41"/>
       <c r="L26" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0055e#0000</v>
+        <v>obj_0056c#0000</v>
       </c>
       <c r="M26" s="85"/>
       <c r="N26" s="91"/>
@@ -28045,26 +28025,26 @@
       </c>
       <c r="E27" s="48">
         <f t="shared" si="2"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F27" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G27" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>42178</v>
+        <v>42179</v>
       </c>
       <c r="H27" s="47">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,AllTriggers)</f>
-        <v>2.7386838043490999E-2</v>
+        <v>2.7295061496680113E-2</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="41"/>
       <c r="L27" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005c0#0000</v>
+        <v>obj_00596#0000</v>
       </c>
       <c r="M27" s="85"/>
       <c r="N27" s="91"/>
@@ -28091,19 +28071,19 @@
       </c>
       <c r="E28" s="48">
         <f t="shared" ref="E28:E29" si="3">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F28" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G28" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="H28" s="47">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,AllTriggers)</f>
-        <v>2.7756937871229025E-2</v>
+        <v>2.7604410492454091E-2</v>
       </c>
       <c r="I28" s="38" t="str">
         <f>Contribution!S28</f>
@@ -28113,7 +28093,7 @@
       <c r="K28" s="41"/>
       <c r="L28" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005ba#0000</v>
+        <v>obj_0057f#0000</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="57"/>
@@ -28140,26 +28120,26 @@
       </c>
       <c r="E29" s="48">
         <f t="shared" si="3"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F29" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G29" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="H29" s="47">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,AllTriggers)</f>
-        <v>2.8471900747972508E-2</v>
+        <v>2.8180862758971754E-2</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="55"/>
       <c r="K29" s="41"/>
       <c r="L29" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0056a#0000</v>
+        <v>obj_005a8#0000</v>
       </c>
       <c r="M29" s="85"/>
       <c r="N29" s="57"/>
@@ -28186,19 +28166,19 @@
       </c>
       <c r="E30" s="48">
         <f t="shared" ref="E30:E43" si="4">EvaluationDate</f>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F30" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G30" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>42636</v>
+        <v>42639</v>
       </c>
       <c r="H30" s="47">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,AllTriggers)</f>
-        <v>2.9288929698821589E-2</v>
+        <v>2.8872386160509775E-2</v>
       </c>
       <c r="I30" s="38" t="str">
         <f>Contribution!S30</f>
@@ -28208,7 +28188,7 @@
       <c r="K30" s="41"/>
       <c r="L30" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a7#0000</v>
+        <v>obj_00567#0000</v>
       </c>
       <c r="M30" s="85"/>
       <c r="N30" s="57"/>
@@ -28235,11 +28215,11 @@
       </c>
       <c r="E31" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F31" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G31" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
@@ -28247,7 +28227,7 @@
       </c>
       <c r="H31" s="47">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,AllTriggers)</f>
-        <v>3.1114335568713732E-2</v>
+        <v>3.0508979250689485E-2</v>
       </c>
       <c r="I31" s="38" t="str">
         <f>Contribution!S31</f>
@@ -28257,7 +28237,7 @@
       <c r="K31" s="41"/>
       <c r="L31" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005bb#0000</v>
+        <v>obj_00584#0000</v>
       </c>
       <c r="M31" s="85"/>
       <c r="N31" s="57"/>
@@ -28284,11 +28264,11 @@
       </c>
       <c r="E32" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F32" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G32" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
@@ -28296,7 +28276,7 @@
       </c>
       <c r="H32" s="47">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,AllTriggers)</f>
-        <v>3.2875000000056477E-2</v>
+        <v>3.2225000000032561E-2</v>
       </c>
       <c r="I32" s="38" t="str">
         <f>Contribution!S32</f>
@@ -28309,7 +28289,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0059f#0000</v>
+        <v>obj_0058a#0000</v>
       </c>
       <c r="M32" s="85"/>
       <c r="N32" s="57"/>
@@ -28336,19 +28316,19 @@
       </c>
       <c r="E33" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F33" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G33" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="H33" s="47">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,AllTriggers)</f>
-        <v>3.4500000000044696E-2</v>
+        <v>3.3799999999517022E-2</v>
       </c>
       <c r="I33" s="38" t="str">
         <f>Contribution!S33</f>
@@ -28361,7 +28341,7 @@
       <c r="K33" s="41"/>
       <c r="L33" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0057b#0000</v>
+        <v>obj_00581#0000</v>
       </c>
       <c r="M33" s="85"/>
       <c r="N33" s="57"/>
@@ -28388,19 +28368,19 @@
       </c>
       <c r="E34" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F34" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G34" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="H34" s="47">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,AllTriggers)</f>
-        <v>3.5925000000045483E-2</v>
+        <v>3.5175000000005396E-2</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38" t="str">
@@ -28410,7 +28390,7 @@
       <c r="K34" s="41"/>
       <c r="L34" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a1#0000</v>
+        <v>obj_0058e#0000</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="57"/>
@@ -28437,19 +28417,19 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F35" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G35" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="H35" s="47">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,AllTriggers)</f>
-        <v>3.7150000000017822E-2</v>
+        <v>3.6350000000177456E-2</v>
       </c>
       <c r="I35" s="38" t="str">
         <f>Contribution!S35</f>
@@ -28462,7 +28442,7 @@
       <c r="K35" s="41"/>
       <c r="L35" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0057a#0000</v>
+        <v>obj_00597#0000</v>
       </c>
       <c r="M35" s="85"/>
       <c r="N35" s="57"/>
@@ -28489,19 +28469,19 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F36" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G36" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="H36" s="47">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,AllTriggers)</f>
-        <v>3.8200000000065112E-2</v>
+        <v>3.7325000000035503E-2</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38" t="str">
@@ -28511,7 +28491,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_0056b#0000</v>
       </c>
       <c r="M36" s="85"/>
       <c r="N36" s="57"/>
@@ -28538,11 +28518,11 @@
       </c>
       <c r="E37" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F37" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G37" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
@@ -28550,7 +28530,7 @@
       </c>
       <c r="H37" s="47">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,AllTriggers)</f>
-        <v>3.9074999999949185E-2</v>
+        <v>3.8199999999918764E-2</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38" t="str">
@@ -28560,7 +28540,7 @@
       <c r="K37" s="41"/>
       <c r="L37" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00598#0000</v>
+        <v>obj_005be#0000</v>
       </c>
       <c r="M37" s="85"/>
       <c r="N37" s="57"/>
@@ -28587,19 +28567,19 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F38" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G38" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="H38" s="47">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,AllTriggers)</f>
-        <v>3.98750000001903E-2</v>
+        <v>3.9000000000175339E-2</v>
       </c>
       <c r="I38" s="38" t="str">
         <f>Contribution!S38</f>
@@ -28612,7 +28592,7 @@
       <c r="K38" s="41"/>
       <c r="L38" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005b8#0000</v>
+        <v>obj_005ae#0000</v>
       </c>
       <c r="M38" s="85"/>
       <c r="N38" s="57"/>
@@ -28639,19 +28619,19 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F39" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G39" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>46288</v>
+        <v>46289</v>
       </c>
       <c r="H39" s="47">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,AllTriggers)</f>
-        <v>4.1324999999993416E-2</v>
+        <v>4.0424999999994021E-2</v>
       </c>
       <c r="I39" s="38" t="str">
         <f>Contribution!S39</f>
@@ -28664,7 +28644,7 @@
       <c r="K39" s="41"/>
       <c r="L39" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0057d#0000</v>
+        <v>obj_00561#0000</v>
       </c>
       <c r="M39" s="85"/>
       <c r="N39" s="57"/>
@@ -28691,11 +28671,11 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F40" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L40,E40,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G40" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L40,F40,Trigger)</f>
@@ -28703,7 +28683,7 @@
       </c>
       <c r="H40" s="47">
         <f>_xll.qlIndexFixing(L40,E40,TRUE,AllTriggers)</f>
-        <v>4.2875000000008379E-2</v>
+        <v>4.1950000000008265E-2</v>
       </c>
       <c r="I40" s="38" t="str">
         <f>Contribution!S40</f>
@@ -28716,7 +28696,7 @@
       <c r="K40" s="41"/>
       <c r="L40" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C40,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0059c#0000</v>
+        <v>obj_005b2#0000</v>
       </c>
       <c r="M40" s="85"/>
       <c r="N40" s="57"/>
@@ -28743,11 +28723,11 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F41" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L41,E41,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G41" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L41,F41,Trigger)</f>
@@ -28755,7 +28735,7 @@
       </c>
       <c r="H41" s="47">
         <f>_xll.qlIndexFixing(L41,E41,TRUE,AllTriggers)</f>
-        <v>4.4525000000007614E-2</v>
+        <v>4.3650000000007017E-2</v>
       </c>
       <c r="I41" s="38" t="str">
         <f>Contribution!S41</f>
@@ -28768,7 +28748,7 @@
       <c r="K41" s="41"/>
       <c r="L41" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C41,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a4#0000</v>
+        <v>obj_00583#0000</v>
       </c>
       <c r="M41" s="57"/>
       <c r="N41" s="57"/>
@@ -28795,19 +28775,19 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F42" s="48">
         <f>_xll.qlInterestRateIndexValueDate(L42,E42,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G42" s="48">
         <f>_xll.qlInterestRateIndexMaturity(L42,F42,Trigger)</f>
-        <v>51036</v>
+        <v>51039</v>
       </c>
       <c r="H42" s="47">
         <f>_xll.qlIndexFixing(L42,E42,TRUE,AllTriggers)</f>
-        <v>4.5049999999993671E-2</v>
+        <v>4.4174999999975338E-2</v>
       </c>
       <c r="I42" s="38" t="str">
         <f>Contribution!S42</f>
@@ -28820,7 +28800,7 @@
       <c r="K42" s="41"/>
       <c r="L42" s="30" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C42,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00580#0000</v>
+        <v>obj_005b0#0000</v>
       </c>
       <c r="M42" s="57"/>
       <c r="N42" s="57"/>
@@ -28847,19 +28827,19 @@
       </c>
       <c r="E43" s="49">
         <f t="shared" si="4"/>
-        <v>41904</v>
+        <v>41905</v>
       </c>
       <c r="F43" s="49">
         <f>_xll.qlInterestRateIndexValueDate(L43,E43,Trigger)</f>
-        <v>41905</v>
+        <v>41906</v>
       </c>
       <c r="G43" s="49">
         <f>_xll.qlInterestRateIndexMaturity(L43,F43,Trigger)</f>
-        <v>52863</v>
+        <v>52866</v>
       </c>
       <c r="H43" s="50">
         <f>_xll.qlIndexFixing(L43,E43,TRUE,AllTriggers)</f>
-        <v>4.5249999999922644E-2</v>
+        <v>4.4374999999901167E-2</v>
       </c>
       <c r="I43" s="40" t="str">
         <f>Contribution!S43</f>
@@ -28872,7 +28852,7 @@
       <c r="K43" s="41"/>
       <c r="L43" s="32" t="str">
         <f>_xll.qlSwapIndex(,"BBSW",C43,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_005a3#0000</v>
+        <v>obj_0057a#0000</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
